--- a/src/main/resources/data/Master - Season 02.xlsx
+++ b/src/main/resources/data/Master - Season 02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CAAFC-7B1A-482E-BA4C-D95E089B740E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B51359-2D0E-480D-B2FF-E6E32B565A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="304">
   <si>
     <t>Lead</t>
   </si>
@@ -939,6 +939,21 @@
   </si>
   <si>
     <t>Rhyperior</t>
+  </si>
+  <si>
+    <t>Regice</t>
+  </si>
+  <si>
+    <t>Dragonite</t>
+  </si>
+  <si>
+    <t>Swampert</t>
+  </si>
+  <si>
+    <t>Gardevoir</t>
+  </si>
+  <si>
+    <t>Gyarados</t>
   </si>
 </sst>
 </file>
@@ -1350,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,6 +2408,15 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D62" s="9" t="s">
         <v>241</v>
       </c>
@@ -2401,14 +2425,32 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D63" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E63" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D64" s="9" t="s">
         <v>241</v>
       </c>
@@ -2417,30 +2459,66 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D65" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E65" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D66" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E66" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D67" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E67" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D68" s="9" t="s">
         <v>241</v>
       </c>
@@ -2449,25 +2527,49 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D69" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E69" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="D70" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E70" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D71" s="9" t="s">
         <v>241</v>
       </c>
@@ -2476,22 +2578,49 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D72" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E72" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D73" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E73" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D74" s="9" t="s">
         <v>241</v>
       </c>
@@ -2500,6 +2629,15 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D75" s="9" t="s">
         <v>241</v>
       </c>
@@ -2508,17 +2646,32 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="D76" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E76" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D77" s="9" t="s">
         <v>241</v>
       </c>
@@ -2527,33 +2680,66 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D78" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E78" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D79" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E79" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D80" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E80" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="D81" s="9" t="s">
         <v>241</v>
       </c>
@@ -2562,22 +2748,49 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D82" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E82" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D83" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E83" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D84" s="9" t="s">
         <v>241</v>
       </c>
@@ -2586,14 +2799,32 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D85" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E85" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="D86" s="9" t="s">
         <v>241</v>
       </c>
@@ -2602,14 +2833,32 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D87" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E87" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="D88" s="9" t="s">
         <v>241</v>
       </c>
@@ -2618,17 +2867,32 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D89" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E89" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="D90" s="9" t="s">
         <v>241</v>
       </c>
@@ -2637,6 +2901,15 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D91" s="9" t="s">
         <v>241</v>
       </c>
@@ -2645,6 +2918,15 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D92" s="9" t="s">
         <v>241</v>
       </c>
@@ -2653,14 +2935,32 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D93" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E93" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D94" s="9" t="s">
         <v>241</v>
       </c>
@@ -2669,6 +2969,15 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D95" s="9" t="s">
         <v>241</v>
       </c>
@@ -2677,14 +2986,32 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D96" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E96" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D97" s="9" t="s">
         <v>241</v>
       </c>
@@ -2693,22 +3020,49 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D98" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E98" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D99" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E99" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D100" s="9" t="s">
         <v>241</v>
       </c>
@@ -2717,6 +3071,15 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D101" s="9" t="s">
         <v>241</v>
       </c>
@@ -2725,6 +3088,15 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D102" s="9" t="s">
         <v>241</v>
       </c>
@@ -2733,6 +3105,15 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D103" s="9" t="s">
         <v>241</v>
       </c>
@@ -2741,49 +3122,100 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D104" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E104" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D105" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E105" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D106" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E106" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D107" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E107" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D108" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E108" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D109" s="9" t="s">
         <v>241</v>
       </c>
@@ -2792,6 +3224,15 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D110" s="9" t="s">
         <v>241</v>
       </c>
@@ -2800,6 +3241,15 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D111" s="9" t="s">
         <v>241</v>
       </c>
@@ -2808,22 +3258,49 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D112" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E112" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D113" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E113" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D114" s="9" t="s">
         <v>241</v>
       </c>
@@ -2832,30 +3309,66 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D115" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E115" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D116" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E116" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D117" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E117" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D118" s="9" t="s">
         <v>241</v>
       </c>
@@ -2864,22 +3377,49 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="D119" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E119" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D120" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E120" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="D121" s="9" t="s">
         <v>241</v>
       </c>
@@ -6287,7 +6827,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A74:A140 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 A25</xm:sqref>
+          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 A74:A140</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6300,7 +6840,7 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,12 +6849,12 @@
     <col min="2" max="2" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="2" hidden="1" customWidth="1"/>
@@ -6391,39 +6931,39 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>25.531914893617021</v>
+        <v>24.468085106382979</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF(History!A7:C106,A2)</f>
-        <v>43</v>
+        <f>COUNTIF(History!A2:C101,A2)</f>
+        <v>79</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(History!A7:A106,A2)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A2:A101,A2)</f>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <f>F2*100/E2</f>
-        <v>23.255813953488371</v>
+        <v>26.582278481012658</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(History!A107:C206,A2)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A102:C201,A2)</f>
+        <v>15</v>
       </c>
       <c r="I2" s="2">
-        <f>COUNTIF(History!A107:A206,A2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="e">
+        <f>COUNTIF(History!A102:A201,A2)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>#DIV/0!</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="K2" s="2">
         <f>COUNTIF(History!A207:C306,A2)</f>
@@ -6464,50 +7004,50 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
         <v>50</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(History!A6:C105,A3)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A4:C103,A3)</f>
+        <v>31</v>
       </c>
       <c r="F3" s="8">
-        <f>COUNTIF(History!A6:A105,A3)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A4:A103,A3)</f>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <f>F3*100/E3</f>
-        <v>52.38095238095238</v>
+        <v>45.161290322580648</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(History!A106:C205,A3)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A103:C202,A3)</f>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(History!A106:A205,A3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="e">
+        <f>COUNTIF(History!A103:A202,A3)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A206:C305,A3)</f>
+        <f>COUNTIF(History!A225:C324,A3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A206:A305,A3)</f>
+        <f>COUNTIF(History!A225:A324,A3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="e">
@@ -6515,76 +7055,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A306:C399,A3)</f>
+        <f>COUNTIF(History!A325:C399,A3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A306:A399,A3)</f>
+        <f>COUNTIF(History!A325:A399,A3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2" t="e">
         <f>O3*100/N3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q3" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R3" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A3)</f>
-        <v>#REF!</v>
+      <c r="Q3" s="2">
+        <f>COUNTIF(History!A506:C524,A3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <f>COUNTIF(History!A506:A524,A3)</f>
+        <v>0</v>
       </c>
       <c r="S3" s="2" t="e">
         <f>R3*100/Q3</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>62.5</v>
+        <v>39.534883720930232</v>
       </c>
       <c r="E4" s="8">
-        <f>COUNTIF(History!A8:C107,A4)</f>
+        <f>COUNTIF(History!A3:C102,A4)</f>
+        <v>39</v>
+      </c>
+      <c r="F4" s="8">
+        <f>COUNTIF(History!A3:A102,A4)</f>
         <v>16</v>
-      </c>
-      <c r="F4" s="8">
-        <f>COUNTIF(History!A8:A107,A4)</f>
-        <v>10</v>
       </c>
       <c r="G4" s="2">
         <f>F4*100/E4</f>
-        <v>62.5</v>
+        <v>41.025641025641029</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(History!A108:C207,A4)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A104:C203,A4)</f>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(History!A108:A207,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="e">
+        <f>COUNTIF(History!A104:A203,A4)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(History!A208:C307,A4)</f>
+        <f>COUNTIF(History!A206:C305,A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(History!A208:A307,A4)</f>
+        <f>COUNTIF(History!A206:A305,A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="e">
@@ -6592,76 +7132,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N4" s="2">
-        <f>COUNTIF(History!A308:C399,A4)</f>
+        <f>COUNTIF(History!A306:C399,A4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>COUNTIF(History!A308:A399,A4)</f>
+        <f>COUNTIF(History!A306:A399,A4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="2" t="e">
         <f>O4*100/N4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="2">
-        <f>COUNTIF(History!A506:C507,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <f>COUNTIF(History!A506:A507,A4)</f>
-        <v>0</v>
+      <c r="Q4" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A4)</f>
+        <v>#REF!</v>
       </c>
       <c r="S4" s="2" t="e">
         <f>R4*100/Q4</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>40</v>
+        <v>47.058823529411768</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(History!A25:C124,A5)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A6:C105,A5)</f>
+        <v>28</v>
       </c>
       <c r="F5" s="8">
-        <f>COUNTIF(History!A25:A124,A5)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A6:A105,A5)</f>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
         <f>F5*100/E5</f>
-        <v>45.454545454545453</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(History!A125:C224,A5)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A105:C204,A5)</f>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(History!A125:A224,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="e">
+        <f>COUNTIF(History!A105:A204,A5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>#DIV/0!</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A225:C324,A5)</f>
+        <f>COUNTIF(History!A208:C307,A5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A225:A324,A5)</f>
+        <f>COUNTIF(History!A208:A307,A5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="e">
@@ -6669,11 +7209,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A325:C399,A5)</f>
+        <f>COUNTIF(History!A308:C399,A5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A325:A399,A5)</f>
+        <f>COUNTIF(History!A308:A399,A5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="e">
@@ -6681,11 +7221,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="2">
-        <f>COUNTIF(History!A506:C524,A5)</f>
+        <f>COUNTIF(History!A506:C507,A5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <f>COUNTIF(History!A506:A524,A5)</f>
+        <f>COUNTIF(History!A506:A507,A5)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2" t="e">
@@ -6695,50 +7235,50 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
         <v>31.578947368421051</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A3:C102,A6)</f>
-        <v>19</v>
+        <f>COUNTIF(History!A5:C104,A6)</f>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A3:A102,A6)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A5:A104,A6)</f>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>31.578947368421051</v>
+        <v>28.125</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A103:C202,A6)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A106:C205,A6)</f>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <f>COUNTIF(History!A103:A202,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="e">
+        <f>COUNTIF(History!A106:A205,A6)</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>#DIV/0!</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A203:C302,A6)</f>
+        <f>COUNTIF(History!A209:C308,A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A203:A302,A6)</f>
+        <f>COUNTIF(History!A209:A308,A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="e">
@@ -6746,76 +7286,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A303:C399,A6)</f>
+        <f>COUNTIF(History!A309:C399,A6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A303:A399,A6)</f>
+        <f>COUNTIF(History!A309:A399,A6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="2" t="e">
         <f>O6*100/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
+      <c r="Q6" s="2">
+        <f>COUNTIF(History!A506:C508,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>COUNTIF(History!A506:A508,A6)</f>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="e">
         <f>R6*100/Q6</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
+        <v>40</v>
+      </c>
+      <c r="E7" s="8">
+        <f>COUNTIF(History!A8:C107,A7)</f>
         <v>25</v>
       </c>
-      <c r="E7" s="8">
-        <f>COUNTIF(History!A9:C108,A7)</f>
-        <v>18</v>
-      </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A9:A108,A7)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A8:A107,A7)</f>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>27.777777777777779</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A109:C208,A7)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A107:C206,A7)</f>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A109:A208,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="e">
+        <f>COUNTIF(History!A107:A206,A7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A209:C308,A7)</f>
+        <f>COUNTIF(History!A203:C302,A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A209:A308,A7)</f>
+        <f>COUNTIF(History!A203:A302,A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="e">
@@ -6823,28 +7363,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A309:C399,A7)</f>
+        <f>COUNTIF(History!A303:C399,A7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A309:A399,A7)</f>
+        <f>COUNTIF(History!A303:A399,A7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="e">
         <f>O7*100/N7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="2">
-        <f>COUNTIF(History!A506:C508,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f>COUNTIF(History!A506:A508,A7)</f>
-        <v>0</v>
+      <c r="Q7" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R7" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A7)</f>
+        <v>#REF!</v>
       </c>
       <c r="S7" s="2" t="e">
         <f>R7*100/Q7</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -6853,39 +7393,39 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>30.76923076923077</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A5:C104,A8)</f>
-        <v>13</v>
+        <f>COUNTIF(History!A7:C106,A8)</f>
+        <v>25</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A5:A104,A8)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A7:A106,A8)</f>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>30.76923076923077</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A105:C204,A8)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A108:C207,A8)</f>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A105:A204,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="e">
+        <f>COUNTIF(History!A108:A207,A8)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>#DIV/0!</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K8" s="2">
         <f>COUNTIF(History!A205:C304,A8)</f>
@@ -6926,50 +7466,50 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(History!A12:C111,A9)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A16:C115,A9)</f>
+        <v>3</v>
       </c>
       <c r="F9" s="8">
-        <f>COUNTIF(History!A12:A111,A9)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A16:A115,A9)</f>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H9" s="2">
+        <f>COUNTIF(History!A110:C209,A9)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <f>COUNTIF(History!A110:A209,A9)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>I9*100/H9</f>
         <v>100</v>
       </c>
-      <c r="H9" s="2">
-        <f>COUNTIF(History!A112:C211,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f>COUNTIF(History!A112:A211,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="e">
-        <f>I9*100/H9</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="K9" s="2">
-        <f>COUNTIF(History!A212:C311,A9)</f>
+        <f>COUNTIF(History!A213:C312,A9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="2">
-        <f>COUNTIF(History!A212:A311,A9)</f>
+        <f>COUNTIF(History!A213:A312,A9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="e">
@@ -6977,11 +7517,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N9" s="2">
-        <f>COUNTIF(History!A312:C399,A9)</f>
+        <f>COUNTIF(History!A313:C399,A9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <f>COUNTIF(History!A312:A399,A9)</f>
+        <f>COUNTIF(History!A313:A399,A9)</f>
         <v>0</v>
       </c>
       <c r="P9" s="2" t="e">
@@ -6989,11 +7529,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q9" s="2">
-        <f>COUNTIF(History!A506:C511,A9)</f>
+        <f>COUNTIF(History!A506:C512,A9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <f>COUNTIF(History!A506:A511,A9)</f>
+        <f>COUNTIF(History!A506:A512,A9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="2" t="e">
@@ -7007,39 +7547,39 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A4:C103,A10)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A9:C108,A10)</f>
+        <v>8</v>
       </c>
       <c r="F10" s="8">
-        <f>COUNTIF(History!A4:A103,A10)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A9:A108,A10)</f>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A104:C203,A10)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A109:C208,A10)</f>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A104:A203,A10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="e">
+        <f>COUNTIF(History!A109:A208,A10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
         <f>COUNTIF(History!A204:C303,A10)</f>
@@ -7080,38 +7620,38 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
         <v>100</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A31:C130,A11)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A14:C113,A11)</f>
+        <v>2</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A31:A130,A11)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A14:A113,A11)</f>
+        <v>2</v>
       </c>
       <c r="G11" s="2">
         <f>F11*100/E11</f>
         <v>100</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A131:C230,A11)</f>
+        <f>COUNTIF(History!A111:C210,A11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A131:A230,A11)</f>
+        <f>COUNTIF(History!A111:A210,A11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="2" t="e">
@@ -7119,11 +7659,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A231:C330,A11)</f>
+        <f>COUNTIF(History!A212:C311,A11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A231:A330,A11)</f>
+        <f>COUNTIF(History!A212:A311,A11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="e">
@@ -7131,11 +7671,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A331:C399,A11)</f>
+        <f>COUNTIF(History!A312:C399,A11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A331:A399,A11)</f>
+        <f>COUNTIF(History!A312:A399,A11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="2" t="e">
@@ -7143,11 +7683,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="2">
-        <f>COUNTIF(History!A506:C530,A11)</f>
+        <f>COUNTIF(History!A506:C511,A11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="2">
-        <f>COUNTIF(History!A506:A530,A11)</f>
+        <f>COUNTIF(History!A506:A511,A11)</f>
         <v>0</v>
       </c>
       <c r="S11" s="2" t="e">
@@ -7161,34 +7701,34 @@
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A2:C101,A12)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A11:C110,A12)</f>
+        <v>4</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A2:A101,A12)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A11:A110,A12)</f>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <f>F12*100/E12</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A102:C201,A12)</f>
+        <f>COUNTIF(History!A112:C211,A12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A102:A201,A12)</f>
+        <f>COUNTIF(History!A112:A211,A12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="2" t="e">
@@ -7234,50 +7774,50 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A29:C128,A13)</f>
+        <f>COUNTIF(History!A12:C111,A13)</f>
         <v>3</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A29:A128,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A12:A111,A13)</f>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A129:C228,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A113:C212,A13)</f>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A129:A228,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="e">
+        <f>COUNTIF(History!A113:A212,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A229:C328,A13)</f>
+        <f>COUNTIF(History!A231:C330,A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A229:A328,A13)</f>
+        <f>COUNTIF(History!A231:A330,A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="e">
@@ -7285,11 +7825,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A329:C399,A13)</f>
+        <f>COUNTIF(History!A331:C399,A13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A329:A399,A13)</f>
+        <f>COUNTIF(History!A331:A399,A13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="2" t="e">
@@ -7297,11 +7837,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C528,A13)</f>
+        <f>COUNTIF(History!A506:C530,A13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A528,A13)</f>
+        <f>COUNTIF(History!A506:A530,A13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
@@ -7311,38 +7851,38 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A38:C137,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A15:C114,A14)</f>
+        <v>3</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A38:A137,A14)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="e">
+        <f>COUNTIF(History!A15:A114,A14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <f>F14*100/E14</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A138:C237,A14)</f>
+        <f>COUNTIF(History!A114:C213,A14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A138:A237,A14)</f>
+        <f>COUNTIF(History!A114:A213,A14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="2" t="e">
@@ -7350,11 +7890,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A238:C337,A14)</f>
+        <f>COUNTIF(History!A210:C309,A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A238:A337,A14)</f>
+        <f>COUNTIF(History!A210:A309,A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="e">
@@ -7362,11 +7902,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A338:C399,A14)</f>
+        <f>COUNTIF(History!A310:C399,A14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A338:A399,A14)</f>
+        <f>COUNTIF(History!A310:A399,A14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
@@ -7374,11 +7914,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C537,A14)</f>
+        <f>COUNTIF(History!A506:C509,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A537,A14)</f>
+        <f>COUNTIF(History!A506:A509,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -7388,38 +7928,38 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A16:C115,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A19:C118,A15)</f>
+        <v>1</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A16:A115,A15)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A19:A118,A15)</f>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A116:C215,A15)</f>
+        <f>COUNTIF(History!A115:C214,A15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A116:A215,A15)</f>
+        <f>COUNTIF(History!A115:A214,A15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="2" t="e">
@@ -7427,11 +7967,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A216:C315,A15)</f>
+        <f>COUNTIF(History!A236:C335,A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A216:A315,A15)</f>
+        <f>COUNTIF(History!A236:A335,A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="e">
@@ -7439,11 +7979,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A316:C399,A15)</f>
+        <f>COUNTIF(History!A336:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A316:A399,A15)</f>
+        <f>COUNTIF(History!A336:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -7451,11 +7991,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C514,A15)</f>
+        <f>COUNTIF(History!A506:C535,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A514,A15)</f>
+        <f>COUNTIF(History!A506:A535,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -7465,38 +8005,38 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A14:C113,A16)</f>
+        <f>COUNTIF(History!A20:C119,A16)</f>
         <v>1</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A14:A113,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A20:A119,A16)</f>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A114:C213,A16)</f>
+        <f>COUNTIF(History!A116:C215,A16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A114:A213,A16)</f>
+        <f>COUNTIF(History!A116:A215,A16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2" t="e">
@@ -7504,11 +8044,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A214:C313,A16)</f>
+        <f>COUNTIF(History!A219:C318,A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A214:A313,A16)</f>
+        <f>COUNTIF(History!A219:A318,A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="e">
@@ -7516,11 +8056,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A314:C399,A16)</f>
+        <f>COUNTIF(History!A319:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A314:A399,A16)</f>
+        <f>COUNTIF(History!A319:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -7528,11 +8068,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C513,A16)</f>
+        <f>COUNTIF(History!A506:C518,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A513,A16)</f>
+        <f>COUNTIF(History!A506:A518,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -7542,11 +8082,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
@@ -7558,7 +8098,7 @@
       </c>
       <c r="E17" s="8">
         <f>COUNTIF(History!A10:C109,A17)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8">
         <f>COUNTIF(History!A10:A109,A17)</f>
@@ -7569,23 +8109,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A110:C209,A17)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A117:C216,A17)</f>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A110:A209,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="e">
+        <f>COUNTIF(History!A117:A216,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <f>I17*100/H17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A210:C309,A17)</f>
+        <f>COUNTIF(History!A214:C313,A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A210:A309,A17)</f>
+        <f>COUNTIF(History!A214:A313,A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="e">
@@ -7593,11 +8133,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A310:C399,A17)</f>
+        <f>COUNTIF(History!A314:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A310:A399,A17)</f>
+        <f>COUNTIF(History!A314:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -7605,11 +8145,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C509,A17)</f>
+        <f>COUNTIF(History!A506:C513,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A509,A17)</f>
+        <f>COUNTIF(History!A506:A513,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -7619,11 +8159,11 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -7634,35 +8174,35 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <f>COUNTIF(History!A60:C159,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A13:C112,A18)</f>
+        <v>4</v>
       </c>
       <c r="F18" s="8">
-        <f>COUNTIF(History!A60:A159,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="e">
+        <f>COUNTIF(History!A13:A112,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <f>F18*100/E18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>COUNTIF(History!A160:C259,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A118:C217,A18)</f>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
-        <f>COUNTIF(History!A160:A259,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="e">
+        <f>COUNTIF(History!A118:A217,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <f>I18*100/H18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>COUNTIF(History!A260:C359,A18)</f>
+        <f>COUNTIF(History!A229:C328,A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>COUNTIF(History!A260:A359,A18)</f>
+        <f>COUNTIF(History!A229:A328,A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="e">
@@ -7670,11 +8210,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A360:C399,A18)</f>
+        <f>COUNTIF(History!A329:C399,A18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A360:A399,A18)</f>
+        <f>COUNTIF(History!A329:A399,A18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="e">
@@ -7682,11 +8222,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A506:C559,A18)</f>
+        <f>COUNTIF(History!A506:C528,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A506:A559,A18)</f>
+        <f>COUNTIF(History!A506:A528,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -7696,26 +8236,26 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="e">
+      <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A11:C110,A19)</f>
+        <f>COUNTIF(History!A17:C116,A19)</f>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>COUNTIF(History!A11:A110,A19)</f>
+        <f>COUNTIF(History!A17:A116,A19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="2" t="e">
@@ -7723,23 +8263,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF(History!A111:C210,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A119:C218,A19)</f>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
-        <f>COUNTIF(History!A111:A210,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="e">
+        <f>COUNTIF(History!A119:A218,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <f>I19*100/H19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A211:C310,A19)</f>
+        <f>COUNTIF(History!A238:C337,A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A211:A310,A19)</f>
+        <f>COUNTIF(History!A238:A337,A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="e">
@@ -7747,11 +8287,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A311:C399,A19)</f>
+        <f>COUNTIF(History!A338:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A311:A399,A19)</f>
+        <f>COUNTIF(History!A338:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -7759,11 +8299,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A506:C510,A19)</f>
+        <f>COUNTIF(History!A506:C537,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A506:A510,A19)</f>
+        <f>COUNTIF(History!A506:A537,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -7773,38 +8313,38 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="e">
+      <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A13:C112,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A18:C117,A20)</f>
+        <v>2</v>
       </c>
       <c r="F20" s="8">
-        <f>COUNTIF(History!A13:A112,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="e">
+        <f>COUNTIF(History!A18:A117,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <f>F20*100/E20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF(History!A113:C212,A20)</f>
+        <f>COUNTIF(History!A120:C219,A20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A113:A212,A20)</f>
+        <f>COUNTIF(History!A120:A219,A20)</f>
         <v>0</v>
       </c>
       <c r="J20" s="2" t="e">
@@ -7812,11 +8352,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A213:C312,A20)</f>
+        <f>COUNTIF(History!A216:C315,A20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A213:A312,A20)</f>
+        <f>COUNTIF(History!A216:A315,A20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="e">
@@ -7824,11 +8364,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A313:C399,A20)</f>
+        <f>COUNTIF(History!A316:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A313:A399,A20)</f>
+        <f>COUNTIF(History!A316:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
@@ -7836,11 +8376,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2">
-        <f>COUNTIF(History!A506:C512,A20)</f>
+        <f>COUNTIF(History!A506:C514,A20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>COUNTIF(History!A506:A512,A20)</f>
+        <f>COUNTIF(History!A506:A514,A20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="e">
@@ -7850,38 +8390,38 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="e">
+      <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A17:C116,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A21:C120,A21)</f>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A17:A116,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="e">
+        <f>COUNTIF(History!A21:A120,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A117:C216,A21)</f>
+        <f>COUNTIF(History!A121:C220,A21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A117:A216,A21)</f>
+        <f>COUNTIF(History!A121:A220,A21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="e">
@@ -7889,11 +8429,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A217:C316,A21)</f>
+        <f>COUNTIF(History!A260:C359,A21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A217:A316,A21)</f>
+        <f>COUNTIF(History!A260:A359,A21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="e">
@@ -7901,11 +8441,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A317:C399,A21)</f>
+        <f>COUNTIF(History!A360:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A317:A399,A21)</f>
+        <f>COUNTIF(History!A360:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -7913,11 +8453,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C516,A21)</f>
+        <f>COUNTIF(History!A506:C559,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A516,A21)</f>
+        <f>COUNTIF(History!A506:A559,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -7927,38 +8467,38 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="e">
+      <c r="D22" s="2">
         <f>C22*100/B22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A15:C114,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A22:C121,A22)</f>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A15:A114,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="e">
+        <f>COUNTIF(History!A22:A121,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A115:C214,A22)</f>
+        <f>COUNTIF(History!A122:C221,A22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A115:A214,A22)</f>
+        <f>COUNTIF(History!A122:A221,A22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="2" t="e">
@@ -7966,11 +8506,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A215:C314,A22)</f>
+        <f>COUNTIF(History!A253:C352,A22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A215:A314,A22)</f>
+        <f>COUNTIF(History!A253:A352,A22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="e">
@@ -7978,11 +8518,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A315:C399,A22)</f>
+        <f>COUNTIF(History!A353:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A315:A399,A22)</f>
+        <f>COUNTIF(History!A353:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -7990,11 +8530,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C514,A22)</f>
+        <f>COUNTIF(History!A506:C552,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A514,A22)</f>
+        <f>COUNTIF(History!A506:A552,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -8004,7 +8544,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>249</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
@@ -8019,11 +8559,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A19:C118,A23)</f>
+        <f>COUNTIF(History!A23:C122,A23)</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A19:A118,A23)</f>
+        <f>COUNTIF(History!A23:A122,A23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2" t="e">
@@ -8031,11 +8571,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A119:C218,A23)</f>
+        <f>COUNTIF(History!A123:C222,A23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A119:A218,A23)</f>
+        <f>COUNTIF(History!A123:A222,A23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2" t="e">
@@ -8043,11 +8583,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A219:C318,A23)</f>
+        <f>COUNTIF(History!A211:C310,A23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A219:A318,A23)</f>
+        <f>COUNTIF(History!A211:A310,A23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="e">
@@ -8055,11 +8595,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A319:C399,A23)</f>
+        <f>COUNTIF(History!A311:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A319:A399,A23)</f>
+        <f>COUNTIF(History!A311:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -8067,11 +8607,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C518,A23)</f>
+        <f>COUNTIF(History!A506:C510,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A518,A23)</f>
+        <f>COUNTIF(History!A506:A510,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -8081,7 +8621,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
@@ -8096,11 +8636,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A18:C117,A24)</f>
+        <f>COUNTIF(History!A24:C123,A24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A18:A117,A24)</f>
+        <f>COUNTIF(History!A24:A123,A24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2" t="e">
@@ -8108,11 +8648,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A118:C217,A24)</f>
+        <f>COUNTIF(History!A124:C223,A24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A118:A217,A24)</f>
+        <f>COUNTIF(History!A124:A223,A24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2" t="e">
@@ -8120,11 +8660,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A218:C317,A24)</f>
+        <f>COUNTIF(History!A217:C316,A24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A218:A317,A24)</f>
+        <f>COUNTIF(History!A217:A316,A24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="e">
@@ -8132,11 +8672,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A318:C399,A24)</f>
+        <f>COUNTIF(History!A317:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A318:A399,A24)</f>
+        <f>COUNTIF(History!A317:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -8144,11 +8684,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C517,A24)</f>
+        <f>COUNTIF(History!A506:C516,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A517,A24)</f>
+        <f>COUNTIF(History!A506:A516,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -8158,7 +8698,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -8173,11 +8713,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A20:C119,A25)</f>
+        <f>COUNTIF(History!A25:C124,A25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A20:A119,A25)</f>
+        <f>COUNTIF(History!A25:A124,A25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2" t="e">
@@ -8185,11 +8725,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A120:C219,A25)</f>
+        <f>COUNTIF(History!A125:C224,A25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A120:A219,A25)</f>
+        <f>COUNTIF(History!A125:A224,A25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="e">
@@ -8197,11 +8737,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A220:C319,A25)</f>
+        <f>COUNTIF(History!A215:C314,A25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A220:A319,A25)</f>
+        <f>COUNTIF(History!A215:A314,A25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="e">
@@ -8209,11 +8749,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A320:C399,A25)</f>
+        <f>COUNTIF(History!A315:C399,A25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A320:A399,A25)</f>
+        <f>COUNTIF(History!A315:A399,A25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="e">
@@ -8221,11 +8761,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A506:C519,A25)</f>
+        <f>COUNTIF(History!A506:C514,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A506:A519,A25)</f>
+        <f>COUNTIF(History!A506:A514,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -8235,7 +8775,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
@@ -8250,11 +8790,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A22:C121,A26)</f>
+        <f>COUNTIF(History!A26:C125,A26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A22:A121,A26)</f>
+        <f>COUNTIF(History!A26:A125,A26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2" t="e">
@@ -8262,11 +8802,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A122:C221,A26)</f>
+        <f>COUNTIF(History!A126:C225,A26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A122:A221,A26)</f>
+        <f>COUNTIF(History!A126:A225,A26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="e">
@@ -8274,11 +8814,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A222:C321,A26)</f>
+        <f>COUNTIF(History!A218:C317,A26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A222:A321,A26)</f>
+        <f>COUNTIF(History!A218:A317,A26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="e">
@@ -8286,11 +8826,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A322:C399,A26)</f>
+        <f>COUNTIF(History!A318:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A322:A399,A26)</f>
+        <f>COUNTIF(History!A318:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -8298,11 +8838,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C521,A26)</f>
+        <f>COUNTIF(History!A506:C517,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A521,A26)</f>
+        <f>COUNTIF(History!A506:A517,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -8312,7 +8852,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
@@ -8327,11 +8867,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A28:C127,A27)</f>
+        <f>COUNTIF(History!A27:C126,A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A28:A127,A27)</f>
+        <f>COUNTIF(History!A27:A126,A27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="2" t="e">
@@ -8339,11 +8879,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A128:C227,A27)</f>
+        <f>COUNTIF(History!A127:C226,A27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A128:A227,A27)</f>
+        <f>COUNTIF(History!A127:A226,A27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="e">
@@ -8351,11 +8891,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A228:C327,A27)</f>
+        <f>COUNTIF(History!A220:C319,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A228:A327,A27)</f>
+        <f>COUNTIF(History!A220:A319,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -8363,11 +8903,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A328:C399,A27)</f>
+        <f>COUNTIF(History!A320:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A328:A399,A27)</f>
+        <f>COUNTIF(History!A320:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -8375,11 +8915,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C527,A27)</f>
+        <f>COUNTIF(History!A506:C519,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A527,A27)</f>
+        <f>COUNTIF(History!A506:A519,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -8389,7 +8929,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
@@ -8404,11 +8944,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A24:C123,A28)</f>
+        <f>COUNTIF(History!A28:C127,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A24:A123,A28)</f>
+        <f>COUNTIF(History!A28:A127,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -8416,11 +8956,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A124:C223,A28)</f>
+        <f>COUNTIF(History!A128:C227,A28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A124:A223,A28)</f>
+        <f>COUNTIF(History!A128:A227,A28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="e">
@@ -8428,11 +8968,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A224:C323,A28)</f>
+        <f>COUNTIF(History!A222:C321,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A224:A323,A28)</f>
+        <f>COUNTIF(History!A222:A321,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -8440,11 +8980,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A324:C399,A28)</f>
+        <f>COUNTIF(History!A322:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A324:A399,A28)</f>
+        <f>COUNTIF(History!A322:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -8452,11 +8992,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C523,A28)</f>
+        <f>COUNTIF(History!A506:C521,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A523,A28)</f>
+        <f>COUNTIF(History!A506:A521,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -8466,7 +9006,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
@@ -8481,11 +9021,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A77:C176,A29)</f>
+        <f>COUNTIF(History!A29:C128,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A77:A176,A29)</f>
+        <f>COUNTIF(History!A29:A128,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -8493,11 +9033,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A177:C276,A29)</f>
+        <f>COUNTIF(History!A129:C228,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A177:A276,A29)</f>
+        <f>COUNTIF(History!A129:A228,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -8505,11 +9045,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A277:C376,A29)</f>
+        <f>COUNTIF(History!A228:C327,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A277:A376,A29)</f>
+        <f>COUNTIF(History!A228:A327,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -8517,11 +9057,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A377:C399,A29)</f>
+        <f>COUNTIF(History!A328:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A377:A399,A29)</f>
+        <f>COUNTIF(History!A328:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -8529,11 +9069,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C576,A29)</f>
+        <f>COUNTIF(History!A506:C527,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A576,A29)</f>
+        <f>COUNTIF(History!A506:A527,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -8543,7 +9083,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -8558,11 +9098,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A21:C120,A30)</f>
+        <f>COUNTIF(History!A30:C129,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A21:A120,A30)</f>
+        <f>COUNTIF(History!A30:A129,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -8570,11 +9110,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A121:C220,A30)</f>
+        <f>COUNTIF(History!A130:C229,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A121:A220,A30)</f>
+        <f>COUNTIF(History!A130:A229,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -8582,11 +9122,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A221:C320,A30)</f>
+        <f>COUNTIF(History!A224:C323,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A221:A320,A30)</f>
+        <f>COUNTIF(History!A224:A323,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -8594,11 +9134,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A321:C399,A30)</f>
+        <f>COUNTIF(History!A324:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A321:A399,A30)</f>
+        <f>COUNTIF(History!A324:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -8606,11 +9146,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C520,A30)</f>
+        <f>COUNTIF(History!A506:C523,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A520,A30)</f>
+        <f>COUNTIF(History!A506:A523,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -8620,7 +9160,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -8635,11 +9175,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A23:C122,A31)</f>
+        <f>COUNTIF(History!A31:C130,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A23:A122,A31)</f>
+        <f>COUNTIF(History!A31:A130,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -8647,11 +9187,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A123:C222,A31)</f>
+        <f>COUNTIF(History!A131:C230,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A123:A222,A31)</f>
+        <f>COUNTIF(History!A131:A230,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -8659,11 +9199,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A223:C322,A31)</f>
+        <f>COUNTIF(History!A277:C376,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A223:A322,A31)</f>
+        <f>COUNTIF(History!A277:A376,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -8671,11 +9211,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A323:C399,A31)</f>
+        <f>COUNTIF(History!A377:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A323:A399,A31)</f>
+        <f>COUNTIF(History!A377:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -8683,11 +9223,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A506:C522,A31)</f>
+        <f>COUNTIF(History!A506:C576,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A506:A522,A31)</f>
+        <f>COUNTIF(History!A506:A576,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -8697,7 +9237,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -8736,11 +9276,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A232:C331,A32)</f>
+        <f>COUNTIF(History!A221:C320,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A232:A331,A32)</f>
+        <f>COUNTIF(History!A221:A320,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -8748,11 +9288,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A332:C399,A32)</f>
+        <f>COUNTIF(History!A321:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A332:A399,A32)</f>
+        <f>COUNTIF(History!A321:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -8760,11 +9300,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C531,A32)</f>
+        <f>COUNTIF(History!A506:C520,A32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A531,A32)</f>
+        <f>COUNTIF(History!A506:A520,A32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
@@ -8774,7 +9314,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -8789,11 +9329,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A27:C126,A33)</f>
+        <f>COUNTIF(History!A33:C132,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A27:A126,A33)</f>
+        <f>COUNTIF(History!A33:A132,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -8801,11 +9341,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A127:C226,A33)</f>
+        <f>COUNTIF(History!A133:C232,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A127:A226,A33)</f>
+        <f>COUNTIF(History!A133:A232,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -8813,11 +9353,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A227:C326,A33)</f>
+        <f>COUNTIF(History!A223:C322,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A227:A326,A33)</f>
+        <f>COUNTIF(History!A223:A322,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -8825,11 +9365,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A327:C399,A33)</f>
+        <f>COUNTIF(History!A323:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A327:A399,A33)</f>
+        <f>COUNTIF(History!A323:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -8837,11 +9377,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C526,A33)</f>
+        <f>COUNTIF(History!A506:C522,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A526,A33)</f>
+        <f>COUNTIF(History!A506:A522,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -8851,7 +9391,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -8866,11 +9406,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A30:C129,A34)</f>
+        <f>COUNTIF(History!A34:C133,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A30:A129,A34)</f>
+        <f>COUNTIF(History!A34:A133,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="e">
@@ -8878,11 +9418,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A130:C229,A34)</f>
+        <f>COUNTIF(History!A134:C233,A34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A130:A229,A34)</f>
+        <f>COUNTIF(History!A134:A233,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="e">
@@ -8890,11 +9430,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A230:C329,A34)</f>
+        <f>COUNTIF(History!A232:C331,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A230:A329,A34)</f>
+        <f>COUNTIF(History!A232:A331,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -8902,11 +9442,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A330:C399,A34)</f>
+        <f>COUNTIF(History!A332:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A330:A399,A34)</f>
+        <f>COUNTIF(History!A332:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -8914,11 +9454,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A506:C529,A34)</f>
+        <f>COUNTIF(History!A506:C531,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A506:A529,A34)</f>
+        <f>COUNTIF(History!A506:A531,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -8928,7 +9468,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -8943,11 +9483,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A34:C133,A35)</f>
+        <f>COUNTIF(History!A35:C134,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A34:A133,A35)</f>
+        <f>COUNTIF(History!A35:A134,A35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="e">
@@ -8955,11 +9495,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A134:C233,A35)</f>
+        <f>COUNTIF(History!A135:C234,A35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A134:A233,A35)</f>
+        <f>COUNTIF(History!A135:A234,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="e">
@@ -8967,11 +9507,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A234:C333,A35)</f>
+        <f>COUNTIF(History!A227:C326,A35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A234:A333,A35)</f>
+        <f>COUNTIF(History!A227:A326,A35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
@@ -8979,11 +9519,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A334:C399,A35)</f>
+        <f>COUNTIF(History!A327:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A334:A399,A35)</f>
+        <f>COUNTIF(History!A327:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -8991,11 +9531,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C533,A35)</f>
+        <f>COUNTIF(History!A506:C526,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A533,A35)</f>
+        <f>COUNTIF(History!A506:A526,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -9005,7 +9545,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -9020,11 +9560,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A54:C153,A36)</f>
+        <f>COUNTIF(History!A36:C135,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A54:A153,A36)</f>
+        <f>COUNTIF(History!A36:A135,A36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2" t="e">
@@ -9032,11 +9572,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A154:C253,A36)</f>
+        <f>COUNTIF(History!A136:C235,A36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A154:A253,A36)</f>
+        <f>COUNTIF(History!A136:A235,A36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
@@ -9044,11 +9584,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A254:C353,A36)</f>
+        <f>COUNTIF(History!A230:C329,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A254:A353,A36)</f>
+        <f>COUNTIF(History!A230:A329,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -9056,11 +9596,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A354:C399,A36)</f>
+        <f>COUNTIF(History!A330:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A354:A399,A36)</f>
+        <f>COUNTIF(History!A330:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -9068,11 +9608,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A506:C553,A36)</f>
+        <f>COUNTIF(History!A506:C529,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A506:A553,A36)</f>
+        <f>COUNTIF(History!A506:A529,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -9082,7 +9622,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
@@ -9097,11 +9637,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A26:C125,A37)</f>
+        <f>COUNTIF(History!A37:C136,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A26:A125,A37)</f>
+        <f>COUNTIF(History!A37:A136,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -9109,11 +9649,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A126:C225,A37)</f>
+        <f>COUNTIF(History!A137:C236,A37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A126:A225,A37)</f>
+        <f>COUNTIF(History!A137:A236,A37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="e">
@@ -9121,11 +9661,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A226:C325,A37)</f>
+        <f>COUNTIF(History!A234:C333,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A226:A325,A37)</f>
+        <f>COUNTIF(History!A234:A333,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -9133,11 +9673,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A326:C399,A37)</f>
+        <f>COUNTIF(History!A334:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A326:A399,A37)</f>
+        <f>COUNTIF(History!A334:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -9145,11 +9685,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C525,A37)</f>
+        <f>COUNTIF(History!A506:C533,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A525,A37)</f>
+        <f>COUNTIF(History!A506:A533,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -9159,7 +9699,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -9174,11 +9714,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A33:C132,A38)</f>
+        <f>COUNTIF(History!A38:C137,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A33:A132,A38)</f>
+        <f>COUNTIF(History!A38:A137,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="e">
@@ -9186,11 +9726,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A133:C232,A38)</f>
+        <f>COUNTIF(History!A138:C237,A38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A133:A232,A38)</f>
+        <f>COUNTIF(History!A138:A237,A38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="e">
@@ -9198,11 +9738,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A233:C332,A38)</f>
+        <f>COUNTIF(History!A254:C353,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A233:A332,A38)</f>
+        <f>COUNTIF(History!A254:A353,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -9210,11 +9750,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A333:C399,A38)</f>
+        <f>COUNTIF(History!A354:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A333:A399,A38)</f>
+        <f>COUNTIF(History!A354:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -9222,11 +9762,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C532,A38)</f>
+        <f>COUNTIF(History!A506:C553,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A532,A38)</f>
+        <f>COUNTIF(History!A506:A553,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -9236,7 +9776,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -9251,11 +9791,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A147:C246,A39)</f>
+        <f>COUNTIF(History!A39:C138,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A147:A246,A39)</f>
+        <f>COUNTIF(History!A39:A138,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -9263,11 +9803,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A247:C346,A39)</f>
+        <f>COUNTIF(History!A139:C238,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A247:A346,A39)</f>
+        <f>COUNTIF(History!A139:A238,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -9275,11 +9815,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A347:C399,A39)</f>
+        <f>COUNTIF(History!A226:C325,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A347:A399,A39)</f>
+        <f>COUNTIF(History!A226:A325,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -9287,11 +9827,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A506:C546,A39)</f>
+        <f>COUNTIF(History!A326:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A506:A546,A39)</f>
+        <f>COUNTIF(History!A326:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -9299,11 +9839,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A547:C646,A39)</f>
+        <f>COUNTIF(History!A506:C525,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A547:A646,A39)</f>
+        <f>COUNTIF(History!A506:A525,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -9313,7 +9853,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -9328,11 +9868,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A36:C135,A40)</f>
+        <f>COUNTIF(History!A40:C139,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A36:A135,A40)</f>
+        <f>COUNTIF(History!A40:A139,A40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="e">
@@ -9340,11 +9880,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A136:C235,A40)</f>
+        <f>COUNTIF(History!A140:C239,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A136:A235,A40)</f>
+        <f>COUNTIF(History!A140:A239,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -9352,11 +9892,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A236:C335,A40)</f>
+        <f>COUNTIF(History!A233:C332,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A236:A335,A40)</f>
+        <f>COUNTIF(History!A233:A332,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -9364,11 +9904,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A336:C399,A40)</f>
+        <f>COUNTIF(History!A333:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A336:A399,A40)</f>
+        <f>COUNTIF(History!A333:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -9376,11 +9916,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C535,A40)</f>
+        <f>COUNTIF(History!A506:C532,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A535,A40)</f>
+        <f>COUNTIF(History!A506:A532,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -9390,7 +9930,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -9405,11 +9945,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A40:C139,A41)</f>
+        <f>COUNTIF(History!A41:C140,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A40:A139,A41)</f>
+        <f>COUNTIF(History!A41:A140,A41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="2" t="e">
@@ -9417,11 +9957,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A140:C239,A41)</f>
+        <f>COUNTIF(History!A141:C240,A41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A140:A239,A41)</f>
+        <f>COUNTIF(History!A141:A240,A41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="e">
@@ -9429,11 +9969,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A240:C339,A41)</f>
+        <f>COUNTIF(History!A347:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A240:A339,A41)</f>
+        <f>COUNTIF(History!A347:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -9441,11 +9981,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A340:C399,A41)</f>
+        <f>COUNTIF(History!A506:C546,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A340:A399,A41)</f>
+        <f>COUNTIF(History!A506:A546,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -9453,11 +9993,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C539,A41)</f>
+        <f>COUNTIF(History!A547:C646,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A539,A41)</f>
+        <f>COUNTIF(History!A547:A646,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -9467,7 +10007,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -9482,11 +10022,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A35:C134,A42)</f>
+        <f>COUNTIF(History!A42:C141,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A35:A134,A42)</f>
+        <f>COUNTIF(History!A42:A141,A42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="e">
@@ -9494,11 +10034,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A135:C234,A42)</f>
+        <f>COUNTIF(History!A142:C241,A42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A135:A234,A42)</f>
+        <f>COUNTIF(History!A142:A241,A42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="e">
@@ -9506,11 +10046,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A235:C334,A42)</f>
+        <f>COUNTIF(History!A240:C339,A42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A235:A334,A42)</f>
+        <f>COUNTIF(History!A240:A339,A42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="e">
@@ -9518,11 +10058,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A335:C399,A42)</f>
+        <f>COUNTIF(History!A340:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A335:A399,A42)</f>
+        <f>COUNTIF(History!A340:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -9530,11 +10070,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C534,A42)</f>
+        <f>COUNTIF(History!A506:C539,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A534,A42)</f>
+        <f>COUNTIF(History!A506:A539,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -9544,38 +10084,38 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="8">
         <f>COUNTIF(History!A:A,A43)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="2" t="e">
+      <c r="D43" s="2">
         <f>C43*100/B43</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A37:C136,A43)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A43:C142,A43)</f>
+        <v>1</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A37:A136,A43)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="e">
+        <f>COUNTIF(History!A43:A142,A43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
         <f>F43*100/E43</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A137:C236,A43)</f>
+        <f>COUNTIF(History!A143:C242,A43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A137:A236,A43)</f>
+        <f>COUNTIF(History!A143:A242,A43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="e">
@@ -9583,11 +10123,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A237:C336,A43)</f>
+        <f>COUNTIF(History!A235:C334,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A237:A336,A43)</f>
+        <f>COUNTIF(History!A235:A334,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
@@ -9595,11 +10135,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="2">
-        <f>COUNTIF(History!A337:C399,A43)</f>
+        <f>COUNTIF(History!A335:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f>COUNTIF(History!A337:A399,A43)</f>
+        <f>COUNTIF(History!A335:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2" t="e">
@@ -9607,11 +10147,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C536,A43)</f>
+        <f>COUNTIF(History!A506:C534,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A536,A43)</f>
+        <f>COUNTIF(History!A506:A534,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -9621,7 +10161,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -9636,11 +10176,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A39:C138,A44)</f>
+        <f>COUNTIF(History!A44:C143,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A39:A138,A44)</f>
+        <f>COUNTIF(History!A44:A143,A44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="e">
@@ -9648,11 +10188,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A139:C238,A44)</f>
+        <f>COUNTIF(History!A144:C243,A44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A139:A238,A44)</f>
+        <f>COUNTIF(History!A144:A243,A44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="e">
@@ -9660,11 +10200,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A239:C338,A44)</f>
+        <f>COUNTIF(History!A237:C336,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A239:A338,A44)</f>
+        <f>COUNTIF(History!A237:A336,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -9672,11 +10212,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A339:C399,A44)</f>
+        <f>COUNTIF(History!A337:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A339:A399,A44)</f>
+        <f>COUNTIF(History!A337:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -9684,11 +10224,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C538,A44)</f>
+        <f>COUNTIF(History!A506:C536,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A538,A44)</f>
+        <f>COUNTIF(History!A506:A536,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -9698,7 +10238,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -9713,11 +10253,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A76:C175,A45)</f>
+        <f>COUNTIF(History!A45:C144,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A76:A175,A45)</f>
+        <f>COUNTIF(History!A45:A144,A45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="e">
@@ -9725,11 +10265,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A176:C275,A45)</f>
+        <f>COUNTIF(History!A145:C244,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A176:A275,A45)</f>
+        <f>COUNTIF(History!A145:A244,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -9737,11 +10277,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A276:C375,A45)</f>
+        <f>COUNTIF(History!A239:C338,A45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A276:A375,A45)</f>
+        <f>COUNTIF(History!A239:A338,A45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="e">
@@ -9749,11 +10289,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A376:C399,A45)</f>
+        <f>COUNTIF(History!A339:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A376:A399,A45)</f>
+        <f>COUNTIF(History!A339:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -9761,11 +10301,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C575,A45)</f>
+        <f>COUNTIF(History!A506:C538,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A575,A45)</f>
+        <f>COUNTIF(History!A506:A538,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -9775,7 +10315,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -9790,11 +10330,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A151:C250,A46)</f>
+        <f>COUNTIF(History!A46:C145,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A151:A250,A46)</f>
+        <f>COUNTIF(History!A46:A145,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="e">
@@ -9802,11 +10342,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A251:C350,A46)</f>
+        <f>COUNTIF(History!A146:C245,A46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A251:A350,A46)</f>
+        <f>COUNTIF(History!A146:A245,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="e">
@@ -9814,11 +10354,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A351:C399,A46)</f>
+        <f>COUNTIF(History!A276:C375,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A351:A399,A46)</f>
+        <f>COUNTIF(History!A276:A375,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -9826,11 +10366,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A506:C550,A46)</f>
+        <f>COUNTIF(History!A376:C399,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A506:A550,A46)</f>
+        <f>COUNTIF(History!A376:A399,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -9838,11 +10378,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A551:C650,A46)</f>
+        <f>COUNTIF(History!A506:C575,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A551:A650,A46)</f>
+        <f>COUNTIF(History!A506:A575,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -9852,7 +10392,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -9867,11 +10407,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A46:C145,A47)</f>
+        <f>COUNTIF(History!A47:C146,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A46:A145,A47)</f>
+        <f>COUNTIF(History!A47:A146,A47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="e">
@@ -9879,11 +10419,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A146:C245,A47)</f>
+        <f>COUNTIF(History!A147:C246,A47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A146:A245,A47)</f>
+        <f>COUNTIF(History!A147:A246,A47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="e">
@@ -9891,11 +10431,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A246:C345,A47)</f>
+        <f>COUNTIF(History!A351:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A246:A345,A47)</f>
+        <f>COUNTIF(History!A351:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -9903,11 +10443,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A346:C399,A47)</f>
+        <f>COUNTIF(History!A506:C550,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A346:A399,A47)</f>
+        <f>COUNTIF(History!A506:A550,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -9915,11 +10455,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C545,A47)</f>
+        <f>COUNTIF(History!A551:C650,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A545,A47)</f>
+        <f>COUNTIF(History!A551:A650,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -9929,7 +10469,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -9944,11 +10484,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A70:C169,A48)</f>
+        <f>COUNTIF(History!A48:C147,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A70:A169,A48)</f>
+        <f>COUNTIF(History!A48:A147,A48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="e">
@@ -9956,11 +10496,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A170:C269,A48)</f>
+        <f>COUNTIF(History!A148:C247,A48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A170:A269,A48)</f>
+        <f>COUNTIF(History!A148:A247,A48)</f>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="e">
@@ -9968,11 +10508,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A270:C369,A48)</f>
+        <f>COUNTIF(History!A246:C345,A48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A270:A369,A48)</f>
+        <f>COUNTIF(History!A246:A345,A48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="e">
@@ -9980,11 +10520,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A370:C399,A48)</f>
+        <f>COUNTIF(History!A346:C399,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A370:A399,A48)</f>
+        <f>COUNTIF(History!A346:A399,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -9992,11 +10532,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C569,A48)</f>
+        <f>COUNTIF(History!A506:C545,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A569,A48)</f>
+        <f>COUNTIF(History!A506:A545,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -10006,7 +10546,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -10021,11 +10561,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A104:C203,A49)</f>
+        <f>COUNTIF(History!A49:C148,A49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A104:A203,A49)</f>
+        <f>COUNTIF(History!A49:A148,A49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="e">
@@ -10033,11 +10573,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A204:C303,A49)</f>
+        <f>COUNTIF(History!A149:C248,A49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A204:A303,A49)</f>
+        <f>COUNTIF(History!A149:A248,A49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="e">
@@ -10045,35 +10585,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A304:C399,A49)</f>
+        <f>COUNTIF(History!A270:C369,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A304:A399,A49)</f>
+        <f>COUNTIF(History!A270:A369,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
         <f>L49*100/K49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A49)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A49)</f>
-        <v>#REF!</v>
+      <c r="N49" s="2">
+        <f>COUNTIF(History!A370:C399,A49)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <f>COUNTIF(History!A370:A399,A49)</f>
+        <v>0</v>
       </c>
       <c r="P49" s="2" t="e">
         <f>O49*100/N49</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A506:C603,A49)</f>
+        <f>COUNTIF(History!A506:C569,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A506:A603,A49)</f>
+        <f>COUNTIF(History!A506:A569,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -10083,7 +10623,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -10098,11 +10638,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A42:C141,A50)</f>
+        <f>COUNTIF(History!A50:C149,A50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A42:A141,A50)</f>
+        <f>COUNTIF(History!A50:A149,A50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="e">
@@ -10110,11 +10650,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A142:C241,A50)</f>
+        <f>COUNTIF(History!A150:C249,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A142:A241,A50)</f>
+        <f>COUNTIF(History!A150:A249,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -10122,35 +10662,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A242:C341,A50)</f>
+        <f>COUNTIF(History!A304:C399,A50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A242:A341,A50)</f>
+        <f>COUNTIF(History!A304:A399,A50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="e">
         <f>L50*100/K50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N50" s="2">
-        <f>COUNTIF(History!A342:C399,A50)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <f>COUNTIF(History!A342:A399,A50)</f>
-        <v>0</v>
+      <c r="N50" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A50)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O50" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A50)</f>
+        <v>#REF!</v>
       </c>
       <c r="P50" s="2" t="e">
         <f>O50*100/N50</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A506:C541,A50)</f>
+        <f>COUNTIF(History!A506:C603,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A506:A541,A50)</f>
+        <f>COUNTIF(History!A506:A603,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -10160,7 +10700,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -10175,11 +10715,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="8">
-        <f>COUNTIF(History!A41:C140,A51)</f>
+        <f>COUNTIF(History!A51:C150,A51)</f>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f>COUNTIF(History!A41:A140,A51)</f>
+        <f>COUNTIF(History!A51:A150,A51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="e">
@@ -10187,11 +10727,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF(History!A141:C240,A51)</f>
+        <f>COUNTIF(History!A151:C250,A51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>COUNTIF(History!A141:A240,A51)</f>
+        <f>COUNTIF(History!A151:A250,A51)</f>
         <v>0</v>
       </c>
       <c r="J51" s="2" t="e">
@@ -10199,11 +10739,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="2">
-        <f>COUNTIF(History!A241:C340,A51)</f>
+        <f>COUNTIF(History!A242:C341,A51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>COUNTIF(History!A241:A340,A51)</f>
+        <f>COUNTIF(History!A242:A341,A51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="e">
@@ -10211,11 +10751,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="2">
-        <f>COUNTIF(History!A341:C399,A51)</f>
+        <f>COUNTIF(History!A342:C399,A51)</f>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>COUNTIF(History!A341:A399,A51)</f>
+        <f>COUNTIF(History!A342:A399,A51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="2" t="e">
@@ -10223,11 +10763,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2">
-        <f>COUNTIF(History!A506:C540,A51)</f>
+        <f>COUNTIF(History!A506:C541,A51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>COUNTIF(History!A506:A540,A51)</f>
+        <f>COUNTIF(History!A506:A541,A51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="2" t="e">
@@ -10237,7 +10777,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -10252,11 +10792,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="8">
-        <f>COUNTIF(History!A43:C142,A52)</f>
+        <f>COUNTIF(History!A52:C151,A52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f>COUNTIF(History!A43:A142,A52)</f>
+        <f>COUNTIF(History!A52:A151,A52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="e">
@@ -10264,11 +10804,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="2">
-        <f>COUNTIF(History!A143:C242,A52)</f>
+        <f>COUNTIF(History!A152:C251,A52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>COUNTIF(History!A143:A242,A52)</f>
+        <f>COUNTIF(History!A152:A251,A52)</f>
         <v>0</v>
       </c>
       <c r="J52" s="2" t="e">
@@ -10276,11 +10816,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="2">
-        <f>COUNTIF(History!A243:C342,A52)</f>
+        <f>COUNTIF(History!A241:C340,A52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>COUNTIF(History!A243:A342,A52)</f>
+        <f>COUNTIF(History!A241:A340,A52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="2" t="e">
@@ -10288,11 +10828,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="2">
-        <f>COUNTIF(History!A343:C399,A52)</f>
+        <f>COUNTIF(History!A341:C399,A52)</f>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f>COUNTIF(History!A343:A399,A52)</f>
+        <f>COUNTIF(History!A341:A399,A52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="2" t="e">
@@ -10300,11 +10840,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="2">
-        <f>COUNTIF(History!A506:C542,A52)</f>
+        <f>COUNTIF(History!A506:C540,A52)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>COUNTIF(History!A506:A542,A52)</f>
+        <f>COUNTIF(History!A506:A540,A52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="2" t="e">
@@ -10314,7 +10854,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -10329,11 +10869,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="8">
-        <f>COUNTIF(History!A44:C143,A53)</f>
+        <f>COUNTIF(History!A53:C152,A53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f>COUNTIF(History!A44:A143,A53)</f>
+        <f>COUNTIF(History!A53:A152,A53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="2" t="e">
@@ -10341,11 +10881,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="2">
-        <f>COUNTIF(History!A144:C243,A53)</f>
+        <f>COUNTIF(History!A153:C252,A53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>COUNTIF(History!A144:A243,A53)</f>
+        <f>COUNTIF(History!A153:A252,A53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2" t="e">
@@ -10353,11 +10893,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="2">
-        <f>COUNTIF(History!A244:C343,A53)</f>
+        <f>COUNTIF(History!A243:C342,A53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f>COUNTIF(History!A244:A343,A53)</f>
+        <f>COUNTIF(History!A243:A342,A53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2" t="e">
@@ -10365,11 +10905,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="2">
-        <f>COUNTIF(History!A344:C399,A53)</f>
+        <f>COUNTIF(History!A343:C399,A53)</f>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f>COUNTIF(History!A344:A399,A53)</f>
+        <f>COUNTIF(History!A343:A399,A53)</f>
         <v>0</v>
       </c>
       <c r="P53" s="2" t="e">
@@ -10377,11 +10917,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="2">
-        <f>COUNTIF(History!A506:C543,A53)</f>
+        <f>COUNTIF(History!A506:C542,A53)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>COUNTIF(History!A506:A543,A53)</f>
+        <f>COUNTIF(History!A506:A542,A53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="2" t="e">
@@ -10391,7 +10931,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -10406,11 +10946,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="8">
-        <f>COUNTIF(History!A45:C144,A54)</f>
+        <f>COUNTIF(History!A54:C153,A54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f>COUNTIF(History!A45:A144,A54)</f>
+        <f>COUNTIF(History!A54:A153,A54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="2" t="e">
@@ -10418,11 +10958,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="2">
-        <f>COUNTIF(History!A145:C244,A54)</f>
+        <f>COUNTIF(History!A154:C253,A54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>COUNTIF(History!A145:A244,A54)</f>
+        <f>COUNTIF(History!A154:A253,A54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2" t="e">
@@ -10430,11 +10970,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="2">
-        <f>COUNTIF(History!A245:C344,A54)</f>
+        <f>COUNTIF(History!A244:C343,A54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f>COUNTIF(History!A245:A344,A54)</f>
+        <f>COUNTIF(History!A244:A343,A54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="2" t="e">
@@ -10442,11 +10982,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="2">
-        <f>COUNTIF(History!A345:C399,A54)</f>
+        <f>COUNTIF(History!A344:C399,A54)</f>
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <f>COUNTIF(History!A345:A399,A54)</f>
+        <f>COUNTIF(History!A344:A399,A54)</f>
         <v>0</v>
       </c>
       <c r="P54" s="2" t="e">
@@ -10454,11 +10994,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q54" s="2">
-        <f>COUNTIF(History!A506:C544,A54)</f>
+        <f>COUNTIF(History!A506:C543,A54)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>COUNTIF(History!A506:A544,A54)</f>
+        <f>COUNTIF(History!A506:A543,A54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="2" t="e">
@@ -10468,7 +11008,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -10483,11 +11023,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="8">
-        <f>COUNTIF(History!A47:C146,A55)</f>
+        <f>COUNTIF(History!A55:C154,A55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f>COUNTIF(History!A47:A146,A55)</f>
+        <f>COUNTIF(History!A55:A154,A55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="e">
@@ -10495,11 +11035,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="2">
-        <f>COUNTIF(History!A147:C246,A55)</f>
+        <f>COUNTIF(History!A155:C254,A55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>COUNTIF(History!A147:A246,A55)</f>
+        <f>COUNTIF(History!A155:A254,A55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2" t="e">
@@ -10507,11 +11047,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="2">
-        <f>COUNTIF(History!A247:C346,A55)</f>
+        <f>COUNTIF(History!A245:C344,A55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f>COUNTIF(History!A247:A346,A55)</f>
+        <f>COUNTIF(History!A245:A344,A55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2" t="e">
@@ -10519,11 +11059,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="2">
-        <f>COUNTIF(History!A347:C399,A55)</f>
+        <f>COUNTIF(History!A345:C399,A55)</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f>COUNTIF(History!A347:A399,A55)</f>
+        <f>COUNTIF(History!A345:A399,A55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="2" t="e">
@@ -10531,11 +11071,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="2">
-        <f>COUNTIF(History!A506:C546,A55)</f>
+        <f>COUNTIF(History!A506:C544,A55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>COUNTIF(History!A506:A546,A55)</f>
+        <f>COUNTIF(History!A506:A544,A55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2" t="e">
@@ -10545,7 +11085,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -10560,11 +11100,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="8">
-        <f>COUNTIF(History!A48:C147,A56)</f>
+        <f>COUNTIF(History!A56:C155,A56)</f>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f>COUNTIF(History!A48:A147,A56)</f>
+        <f>COUNTIF(History!A56:A155,A56)</f>
         <v>0</v>
       </c>
       <c r="G56" s="2" t="e">
@@ -10572,11 +11112,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="2">
-        <f>COUNTIF(History!A148:C247,A56)</f>
+        <f>COUNTIF(History!A156:C255,A56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>COUNTIF(History!A148:A247,A56)</f>
+        <f>COUNTIF(History!A156:A255,A56)</f>
         <v>0</v>
       </c>
       <c r="J56" s="2" t="e">
@@ -10584,11 +11124,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="2">
-        <f>COUNTIF(History!A248:C347,A56)</f>
+        <f>COUNTIF(History!A247:C346,A56)</f>
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <f>COUNTIF(History!A248:A347,A56)</f>
+        <f>COUNTIF(History!A247:A346,A56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="2" t="e">
@@ -10596,11 +11136,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N56" s="2">
-        <f>COUNTIF(History!A348:C399,A56)</f>
+        <f>COUNTIF(History!A347:C399,A56)</f>
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f>COUNTIF(History!A348:A399,A56)</f>
+        <f>COUNTIF(History!A347:A399,A56)</f>
         <v>0</v>
       </c>
       <c r="P56" s="2" t="e">
@@ -10608,11 +11148,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="2">
-        <f>COUNTIF(History!A506:C547,A56)</f>
+        <f>COUNTIF(History!A506:C546,A56)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>COUNTIF(History!A506:A547,A56)</f>
+        <f>COUNTIF(History!A506:A546,A56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2" t="e">
@@ -10622,7 +11162,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
@@ -10637,11 +11177,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E57" s="8">
-        <f>COUNTIF(History!A49:C148,A57)</f>
+        <f>COUNTIF(History!A57:C156,A57)</f>
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <f>COUNTIF(History!A49:A148,A57)</f>
+        <f>COUNTIF(History!A57:A156,A57)</f>
         <v>0</v>
       </c>
       <c r="G57" s="2" t="e">
@@ -10649,11 +11189,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="2">
-        <f>COUNTIF(History!A149:C248,A57)</f>
+        <f>COUNTIF(History!A157:C256,A57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>COUNTIF(History!A149:A248,A57)</f>
+        <f>COUNTIF(History!A157:A256,A57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2" t="e">
@@ -10661,11 +11201,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="2">
-        <f>COUNTIF(History!A249:C348,A57)</f>
+        <f>COUNTIF(History!A248:C347,A57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f>COUNTIF(History!A249:A348,A57)</f>
+        <f>COUNTIF(History!A248:A347,A57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="2" t="e">
@@ -10673,11 +11213,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N57" s="2">
-        <f>COUNTIF(History!A349:C399,A57)</f>
+        <f>COUNTIF(History!A348:C399,A57)</f>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f>COUNTIF(History!A349:A399,A57)</f>
+        <f>COUNTIF(History!A348:A399,A57)</f>
         <v>0</v>
       </c>
       <c r="P57" s="2" t="e">
@@ -10685,11 +11225,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="2">
-        <f>COUNTIF(History!A506:C548,A57)</f>
+        <f>COUNTIF(History!A506:C547,A57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>COUNTIF(History!A506:A548,A57)</f>
+        <f>COUNTIF(History!A506:A547,A57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2" t="e">
@@ -10699,7 +11239,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -10714,11 +11254,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="8">
-        <f>COUNTIF(History!A50:C149,A58)</f>
+        <f>COUNTIF(History!A58:C157,A58)</f>
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <f>COUNTIF(History!A50:A149,A58)</f>
+        <f>COUNTIF(History!A58:A157,A58)</f>
         <v>0</v>
       </c>
       <c r="G58" s="2" t="e">
@@ -10726,11 +11266,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF(History!A150:C249,A58)</f>
+        <f>COUNTIF(History!A158:C257,A58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>COUNTIF(History!A150:A249,A58)</f>
+        <f>COUNTIF(History!A158:A257,A58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="e">
@@ -10738,11 +11278,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="2">
-        <f>COUNTIF(History!A250:C349,A58)</f>
+        <f>COUNTIF(History!A249:C348,A58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f>COUNTIF(History!A250:A349,A58)</f>
+        <f>COUNTIF(History!A249:A348,A58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="e">
@@ -10750,11 +11290,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="2">
-        <f>COUNTIF(History!A350:C399,A58)</f>
+        <f>COUNTIF(History!A349:C399,A58)</f>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f>COUNTIF(History!A350:A399,A58)</f>
+        <f>COUNTIF(History!A349:A399,A58)</f>
         <v>0</v>
       </c>
       <c r="P58" s="2" t="e">
@@ -10762,11 +11302,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="2">
-        <f>COUNTIF(History!A506:C549,A58)</f>
+        <f>COUNTIF(History!A506:C548,A58)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>COUNTIF(History!A506:A549,A58)</f>
+        <f>COUNTIF(History!A506:A548,A58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2" t="e">
@@ -10776,7 +11316,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -10791,11 +11331,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="8">
-        <f>COUNTIF(History!A51:C150,A59)</f>
+        <f>COUNTIF(History!A59:C158,A59)</f>
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <f>COUNTIF(History!A51:A150,A59)</f>
+        <f>COUNTIF(History!A59:A158,A59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="2" t="e">
@@ -10803,11 +11343,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="2">
-        <f>COUNTIF(History!A151:C250,A59)</f>
+        <f>COUNTIF(History!A159:C258,A59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>COUNTIF(History!A151:A250,A59)</f>
+        <f>COUNTIF(History!A159:A258,A59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="2" t="e">
@@ -10815,11 +11355,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="2">
-        <f>COUNTIF(History!A251:C350,A59)</f>
+        <f>COUNTIF(History!A250:C349,A59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>COUNTIF(History!A251:A350,A59)</f>
+        <f>COUNTIF(History!A250:A349,A59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2" t="e">
@@ -10827,11 +11367,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="2">
-        <f>COUNTIF(History!A351:C399,A59)</f>
+        <f>COUNTIF(History!A350:C399,A59)</f>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f>COUNTIF(History!A351:A399,A59)</f>
+        <f>COUNTIF(History!A350:A399,A59)</f>
         <v>0</v>
       </c>
       <c r="P59" s="2" t="e">
@@ -10839,11 +11379,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="2">
-        <f>COUNTIF(History!A506:C550,A59)</f>
+        <f>COUNTIF(History!A506:C549,A59)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>COUNTIF(History!A506:A550,A59)</f>
+        <f>COUNTIF(History!A506:A549,A59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2" t="e">
@@ -10853,7 +11393,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -10868,11 +11408,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="8">
-        <f>COUNTIF(History!A52:C151,A60)</f>
+        <f>COUNTIF(History!A60:C159,A60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <f>COUNTIF(History!A52:A151,A60)</f>
+        <f>COUNTIF(History!A60:A159,A60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="e">
@@ -10880,11 +11420,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="2">
-        <f>COUNTIF(History!A152:C251,A60)</f>
+        <f>COUNTIF(History!A160:C259,A60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>COUNTIF(History!A152:A251,A60)</f>
+        <f>COUNTIF(History!A160:A259,A60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2" t="e">
@@ -10892,11 +11432,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="2">
-        <f>COUNTIF(History!A252:C351,A60)</f>
+        <f>COUNTIF(History!A251:C350,A60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>COUNTIF(History!A252:A351,A60)</f>
+        <f>COUNTIF(History!A251:A350,A60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2" t="e">
@@ -10904,11 +11444,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="2">
-        <f>COUNTIF(History!A352:C399,A60)</f>
+        <f>COUNTIF(History!A351:C399,A60)</f>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f>COUNTIF(History!A352:A399,A60)</f>
+        <f>COUNTIF(History!A351:A399,A60)</f>
         <v>0</v>
       </c>
       <c r="P60" s="2" t="e">
@@ -10916,11 +11456,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="2">
-        <f>COUNTIF(History!A506:C551,A60)</f>
+        <f>COUNTIF(History!A506:C550,A60)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>COUNTIF(History!A506:A551,A60)</f>
+        <f>COUNTIF(History!A506:A550,A60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="2" t="e">
@@ -10930,7 +11470,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -10945,11 +11485,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8">
-        <f>COUNTIF(History!A53:C152,A61)</f>
+        <f>COUNTIF(History!A61:C160,A61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <f>COUNTIF(History!A53:A152,A61)</f>
+        <f>COUNTIF(History!A61:A160,A61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="e">
@@ -10957,11 +11497,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="2">
-        <f>COUNTIF(History!A153:C252,A61)</f>
+        <f>COUNTIF(History!A161:C260,A61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>COUNTIF(History!A153:A252,A61)</f>
+        <f>COUNTIF(History!A161:A260,A61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="e">
@@ -10969,11 +11509,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="2">
-        <f>COUNTIF(History!A253:C352,A61)</f>
+        <f>COUNTIF(History!A252:C351,A61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>COUNTIF(History!A253:A352,A61)</f>
+        <f>COUNTIF(History!A252:A351,A61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="2" t="e">
@@ -10981,11 +11521,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="2">
-        <f>COUNTIF(History!A353:C399,A61)</f>
+        <f>COUNTIF(History!A352:C399,A61)</f>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f>COUNTIF(History!A353:A399,A61)</f>
+        <f>COUNTIF(History!A352:A399,A61)</f>
         <v>0</v>
       </c>
       <c r="P61" s="2" t="e">
@@ -10993,11 +11533,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="2">
-        <f>COUNTIF(History!A506:C552,A61)</f>
+        <f>COUNTIF(History!A506:C551,A61)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>COUNTIF(History!A506:A552,A61)</f>
+        <f>COUNTIF(History!A506:A551,A61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="2" t="e">
@@ -11022,11 +11562,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8">
-        <f>COUNTIF(History!A55:C154,A62)</f>
+        <f>COUNTIF(History!A62:C161,A62)</f>
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <f>COUNTIF(History!A55:A154,A62)</f>
+        <f>COUNTIF(History!A62:A161,A62)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2" t="e">
@@ -11034,11 +11574,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="2">
-        <f>COUNTIF(History!A155:C254,A62)</f>
+        <f>COUNTIF(History!A162:C261,A62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>COUNTIF(History!A155:A254,A62)</f>
+        <f>COUNTIF(History!A162:A261,A62)</f>
         <v>0</v>
       </c>
       <c r="J62" s="2" t="e">
@@ -11099,11 +11639,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="8">
-        <f>COUNTIF(History!A56:C155,A63)</f>
+        <f>COUNTIF(History!A63:C162,A63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <f>COUNTIF(History!A56:A155,A63)</f>
+        <f>COUNTIF(History!A63:A162,A63)</f>
         <v>0</v>
       </c>
       <c r="G63" s="2" t="e">
@@ -11111,11 +11651,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="2">
-        <f>COUNTIF(History!A156:C255,A63)</f>
+        <f>COUNTIF(History!A163:C262,A63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>COUNTIF(History!A156:A255,A63)</f>
+        <f>COUNTIF(History!A163:A262,A63)</f>
         <v>0</v>
       </c>
       <c r="J63" s="2" t="e">
@@ -11176,11 +11716,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="8">
-        <f>COUNTIF(History!A57:C156,A64)</f>
+        <f>COUNTIF(History!A64:C163,A64)</f>
         <v>0</v>
       </c>
       <c r="F64" s="8">
-        <f>COUNTIF(History!A57:A156,A64)</f>
+        <f>COUNTIF(History!A64:A163,A64)</f>
         <v>0</v>
       </c>
       <c r="G64" s="2" t="e">
@@ -11188,11 +11728,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="2">
-        <f>COUNTIF(History!A157:C256,A64)</f>
+        <f>COUNTIF(History!A164:C263,A64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <f>COUNTIF(History!A157:A256,A64)</f>
+        <f>COUNTIF(History!A164:A263,A64)</f>
         <v>0</v>
       </c>
       <c r="J64" s="2" t="e">
@@ -11253,11 +11793,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E65" s="8">
-        <f>COUNTIF(History!A58:C157,A65)</f>
+        <f>COUNTIF(History!A65:C164,A65)</f>
         <v>0</v>
       </c>
       <c r="F65" s="8">
-        <f>COUNTIF(History!A58:A157,A65)</f>
+        <f>COUNTIF(History!A65:A164,A65)</f>
         <v>0</v>
       </c>
       <c r="G65" s="2" t="e">
@@ -11265,11 +11805,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="2">
-        <f>COUNTIF(History!A158:C257,A65)</f>
+        <f>COUNTIF(History!A165:C264,A65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f>COUNTIF(History!A158:A257,A65)</f>
+        <f>COUNTIF(History!A165:A264,A65)</f>
         <v>0</v>
       </c>
       <c r="J65" s="2" t="e">
@@ -11330,11 +11870,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E66" s="8">
-        <f>COUNTIF(History!A59:C158,A66)</f>
+        <f>COUNTIF(History!A66:C165,A66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="8">
-        <f>COUNTIF(History!A59:A158,A66)</f>
+        <f>COUNTIF(History!A66:A165,A66)</f>
         <v>0</v>
       </c>
       <c r="G66" s="2" t="e">
@@ -11342,11 +11882,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="2">
-        <f>COUNTIF(History!A159:C258,A66)</f>
+        <f>COUNTIF(History!A166:C265,A66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f>COUNTIF(History!A159:A258,A66)</f>
+        <f>COUNTIF(History!A166:A265,A66)</f>
         <v>0</v>
       </c>
       <c r="J66" s="2" t="e">
@@ -11407,11 +11947,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E67" s="8">
-        <f>COUNTIF(History!A61:C160,A67)</f>
+        <f>COUNTIF(History!A67:C166,A67)</f>
         <v>0</v>
       </c>
       <c r="F67" s="8">
-        <f>COUNTIF(History!A61:A160,A67)</f>
+        <f>COUNTIF(History!A67:A166,A67)</f>
         <v>0</v>
       </c>
       <c r="G67" s="2" t="e">
@@ -11419,11 +11959,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="2">
-        <f>COUNTIF(History!A161:C260,A67)</f>
+        <f>COUNTIF(History!A167:C266,A67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <f>COUNTIF(History!A161:A260,A67)</f>
+        <f>COUNTIF(History!A167:A266,A67)</f>
         <v>0</v>
       </c>
       <c r="J67" s="2" t="e">
@@ -11484,11 +12024,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E68" s="8">
-        <f>COUNTIF(History!A62:C161,A68)</f>
+        <f>COUNTIF(History!A68:C167,A68)</f>
         <v>0</v>
       </c>
       <c r="F68" s="8">
-        <f>COUNTIF(History!A62:A161,A68)</f>
+        <f>COUNTIF(History!A68:A167,A68)</f>
         <v>0</v>
       </c>
       <c r="G68" s="2" t="e">
@@ -11496,11 +12036,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="2">
-        <f>COUNTIF(History!A162:C261,A68)</f>
+        <f>COUNTIF(History!A168:C267,A68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f>COUNTIF(History!A162:A261,A68)</f>
+        <f>COUNTIF(History!A168:A267,A68)</f>
         <v>0</v>
       </c>
       <c r="J68" s="2" t="e">
@@ -11561,11 +12101,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E69" s="8">
-        <f>COUNTIF(History!A63:C162,A69)</f>
+        <f>COUNTIF(History!A69:C168,A69)</f>
         <v>0</v>
       </c>
       <c r="F69" s="8">
-        <f>COUNTIF(History!A63:A162,A69)</f>
+        <f>COUNTIF(History!A69:A168,A69)</f>
         <v>0</v>
       </c>
       <c r="G69" s="2" t="e">
@@ -11573,11 +12113,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="2">
-        <f>COUNTIF(History!A163:C262,A69)</f>
+        <f>COUNTIF(History!A169:C268,A69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <f>COUNTIF(History!A163:A262,A69)</f>
+        <f>COUNTIF(History!A169:A268,A69)</f>
         <v>0</v>
       </c>
       <c r="J69" s="2" t="e">
@@ -11638,11 +12178,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E70" s="8">
-        <f>COUNTIF(History!A64:C163,A70)</f>
+        <f>COUNTIF(History!A70:C169,A70)</f>
         <v>0</v>
       </c>
       <c r="F70" s="8">
-        <f>COUNTIF(History!A64:A163,A70)</f>
+        <f>COUNTIF(History!A70:A169,A70)</f>
         <v>0</v>
       </c>
       <c r="G70" s="2" t="e">
@@ -11650,11 +12190,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="2">
-        <f>COUNTIF(History!A164:C263,A70)</f>
+        <f>COUNTIF(History!A170:C269,A70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <f>COUNTIF(History!A164:A263,A70)</f>
+        <f>COUNTIF(History!A170:A269,A70)</f>
         <v>0</v>
       </c>
       <c r="J70" s="2" t="e">
@@ -11715,11 +12255,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E71" s="8">
-        <f>COUNTIF(History!A65:C164,A71)</f>
+        <f>COUNTIF(History!A71:C170,A71)</f>
         <v>0</v>
       </c>
       <c r="F71" s="8">
-        <f>COUNTIF(History!A65:A164,A71)</f>
+        <f>COUNTIF(History!A71:A170,A71)</f>
         <v>0</v>
       </c>
       <c r="G71" s="2" t="e">
@@ -11727,11 +12267,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="2">
-        <f>COUNTIF(History!A165:C264,A71)</f>
+        <f>COUNTIF(History!A171:C270,A71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="2">
-        <f>COUNTIF(History!A165:A264,A71)</f>
+        <f>COUNTIF(History!A171:A270,A71)</f>
         <v>0</v>
       </c>
       <c r="J71" s="2" t="e">
@@ -11792,11 +12332,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E72" s="8">
-        <f>COUNTIF(History!A66:C165,A72)</f>
+        <f>COUNTIF(History!A72:C171,A72)</f>
         <v>0</v>
       </c>
       <c r="F72" s="8">
-        <f>COUNTIF(History!A66:A165,A72)</f>
+        <f>COUNTIF(History!A72:A171,A72)</f>
         <v>0</v>
       </c>
       <c r="G72" s="2" t="e">
@@ -11804,11 +12344,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H72" s="2">
-        <f>COUNTIF(History!A166:C265,A72)</f>
+        <f>COUNTIF(History!A172:C271,A72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <f>COUNTIF(History!A166:A265,A72)</f>
+        <f>COUNTIF(History!A172:A271,A72)</f>
         <v>0</v>
       </c>
       <c r="J72" s="2" t="e">
@@ -11869,11 +12409,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E73" s="8">
-        <f>COUNTIF(History!A67:C166,A73)</f>
+        <f>COUNTIF(History!A73:C172,A73)</f>
         <v>0</v>
       </c>
       <c r="F73" s="8">
-        <f>COUNTIF(History!A67:A166,A73)</f>
+        <f>COUNTIF(History!A73:A172,A73)</f>
         <v>0</v>
       </c>
       <c r="G73" s="2" t="e">
@@ -11881,11 +12421,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="2">
-        <f>COUNTIF(History!A167:C266,A73)</f>
+        <f>COUNTIF(History!A173:C272,A73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f>COUNTIF(History!A167:A266,A73)</f>
+        <f>COUNTIF(History!A173:A272,A73)</f>
         <v>0</v>
       </c>
       <c r="J73" s="2" t="e">
@@ -11946,11 +12486,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E74" s="8">
-        <f>COUNTIF(History!A68:C167,A74)</f>
+        <f>COUNTIF(History!A74:C173,A74)</f>
         <v>0</v>
       </c>
       <c r="F74" s="8">
-        <f>COUNTIF(History!A68:A167,A74)</f>
+        <f>COUNTIF(History!A74:A173,A74)</f>
         <v>0</v>
       </c>
       <c r="G74" s="2" t="e">
@@ -11958,11 +12498,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="2">
-        <f>COUNTIF(History!A168:C267,A74)</f>
+        <f>COUNTIF(History!A174:C273,A74)</f>
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f>COUNTIF(History!A168:A267,A74)</f>
+        <f>COUNTIF(History!A174:A273,A74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="2" t="e">
@@ -12023,11 +12563,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E75" s="8">
-        <f>COUNTIF(History!A69:C168,A75)</f>
+        <f>COUNTIF(History!A75:C174,A75)</f>
         <v>0</v>
       </c>
       <c r="F75" s="8">
-        <f>COUNTIF(History!A69:A168,A75)</f>
+        <f>COUNTIF(History!A75:A174,A75)</f>
         <v>0</v>
       </c>
       <c r="G75" s="2" t="e">
@@ -12035,11 +12575,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="2">
-        <f>COUNTIF(History!A169:C268,A75)</f>
+        <f>COUNTIF(History!A175:C274,A75)</f>
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f>COUNTIF(History!A169:A268,A75)</f>
+        <f>COUNTIF(History!A175:A274,A75)</f>
         <v>0</v>
       </c>
       <c r="J75" s="2" t="e">
@@ -12100,11 +12640,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E76" s="8">
-        <f>COUNTIF(History!A71:C170,A76)</f>
+        <f>COUNTIF(History!A76:C175,A76)</f>
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f>COUNTIF(History!A71:A170,A76)</f>
+        <f>COUNTIF(History!A76:A175,A76)</f>
         <v>0</v>
       </c>
       <c r="G76" s="2" t="e">
@@ -12112,11 +12652,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="2">
-        <f>COUNTIF(History!A171:C270,A76)</f>
+        <f>COUNTIF(History!A176:C275,A76)</f>
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <f>COUNTIF(History!A171:A270,A76)</f>
+        <f>COUNTIF(History!A176:A275,A76)</f>
         <v>0</v>
       </c>
       <c r="J76" s="2" t="e">
@@ -12177,11 +12717,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E77" s="8">
-        <f>COUNTIF(History!A72:C171,A77)</f>
+        <f>COUNTIF(History!A77:C176,A77)</f>
         <v>0</v>
       </c>
       <c r="F77" s="8">
-        <f>COUNTIF(History!A72:A171,A77)</f>
+        <f>COUNTIF(History!A77:A176,A77)</f>
         <v>0</v>
       </c>
       <c r="G77" s="2" t="e">
@@ -12189,11 +12729,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="2">
-        <f>COUNTIF(History!A172:C271,A77)</f>
+        <f>COUNTIF(History!A177:C276,A77)</f>
         <v>0</v>
       </c>
       <c r="I77" s="2">
-        <f>COUNTIF(History!A172:A271,A77)</f>
+        <f>COUNTIF(History!A177:A276,A77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="2" t="e">
@@ -12254,11 +12794,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E78" s="8">
-        <f>COUNTIF(History!A73:C172,A78)</f>
+        <f>COUNTIF(History!A78:C177,A78)</f>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>COUNTIF(History!A73:A172,A78)</f>
+        <f>COUNTIF(History!A78:A177,A78)</f>
         <v>0</v>
       </c>
       <c r="G78" s="2" t="e">
@@ -12266,11 +12806,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="2">
-        <f>COUNTIF(History!A173:C272,A78)</f>
+        <f>COUNTIF(History!A178:C277,A78)</f>
         <v>0</v>
       </c>
       <c r="I78" s="2">
-        <f>COUNTIF(History!A173:A272,A78)</f>
+        <f>COUNTIF(History!A178:A277,A78)</f>
         <v>0</v>
       </c>
       <c r="J78" s="2" t="e">
@@ -12331,11 +12871,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E79" s="8">
-        <f>COUNTIF(History!A74:C173,A79)</f>
+        <f>COUNTIF(History!A79:C178,A79)</f>
         <v>0</v>
       </c>
       <c r="F79" s="8">
-        <f>COUNTIF(History!A74:A173,A79)</f>
+        <f>COUNTIF(History!A79:A178,A79)</f>
         <v>0</v>
       </c>
       <c r="G79" s="2" t="e">
@@ -12343,11 +12883,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="2">
-        <f>COUNTIF(History!A174:C273,A79)</f>
+        <f>COUNTIF(History!A179:C278,A79)</f>
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f>COUNTIF(History!A174:A273,A79)</f>
+        <f>COUNTIF(History!A179:A278,A79)</f>
         <v>0</v>
       </c>
       <c r="J79" s="2" t="e">
@@ -12408,11 +12948,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E80" s="8">
-        <f>COUNTIF(History!A75:C174,A80)</f>
+        <f>COUNTIF(History!A80:C179,A80)</f>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f>COUNTIF(History!A75:A174,A80)</f>
+        <f>COUNTIF(History!A80:A179,A80)</f>
         <v>0</v>
       </c>
       <c r="G80" s="2" t="e">
@@ -12420,11 +12960,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H80" s="2">
-        <f>COUNTIF(History!A175:C274,A80)</f>
+        <f>COUNTIF(History!A180:C279,A80)</f>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f>COUNTIF(History!A175:A274,A80)</f>
+        <f>COUNTIF(History!A180:A279,A80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="2" t="e">
@@ -12485,11 +13025,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E81" s="8">
-        <f>COUNTIF(History!A78:C177,A81)</f>
+        <f>COUNTIF(History!A81:C180,A81)</f>
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <f>COUNTIF(History!A78:A177,A81)</f>
+        <f>COUNTIF(History!A81:A180,A81)</f>
         <v>0</v>
       </c>
       <c r="G81" s="2" t="e">
@@ -12497,11 +13037,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="2">
-        <f>COUNTIF(History!A178:C277,A81)</f>
+        <f>COUNTIF(History!A181:C280,A81)</f>
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f>COUNTIF(History!A178:A277,A81)</f>
+        <f>COUNTIF(History!A181:A280,A81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="2" t="e">
@@ -12562,11 +13102,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E82" s="8">
-        <f>COUNTIF(History!A79:C178,A82)</f>
+        <f>COUNTIF(History!A82:C181,A82)</f>
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <f>COUNTIF(History!A79:A178,A82)</f>
+        <f>COUNTIF(History!A82:A181,A82)</f>
         <v>0</v>
       </c>
       <c r="G82" s="2" t="e">
@@ -12574,11 +13114,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="2">
-        <f>COUNTIF(History!A179:C278,A82)</f>
+        <f>COUNTIF(History!A182:C281,A82)</f>
         <v>0</v>
       </c>
       <c r="I82" s="2">
-        <f>COUNTIF(History!A179:A278,A82)</f>
+        <f>COUNTIF(History!A182:A281,A82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="2" t="e">
@@ -12639,11 +13179,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E83" s="8">
-        <f>COUNTIF(History!A80:C179,A83)</f>
+        <f>COUNTIF(History!A83:C182,A83)</f>
         <v>0</v>
       </c>
       <c r="F83" s="8">
-        <f>COUNTIF(History!A80:A179,A83)</f>
+        <f>COUNTIF(History!A83:A182,A83)</f>
         <v>0</v>
       </c>
       <c r="G83" s="2" t="e">
@@ -12651,11 +13191,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H83" s="2">
-        <f>COUNTIF(History!A180:C279,A83)</f>
+        <f>COUNTIF(History!A183:C282,A83)</f>
         <v>0</v>
       </c>
       <c r="I83" s="2">
-        <f>COUNTIF(History!A180:A279,A83)</f>
+        <f>COUNTIF(History!A183:A282,A83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="2" t="e">
@@ -12716,11 +13256,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E84" s="8">
-        <f>COUNTIF(History!A81:C180,A84)</f>
+        <f>COUNTIF(History!A84:C183,A84)</f>
         <v>0</v>
       </c>
       <c r="F84" s="8">
-        <f>COUNTIF(History!A81:A180,A84)</f>
+        <f>COUNTIF(History!A84:A183,A84)</f>
         <v>0</v>
       </c>
       <c r="G84" s="2" t="e">
@@ -12728,11 +13268,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H84" s="2">
-        <f>COUNTIF(History!A181:C280,A84)</f>
+        <f>COUNTIF(History!A184:C283,A84)</f>
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <f>COUNTIF(History!A181:A280,A84)</f>
+        <f>COUNTIF(History!A184:A283,A84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="2" t="e">
@@ -12793,11 +13333,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E85" s="8">
-        <f>COUNTIF(History!A82:C181,A85)</f>
+        <f>COUNTIF(History!A85:C184,A85)</f>
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <f>COUNTIF(History!A82:A181,A85)</f>
+        <f>COUNTIF(History!A85:A184,A85)</f>
         <v>0</v>
       </c>
       <c r="G85" s="2" t="e">
@@ -12805,11 +13345,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H85" s="2">
-        <f>COUNTIF(History!A182:C281,A85)</f>
+        <f>COUNTIF(History!A185:C284,A85)</f>
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <f>COUNTIF(History!A182:A281,A85)</f>
+        <f>COUNTIF(History!A185:A284,A85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="2" t="e">
@@ -12870,11 +13410,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E86" s="8">
-        <f>COUNTIF(History!A83:C182,A86)</f>
+        <f>COUNTIF(History!A86:C185,A86)</f>
         <v>0</v>
       </c>
       <c r="F86" s="8">
-        <f>COUNTIF(History!A83:A182,A86)</f>
+        <f>COUNTIF(History!A86:A185,A86)</f>
         <v>0</v>
       </c>
       <c r="G86" s="2" t="e">
@@ -12882,11 +13422,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H86" s="2">
-        <f>COUNTIF(History!A183:C282,A86)</f>
+        <f>COUNTIF(History!A186:C285,A86)</f>
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <f>COUNTIF(History!A183:A282,A86)</f>
+        <f>COUNTIF(History!A186:A285,A86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="2" t="e">
@@ -12947,11 +13487,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E87" s="8">
-        <f>COUNTIF(History!A84:C183,A87)</f>
+        <f>COUNTIF(History!A87:C186,A87)</f>
         <v>0</v>
       </c>
       <c r="F87" s="8">
-        <f>COUNTIF(History!A84:A183,A87)</f>
+        <f>COUNTIF(History!A87:A186,A87)</f>
         <v>0</v>
       </c>
       <c r="G87" s="2" t="e">
@@ -12959,11 +13499,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H87" s="2">
-        <f>COUNTIF(History!A184:C283,A87)</f>
+        <f>COUNTIF(History!A187:C286,A87)</f>
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <f>COUNTIF(History!A184:A283,A87)</f>
+        <f>COUNTIF(History!A187:A286,A87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="2" t="e">
@@ -13024,11 +13564,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E88" s="8">
-        <f>COUNTIF(History!A85:C184,A88)</f>
+        <f>COUNTIF(History!A88:C187,A88)</f>
         <v>0</v>
       </c>
       <c r="F88" s="8">
-        <f>COUNTIF(History!A85:A184,A88)</f>
+        <f>COUNTIF(History!A88:A187,A88)</f>
         <v>0</v>
       </c>
       <c r="G88" s="2" t="e">
@@ -13036,11 +13576,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H88" s="2">
-        <f>COUNTIF(History!A185:C284,A88)</f>
+        <f>COUNTIF(History!A188:C287,A88)</f>
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <f>COUNTIF(History!A185:A284,A88)</f>
+        <f>COUNTIF(History!A188:A287,A88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="2" t="e">
@@ -13101,11 +13641,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E89" s="8">
-        <f>COUNTIF(History!A86:C185,A89)</f>
+        <f>COUNTIF(History!A89:C188,A89)</f>
         <v>0</v>
       </c>
       <c r="F89" s="8">
-        <f>COUNTIF(History!A86:A185,A89)</f>
+        <f>COUNTIF(History!A89:A188,A89)</f>
         <v>0</v>
       </c>
       <c r="G89" s="2" t="e">
@@ -13113,11 +13653,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="2">
-        <f>COUNTIF(History!A186:C285,A89)</f>
+        <f>COUNTIF(History!A189:C288,A89)</f>
         <v>0</v>
       </c>
       <c r="I89" s="2">
-        <f>COUNTIF(History!A186:A285,A89)</f>
+        <f>COUNTIF(History!A189:A288,A89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="2" t="e">
@@ -13178,11 +13718,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E90" s="8">
-        <f>COUNTIF(History!A87:C186,A90)</f>
+        <f>COUNTIF(History!A90:C189,A90)</f>
         <v>0</v>
       </c>
       <c r="F90" s="8">
-        <f>COUNTIF(History!A87:A186,A90)</f>
+        <f>COUNTIF(History!A90:A189,A90)</f>
         <v>0</v>
       </c>
       <c r="G90" s="2" t="e">
@@ -13190,11 +13730,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H90" s="2">
-        <f>COUNTIF(History!A187:C286,A90)</f>
+        <f>COUNTIF(History!A190:C289,A90)</f>
         <v>0</v>
       </c>
       <c r="I90" s="2">
-        <f>COUNTIF(History!A187:A286,A90)</f>
+        <f>COUNTIF(History!A190:A289,A90)</f>
         <v>0</v>
       </c>
       <c r="J90" s="2" t="e">
@@ -13255,11 +13795,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E91" s="8">
-        <f>COUNTIF(History!A88:C187,A91)</f>
+        <f>COUNTIF(History!A91:C190,A91)</f>
         <v>0</v>
       </c>
       <c r="F91" s="8">
-        <f>COUNTIF(History!A88:A187,A91)</f>
+        <f>COUNTIF(History!A91:A190,A91)</f>
         <v>0</v>
       </c>
       <c r="G91" s="2" t="e">
@@ -13267,11 +13807,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H91" s="2">
-        <f>COUNTIF(History!A188:C287,A91)</f>
+        <f>COUNTIF(History!A191:C290,A91)</f>
         <v>0</v>
       </c>
       <c r="I91" s="2">
-        <f>COUNTIF(History!A188:A287,A91)</f>
+        <f>COUNTIF(History!A191:A290,A91)</f>
         <v>0</v>
       </c>
       <c r="J91" s="2" t="e">
@@ -13332,11 +13872,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E92" s="8">
-        <f>COUNTIF(History!A89:C188,A92)</f>
+        <f>COUNTIF(History!A92:C191,A92)</f>
         <v>0</v>
       </c>
       <c r="F92" s="8">
-        <f>COUNTIF(History!A89:A188,A92)</f>
+        <f>COUNTIF(History!A92:A191,A92)</f>
         <v>0</v>
       </c>
       <c r="G92" s="2" t="e">
@@ -13344,11 +13884,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H92" s="2">
-        <f>COUNTIF(History!A189:C288,A92)</f>
+        <f>COUNTIF(History!A192:C291,A92)</f>
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <f>COUNTIF(History!A189:A288,A92)</f>
+        <f>COUNTIF(History!A192:A291,A92)</f>
         <v>0</v>
       </c>
       <c r="J92" s="2" t="e">
@@ -13409,11 +13949,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E93" s="8">
-        <f>COUNTIF(History!A90:C189,A93)</f>
+        <f>COUNTIF(History!A93:C192,A93)</f>
         <v>0</v>
       </c>
       <c r="F93" s="8">
-        <f>COUNTIF(History!A90:A189,A93)</f>
+        <f>COUNTIF(History!A93:A192,A93)</f>
         <v>0</v>
       </c>
       <c r="G93" s="2" t="e">
@@ -13421,11 +13961,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="2">
-        <f>COUNTIF(History!A190:C289,A93)</f>
+        <f>COUNTIF(History!A193:C292,A93)</f>
         <v>0</v>
       </c>
       <c r="I93" s="2">
-        <f>COUNTIF(History!A190:A289,A93)</f>
+        <f>COUNTIF(History!A193:A292,A93)</f>
         <v>0</v>
       </c>
       <c r="J93" s="2" t="e">
@@ -13486,11 +14026,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E94" s="8">
-        <f>COUNTIF(History!A91:C190,A94)</f>
+        <f>COUNTIF(History!A94:C193,A94)</f>
         <v>0</v>
       </c>
       <c r="F94" s="8">
-        <f>COUNTIF(History!A91:A190,A94)</f>
+        <f>COUNTIF(History!A94:A193,A94)</f>
         <v>0</v>
       </c>
       <c r="G94" s="2" t="e">
@@ -13498,11 +14038,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H94" s="2">
-        <f>COUNTIF(History!A191:C290,A94)</f>
+        <f>COUNTIF(History!A194:C293,A94)</f>
         <v>0</v>
       </c>
       <c r="I94" s="2">
-        <f>COUNTIF(History!A191:A290,A94)</f>
+        <f>COUNTIF(History!A194:A293,A94)</f>
         <v>0</v>
       </c>
       <c r="J94" s="2" t="e">
@@ -13563,11 +14103,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E95" s="8">
-        <f>COUNTIF(History!A92:C191,A95)</f>
+        <f>COUNTIF(History!A95:C194,A95)</f>
         <v>0</v>
       </c>
       <c r="F95" s="8">
-        <f>COUNTIF(History!A92:A191,A95)</f>
+        <f>COUNTIF(History!A95:A194,A95)</f>
         <v>0</v>
       </c>
       <c r="G95" s="2" t="e">
@@ -13575,11 +14115,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H95" s="2">
-        <f>COUNTIF(History!A192:C291,A95)</f>
+        <f>COUNTIF(History!A195:C294,A95)</f>
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <f>COUNTIF(History!A192:A291,A95)</f>
+        <f>COUNTIF(History!A195:A294,A95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="2" t="e">
@@ -13640,11 +14180,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E96" s="8">
-        <f>COUNTIF(History!A93:C192,A96)</f>
+        <f>COUNTIF(History!A96:C195,A96)</f>
         <v>0</v>
       </c>
       <c r="F96" s="8">
-        <f>COUNTIF(History!A93:A192,A96)</f>
+        <f>COUNTIF(History!A96:A195,A96)</f>
         <v>0</v>
       </c>
       <c r="G96" s="2" t="e">
@@ -13652,11 +14192,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H96" s="2">
-        <f>COUNTIF(History!A193:C292,A96)</f>
+        <f>COUNTIF(History!A196:C295,A96)</f>
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <f>COUNTIF(History!A193:A292,A96)</f>
+        <f>COUNTIF(History!A196:A295,A96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="2" t="e">
@@ -13717,11 +14257,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E97" s="8">
-        <f>COUNTIF(History!A94:C193,A97)</f>
+        <f>COUNTIF(History!A97:C196,A97)</f>
         <v>0</v>
       </c>
       <c r="F97" s="8">
-        <f>COUNTIF(History!A94:A193,A97)</f>
+        <f>COUNTIF(History!A97:A196,A97)</f>
         <v>0</v>
       </c>
       <c r="G97" s="2" t="e">
@@ -13729,11 +14269,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H97" s="2">
-        <f>COUNTIF(History!A194:C293,A97)</f>
+        <f>COUNTIF(History!A197:C296,A97)</f>
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f>COUNTIF(History!A194:A293,A97)</f>
+        <f>COUNTIF(History!A197:A296,A97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="2" t="e">
@@ -13794,11 +14334,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E98" s="8">
-        <f>COUNTIF(History!A95:C194,A98)</f>
+        <f>COUNTIF(History!A98:C197,A98)</f>
         <v>0</v>
       </c>
       <c r="F98" s="8">
-        <f>COUNTIF(History!A95:A194,A98)</f>
+        <f>COUNTIF(History!A98:A197,A98)</f>
         <v>0</v>
       </c>
       <c r="G98" s="2" t="e">
@@ -13806,11 +14346,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="2">
-        <f>COUNTIF(History!A195:C294,A98)</f>
+        <f>COUNTIF(History!A198:C297,A98)</f>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f>COUNTIF(History!A195:A294,A98)</f>
+        <f>COUNTIF(History!A198:A297,A98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="2" t="e">
@@ -13871,11 +14411,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E99" s="8">
-        <f>COUNTIF(History!A96:C195,A99)</f>
+        <f>COUNTIF(History!A99:C198,A99)</f>
         <v>0</v>
       </c>
       <c r="F99" s="8">
-        <f>COUNTIF(History!A96:A195,A99)</f>
+        <f>COUNTIF(History!A99:A198,A99)</f>
         <v>0</v>
       </c>
       <c r="G99" s="2" t="e">
@@ -13883,11 +14423,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H99" s="2">
-        <f>COUNTIF(History!A196:C295,A99)</f>
+        <f>COUNTIF(History!A199:C298,A99)</f>
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <f>COUNTIF(History!A196:A295,A99)</f>
+        <f>COUNTIF(History!A199:A298,A99)</f>
         <v>0</v>
       </c>
       <c r="J99" s="2" t="e">
@@ -13948,11 +14488,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E100" s="8">
-        <f>COUNTIF(History!A97:C196,A100)</f>
+        <f>COUNTIF(History!A100:C199,A100)</f>
         <v>0</v>
       </c>
       <c r="F100" s="8">
-        <f>COUNTIF(History!A97:A196,A100)</f>
+        <f>COUNTIF(History!A100:A199,A100)</f>
         <v>0</v>
       </c>
       <c r="G100" s="2" t="e">
@@ -13960,11 +14500,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="2">
-        <f>COUNTIF(History!A197:C296,A100)</f>
+        <f>COUNTIF(History!A200:C299,A100)</f>
         <v>0</v>
       </c>
       <c r="I100" s="2">
-        <f>COUNTIF(History!A197:A296,A100)</f>
+        <f>COUNTIF(History!A200:A299,A100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="2" t="e">
@@ -14025,11 +14565,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E101" s="8">
-        <f>COUNTIF(History!A98:C197,A101)</f>
+        <f>COUNTIF(History!A101:C200,A101)</f>
         <v>0</v>
       </c>
       <c r="F101" s="8">
-        <f>COUNTIF(History!A98:A197,A101)</f>
+        <f>COUNTIF(History!A101:A200,A101)</f>
         <v>0</v>
       </c>
       <c r="G101" s="2" t="e">
@@ -14037,11 +14577,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H101" s="2">
-        <f>COUNTIF(History!A198:C297,A101)</f>
+        <f>COUNTIF(History!A201:C300,A101)</f>
         <v>0</v>
       </c>
       <c r="I101" s="2">
-        <f>COUNTIF(History!A198:A297,A101)</f>
+        <f>COUNTIF(History!A201:A300,A101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="2" t="e">
@@ -14102,11 +14642,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E102" s="8">
-        <f>COUNTIF(History!A99:C198,A102)</f>
+        <f>COUNTIF(History!A102:C201,A102)</f>
         <v>0</v>
       </c>
       <c r="F102" s="8">
-        <f>COUNTIF(History!A99:A198,A102)</f>
+        <f>COUNTIF(History!A102:A201,A102)</f>
         <v>0</v>
       </c>
       <c r="G102" s="2" t="e">
@@ -14114,11 +14654,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H102" s="2">
-        <f>COUNTIF(History!A199:C298,A102)</f>
+        <f>COUNTIF(History!A202:C301,A102)</f>
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <f>COUNTIF(History!A199:A298,A102)</f>
+        <f>COUNTIF(History!A202:A301,A102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="2" t="e">
@@ -14179,11 +14719,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E103" s="8">
-        <f>COUNTIF(History!A100:C199,A103)</f>
+        <f>COUNTIF(History!A103:C202,A103)</f>
         <v>0</v>
       </c>
       <c r="F103" s="8">
-        <f>COUNTIF(History!A100:A199,A103)</f>
+        <f>COUNTIF(History!A103:A202,A103)</f>
         <v>0</v>
       </c>
       <c r="G103" s="2" t="e">
@@ -14191,11 +14731,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H103" s="2">
-        <f>COUNTIF(History!A200:C299,A103)</f>
+        <f>COUNTIF(History!A203:C302,A103)</f>
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <f>COUNTIF(History!A200:A299,A103)</f>
+        <f>COUNTIF(History!A203:A302,A103)</f>
         <v>0</v>
       </c>
       <c r="J103" s="2" t="e">
@@ -14256,11 +14796,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E104" s="8">
-        <f>COUNTIF(History!A101:C200,A104)</f>
+        <f>COUNTIF(History!A104:C203,A104)</f>
         <v>0</v>
       </c>
       <c r="F104" s="8">
-        <f>COUNTIF(History!A101:A200,A104)</f>
+        <f>COUNTIF(History!A104:A203,A104)</f>
         <v>0</v>
       </c>
       <c r="G104" s="2" t="e">
@@ -14268,11 +14808,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H104" s="2">
-        <f>COUNTIF(History!A201:C300,A104)</f>
+        <f>COUNTIF(History!A204:C303,A104)</f>
         <v>0</v>
       </c>
       <c r="I104" s="2">
-        <f>COUNTIF(History!A201:A300,A104)</f>
+        <f>COUNTIF(History!A204:A303,A104)</f>
         <v>0</v>
       </c>
       <c r="J104" s="2" t="e">
@@ -14333,11 +14873,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E105" s="8">
-        <f>COUNTIF(History!A102:C201,A105)</f>
+        <f>COUNTIF(History!A105:C204,A105)</f>
         <v>0</v>
       </c>
       <c r="F105" s="8">
-        <f>COUNTIF(History!A102:A201,A105)</f>
+        <f>COUNTIF(History!A105:A204,A105)</f>
         <v>0</v>
       </c>
       <c r="G105" s="2" t="e">
@@ -14345,11 +14885,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H105" s="2">
-        <f>COUNTIF(History!A202:C301,A105)</f>
+        <f>COUNTIF(History!A205:C304,A105)</f>
         <v>0</v>
       </c>
       <c r="I105" s="2">
-        <f>COUNTIF(History!A202:A301,A105)</f>
+        <f>COUNTIF(History!A205:A304,A105)</f>
         <v>0</v>
       </c>
       <c r="J105" s="2" t="e">
@@ -14410,11 +14950,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E106" s="8">
-        <f>COUNTIF(History!A103:C202,A106)</f>
+        <f>COUNTIF(History!A106:C205,A106)</f>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f>COUNTIF(History!A103:A202,A106)</f>
+        <f>COUNTIF(History!A106:A205,A106)</f>
         <v>0</v>
       </c>
       <c r="G106" s="2" t="e">
@@ -14422,11 +14962,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H106" s="2">
-        <f>COUNTIF(History!A203:C302,A106)</f>
+        <f>COUNTIF(History!A206:C305,A106)</f>
         <v>0</v>
       </c>
       <c r="I106" s="2">
-        <f>COUNTIF(History!A203:A302,A106)</f>
+        <f>COUNTIF(History!A206:A305,A106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="2" t="e">
@@ -14487,11 +15027,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E107" s="8">
-        <f>COUNTIF(History!A105:C204,A107)</f>
+        <f>COUNTIF(History!A107:C206,A107)</f>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f>COUNTIF(History!A105:A204,A107)</f>
+        <f>COUNTIF(History!A107:A206,A107)</f>
         <v>0</v>
       </c>
       <c r="G107" s="2" t="e">
@@ -14499,11 +15039,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H107" s="2">
-        <f>COUNTIF(History!A205:C304,A107)</f>
+        <f>COUNTIF(History!A207:C306,A107)</f>
         <v>0</v>
       </c>
       <c r="I107" s="2">
-        <f>COUNTIF(History!A205:A304,A107)</f>
+        <f>COUNTIF(History!A207:A306,A107)</f>
         <v>0</v>
       </c>
       <c r="J107" s="2" t="e">
@@ -14564,11 +15104,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E108" s="8">
-        <f>COUNTIF(History!A106:C205,A108)</f>
+        <f>COUNTIF(History!A108:C207,A108)</f>
         <v>0</v>
       </c>
       <c r="F108" s="8">
-        <f>COUNTIF(History!A106:A205,A108)</f>
+        <f>COUNTIF(History!A108:A207,A108)</f>
         <v>0</v>
       </c>
       <c r="G108" s="2" t="e">
@@ -14576,11 +15116,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H108" s="2">
-        <f>COUNTIF(History!A206:C305,A108)</f>
+        <f>COUNTIF(History!A208:C307,A108)</f>
         <v>0</v>
       </c>
       <c r="I108" s="2">
-        <f>COUNTIF(History!A206:A305,A108)</f>
+        <f>COUNTIF(History!A208:A307,A108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="2" t="e">
@@ -14641,11 +15181,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E109" s="8">
-        <f>COUNTIF(History!A107:C206,A109)</f>
+        <f>COUNTIF(History!A109:C208,A109)</f>
         <v>0</v>
       </c>
       <c r="F109" s="8">
-        <f>COUNTIF(History!A107:A206,A109)</f>
+        <f>COUNTIF(History!A109:A208,A109)</f>
         <v>0</v>
       </c>
       <c r="G109" s="2" t="e">
@@ -14653,11 +15193,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H109" s="2">
-        <f>COUNTIF(History!A207:C306,A109)</f>
+        <f>COUNTIF(History!A209:C308,A109)</f>
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <f>COUNTIF(History!A207:A306,A109)</f>
+        <f>COUNTIF(History!A209:A308,A109)</f>
         <v>0</v>
       </c>
       <c r="J109" s="2" t="e">
@@ -14718,11 +15258,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E110" s="8">
-        <f>COUNTIF(History!A108:C207,A110)</f>
+        <f>COUNTIF(History!A110:C209,A110)</f>
         <v>0</v>
       </c>
       <c r="F110" s="8">
-        <f>COUNTIF(History!A108:A207,A110)</f>
+        <f>COUNTIF(History!A110:A209,A110)</f>
         <v>0</v>
       </c>
       <c r="G110" s="2" t="e">
@@ -14730,11 +15270,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H110" s="2">
-        <f>COUNTIF(History!A208:C307,A110)</f>
+        <f>COUNTIF(History!A210:C309,A110)</f>
         <v>0</v>
       </c>
       <c r="I110" s="2">
-        <f>COUNTIF(History!A208:A307,A110)</f>
+        <f>COUNTIF(History!A210:A309,A110)</f>
         <v>0</v>
       </c>
       <c r="J110" s="2" t="e">
@@ -14795,11 +15335,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E111" s="8">
-        <f>COUNTIF(History!A109:C208,A111)</f>
+        <f>COUNTIF(History!A111:C210,A111)</f>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>COUNTIF(History!A109:A208,A111)</f>
+        <f>COUNTIF(History!A111:A210,A111)</f>
         <v>0</v>
       </c>
       <c r="G111" s="2" t="e">
@@ -14807,11 +15347,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H111" s="2">
-        <f>COUNTIF(History!A209:C308,A111)</f>
+        <f>COUNTIF(History!A211:C310,A111)</f>
         <v>0</v>
       </c>
       <c r="I111" s="2">
-        <f>COUNTIF(History!A209:A308,A111)</f>
+        <f>COUNTIF(History!A211:A310,A111)</f>
         <v>0</v>
       </c>
       <c r="J111" s="2" t="e">
@@ -14872,11 +15412,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E112" s="8">
-        <f>COUNTIF(History!A110:C209,A112)</f>
+        <f>COUNTIF(History!A112:C211,A112)</f>
         <v>0</v>
       </c>
       <c r="F112" s="8">
-        <f>COUNTIF(History!A110:A209,A112)</f>
+        <f>COUNTIF(History!A112:A211,A112)</f>
         <v>0</v>
       </c>
       <c r="G112" s="2" t="e">
@@ -14884,11 +15424,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H112" s="2">
-        <f>COUNTIF(History!A210:C309,A112)</f>
+        <f>COUNTIF(History!A212:C311,A112)</f>
         <v>0</v>
       </c>
       <c r="I112" s="2">
-        <f>COUNTIF(History!A210:A309,A112)</f>
+        <f>COUNTIF(History!A212:A311,A112)</f>
         <v>0</v>
       </c>
       <c r="J112" s="2" t="e">
@@ -14949,11 +15489,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E113" s="8">
-        <f>COUNTIF(History!A111:C210,A113)</f>
+        <f>COUNTIF(History!A113:C212,A113)</f>
         <v>0</v>
       </c>
       <c r="F113" s="8">
-        <f>COUNTIF(History!A111:A210,A113)</f>
+        <f>COUNTIF(History!A113:A212,A113)</f>
         <v>0</v>
       </c>
       <c r="G113" s="2" t="e">
@@ -14961,11 +15501,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H113" s="2">
-        <f>COUNTIF(History!A211:C310,A113)</f>
+        <f>COUNTIF(History!A213:C312,A113)</f>
         <v>0</v>
       </c>
       <c r="I113" s="2">
-        <f>COUNTIF(History!A211:A310,A113)</f>
+        <f>COUNTIF(History!A213:A312,A113)</f>
         <v>0</v>
       </c>
       <c r="J113" s="2" t="e">
@@ -15026,11 +15566,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E114" s="8">
-        <f>COUNTIF(History!A112:C211,A114)</f>
+        <f>COUNTIF(History!A114:C213,A114)</f>
         <v>0</v>
       </c>
       <c r="F114" s="8">
-        <f>COUNTIF(History!A112:A211,A114)</f>
+        <f>COUNTIF(History!A114:A213,A114)</f>
         <v>0</v>
       </c>
       <c r="G114" s="2" t="e">
@@ -15038,11 +15578,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="2">
-        <f>COUNTIF(History!A212:C311,A114)</f>
+        <f>COUNTIF(History!A214:C313,A114)</f>
         <v>0</v>
       </c>
       <c r="I114" s="2">
-        <f>COUNTIF(History!A212:A311,A114)</f>
+        <f>COUNTIF(History!A214:A313,A114)</f>
         <v>0</v>
       </c>
       <c r="J114" s="2" t="e">
@@ -15103,11 +15643,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E115" s="8">
-        <f>COUNTIF(History!A113:C212,A115)</f>
+        <f>COUNTIF(History!A115:C214,A115)</f>
         <v>0</v>
       </c>
       <c r="F115" s="8">
-        <f>COUNTIF(History!A113:A212,A115)</f>
+        <f>COUNTIF(History!A115:A214,A115)</f>
         <v>0</v>
       </c>
       <c r="G115" s="2" t="e">
@@ -15115,11 +15655,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H115" s="2">
-        <f>COUNTIF(History!A213:C312,A115)</f>
+        <f>COUNTIF(History!A215:C314,A115)</f>
         <v>0</v>
       </c>
       <c r="I115" s="2">
-        <f>COUNTIF(History!A213:A312,A115)</f>
+        <f>COUNTIF(History!A215:A314,A115)</f>
         <v>0</v>
       </c>
       <c r="J115" s="2" t="e">
@@ -15180,11 +15720,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E116" s="8">
-        <f>COUNTIF(History!A114:C213,A116)</f>
+        <f>COUNTIF(History!A116:C215,A116)</f>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f>COUNTIF(History!A114:A213,A116)</f>
+        <f>COUNTIF(History!A116:A215,A116)</f>
         <v>0</v>
       </c>
       <c r="G116" s="2" t="e">
@@ -15192,11 +15732,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H116" s="2">
-        <f>COUNTIF(History!A214:C313,A116)</f>
+        <f>COUNTIF(History!A216:C315,A116)</f>
         <v>0</v>
       </c>
       <c r="I116" s="2">
-        <f>COUNTIF(History!A214:A313,A116)</f>
+        <f>COUNTIF(History!A216:A315,A116)</f>
         <v>0</v>
       </c>
       <c r="J116" s="2" t="e">
@@ -15257,11 +15797,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E117" s="8">
-        <f>COUNTIF(History!A115:C214,A117)</f>
+        <f>COUNTIF(History!A117:C216,A117)</f>
         <v>0</v>
       </c>
       <c r="F117" s="8">
-        <f>COUNTIF(History!A115:A214,A117)</f>
+        <f>COUNTIF(History!A117:A216,A117)</f>
         <v>0</v>
       </c>
       <c r="G117" s="2" t="e">
@@ -15269,11 +15809,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H117" s="2">
-        <f>COUNTIF(History!A215:C314,A117)</f>
+        <f>COUNTIF(History!A217:C316,A117)</f>
         <v>0</v>
       </c>
       <c r="I117" s="2">
-        <f>COUNTIF(History!A215:A314,A117)</f>
+        <f>COUNTIF(History!A217:A316,A117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="2" t="e">
@@ -15334,11 +15874,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E118" s="8">
-        <f>COUNTIF(History!A116:C215,A118)</f>
+        <f>COUNTIF(History!A118:C217,A118)</f>
         <v>0</v>
       </c>
       <c r="F118" s="8">
-        <f>COUNTIF(History!A116:A215,A118)</f>
+        <f>COUNTIF(History!A118:A217,A118)</f>
         <v>0</v>
       </c>
       <c r="G118" s="2" t="e">
@@ -15346,11 +15886,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H118" s="2">
-        <f>COUNTIF(History!A216:C315,A118)</f>
+        <f>COUNTIF(History!A218:C317,A118)</f>
         <v>0</v>
       </c>
       <c r="I118" s="2">
-        <f>COUNTIF(History!A216:A315,A118)</f>
+        <f>COUNTIF(History!A218:A317,A118)</f>
         <v>0</v>
       </c>
       <c r="J118" s="2" t="e">
@@ -15411,11 +15951,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E119" s="8">
-        <f>COUNTIF(History!A117:C216,A119)</f>
+        <f>COUNTIF(History!A119:C218,A119)</f>
         <v>0</v>
       </c>
       <c r="F119" s="8">
-        <f>COUNTIF(History!A117:A216,A119)</f>
+        <f>COUNTIF(History!A119:A218,A119)</f>
         <v>0</v>
       </c>
       <c r="G119" s="2" t="e">
@@ -15423,11 +15963,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H119" s="2">
-        <f>COUNTIF(History!A217:C316,A119)</f>
+        <f>COUNTIF(History!A219:C318,A119)</f>
         <v>0</v>
       </c>
       <c r="I119" s="2">
-        <f>COUNTIF(History!A217:A316,A119)</f>
+        <f>COUNTIF(History!A219:A318,A119)</f>
         <v>0</v>
       </c>
       <c r="J119" s="2" t="e">
@@ -15488,11 +16028,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E120" s="8">
-        <f>COUNTIF(History!A118:C217,A120)</f>
+        <f>COUNTIF(History!A120:C219,A120)</f>
         <v>0</v>
       </c>
       <c r="F120" s="8">
-        <f>COUNTIF(History!A118:A217,A120)</f>
+        <f>COUNTIF(History!A120:A219,A120)</f>
         <v>0</v>
       </c>
       <c r="G120" s="2" t="e">
@@ -15500,11 +16040,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H120" s="2">
-        <f>COUNTIF(History!A218:C317,A120)</f>
+        <f>COUNTIF(History!A220:C319,A120)</f>
         <v>0</v>
       </c>
       <c r="I120" s="2">
-        <f>COUNTIF(History!A218:A317,A120)</f>
+        <f>COUNTIF(History!A220:A319,A120)</f>
         <v>0</v>
       </c>
       <c r="J120" s="2" t="e">
@@ -15565,11 +16105,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E121" s="8">
-        <f>COUNTIF(History!A119:C218,A121)</f>
+        <f>COUNTIF(History!A121:C220,A121)</f>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f>COUNTIF(History!A119:A218,A121)</f>
+        <f>COUNTIF(History!A121:A220,A121)</f>
         <v>0</v>
       </c>
       <c r="G121" s="2" t="e">
@@ -15577,11 +16117,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H121" s="2">
-        <f>COUNTIF(History!A219:C318,A121)</f>
+        <f>COUNTIF(History!A221:C320,A121)</f>
         <v>0</v>
       </c>
       <c r="I121" s="2">
-        <f>COUNTIF(History!A219:A318,A121)</f>
+        <f>COUNTIF(History!A221:A320,A121)</f>
         <v>0</v>
       </c>
       <c r="J121" s="2" t="e">
@@ -15642,11 +16182,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E122" s="8">
-        <f>COUNTIF(History!A120:C219,A122)</f>
+        <f>COUNTIF(History!A122:C221,A122)</f>
         <v>0</v>
       </c>
       <c r="F122" s="8">
-        <f>COUNTIF(History!A120:A219,A122)</f>
+        <f>COUNTIF(History!A122:A221,A122)</f>
         <v>0</v>
       </c>
       <c r="G122" s="2" t="e">
@@ -15654,11 +16194,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H122" s="2">
-        <f>COUNTIF(History!A220:C319,A122)</f>
+        <f>COUNTIF(History!A222:C321,A122)</f>
         <v>0</v>
       </c>
       <c r="I122" s="2">
-        <f>COUNTIF(History!A220:A319,A122)</f>
+        <f>COUNTIF(History!A222:A321,A122)</f>
         <v>0</v>
       </c>
       <c r="J122" s="2" t="e">
@@ -15719,11 +16259,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E123" s="8">
-        <f>COUNTIF(History!A121:C220,A123)</f>
+        <f>COUNTIF(History!A123:C222,A123)</f>
         <v>0</v>
       </c>
       <c r="F123" s="8">
-        <f>COUNTIF(History!A121:A220,A123)</f>
+        <f>COUNTIF(History!A123:A222,A123)</f>
         <v>0</v>
       </c>
       <c r="G123" s="2" t="e">
@@ -15731,11 +16271,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H123" s="2">
-        <f>COUNTIF(History!A221:C320,A123)</f>
+        <f>COUNTIF(History!A223:C322,A123)</f>
         <v>0</v>
       </c>
       <c r="I123" s="2">
-        <f>COUNTIF(History!A221:A320,A123)</f>
+        <f>COUNTIF(History!A223:A322,A123)</f>
         <v>0</v>
       </c>
       <c r="J123" s="2" t="e">
@@ -15796,11 +16336,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E124" s="8">
-        <f>COUNTIF(History!A122:C221,A124)</f>
+        <f>COUNTIF(History!A124:C223,A124)</f>
         <v>0</v>
       </c>
       <c r="F124" s="8">
-        <f>COUNTIF(History!A122:A221,A124)</f>
+        <f>COUNTIF(History!A124:A223,A124)</f>
         <v>0</v>
       </c>
       <c r="G124" s="2" t="e">
@@ -15808,11 +16348,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H124" s="2">
-        <f>COUNTIF(History!A222:C321,A124)</f>
+        <f>COUNTIF(History!A224:C323,A124)</f>
         <v>0</v>
       </c>
       <c r="I124" s="2">
-        <f>COUNTIF(History!A222:A321,A124)</f>
+        <f>COUNTIF(History!A224:A323,A124)</f>
         <v>0</v>
       </c>
       <c r="J124" s="2" t="e">
@@ -15873,11 +16413,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E125" s="8">
-        <f>COUNTIF(History!A123:C222,A125)</f>
+        <f>COUNTIF(History!A125:C224,A125)</f>
         <v>0</v>
       </c>
       <c r="F125" s="8">
-        <f>COUNTIF(History!A123:A222,A125)</f>
+        <f>COUNTIF(History!A125:A224,A125)</f>
         <v>0</v>
       </c>
       <c r="G125" s="2" t="e">
@@ -15885,11 +16425,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H125" s="2">
-        <f>COUNTIF(History!A223:C322,A125)</f>
+        <f>COUNTIF(History!A225:C324,A125)</f>
         <v>0</v>
       </c>
       <c r="I125" s="2">
-        <f>COUNTIF(History!A223:A322,A125)</f>
+        <f>COUNTIF(History!A225:A324,A125)</f>
         <v>0</v>
       </c>
       <c r="J125" s="2" t="e">
@@ -15950,11 +16490,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E126" s="8">
-        <f>COUNTIF(History!A124:C223,A126)</f>
+        <f>COUNTIF(History!A126:C225,A126)</f>
         <v>0</v>
       </c>
       <c r="F126" s="8">
-        <f>COUNTIF(History!A124:A223,A126)</f>
+        <f>COUNTIF(History!A126:A225,A126)</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="e">
@@ -15962,11 +16502,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H126" s="2">
-        <f>COUNTIF(History!A224:C323,A126)</f>
+        <f>COUNTIF(History!A226:C325,A126)</f>
         <v>0</v>
       </c>
       <c r="I126" s="2">
-        <f>COUNTIF(History!A224:A323,A126)</f>
+        <f>COUNTIF(History!A226:A325,A126)</f>
         <v>0</v>
       </c>
       <c r="J126" s="2" t="e">
@@ -16027,11 +16567,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E127" s="8">
-        <f>COUNTIF(History!A125:C224,A127)</f>
+        <f>COUNTIF(History!A127:C226,A127)</f>
         <v>0</v>
       </c>
       <c r="F127" s="8">
-        <f>COUNTIF(History!A125:A224,A127)</f>
+        <f>COUNTIF(History!A127:A226,A127)</f>
         <v>0</v>
       </c>
       <c r="G127" s="2" t="e">
@@ -16039,11 +16579,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H127" s="2">
-        <f>COUNTIF(History!A225:C324,A127)</f>
+        <f>COUNTIF(History!A227:C326,A127)</f>
         <v>0</v>
       </c>
       <c r="I127" s="2">
-        <f>COUNTIF(History!A225:A324,A127)</f>
+        <f>COUNTIF(History!A227:A326,A127)</f>
         <v>0</v>
       </c>
       <c r="J127" s="2" t="e">
@@ -16104,11 +16644,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E128" s="8">
-        <f>COUNTIF(History!A126:C225,A128)</f>
+        <f>COUNTIF(History!A128:C227,A128)</f>
         <v>0</v>
       </c>
       <c r="F128" s="8">
-        <f>COUNTIF(History!A126:A225,A128)</f>
+        <f>COUNTIF(History!A128:A227,A128)</f>
         <v>0</v>
       </c>
       <c r="G128" s="2" t="e">
@@ -16116,11 +16656,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H128" s="2">
-        <f>COUNTIF(History!A226:C325,A128)</f>
+        <f>COUNTIF(History!A228:C327,A128)</f>
         <v>0</v>
       </c>
       <c r="I128" s="2">
-        <f>COUNTIF(History!A226:A325,A128)</f>
+        <f>COUNTIF(History!A228:A327,A128)</f>
         <v>0</v>
       </c>
       <c r="J128" s="2" t="e">
@@ -16181,11 +16721,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E129" s="8">
-        <f>COUNTIF(History!A127:C226,A129)</f>
+        <f>COUNTIF(History!A129:C228,A129)</f>
         <v>0</v>
       </c>
       <c r="F129" s="8">
-        <f>COUNTIF(History!A127:A226,A129)</f>
+        <f>COUNTIF(History!A129:A228,A129)</f>
         <v>0</v>
       </c>
       <c r="G129" s="2" t="e">
@@ -16193,11 +16733,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H129" s="2">
-        <f>COUNTIF(History!A227:C326,A129)</f>
+        <f>COUNTIF(History!A229:C328,A129)</f>
         <v>0</v>
       </c>
       <c r="I129" s="2">
-        <f>COUNTIF(History!A227:A326,A129)</f>
+        <f>COUNTIF(History!A229:A328,A129)</f>
         <v>0</v>
       </c>
       <c r="J129" s="2" t="e">
@@ -16258,11 +16798,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E130" s="8">
-        <f>COUNTIF(History!A128:C227,A130)</f>
+        <f>COUNTIF(History!A130:C229,A130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="8">
-        <f>COUNTIF(History!A128:A227,A130)</f>
+        <f>COUNTIF(History!A130:A229,A130)</f>
         <v>0</v>
       </c>
       <c r="G130" s="2" t="e">
@@ -16270,11 +16810,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H130" s="2">
-        <f>COUNTIF(History!A228:C327,A130)</f>
+        <f>COUNTIF(History!A230:C329,A130)</f>
         <v>0</v>
       </c>
       <c r="I130" s="2">
-        <f>COUNTIF(History!A228:A327,A130)</f>
+        <f>COUNTIF(History!A230:A329,A130)</f>
         <v>0</v>
       </c>
       <c r="J130" s="2" t="e">
@@ -16335,11 +16875,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E131" s="8">
-        <f>COUNTIF(History!A129:C228,A131)</f>
+        <f>COUNTIF(History!A131:C230,A131)</f>
         <v>0</v>
       </c>
       <c r="F131" s="8">
-        <f>COUNTIF(History!A129:A228,A131)</f>
+        <f>COUNTIF(History!A131:A230,A131)</f>
         <v>0</v>
       </c>
       <c r="G131" s="2" t="e">
@@ -16347,11 +16887,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H131" s="2">
-        <f>COUNTIF(History!A229:C328,A131)</f>
+        <f>COUNTIF(History!A231:C330,A131)</f>
         <v>0</v>
       </c>
       <c r="I131" s="2">
-        <f>COUNTIF(History!A229:A328,A131)</f>
+        <f>COUNTIF(History!A231:A330,A131)</f>
         <v>0</v>
       </c>
       <c r="J131" s="2" t="e">
@@ -16412,11 +16952,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E132" s="8">
-        <f>COUNTIF(History!A130:C229,A132)</f>
+        <f>COUNTIF(History!A132:C231,A132)</f>
         <v>0</v>
       </c>
       <c r="F132" s="8">
-        <f>COUNTIF(History!A130:A229,A132)</f>
+        <f>COUNTIF(History!A132:A231,A132)</f>
         <v>0</v>
       </c>
       <c r="G132" s="2" t="e">
@@ -16424,11 +16964,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H132" s="2">
-        <f>COUNTIF(History!A230:C329,A132)</f>
+        <f>COUNTIF(History!A232:C331,A132)</f>
         <v>0</v>
       </c>
       <c r="I132" s="2">
-        <f>COUNTIF(History!A230:A329,A132)</f>
+        <f>COUNTIF(History!A232:A331,A132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="2" t="e">
@@ -16489,11 +17029,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E133" s="8">
-        <f>COUNTIF(History!A131:C230,A133)</f>
+        <f>COUNTIF(History!A133:C232,A133)</f>
         <v>0</v>
       </c>
       <c r="F133" s="8">
-        <f>COUNTIF(History!A131:A230,A133)</f>
+        <f>COUNTIF(History!A133:A232,A133)</f>
         <v>0</v>
       </c>
       <c r="G133" s="2" t="e">
@@ -16501,11 +17041,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H133" s="2">
-        <f>COUNTIF(History!A231:C330,A133)</f>
+        <f>COUNTIF(History!A233:C332,A133)</f>
         <v>0</v>
       </c>
       <c r="I133" s="2">
-        <f>COUNTIF(History!A231:A330,A133)</f>
+        <f>COUNTIF(History!A233:A332,A133)</f>
         <v>0</v>
       </c>
       <c r="J133" s="2" t="e">
@@ -16566,11 +17106,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E134" s="8">
-        <f>COUNTIF(History!A132:C231,A134)</f>
+        <f>COUNTIF(History!A134:C233,A134)</f>
         <v>0</v>
       </c>
       <c r="F134" s="8">
-        <f>COUNTIF(History!A132:A231,A134)</f>
+        <f>COUNTIF(History!A134:A233,A134)</f>
         <v>0</v>
       </c>
       <c r="G134" s="2" t="e">
@@ -16578,11 +17118,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H134" s="2">
-        <f>COUNTIF(History!A232:C331,A134)</f>
+        <f>COUNTIF(History!A234:C333,A134)</f>
         <v>0</v>
       </c>
       <c r="I134" s="2">
-        <f>COUNTIF(History!A232:A331,A134)</f>
+        <f>COUNTIF(History!A234:A333,A134)</f>
         <v>0</v>
       </c>
       <c r="J134" s="2" t="e">
@@ -16643,11 +17183,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E135" s="8">
-        <f>COUNTIF(History!A133:C232,A135)</f>
+        <f>COUNTIF(History!A135:C234,A135)</f>
         <v>0</v>
       </c>
       <c r="F135" s="8">
-        <f>COUNTIF(History!A133:A232,A135)</f>
+        <f>COUNTIF(History!A135:A234,A135)</f>
         <v>0</v>
       </c>
       <c r="G135" s="2" t="e">
@@ -16655,11 +17195,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H135" s="2">
-        <f>COUNTIF(History!A233:C332,A135)</f>
+        <f>COUNTIF(History!A235:C334,A135)</f>
         <v>0</v>
       </c>
       <c r="I135" s="2">
-        <f>COUNTIF(History!A233:A332,A135)</f>
+        <f>COUNTIF(History!A235:A334,A135)</f>
         <v>0</v>
       </c>
       <c r="J135" s="2" t="e">
@@ -16720,11 +17260,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E136" s="8">
-        <f>COUNTIF(History!A134:C233,A136)</f>
+        <f>COUNTIF(History!A136:C235,A136)</f>
         <v>0</v>
       </c>
       <c r="F136" s="8">
-        <f>COUNTIF(History!A134:A233,A136)</f>
+        <f>COUNTIF(History!A136:A235,A136)</f>
         <v>0</v>
       </c>
       <c r="G136" s="2" t="e">
@@ -16732,11 +17272,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H136" s="2">
-        <f>COUNTIF(History!A234:C333,A136)</f>
+        <f>COUNTIF(History!A236:C335,A136)</f>
         <v>0</v>
       </c>
       <c r="I136" s="2">
-        <f>COUNTIF(History!A234:A333,A136)</f>
+        <f>COUNTIF(History!A236:A335,A136)</f>
         <v>0</v>
       </c>
       <c r="J136" s="2" t="e">
@@ -16797,11 +17337,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E137" s="8">
-        <f>COUNTIF(History!A135:C234,A137)</f>
+        <f>COUNTIF(History!A137:C236,A137)</f>
         <v>0</v>
       </c>
       <c r="F137" s="8">
-        <f>COUNTIF(History!A135:A234,A137)</f>
+        <f>COUNTIF(History!A137:A236,A137)</f>
         <v>0</v>
       </c>
       <c r="G137" s="2" t="e">
@@ -16809,11 +17349,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H137" s="2">
-        <f>COUNTIF(History!A235:C334,A137)</f>
+        <f>COUNTIF(History!A237:C336,A137)</f>
         <v>0</v>
       </c>
       <c r="I137" s="2">
-        <f>COUNTIF(History!A235:A334,A137)</f>
+        <f>COUNTIF(History!A237:A336,A137)</f>
         <v>0</v>
       </c>
       <c r="J137" s="2" t="e">
@@ -16874,11 +17414,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E138" s="8">
-        <f>COUNTIF(History!A136:C235,A138)</f>
+        <f>COUNTIF(History!A138:C237,A138)</f>
         <v>0</v>
       </c>
       <c r="F138" s="8">
-        <f>COUNTIF(History!A136:A235,A138)</f>
+        <f>COUNTIF(History!A138:A237,A138)</f>
         <v>0</v>
       </c>
       <c r="G138" s="2" t="e">
@@ -16886,11 +17426,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H138" s="2">
-        <f>COUNTIF(History!A236:C335,A138)</f>
+        <f>COUNTIF(History!A238:C337,A138)</f>
         <v>0</v>
       </c>
       <c r="I138" s="2">
-        <f>COUNTIF(History!A236:A335,A138)</f>
+        <f>COUNTIF(History!A238:A337,A138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="2" t="e">
@@ -16951,11 +17491,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E139" s="8">
-        <f>COUNTIF(History!A137:C236,A139)</f>
+        <f>COUNTIF(History!A139:C238,A139)</f>
         <v>0</v>
       </c>
       <c r="F139" s="8">
-        <f>COUNTIF(History!A137:A236,A139)</f>
+        <f>COUNTIF(History!A139:A238,A139)</f>
         <v>0</v>
       </c>
       <c r="G139" s="2" t="e">
@@ -16963,11 +17503,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H139" s="2">
-        <f>COUNTIF(History!A237:C336,A139)</f>
+        <f>COUNTIF(History!A239:C338,A139)</f>
         <v>0</v>
       </c>
       <c r="I139" s="2">
-        <f>COUNTIF(History!A237:A336,A139)</f>
+        <f>COUNTIF(History!A239:A338,A139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="2" t="e">
@@ -17028,11 +17568,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E140" s="8">
-        <f>COUNTIF(History!A138:C237,A140)</f>
+        <f>COUNTIF(History!A140:C239,A140)</f>
         <v>0</v>
       </c>
       <c r="F140" s="8">
-        <f>COUNTIF(History!A138:A237,A140)</f>
+        <f>COUNTIF(History!A140:A239,A140)</f>
         <v>0</v>
       </c>
       <c r="G140" s="2" t="e">
@@ -17040,11 +17580,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H140" s="2">
-        <f>COUNTIF(History!A238:C337,A140)</f>
+        <f>COUNTIF(History!A240:C339,A140)</f>
         <v>0</v>
       </c>
       <c r="I140" s="2">
-        <f>COUNTIF(History!A238:A337,A140)</f>
+        <f>COUNTIF(History!A240:A339,A140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="2" t="e">
@@ -17105,11 +17645,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E141" s="8">
-        <f>COUNTIF(History!A139:C238,A141)</f>
+        <f>COUNTIF(History!A141:C240,A141)</f>
         <v>0</v>
       </c>
       <c r="F141" s="8">
-        <f>COUNTIF(History!A139:A238,A141)</f>
+        <f>COUNTIF(History!A141:A240,A141)</f>
         <v>0</v>
       </c>
       <c r="G141" s="2" t="e">
@@ -17117,11 +17657,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H141" s="2">
-        <f>COUNTIF(History!A239:C338,A141)</f>
+        <f>COUNTIF(History!A241:C340,A141)</f>
         <v>0</v>
       </c>
       <c r="I141" s="2">
-        <f>COUNTIF(History!A239:A338,A141)</f>
+        <f>COUNTIF(History!A241:A340,A141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="2" t="e">
@@ -17182,11 +17722,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E142" s="8">
-        <f>COUNTIF(History!A140:C239,A142)</f>
+        <f>COUNTIF(History!A142:C241,A142)</f>
         <v>0</v>
       </c>
       <c r="F142" s="8">
-        <f>COUNTIF(History!A140:A239,A142)</f>
+        <f>COUNTIF(History!A142:A241,A142)</f>
         <v>0</v>
       </c>
       <c r="G142" s="2" t="e">
@@ -17194,11 +17734,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H142" s="2">
-        <f>COUNTIF(History!A240:C339,A142)</f>
+        <f>COUNTIF(History!A242:C341,A142)</f>
         <v>0</v>
       </c>
       <c r="I142" s="2">
-        <f>COUNTIF(History!A240:A339,A142)</f>
+        <f>COUNTIF(History!A242:A341,A142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="2" t="e">
@@ -17259,11 +17799,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E143" s="8">
-        <f>COUNTIF(History!A141:C240,A143)</f>
+        <f>COUNTIF(History!A143:C242,A143)</f>
         <v>0</v>
       </c>
       <c r="F143" s="8">
-        <f>COUNTIF(History!A141:A240,A143)</f>
+        <f>COUNTIF(History!A143:A242,A143)</f>
         <v>0</v>
       </c>
       <c r="G143" s="2" t="e">
@@ -17271,11 +17811,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H143" s="2">
-        <f>COUNTIF(History!A241:C340,A143)</f>
+        <f>COUNTIF(History!A243:C342,A143)</f>
         <v>0</v>
       </c>
       <c r="I143" s="2">
-        <f>COUNTIF(History!A241:A340,A143)</f>
+        <f>COUNTIF(History!A243:A342,A143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="2" t="e">
@@ -17336,11 +17876,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E144" s="8">
-        <f>COUNTIF(History!A142:C241,A144)</f>
+        <f>COUNTIF(History!A144:C243,A144)</f>
         <v>0</v>
       </c>
       <c r="F144" s="8">
-        <f>COUNTIF(History!A142:A241,A144)</f>
+        <f>COUNTIF(History!A144:A243,A144)</f>
         <v>0</v>
       </c>
       <c r="G144" s="2" t="e">
@@ -17348,11 +17888,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H144" s="2">
-        <f>COUNTIF(History!A242:C341,A144)</f>
+        <f>COUNTIF(History!A244:C343,A144)</f>
         <v>0</v>
       </c>
       <c r="I144" s="2">
-        <f>COUNTIF(History!A242:A341,A144)</f>
+        <f>COUNTIF(History!A244:A343,A144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="2" t="e">
@@ -17413,11 +17953,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E145" s="8">
-        <f>COUNTIF(History!A143:C242,A145)</f>
+        <f>COUNTIF(History!A145:C244,A145)</f>
         <v>0</v>
       </c>
       <c r="F145" s="8">
-        <f>COUNTIF(History!A143:A242,A145)</f>
+        <f>COUNTIF(History!A145:A244,A145)</f>
         <v>0</v>
       </c>
       <c r="G145" s="2" t="e">
@@ -17425,11 +17965,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H145" s="2">
-        <f>COUNTIF(History!A243:C342,A145)</f>
+        <f>COUNTIF(History!A245:C344,A145)</f>
         <v>0</v>
       </c>
       <c r="I145" s="2">
-        <f>COUNTIF(History!A243:A342,A145)</f>
+        <f>COUNTIF(History!A245:A344,A145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="2" t="e">
@@ -17490,11 +18030,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E146" s="8">
-        <f>COUNTIF(History!A144:C243,A146)</f>
+        <f>COUNTIF(History!A146:C245,A146)</f>
         <v>0</v>
       </c>
       <c r="F146" s="8">
-        <f>COUNTIF(History!A144:A243,A146)</f>
+        <f>COUNTIF(History!A146:A245,A146)</f>
         <v>0</v>
       </c>
       <c r="G146" s="2" t="e">
@@ -17502,11 +18042,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H146" s="2">
-        <f>COUNTIF(History!A244:C343,A146)</f>
+        <f>COUNTIF(History!A246:C345,A146)</f>
         <v>0</v>
       </c>
       <c r="I146" s="2">
-        <f>COUNTIF(History!A244:A343,A146)</f>
+        <f>COUNTIF(History!A246:A345,A146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="2" t="e">
@@ -17567,11 +18107,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E147" s="8">
-        <f>COUNTIF(History!A145:C244,A147)</f>
+        <f>COUNTIF(History!A147:C246,A147)</f>
         <v>0</v>
       </c>
       <c r="F147" s="8">
-        <f>COUNTIF(History!A145:A244,A147)</f>
+        <f>COUNTIF(History!A147:A246,A147)</f>
         <v>0</v>
       </c>
       <c r="G147" s="2" t="e">
@@ -17579,11 +18119,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H147" s="2">
-        <f>COUNTIF(History!A245:C344,A147)</f>
+        <f>COUNTIF(History!A247:C346,A147)</f>
         <v>0</v>
       </c>
       <c r="I147" s="2">
-        <f>COUNTIF(History!A245:A344,A147)</f>
+        <f>COUNTIF(History!A247:A346,A147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="2" t="e">
@@ -17644,11 +18184,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E148" s="8">
-        <f>COUNTIF(History!A146:C245,A148)</f>
+        <f>COUNTIF(History!A148:C247,A148)</f>
         <v>0</v>
       </c>
       <c r="F148" s="8">
-        <f>COUNTIF(History!A146:A245,A148)</f>
+        <f>COUNTIF(History!A148:A247,A148)</f>
         <v>0</v>
       </c>
       <c r="G148" s="2" t="e">
@@ -17656,11 +18196,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H148" s="2">
-        <f>COUNTIF(History!A246:C345,A148)</f>
+        <f>COUNTIF(History!A248:C347,A148)</f>
         <v>0</v>
       </c>
       <c r="I148" s="2">
-        <f>COUNTIF(History!A246:A345,A148)</f>
+        <f>COUNTIF(History!A248:A347,A148)</f>
         <v>0</v>
       </c>
       <c r="J148" s="2" t="e">
@@ -17721,11 +18261,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E149" s="8">
-        <f>COUNTIF(History!A148:C247,A149)</f>
+        <f>COUNTIF(History!A149:C248,A149)</f>
         <v>0</v>
       </c>
       <c r="F149" s="8">
-        <f>COUNTIF(History!A148:A247,A149)</f>
+        <f>COUNTIF(History!A149:A248,A149)</f>
         <v>0</v>
       </c>
       <c r="G149" s="2" t="e">
@@ -17733,11 +18273,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H149" s="2">
-        <f>COUNTIF(History!A248:C347,A149)</f>
+        <f>COUNTIF(History!A249:C348,A149)</f>
         <v>0</v>
       </c>
       <c r="I149" s="2">
-        <f>COUNTIF(History!A248:A347,A149)</f>
+        <f>COUNTIF(History!A249:A348,A149)</f>
         <v>0</v>
       </c>
       <c r="J149" s="2" t="e">
@@ -17798,11 +18338,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E150" s="8">
-        <f>COUNTIF(History!A149:C248,A150)</f>
+        <f>COUNTIF(History!A150:C249,A150)</f>
         <v>0</v>
       </c>
       <c r="F150" s="8">
-        <f>COUNTIF(History!A149:A248,A150)</f>
+        <f>COUNTIF(History!A150:A249,A150)</f>
         <v>0</v>
       </c>
       <c r="G150" s="2" t="e">
@@ -17810,11 +18350,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="2">
-        <f>COUNTIF(History!A249:C348,A150)</f>
+        <f>COUNTIF(History!A250:C349,A150)</f>
         <v>0</v>
       </c>
       <c r="I150" s="2">
-        <f>COUNTIF(History!A249:A348,A150)</f>
+        <f>COUNTIF(History!A250:A349,A150)</f>
         <v>0</v>
       </c>
       <c r="J150" s="2" t="e">
@@ -17875,11 +18415,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E151" s="8">
-        <f>COUNTIF(History!A150:C249,A151)</f>
+        <f>COUNTIF(History!A151:C250,A151)</f>
         <v>0</v>
       </c>
       <c r="F151" s="8">
-        <f>COUNTIF(History!A150:A249,A151)</f>
+        <f>COUNTIF(History!A151:A250,A151)</f>
         <v>0</v>
       </c>
       <c r="G151" s="2" t="e">
@@ -17887,11 +18427,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="2">
-        <f>COUNTIF(History!A250:C349,A151)</f>
+        <f>COUNTIF(History!A251:C350,A151)</f>
         <v>0</v>
       </c>
       <c r="I151" s="2">
-        <f>COUNTIF(History!A250:A349,A151)</f>
+        <f>COUNTIF(History!A251:A350,A151)</f>
         <v>0</v>
       </c>
       <c r="J151" s="2" t="e">
@@ -21737,11 +22277,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H201" s="2">
-        <f>COUNTIF(History!A301:C399,A201)</f>
+        <f>COUNTIF(History!A301:C400,A201)</f>
         <v>0</v>
       </c>
       <c r="I201" s="2">
-        <f>COUNTIF(History!A301:A399,A201)</f>
+        <f>COUNTIF(History!A301:A400,A201)</f>
         <v>0</v>
       </c>
       <c r="J201" s="2" t="e">
@@ -21814,11 +22354,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H202" s="2">
-        <f>COUNTIF(History!A302:C399,A202)</f>
+        <f>COUNTIF(History!A302:C401,A202)</f>
         <v>0</v>
       </c>
       <c r="I202" s="2">
-        <f>COUNTIF(History!A302:A399,A202)</f>
+        <f>COUNTIF(History!A302:A401,A202)</f>
         <v>0</v>
       </c>
       <c r="J202" s="2" t="e">
@@ -21891,11 +22431,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H203" s="2">
-        <f>COUNTIF(History!A303:C399,A203)</f>
+        <f>COUNTIF(History!A303:C402,A203)</f>
         <v>0</v>
       </c>
       <c r="I203" s="2">
-        <f>COUNTIF(History!A303:A399,A203)</f>
+        <f>COUNTIF(History!A303:A402,A203)</f>
         <v>0</v>
       </c>
       <c r="J203" s="2" t="e">
@@ -21968,11 +22508,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H204" s="2">
-        <f>COUNTIF(History!A304:C399,A204)</f>
+        <f>COUNTIF(History!A304:C403,A204)</f>
         <v>0</v>
       </c>
       <c r="I204" s="2">
-        <f>COUNTIF(History!A304:A399,A204)</f>
+        <f>COUNTIF(History!A304:A403,A204)</f>
         <v>0</v>
       </c>
       <c r="J204" s="2" t="e">
@@ -22045,11 +22585,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H205" s="2">
-        <f>COUNTIF(History!A305:C399,A205)</f>
+        <f>COUNTIF(History!A305:C404,A205)</f>
         <v>0</v>
       </c>
       <c r="I205" s="2">
-        <f>COUNTIF(History!A305:A399,A205)</f>
+        <f>COUNTIF(History!A305:A404,A205)</f>
         <v>0</v>
       </c>
       <c r="J205" s="2" t="e">
@@ -22122,11 +22662,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H206" s="2">
-        <f>COUNTIF(History!A306:C399,A206)</f>
+        <f>COUNTIF(History!A306:C405,A206)</f>
         <v>0</v>
       </c>
       <c r="I206" s="2">
-        <f>COUNTIF(History!A306:A399,A206)</f>
+        <f>COUNTIF(History!A306:A405,A206)</f>
         <v>0</v>
       </c>
       <c r="J206" s="2" t="e">
@@ -22199,11 +22739,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H207" s="2">
-        <f>COUNTIF(History!A307:C399,A207)</f>
+        <f>COUNTIF(History!A307:C406,A207)</f>
         <v>0</v>
       </c>
       <c r="I207" s="2">
-        <f>COUNTIF(History!A307:A399,A207)</f>
+        <f>COUNTIF(History!A307:A406,A207)</f>
         <v>0</v>
       </c>
       <c r="J207" s="2" t="e">
@@ -22276,11 +22816,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H208" s="2">
-        <f>COUNTIF(History!A308:C399,A208)</f>
+        <f>COUNTIF(History!A308:C407,A208)</f>
         <v>0</v>
       </c>
       <c r="I208" s="2">
-        <f>COUNTIF(History!A308:A399,A208)</f>
+        <f>COUNTIF(History!A308:A407,A208)</f>
         <v>0</v>
       </c>
       <c r="J208" s="2" t="e">
@@ -22353,11 +22893,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H209" s="2">
-        <f>COUNTIF(History!A309:C399,A209)</f>
+        <f>COUNTIF(History!A309:C408,A209)</f>
         <v>0</v>
       </c>
       <c r="I209" s="2">
-        <f>COUNTIF(History!A309:A399,A209)</f>
+        <f>COUNTIF(History!A309:A408,A209)</f>
         <v>0</v>
       </c>
       <c r="J209" s="2" t="e">
@@ -22430,11 +22970,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H210" s="2">
-        <f>COUNTIF(History!A310:C399,A210)</f>
+        <f>COUNTIF(History!A310:C409,A210)</f>
         <v>0</v>
       </c>
       <c r="I210" s="2">
-        <f>COUNTIF(History!A310:A399,A210)</f>
+        <f>COUNTIF(History!A310:A409,A210)</f>
         <v>0</v>
       </c>
       <c r="J210" s="2" t="e">
@@ -22507,11 +23047,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H211" s="2">
-        <f>COUNTIF(History!A311:C399,A211)</f>
+        <f>COUNTIF(History!A311:C410,A211)</f>
         <v>0</v>
       </c>
       <c r="I211" s="2">
-        <f>COUNTIF(History!A311:A399,A211)</f>
+        <f>COUNTIF(History!A311:A410,A211)</f>
         <v>0</v>
       </c>
       <c r="J211" s="2" t="e">
@@ -22584,11 +23124,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H212" s="2">
-        <f>COUNTIF(History!A312:C399,A212)</f>
+        <f>COUNTIF(History!A312:C411,A212)</f>
         <v>0</v>
       </c>
       <c r="I212" s="2">
-        <f>COUNTIF(History!A312:A399,A212)</f>
+        <f>COUNTIF(History!A312:A411,A212)</f>
         <v>0</v>
       </c>
       <c r="J212" s="2" t="e">
@@ -22661,11 +23201,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H213" s="2">
-        <f>COUNTIF(History!A313:C399,A213)</f>
+        <f>COUNTIF(History!A313:C412,A213)</f>
         <v>0</v>
       </c>
       <c r="I213" s="2">
-        <f>COUNTIF(History!A313:A399,A213)</f>
+        <f>COUNTIF(History!A313:A412,A213)</f>
         <v>0</v>
       </c>
       <c r="J213" s="2" t="e">
@@ -22738,11 +23278,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H214" s="2">
-        <f>COUNTIF(History!A314:C399,A214)</f>
+        <f>COUNTIF(History!A314:C413,A214)</f>
         <v>0</v>
       </c>
       <c r="I214" s="2">
-        <f>COUNTIF(History!A314:A399,A214)</f>
+        <f>COUNTIF(History!A314:A413,A214)</f>
         <v>0</v>
       </c>
       <c r="J214" s="2" t="e">
@@ -22815,11 +23355,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H215" s="2">
-        <f>COUNTIF(History!A315:C399,A215)</f>
+        <f>COUNTIF(History!A315:C414,A215)</f>
         <v>0</v>
       </c>
       <c r="I215" s="2">
-        <f>COUNTIF(History!A315:A399,A215)</f>
+        <f>COUNTIF(History!A315:A414,A215)</f>
         <v>0</v>
       </c>
       <c r="J215" s="2" t="e">
@@ -22892,11 +23432,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H216" s="2">
-        <f>COUNTIF(History!A316:C399,A216)</f>
+        <f>COUNTIF(History!A316:C415,A216)</f>
         <v>0</v>
       </c>
       <c r="I216" s="2">
-        <f>COUNTIF(History!A316:A399,A216)</f>
+        <f>COUNTIF(History!A316:A415,A216)</f>
         <v>0</v>
       </c>
       <c r="J216" s="2" t="e">
@@ -22969,11 +23509,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H217" s="2">
-        <f>COUNTIF(History!A317:C399,A217)</f>
+        <f>COUNTIF(History!A317:C416,A217)</f>
         <v>0</v>
       </c>
       <c r="I217" s="2">
-        <f>COUNTIF(History!A317:A399,A217)</f>
+        <f>COUNTIF(History!A317:A416,A217)</f>
         <v>0</v>
       </c>
       <c r="J217" s="2" t="e">
@@ -23046,11 +23586,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H218" s="2">
-        <f>COUNTIF(History!A318:C399,A218)</f>
+        <f>COUNTIF(History!A318:C417,A218)</f>
         <v>0</v>
       </c>
       <c r="I218" s="2">
-        <f>COUNTIF(History!A318:A399,A218)</f>
+        <f>COUNTIF(History!A318:A417,A218)</f>
         <v>0</v>
       </c>
       <c r="J218" s="2" t="e">
@@ -23123,11 +23663,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H219" s="2">
-        <f>COUNTIF(History!A319:C399,A219)</f>
+        <f>COUNTIF(History!A319:C418,A219)</f>
         <v>0</v>
       </c>
       <c r="I219" s="2">
-        <f>COUNTIF(History!A319:A399,A219)</f>
+        <f>COUNTIF(History!A319:A418,A219)</f>
         <v>0</v>
       </c>
       <c r="J219" s="2" t="e">
@@ -23200,11 +23740,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H220" s="2">
-        <f>COUNTIF(History!A320:C399,A220)</f>
+        <f>COUNTIF(History!A320:C419,A220)</f>
         <v>0</v>
       </c>
       <c r="I220" s="2">
-        <f>COUNTIF(History!A320:A399,A220)</f>
+        <f>COUNTIF(History!A320:A419,A220)</f>
         <v>0</v>
       </c>
       <c r="J220" s="2" t="e">
@@ -23277,11 +23817,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H221" s="2">
-        <f>COUNTIF(History!A321:C399,A221)</f>
+        <f>COUNTIF(History!A321:C420,A221)</f>
         <v>0</v>
       </c>
       <c r="I221" s="2">
-        <f>COUNTIF(History!A321:A399,A221)</f>
+        <f>COUNTIF(History!A321:A420,A221)</f>
         <v>0</v>
       </c>
       <c r="J221" s="2" t="e">
@@ -23354,11 +23894,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H222" s="2">
-        <f>COUNTIF(History!A322:C399,A222)</f>
+        <f>COUNTIF(History!A322:C421,A222)</f>
         <v>0</v>
       </c>
       <c r="I222" s="2">
-        <f>COUNTIF(History!A322:A399,A222)</f>
+        <f>COUNTIF(History!A322:A421,A222)</f>
         <v>0</v>
       </c>
       <c r="J222" s="2" t="e">
@@ -23431,11 +23971,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H223" s="2">
-        <f>COUNTIF(History!A323:C399,A223)</f>
+        <f>COUNTIF(History!A323:C422,A223)</f>
         <v>0</v>
       </c>
       <c r="I223" s="2">
-        <f>COUNTIF(History!A323:A399,A223)</f>
+        <f>COUNTIF(History!A323:A422,A223)</f>
         <v>0</v>
       </c>
       <c r="J223" s="2" t="e">
@@ -23508,11 +24048,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H224" s="2">
-        <f>COUNTIF(History!A324:C399,A224)</f>
+        <f>COUNTIF(History!A324:C423,A224)</f>
         <v>0</v>
       </c>
       <c r="I224" s="2">
-        <f>COUNTIF(History!A324:A399,A224)</f>
+        <f>COUNTIF(History!A324:A423,A224)</f>
         <v>0</v>
       </c>
       <c r="J224" s="2" t="e">
@@ -23585,11 +24125,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H225" s="2">
-        <f>COUNTIF(History!A325:C399,A225)</f>
+        <f>COUNTIF(History!A325:C424,A225)</f>
         <v>0</v>
       </c>
       <c r="I225" s="2">
-        <f>COUNTIF(History!A325:A399,A225)</f>
+        <f>COUNTIF(History!A325:A424,A225)</f>
         <v>0</v>
       </c>
       <c r="J225" s="2" t="e">
@@ -23662,11 +24202,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H226" s="2">
-        <f>COUNTIF(History!A326:C399,A226)</f>
+        <f>COUNTIF(History!A326:C425,A226)</f>
         <v>0</v>
       </c>
       <c r="I226" s="2">
-        <f>COUNTIF(History!A326:A399,A226)</f>
+        <f>COUNTIF(History!A326:A425,A226)</f>
         <v>0</v>
       </c>
       <c r="J226" s="2" t="e">
@@ -23739,11 +24279,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H227" s="2">
-        <f>COUNTIF(History!A327:C399,A227)</f>
+        <f>COUNTIF(History!A327:C426,A227)</f>
         <v>0</v>
       </c>
       <c r="I227" s="2">
-        <f>COUNTIF(History!A327:A399,A227)</f>
+        <f>COUNTIF(History!A327:A426,A227)</f>
         <v>0</v>
       </c>
       <c r="J227" s="2" t="e">
@@ -23816,11 +24356,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H228" s="2">
-        <f>COUNTIF(History!A328:C399,A228)</f>
+        <f>COUNTIF(History!A328:C427,A228)</f>
         <v>0</v>
       </c>
       <c r="I228" s="2">
-        <f>COUNTIF(History!A328:A399,A228)</f>
+        <f>COUNTIF(History!A328:A427,A228)</f>
         <v>0</v>
       </c>
       <c r="J228" s="2" t="e">
@@ -23893,11 +24433,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H229" s="2">
-        <f>COUNTIF(History!A329:C399,A229)</f>
+        <f>COUNTIF(History!A329:C428,A229)</f>
         <v>0</v>
       </c>
       <c r="I229" s="2">
-        <f>COUNTIF(History!A329:A399,A229)</f>
+        <f>COUNTIF(History!A329:A428,A229)</f>
         <v>0</v>
       </c>
       <c r="J229" s="2" t="e">
@@ -23970,11 +24510,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H230" s="2">
-        <f>COUNTIF(History!A330:C399,A230)</f>
+        <f>COUNTIF(History!A330:C429,A230)</f>
         <v>0</v>
       </c>
       <c r="I230" s="2">
-        <f>COUNTIF(History!A330:A399,A230)</f>
+        <f>COUNTIF(History!A330:A429,A230)</f>
         <v>0</v>
       </c>
       <c r="J230" s="2" t="e">
@@ -24047,11 +24587,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H231" s="2">
-        <f>COUNTIF(History!A331:C399,A231)</f>
+        <f>COUNTIF(History!A331:C430,A231)</f>
         <v>0</v>
       </c>
       <c r="I231" s="2">
-        <f>COUNTIF(History!A331:A399,A231)</f>
+        <f>COUNTIF(History!A331:A430,A231)</f>
         <v>0</v>
       </c>
       <c r="J231" s="2" t="e">
@@ -24124,11 +24664,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H232" s="2">
-        <f>COUNTIF(History!A332:C399,A232)</f>
+        <f>COUNTIF(History!A332:C431,A232)</f>
         <v>0</v>
       </c>
       <c r="I232" s="2">
-        <f>COUNTIF(History!A332:A399,A232)</f>
+        <f>COUNTIF(History!A332:A431,A232)</f>
         <v>0</v>
       </c>
       <c r="J232" s="2" t="e">
@@ -24201,11 +24741,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H233" s="2">
-        <f>COUNTIF(History!A333:C399,A233)</f>
+        <f>COUNTIF(History!A333:C432,A233)</f>
         <v>0</v>
       </c>
       <c r="I233" s="2">
-        <f>COUNTIF(History!A333:A399,A233)</f>
+        <f>COUNTIF(History!A333:A432,A233)</f>
         <v>0</v>
       </c>
       <c r="J233" s="2" t="e">
@@ -24278,11 +24818,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H234" s="2">
-        <f>COUNTIF(History!A334:C399,A234)</f>
+        <f>COUNTIF(History!A334:C433,A234)</f>
         <v>0</v>
       </c>
       <c r="I234" s="2">
-        <f>COUNTIF(History!A334:A399,A234)</f>
+        <f>COUNTIF(History!A334:A433,A234)</f>
         <v>0</v>
       </c>
       <c r="J234" s="2" t="e">
@@ -24355,11 +24895,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H235" s="2">
-        <f>COUNTIF(History!A335:C399,A235)</f>
+        <f>COUNTIF(History!A335:C434,A235)</f>
         <v>0</v>
       </c>
       <c r="I235" s="2">
-        <f>COUNTIF(History!A335:A399,A235)</f>
+        <f>COUNTIF(History!A335:A434,A235)</f>
         <v>0</v>
       </c>
       <c r="J235" s="2" t="e">
@@ -24432,11 +24972,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H236" s="2">
-        <f>COUNTIF(History!A336:C399,A236)</f>
+        <f>COUNTIF(History!A336:C435,A236)</f>
         <v>0</v>
       </c>
       <c r="I236" s="2">
-        <f>COUNTIF(History!A336:A399,A236)</f>
+        <f>COUNTIF(History!A336:A435,A236)</f>
         <v>0</v>
       </c>
       <c r="J236" s="2" t="e">
@@ -24509,11 +25049,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H237" s="2">
-        <f>COUNTIF(History!A337:C399,A237)</f>
+        <f>COUNTIF(History!A337:C436,A237)</f>
         <v>0</v>
       </c>
       <c r="I237" s="2">
-        <f>COUNTIF(History!A337:A399,A237)</f>
+        <f>COUNTIF(History!A337:A436,A237)</f>
         <v>0</v>
       </c>
       <c r="J237" s="2" t="e">
@@ -24586,11 +25126,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H238" s="2">
-        <f>COUNTIF(History!A338:C399,A238)</f>
+        <f>COUNTIF(History!A338:C437,A238)</f>
         <v>0</v>
       </c>
       <c r="I238" s="2">
-        <f>COUNTIF(History!A338:A399,A238)</f>
+        <f>COUNTIF(History!A338:A437,A238)</f>
         <v>0</v>
       </c>
       <c r="J238" s="2" t="e">
@@ -24663,11 +25203,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H239" s="2">
-        <f>COUNTIF(History!A339:C399,A239)</f>
+        <f>COUNTIF(History!A339:C438,A239)</f>
         <v>0</v>
       </c>
       <c r="I239" s="2">
-        <f>COUNTIF(History!A339:A399,A239)</f>
+        <f>COUNTIF(History!A339:A438,A239)</f>
         <v>0</v>
       </c>
       <c r="J239" s="2" t="e">
@@ -24740,11 +25280,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H240" s="2">
-        <f>COUNTIF(History!A340:C399,A240)</f>
+        <f>COUNTIF(History!A340:C439,A240)</f>
         <v>0</v>
       </c>
       <c r="I240" s="2">
-        <f>COUNTIF(History!A340:A399,A240)</f>
+        <f>COUNTIF(History!A340:A439,A240)</f>
         <v>0</v>
       </c>
       <c r="J240" s="2" t="e">
@@ -24817,11 +25357,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H241" s="2">
-        <f>COUNTIF(History!A341:C399,A241)</f>
+        <f>COUNTIF(History!A341:C440,A241)</f>
         <v>0</v>
       </c>
       <c r="I241" s="2">
-        <f>COUNTIF(History!A341:A399,A241)</f>
+        <f>COUNTIF(History!A341:A440,A241)</f>
         <v>0</v>
       </c>
       <c r="J241" s="2" t="e">
@@ -24894,11 +25434,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H242" s="2">
-        <f>COUNTIF(History!A342:C399,A242)</f>
+        <f>COUNTIF(History!A342:C441,A242)</f>
         <v>0</v>
       </c>
       <c r="I242" s="2">
-        <f>COUNTIF(History!A342:A399,A242)</f>
+        <f>COUNTIF(History!A342:A441,A242)</f>
         <v>0</v>
       </c>
       <c r="J242" s="2" t="e">
@@ -24971,11 +25511,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H243" s="2">
-        <f>COUNTIF(History!A343:C399,A243)</f>
+        <f>COUNTIF(History!A343:C442,A243)</f>
         <v>0</v>
       </c>
       <c r="I243" s="2">
-        <f>COUNTIF(History!A343:A399,A243)</f>
+        <f>COUNTIF(History!A343:A442,A243)</f>
         <v>0</v>
       </c>
       <c r="J243" s="2" t="e">
@@ -25048,11 +25588,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H244" s="2">
-        <f>COUNTIF(History!A344:C399,A244)</f>
+        <f>COUNTIF(History!A344:C443,A244)</f>
         <v>0</v>
       </c>
       <c r="I244" s="2">
-        <f>COUNTIF(History!A344:A399,A244)</f>
+        <f>COUNTIF(History!A344:A443,A244)</f>
         <v>0</v>
       </c>
       <c r="J244" s="2" t="e">
@@ -25125,11 +25665,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H245" s="2">
-        <f>COUNTIF(History!A345:C399,A245)</f>
+        <f>COUNTIF(History!A345:C444,A245)</f>
         <v>0</v>
       </c>
       <c r="I245" s="2">
-        <f>COUNTIF(History!A345:A399,A245)</f>
+        <f>COUNTIF(History!A345:A444,A245)</f>
         <v>0</v>
       </c>
       <c r="J245" s="2" t="e">
@@ -25202,11 +25742,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H246" s="2">
-        <f>COUNTIF(History!A346:C399,A246)</f>
+        <f>COUNTIF(History!A346:C445,A246)</f>
         <v>0</v>
       </c>
       <c r="I246" s="2">
-        <f>COUNTIF(History!A346:A399,A246)</f>
+        <f>COUNTIF(History!A346:A445,A246)</f>
         <v>0</v>
       </c>
       <c r="J246" s="2" t="e">
@@ -25279,11 +25819,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H247" s="2">
-        <f>COUNTIF(History!A347:C399,A247)</f>
+        <f>COUNTIF(History!A347:C446,A247)</f>
         <v>0</v>
       </c>
       <c r="I247" s="2">
-        <f>COUNTIF(History!A347:A399,A247)</f>
+        <f>COUNTIF(History!A347:A446,A247)</f>
         <v>0</v>
       </c>
       <c r="J247" s="2" t="e">
@@ -25356,11 +25896,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H248" s="2">
-        <f>COUNTIF(History!A348:C399,A248)</f>
+        <f>COUNTIF(History!A348:C447,A248)</f>
         <v>0</v>
       </c>
       <c r="I248" s="2">
-        <f>COUNTIF(History!A348:A399,A248)</f>
+        <f>COUNTIF(History!A348:A447,A248)</f>
         <v>0</v>
       </c>
       <c r="J248" s="2" t="e">
@@ -25433,11 +25973,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H249" s="2">
-        <f>COUNTIF(History!A349:C399,A249)</f>
+        <f>COUNTIF(History!A349:C448,A249)</f>
         <v>0</v>
       </c>
       <c r="I249" s="2">
-        <f>COUNTIF(History!A349:A399,A249)</f>
+        <f>COUNTIF(History!A349:A448,A249)</f>
         <v>0</v>
       </c>
       <c r="J249" s="2" t="e">
@@ -25510,11 +26050,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H250" s="2">
-        <f>COUNTIF(History!A350:C399,A250)</f>
+        <f>COUNTIF(History!A350:C449,A250)</f>
         <v>0</v>
       </c>
       <c r="I250" s="2">
-        <f>COUNTIF(History!A350:A399,A250)</f>
+        <f>COUNTIF(History!A350:A449,A250)</f>
         <v>0</v>
       </c>
       <c r="J250" s="2" t="e">
@@ -25587,11 +26127,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H251" s="2">
-        <f>COUNTIF(History!A351:C399,A251)</f>
+        <f>COUNTIF(History!A351:C450,A251)</f>
         <v>0</v>
       </c>
       <c r="I251" s="2">
-        <f>COUNTIF(History!A351:A399,A251)</f>
+        <f>COUNTIF(History!A351:A450,A251)</f>
         <v>0</v>
       </c>
       <c r="J251" s="2" t="e">
@@ -25664,11 +26204,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H252" s="2">
-        <f>COUNTIF(History!A352:C399,A252)</f>
+        <f>COUNTIF(History!A352:C451,A252)</f>
         <v>0</v>
       </c>
       <c r="I252" s="2">
-        <f>COUNTIF(History!A352:A399,A252)</f>
+        <f>COUNTIF(History!A352:A451,A252)</f>
         <v>0</v>
       </c>
       <c r="J252" s="2" t="e">
@@ -25741,11 +26281,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H253" s="2">
-        <f>COUNTIF(History!A353:C399,A253)</f>
+        <f>COUNTIF(History!A353:C452,A253)</f>
         <v>0</v>
       </c>
       <c r="I253" s="2">
-        <f>COUNTIF(History!A353:A399,A253)</f>
+        <f>COUNTIF(History!A353:A452,A253)</f>
         <v>0</v>
       </c>
       <c r="J253" s="2" t="e">
@@ -25818,11 +26358,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H254" s="2">
-        <f>COUNTIF(History!A354:C399,A254)</f>
+        <f>COUNTIF(History!A354:C453,A254)</f>
         <v>0</v>
       </c>
       <c r="I254" s="2">
-        <f>COUNTIF(History!A354:A399,A254)</f>
+        <f>COUNTIF(History!A354:A453,A254)</f>
         <v>0</v>
       </c>
       <c r="J254" s="2" t="e">
@@ -25895,11 +26435,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H255" s="2">
-        <f>COUNTIF(History!A355:C399,A255)</f>
+        <f>COUNTIF(History!A355:C454,A255)</f>
         <v>0</v>
       </c>
       <c r="I255" s="2">
-        <f>COUNTIF(History!A355:A399,A255)</f>
+        <f>COUNTIF(History!A355:A454,A255)</f>
         <v>0</v>
       </c>
       <c r="J255" s="2" t="e">
@@ -25972,11 +26512,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H256" s="2">
-        <f>COUNTIF(History!A356:C399,A256)</f>
+        <f>COUNTIF(History!A356:C455,A256)</f>
         <v>0</v>
       </c>
       <c r="I256" s="2">
-        <f>COUNTIF(History!A356:A399,A256)</f>
+        <f>COUNTIF(History!A356:A455,A256)</f>
         <v>0</v>
       </c>
       <c r="J256" s="2" t="e">
@@ -26049,11 +26589,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H257" s="2">
-        <f>COUNTIF(History!A357:C399,A257)</f>
+        <f>COUNTIF(History!A357:C456,A257)</f>
         <v>0</v>
       </c>
       <c r="I257" s="2">
-        <f>COUNTIF(History!A357:A399,A257)</f>
+        <f>COUNTIF(History!A357:A456,A257)</f>
         <v>0</v>
       </c>
       <c r="J257" s="2" t="e">
@@ -26126,11 +26666,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H258" s="2">
-        <f>COUNTIF(History!A358:C399,A258)</f>
+        <f>COUNTIF(History!A358:C457,A258)</f>
         <v>0</v>
       </c>
       <c r="I258" s="2">
-        <f>COUNTIF(History!A358:A399,A258)</f>
+        <f>COUNTIF(History!A358:A457,A258)</f>
         <v>0</v>
       </c>
       <c r="J258" s="2" t="e">
@@ -26203,11 +26743,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H259" s="2">
-        <f>COUNTIF(History!A359:C399,A259)</f>
+        <f>COUNTIF(History!A359:C458,A259)</f>
         <v>0</v>
       </c>
       <c r="I259" s="2">
-        <f>COUNTIF(History!A359:A399,A259)</f>
+        <f>COUNTIF(History!A359:A458,A259)</f>
         <v>0</v>
       </c>
       <c r="J259" s="2" t="e">
@@ -26611,7 +27151,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26630,139 +27170,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>dialga:12</v>
+        <v>dialga:23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>dialga:12,togekiss:11</v>
+        <v>dialga:23,kyogre:19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>dialga:12,togekiss:11,melmetal:10</v>
+        <v>dialga:23,kyogre:19,togekiss:17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0,dragonite:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0,garchomp:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0,dragonite:0,dragonite_shadow:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0,garchomp:0,darkrai:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0,garchomp:0,darkrai:0,gardevoir:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0,swampert:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0,garchomp:0,darkrai:0,gardevoir:0,reshiram:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>dialga:12,togekiss:11,melmetal:10,kyogre:8,groudon:6,giratina_origin:5,mewtwo:4,landorus_incarnate:2,zekrom:1,rhyperior:1,giratina_altered:0,snorlax:0,machamp:0,garchomp:0,metagross:0,palkia:0,darkrai:0,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0,swampert:0,mew:0</v>
+        <v>dialga:23,kyogre:19,togekiss:17,melmetal:16,giratina_origin:12,groudon:12,mewtwo:8,dragonite:3,zekrom:3,landorus_incarnate:2,giratina_altered:1,rhyperior:1,palkia:1,regice:1,swampert:1,metagross:0,snorlax:0,machamp:0,garchomp:0,darkrai:0,gardevoir:0,reshiram:0,dragonite_shadow:0</v>
       </c>
     </row>
   </sheetData>
@@ -26781,7 +27321,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="235.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="247.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -26792,133 +27332,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>dialga:47</v>
+        <v>dialga:94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>dialga:47,togekiss:22</v>
+        <v>dialga:94,kyogre:38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16</v>
+        <v>dialga:94,kyogre:38,togekiss:43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5,machamp:3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5,machamp:3,garchomp:2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>dialga:47,togekiss:22,melmetal:16,kyogre:20,groudon:19,giratina_origin:20,mewtwo:13,landorus_incarnate:2,zekrom:4,rhyperior:1,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0,swampert:0</v>
+        <v>dialga:94,kyogre:38,togekiss:43,melmetal:34,giratina_origin:38,groudon:30,mewtwo:30,dragonite:5,zekrom:10,landorus_incarnate:2,giratina_altered:4,rhyperior:4,palkia:3,regice:1,swampert:1,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1,gardevoir:1,reshiram:0</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +27477,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="247.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -26948,133 +27488,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>dialga:35</v>
+        <v>dialga:71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>dialga:35,togekiss:11</v>
+        <v>dialga:71,kyogre:19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>dialga:35,togekiss:11,melmetal:6</v>
+        <v>dialga:71,kyogre:19,togekiss:26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5,machamp:3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5,machamp:3,garchomp:2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>dialga:35,togekiss:11,melmetal:6,kyogre:12,groudon:13,giratina_origin:15,mewtwo:9,landorus_incarnate:0,zekrom:3,rhyperior:0,giratina_altered:3,snorlax:3,machamp:2,garchomp:2,metagross:2,palkia:1,darkrai:1,reshiram:0,dragonite:0,dragonite_shadow:0,snorlax_shadow:0,swampert:0</v>
+        <v>dialga:71,kyogre:19,togekiss:26,melmetal:18,giratina_origin:26,groudon:18,mewtwo:22,dragonite:2,zekrom:7,landorus_incarnate:0,giratina_altered:3,rhyperior:3,palkia:2,regice:0,swampert:0,metagross:8,snorlax:5,machamp:3,garchomp:2,darkrai:1,gardevoir:1,reshiram:0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Master - Season 02.xlsx
+++ b/src/main/resources/data/Master - Season 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC90EB-9244-4F8F-B5DC-7BEABD417103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B876D-A83E-4F39-A1B3-71B0EFE6A5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="308">
   <si>
     <t>Lead</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>Scizor</t>
+  </si>
+  <si>
+    <t>Heatran</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,6 +3952,15 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D152" s="9" t="s">
         <v>241</v>
       </c>
@@ -3957,6 +3969,15 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D153" s="9" t="s">
         <v>241</v>
       </c>
@@ -3965,25 +3986,49 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
+      <c r="A154" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="D154" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E154" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D155" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E155" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D156" s="9" t="s">
         <v>241</v>
       </c>
@@ -3992,6 +4037,15 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D157" s="9" t="s">
         <v>241</v>
       </c>
@@ -4000,27 +4054,49 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
+      <c r="A158" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D158" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E158" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C159" s="8"/>
+      <c r="A159" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="D159" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E159" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="8"/>
+      <c r="A160" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D160" s="9" t="s">
         <v>241</v>
       </c>
@@ -4029,17 +4105,32 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D161" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E161" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D162" s="9" t="s">
         <v>241</v>
       </c>
@@ -4048,6 +4139,12 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D163" s="9" t="s">
         <v>241</v>
       </c>
@@ -4056,6 +4153,15 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D164" s="9" t="s">
         <v>241</v>
       </c>
@@ -4064,6 +4170,15 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D165" s="9" t="s">
         <v>241</v>
       </c>
@@ -4072,6 +4187,15 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D166" s="9" t="s">
         <v>241</v>
       </c>
@@ -4080,6 +4204,15 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D167" s="9" t="s">
         <v>241</v>
       </c>
@@ -4088,17 +4221,32 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="A168" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="D168" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E168" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D169" s="9" t="s">
         <v>241</v>
       </c>
@@ -4107,6 +4255,15 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D170" s="9" t="s">
         <v>241</v>
       </c>
@@ -4115,9 +4272,15 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="A171" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D171" s="9" t="s">
         <v>241</v>
       </c>
@@ -4126,14 +4289,32 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D172" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E172" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D173" s="9" t="s">
         <v>241</v>
       </c>
@@ -4142,6 +4323,15 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D174" s="9" t="s">
         <v>241</v>
       </c>
@@ -4150,70 +4340,151 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D175" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E175" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D176" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E176" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D177" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E177" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D178" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E178" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D179" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E179" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D180" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E180" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D181" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E181" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D182" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E182" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D183" s="9" t="s">
         <v>241</v>
       </c>
@@ -4221,7 +4492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D184" s="9" t="s">
         <v>241</v>
       </c>
@@ -4229,7 +4500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D185" s="9" t="s">
         <v>241</v>
       </c>
@@ -4237,7 +4508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D186" s="9" t="s">
         <v>241</v>
       </c>
@@ -4245,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D187" s="9" t="s">
         <v>241</v>
       </c>
@@ -4253,7 +4524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D188" s="9" t="s">
         <v>241</v>
       </c>
@@ -4261,7 +4532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D189" s="9" t="s">
         <v>241</v>
       </c>
@@ -4269,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D190" s="9" t="s">
         <v>241</v>
       </c>
@@ -4277,7 +4548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D191" s="9" t="s">
         <v>241</v>
       </c>
@@ -4285,7 +4556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D192" s="9" t="s">
         <v>241</v>
       </c>
@@ -7109,8 +7380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F3C74-44B5-471F-AE13-9C8CA1826F77}">
   <dimension ref="A1:S345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,50 +7468,50 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>48.936170212765958</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF(History!A4:C103,A2)</f>
-        <v>31</v>
+        <f>COUNTIF(History!A2:C101,A2)</f>
+        <v>79</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(History!A4:A103,A2)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A2:A101,A2)</f>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <f>F2*100/E2</f>
-        <v>45.161290322580648</v>
+        <v>26.582278481012658</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(History!A103:C202,A2)</f>
+        <f>COUNTIF(History!A102:C201,A2)</f>
+        <v>68</v>
+      </c>
+      <c r="I2" s="2">
+        <f>COUNTIF(History!A102:A201,A2)</f>
         <v>14</v>
-      </c>
-      <c r="I2" s="2">
-        <f>COUNTIF(History!A103:A202,A2)</f>
-        <v>8</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>57.142857142857146</v>
+        <v>20.588235294117649</v>
       </c>
       <c r="K2" s="2">
-        <f>COUNTIF(History!A225:C324,A2)</f>
+        <f>COUNTIF(History!A207:C306,A2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f>COUNTIF(History!A225:A324,A2)</f>
+        <f>COUNTIF(History!A207:A306,A2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="2" t="e">
@@ -7248,11 +7519,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N2" s="2">
-        <f>COUNTIF(History!A325:C399,A2)</f>
+        <f>COUNTIF(History!A307:C399,A2)</f>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f>COUNTIF(History!A325:A399,A2)</f>
+        <f>COUNTIF(History!A307:A399,A2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="2" t="e">
@@ -7260,11 +7531,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q2" s="2">
-        <f>COUNTIF(History!A506:C524,A2)</f>
+        <f>COUNTIF(History!A506:C506,A2)</f>
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f>COUNTIF(History!A506:A524,A2)</f>
+        <f>COUNTIF(History!A506:A506,A2)</f>
         <v>0</v>
       </c>
       <c r="S2" s="2" t="e">
@@ -7274,50 +7545,50 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>37.777777777777779</v>
+        <v>47.457627118644069</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(History!A5:C104,A3)</f>
-        <v>32</v>
+        <f>COUNTIF(History!A6:C105,A3)</f>
+        <v>28</v>
       </c>
       <c r="F3" s="8">
-        <f>COUNTIF(History!A5:A104,A3)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A6:A105,A3)</f>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <f>F3*100/E3</f>
-        <v>28.125</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(History!A106:C205,A3)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A105:C204,A3)</f>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(History!A106:A205,A3)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A105:A204,A3)</f>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>63.636363636363633</v>
+        <v>40.625</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A209:C308,A3)</f>
+        <f>COUNTIF(History!A208:C307,A3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A209:A308,A3)</f>
+        <f>COUNTIF(History!A208:A307,A3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="2" t="e">
@@ -7325,11 +7596,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A309:C399,A3)</f>
+        <f>COUNTIF(History!A308:C399,A3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A309:A399,A3)</f>
+        <f>COUNTIF(History!A308:A399,A3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2" t="e">
@@ -7337,11 +7608,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="2">
-        <f>COUNTIF(History!A506:C508,A3)</f>
+        <f>COUNTIF(History!A506:C507,A3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>COUNTIF(History!A506:A508,A3)</f>
+        <f>COUNTIF(History!A506:A507,A3)</f>
         <v>0</v>
       </c>
       <c r="S3" s="2" t="e">
@@ -7351,11 +7622,11 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
@@ -7363,38 +7634,38 @@
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>22.689075630252102</v>
+        <v>47.368421052631582</v>
       </c>
       <c r="E4" s="8">
-        <f>COUNTIF(History!A2:C101,A4)</f>
-        <v>79</v>
+        <f>COUNTIF(History!A4:C103,A4)</f>
+        <v>31</v>
       </c>
       <c r="F4" s="8">
-        <f>COUNTIF(History!A2:A101,A4)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A4:A103,A4)</f>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <f>F4*100/E4</f>
-        <v>26.582278481012658</v>
+        <v>45.161290322580648</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(History!A102:C201,A4)</f>
-        <v>40</v>
+        <f>COUNTIF(History!A103:C202,A4)</f>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(History!A102:A201,A4)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A103:A202,A4)</f>
+        <v>12</v>
       </c>
       <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(History!A207:C306,A4)</f>
+        <f>COUNTIF(History!A225:C324,A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(History!A207:A306,A4)</f>
+        <f>COUNTIF(History!A225:A324,A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="e">
@@ -7402,11 +7673,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N4" s="2">
-        <f>COUNTIF(History!A307:C399,A4)</f>
+        <f>COUNTIF(History!A325:C399,A4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>COUNTIF(History!A307:A399,A4)</f>
+        <f>COUNTIF(History!A325:A399,A4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="2" t="e">
@@ -7414,11 +7685,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="2">
-        <f>COUNTIF(History!A506:C506,A4)</f>
+        <f>COUNTIF(History!A506:C524,A4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>COUNTIF(History!A506:A506,A4)</f>
+        <f>COUNTIF(History!A506:A524,A4)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2" t="e">
@@ -7428,50 +7699,50 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>45.652173913043477</v>
+        <v>46.808510638297875</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(History!A6:C105,A5)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A8:C107,A5)</f>
+        <v>25</v>
       </c>
       <c r="F5" s="8">
-        <f>COUNTIF(History!A6:A105,A5)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A8:A107,A5)</f>
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <f>F5*100/E5</f>
-        <v>53.571428571428569</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(History!A105:C204,A5)</f>
-        <v>19</v>
+        <f>COUNTIF(History!A107:C206,A5)</f>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(History!A105:A204,A5)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A107:A206,A5)</f>
+        <v>11</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>31.578947368421051</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A208:C307,A5)</f>
+        <f>COUNTIF(History!A203:C302,A5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A208:A307,A5)</f>
+        <f>COUNTIF(History!A203:A302,A5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="e">
@@ -7479,76 +7750,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A308:C399,A5)</f>
+        <f>COUNTIF(History!A303:C399,A5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A308:A399,A5)</f>
+        <f>COUNTIF(History!A303:A399,A5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="e">
         <f>O5*100/N5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="2">
-        <f>COUNTIF(History!A506:C507,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <f>COUNTIF(History!A506:A507,A5)</f>
-        <v>0</v>
+      <c r="Q5" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R5" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A5)</f>
+        <v>#REF!</v>
       </c>
       <c r="S5" s="2" t="e">
         <f>R5*100/Q5</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>44.736842105263158</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A8:C107,A6)</f>
-        <v>25</v>
+        <f>COUNTIF(History!A5:C104,A6)</f>
+        <v>32</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A8:A107,A6)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A5:A104,A6)</f>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>40</v>
+        <v>28.125</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A107:C206,A6)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A106:C205,A6)</f>
+        <v>21</v>
       </c>
       <c r="I6" s="2">
-        <f>COUNTIF(History!A107:A206,A6)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A106:A205,A6)</f>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>54.545454545454547</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A203:C302,A6)</f>
+        <f>COUNTIF(History!A209:C308,A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A203:A302,A6)</f>
+        <f>COUNTIF(History!A209:A308,A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="e">
@@ -7556,76 +7827,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A303:C399,A6)</f>
+        <f>COUNTIF(History!A309:C399,A6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A303:A399,A6)</f>
+        <f>COUNTIF(History!A309:A399,A6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="2" t="e">
         <f>O6*100/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
+      <c r="Q6" s="2">
+        <f>COUNTIF(History!A506:C508,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>COUNTIF(History!A506:A508,A6)</f>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="e">
         <f>R6*100/Q6</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>27.777777777777779</v>
+        <v>35.185185185185183</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A7:C106,A7)</f>
-        <v>25</v>
+        <f>COUNTIF(History!A3:C102,A7)</f>
+        <v>39</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A7:A106,A7)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A3:A102,A7)</f>
+        <v>16</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>20</v>
+        <v>41.025641025641029</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A108:C207,A7)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A104:C203,A7)</f>
+        <v>14</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A108:A207,A7)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A104:A203,A7)</f>
+        <v>3</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>44.444444444444443</v>
+        <v>21.428571428571427</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A205:C304,A7)</f>
+        <f>COUNTIF(History!A206:C305,A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A205:A304,A7)</f>
+        <f>COUNTIF(History!A206:A305,A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="e">
@@ -7633,11 +7904,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A305:C399,A7)</f>
+        <f>COUNTIF(History!A306:C399,A7)</f>
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A305:A399,A7)</f>
+        <f>COUNTIF(History!A306:A399,A7)</f>
         <v>0</v>
       </c>
       <c r="P7" s="2" t="e">
@@ -7659,50 +7930,50 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>36</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="E8" s="8">
-        <f>COUNTIF(History!A3:C102,A8)</f>
-        <v>39</v>
+        <f>COUNTIF(History!A7:C106,A8)</f>
+        <v>25</v>
       </c>
       <c r="F8" s="8">
-        <f>COUNTIF(History!A3:A102,A8)</f>
-        <v>16</v>
+        <f>COUNTIF(History!A7:A106,A8)</f>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <f>F8*100/E8</f>
-        <v>41.025641025641029</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
-        <f>COUNTIF(History!A104:C203,A8)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A108:C207,A8)</f>
+        <v>14</v>
       </c>
       <c r="I8" s="2">
-        <f>COUNTIF(History!A104:A203,A8)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A108:A207,A8)</f>
+        <v>4</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>20</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="K8" s="2">
-        <f>COUNTIF(History!A206:C305,A8)</f>
+        <f>COUNTIF(History!A205:C304,A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <f>COUNTIF(History!A206:A305,A8)</f>
+        <f>COUNTIF(History!A205:A304,A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="e">
@@ -7710,11 +7981,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N8" s="2">
-        <f>COUNTIF(History!A306:C399,A8)</f>
+        <f>COUNTIF(History!A305:C399,A8)</f>
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f>COUNTIF(History!A306:A399,A8)</f>
+        <f>COUNTIF(History!A305:A399,A8)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2" t="e">
@@ -7740,15 +8011,15 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>42.857142857142854</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A16:C115,A9)</f>
@@ -7764,15 +8035,15 @@
       </c>
       <c r="H9" s="2">
         <f>COUNTIF(History!A110:C209,A9)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2">
         <f>COUNTIF(History!A110:A209,A9)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>50</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="K9" s="2">
         <f>COUNTIF(History!A213:C312,A9)</f>
@@ -7813,50 +8084,50 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>10</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A10:C109,A10)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A9:C108,A10)</f>
+        <v>8</v>
       </c>
       <c r="F10" s="8">
-        <f>COUNTIF(History!A10:A109,A10)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A9:A108,A10)</f>
+        <v>3</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A117:C216,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A109:C208,A10)</f>
+        <v>2</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A117:A216,A10)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A109:A208,A10)</f>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f>COUNTIF(History!A214:C313,A10)</f>
+        <f>COUNTIF(History!A204:C303,A10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <f>COUNTIF(History!A214:A313,A10)</f>
+        <f>COUNTIF(History!A204:A303,A10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="e">
@@ -7864,76 +8135,76 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N10" s="2">
-        <f>COUNTIF(History!A314:C399,A10)</f>
+        <f>COUNTIF(History!A304:C399,A10)</f>
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <f>COUNTIF(History!A314:A399,A10)</f>
+        <f>COUNTIF(History!A304:A399,A10)</f>
         <v>0</v>
       </c>
       <c r="P10" s="2" t="e">
         <f>O10*100/N10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="2">
-        <f>COUNTIF(History!A506:C513,A10)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <f>COUNTIF(History!A506:A513,A10)</f>
-        <v>0</v>
+      <c r="Q10" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R10" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A10)</f>
+        <v>#REF!</v>
       </c>
       <c r="S10" s="2" t="e">
         <f>R10*100/Q10</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>28.571428571428573</v>
+        <v>37.5</v>
       </c>
       <c r="E11" s="8">
-        <f>COUNTIF(History!A11:C110,A11)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A12:C111,A11)</f>
+        <v>3</v>
       </c>
       <c r="F11" s="8">
-        <f>COUNTIF(History!A11:A110,A11)</f>
+        <f>COUNTIF(History!A12:A111,A11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="2">
         <f>F11*100/E11</f>
-        <v>25</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H11" s="2">
-        <f>COUNTIF(History!A112:C211,A11)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A113:C212,A11)</f>
+        <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f>COUNTIF(History!A112:A211,A11)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A113:A212,A11)</f>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>33.333333333333336</v>
+        <v>40</v>
       </c>
       <c r="K11" s="2">
-        <f>COUNTIF(History!A202:C301,A11)</f>
+        <f>COUNTIF(History!A231:C330,A11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <f>COUNTIF(History!A202:A301,A11)</f>
+        <f>COUNTIF(History!A231:A330,A11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="e">
@@ -7941,37 +8212,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="2">
-        <f>COUNTIF(History!A302:C399,A11)</f>
+        <f>COUNTIF(History!A331:C399,A11)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f>COUNTIF(History!A302:A399,A11)</f>
+        <f>COUNTIF(History!A331:A399,A11)</f>
         <v>0</v>
       </c>
       <c r="P11" s="2" t="e">
         <f>O11*100/N11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A11)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R11" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A11)</f>
-        <v>#REF!</v>
+      <c r="Q11" s="2">
+        <f>COUNTIF(History!A506:C530,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <f>COUNTIF(History!A506:A530,A11)</f>
+        <v>0</v>
       </c>
       <c r="S11" s="2" t="e">
         <f>R11*100/Q11</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -7979,38 +8250,38 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A12:C111,A12)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A11:C110,A12)</f>
+        <v>4</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A12:A111,A12)</f>
+        <f>COUNTIF(History!A11:A110,A12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="2">
         <f>F12*100/E12</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A113:C212,A12)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A112:C211,A12)</f>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A113:A212,A12)</f>
+        <f>COUNTIF(History!A112:A211,A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>33.333333333333336</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A231:C330,A12)</f>
+        <f>COUNTIF(History!A202:C301,A12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A231:A330,A12)</f>
+        <f>COUNTIF(History!A202:A301,A12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="e">
@@ -8018,64 +8289,64 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A331:C399,A12)</f>
+        <f>COUNTIF(History!A302:C399,A12)</f>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>COUNTIF(History!A331:A399,A12)</f>
+        <f>COUNTIF(History!A302:A399,A12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="2" t="e">
         <f>O12*100/N12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="2">
-        <f>COUNTIF(History!A506:C530,A12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <f>COUNTIF(History!A506:A530,A12)</f>
-        <v>0</v>
+      <c r="Q12" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R12" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A12)</f>
+        <v>#REF!</v>
       </c>
       <c r="S12" s="2" t="e">
         <f>R12*100/Q12</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>27.272727272727273</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A9:C108,A13)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A14:C113,A13)</f>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A9:A108,A13)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A14:A113,A13)</f>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A109:C208,A13)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A111:C210,A13)</f>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A109:A208,A13)</f>
+        <f>COUNTIF(History!A111:A210,A13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -8083,11 +8354,11 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A204:C303,A13)</f>
+        <f>COUNTIF(History!A212:C311,A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A204:A303,A13)</f>
+        <f>COUNTIF(History!A212:A311,A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="e">
@@ -8095,52 +8366,52 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A304:C399,A13)</f>
+        <f>COUNTIF(History!A312:C399,A13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A304:A399,A13)</f>
+        <f>COUNTIF(History!A312:A399,A13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="2" t="e">
         <f>O13*100/N13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R13" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A13)</f>
-        <v>#REF!</v>
+      <c r="Q13" s="2">
+        <f>COUNTIF(History!A506:C511,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>COUNTIF(History!A506:A511,A13)</f>
+        <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
         <f>R13*100/Q13</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>0</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A13:C112,A14)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A10:C109,A14)</f>
+        <v>5</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A13:A112,A14)</f>
+        <f>COUNTIF(History!A10:A109,A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -8148,23 +8419,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A118:C217,A14)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A117:C216,A14)</f>
+        <v>4</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A118:A217,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A117:A216,A14)</f>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A229:C328,A14)</f>
+        <f>COUNTIF(History!A214:C313,A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A229:A328,A14)</f>
+        <f>COUNTIF(History!A214:A313,A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="e">
@@ -8172,11 +8443,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A329:C399,A14)</f>
+        <f>COUNTIF(History!A314:C399,A14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A329:A399,A14)</f>
+        <f>COUNTIF(History!A314:A399,A14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
@@ -8184,11 +8455,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C528,A14)</f>
+        <f>COUNTIF(History!A506:C513,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A528,A14)</f>
+        <f>COUNTIF(History!A506:A513,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -8198,11 +8469,11 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
@@ -8210,38 +8481,38 @@
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A15:C114,A15)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A13:C112,A15)</f>
+        <v>4</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A15:A114,A15)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A13:A112,A15)</f>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A114:C213,A15)</f>
+        <f>COUNTIF(History!A118:C217,A15)</f>
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <f>COUNTIF(History!A118:A217,A15)</f>
         <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <f>COUNTIF(History!A114:A213,A15)</f>
-        <v>0</v>
       </c>
       <c r="J15" s="2">
         <f>I15*100/H15</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A210:C309,A15)</f>
+        <f>COUNTIF(History!A229:C328,A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A210:A309,A15)</f>
+        <f>COUNTIF(History!A229:A328,A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="e">
@@ -8249,11 +8520,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A310:C399,A15)</f>
+        <f>COUNTIF(History!A329:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A310:A399,A15)</f>
+        <f>COUNTIF(History!A329:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -8261,11 +8532,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C509,A15)</f>
+        <f>COUNTIF(History!A506:C528,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A509,A15)</f>
+        <f>COUNTIF(History!A506:A528,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -8275,38 +8546,38 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>66.666666666666671</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A14:C113,A16)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A15:C114,A16)</f>
+        <v>3</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A14:A113,A16)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A15:A114,A16)</f>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>100</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A111:C210,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A114:C213,A16)</f>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A111:A210,A16)</f>
+        <f>COUNTIF(History!A114:A213,A16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -8314,11 +8585,11 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A212:C311,A16)</f>
+        <f>COUNTIF(History!A210:C309,A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A212:A311,A16)</f>
+        <f>COUNTIF(History!A210:A309,A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="e">
@@ -8326,11 +8597,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A312:C399,A16)</f>
+        <f>COUNTIF(History!A310:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A312:A399,A16)</f>
+        <f>COUNTIF(History!A310:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -8338,11 +8609,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C511,A16)</f>
+        <f>COUNTIF(History!A506:C509,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A511,A16)</f>
+        <f>COUNTIF(History!A506:A509,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -8352,50 +8623,50 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A17:C116,A17)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A19:C118,A17)</f>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A17:A116,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="e">
+        <f>COUNTIF(History!A19:A118,A17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <f>F17*100/E17</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A119:C218,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A115:C214,A17)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A119:A218,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+        <f>COUNTIF(History!A115:A214,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="e">
         <f>I17*100/H17</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A238:C337,A17)</f>
+        <f>COUNTIF(History!A236:C335,A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A238:A337,A17)</f>
+        <f>COUNTIF(History!A236:A335,A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="e">
@@ -8403,11 +8674,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A338:C399,A17)</f>
+        <f>COUNTIF(History!A336:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A338:A399,A17)</f>
+        <f>COUNTIF(History!A336:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -8415,11 +8686,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C537,A17)</f>
+        <f>COUNTIF(History!A506:C535,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A537,A17)</f>
+        <f>COUNTIF(History!A506:A535,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -8429,38 +8700,38 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="8">
-        <f>COUNTIF(History!A18:C117,A18)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A20:C119,A18)</f>
+        <v>1</v>
       </c>
       <c r="F18" s="8">
-        <f>COUNTIF(History!A18:A117,A18)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A20:A119,A18)</f>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <f>F18*100/E18</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2">
-        <f>COUNTIF(History!A120:C219,A18)</f>
+        <f>COUNTIF(History!A116:C215,A18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>COUNTIF(History!A120:A219,A18)</f>
+        <f>COUNTIF(History!A116:A215,A18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="2" t="e">
@@ -8468,11 +8739,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K18" s="2">
-        <f>COUNTIF(History!A216:C315,A18)</f>
+        <f>COUNTIF(History!A219:C318,A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <f>COUNTIF(History!A216:A315,A18)</f>
+        <f>COUNTIF(History!A219:A318,A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="e">
@@ -8480,11 +8751,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A316:C399,A18)</f>
+        <f>COUNTIF(History!A319:C399,A18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A316:A399,A18)</f>
+        <f>COUNTIF(History!A319:A399,A18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="e">
@@ -8492,11 +8763,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A506:C514,A18)</f>
+        <f>COUNTIF(History!A506:C518,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A506:A514,A18)</f>
+        <f>COUNTIF(History!A506:A518,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -8506,7 +8777,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
@@ -8521,23 +8792,23 @@
         <v>100</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A19:C118,A19)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A176:C275,A19)</f>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>COUNTIF(History!A19:A118,A19)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
+        <f>COUNTIF(History!A176:A275,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="e">
         <f>F19*100/E19</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF(History!A115:C214,A19)</f>
+        <f>COUNTIF(History!A276:C375,A19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>COUNTIF(History!A115:A214,A19)</f>
+        <f>COUNTIF(History!A276:A375,A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="e">
@@ -8545,11 +8816,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A236:C335,A19)</f>
+        <f>COUNTIF(History!A376:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A236:A335,A19)</f>
+        <f>COUNTIF(History!A376:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="e">
@@ -8557,11 +8828,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A336:C399,A19)</f>
+        <f>COUNTIF(History!A506:C575,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A336:A399,A19)</f>
+        <f>COUNTIF(History!A506:A575,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -8569,11 +8840,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A506:C535,A19)</f>
+        <f>COUNTIF(History!A576:C675,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A506:A535,A19)</f>
+        <f>COUNTIF(History!A576:A675,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -8583,50 +8854,50 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A20:C119,A20)</f>
+        <f>COUNTIF(History!A17:C116,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>COUNTIF(History!A17:A116,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="e">
+        <f>F20*100/E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="2">
+        <f>COUNTIF(History!A119:C218,A20)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="8">
-        <f>COUNTIF(History!A20:A119,A20)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <f>F20*100/E20</f>
-        <v>100</v>
-      </c>
-      <c r="H20" s="2">
-        <f>COUNTIF(History!A116:C215,A20)</f>
-        <v>0</v>
-      </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A116:A215,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="e">
+        <f>COUNTIF(History!A119:A218,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <f>I20*100/H20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A219:C318,A20)</f>
+        <f>COUNTIF(History!A238:C337,A20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A219:A318,A20)</f>
+        <f>COUNTIF(History!A238:A337,A20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="e">
@@ -8634,11 +8905,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A319:C399,A20)</f>
+        <f>COUNTIF(History!A338:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A319:A399,A20)</f>
+        <f>COUNTIF(History!A338:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
@@ -8646,11 +8917,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2">
-        <f>COUNTIF(History!A506:C518,A20)</f>
+        <f>COUNTIF(History!A506:C537,A20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>COUNTIF(History!A506:A518,A20)</f>
+        <f>COUNTIF(History!A506:A537,A20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="e">
@@ -8660,38 +8931,38 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A176:C275,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A18:C117,A21)</f>
+        <v>2</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A176:A275,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="e">
+        <f>COUNTIF(History!A18:A117,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A276:C375,A21)</f>
+        <f>COUNTIF(History!A120:C219,A21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A276:A375,A21)</f>
+        <f>COUNTIF(History!A120:A219,A21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="e">
@@ -8699,11 +8970,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A376:C399,A21)</f>
+        <f>COUNTIF(History!A216:C315,A21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A376:A399,A21)</f>
+        <f>COUNTIF(History!A216:A315,A21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="e">
@@ -8711,11 +8982,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A506:C575,A21)</f>
+        <f>COUNTIF(History!A316:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A506:A575,A21)</f>
+        <f>COUNTIF(History!A316:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -8723,11 +8994,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A576:C675,A21)</f>
+        <f>COUNTIF(History!A506:C514,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A576:A675,A21)</f>
+        <f>COUNTIF(History!A506:A514,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -9122,26 +9393,26 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="8">
         <f>COUNTIF(History!A:A,A27)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="e">
+      <c r="D27" s="2">
         <f>C27*100/B27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A23:C122,A27)</f>
+        <f>COUNTIF(History!A45:C144,A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A23:A122,A27)</f>
+        <f>COUNTIF(History!A45:A144,A27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="2" t="e">
@@ -9149,23 +9420,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A123:C222,A27)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A145:C244,A27)</f>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A123:A222,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="e">
+        <f>COUNTIF(History!A145:A244,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <f>I27*100/H27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A211:C310,A27)</f>
+        <f>COUNTIF(History!A239:C338,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A211:A310,A27)</f>
+        <f>COUNTIF(History!A239:A338,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -9173,11 +9444,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A311:C399,A27)</f>
+        <f>COUNTIF(History!A339:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A311:A399,A27)</f>
+        <f>COUNTIF(History!A339:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -9185,11 +9456,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C510,A27)</f>
+        <f>COUNTIF(History!A506:C538,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A510,A27)</f>
+        <f>COUNTIF(History!A506:A538,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -9199,7 +9470,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
@@ -9214,11 +9485,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A24:C123,A28)</f>
+        <f>COUNTIF(History!A23:C122,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A24:A123,A28)</f>
+        <f>COUNTIF(History!A23:A122,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -9226,11 +9497,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A124:C223,A28)</f>
+        <f>COUNTIF(History!A123:C222,A28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A124:A223,A28)</f>
+        <f>COUNTIF(History!A123:A222,A28)</f>
         <v>0</v>
       </c>
       <c r="J28" s="2" t="e">
@@ -9238,11 +9509,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A217:C316,A28)</f>
+        <f>COUNTIF(History!A211:C310,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A217:A316,A28)</f>
+        <f>COUNTIF(History!A211:A310,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -9250,11 +9521,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A317:C399,A28)</f>
+        <f>COUNTIF(History!A311:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A317:A399,A28)</f>
+        <f>COUNTIF(History!A311:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -9262,11 +9533,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C516,A28)</f>
+        <f>COUNTIF(History!A506:C510,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A516,A28)</f>
+        <f>COUNTIF(History!A506:A510,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -9276,7 +9547,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
@@ -9291,11 +9562,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A25:C124,A29)</f>
+        <f>COUNTIF(History!A24:C123,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A25:A124,A29)</f>
+        <f>COUNTIF(History!A24:A123,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -9303,11 +9574,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A125:C224,A29)</f>
+        <f>COUNTIF(History!A124:C223,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A125:A224,A29)</f>
+        <f>COUNTIF(History!A124:A223,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -9315,11 +9586,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A215:C314,A29)</f>
+        <f>COUNTIF(History!A217:C316,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A215:A314,A29)</f>
+        <f>COUNTIF(History!A217:A316,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -9327,11 +9598,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A315:C399,A29)</f>
+        <f>COUNTIF(History!A317:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A315:A399,A29)</f>
+        <f>COUNTIF(History!A317:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -9339,11 +9610,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C514,A29)</f>
+        <f>COUNTIF(History!A506:C516,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A514,A29)</f>
+        <f>COUNTIF(History!A506:A516,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -9353,7 +9624,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -9368,11 +9639,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A26:C125,A30)</f>
+        <f>COUNTIF(History!A25:C124,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A26:A125,A30)</f>
+        <f>COUNTIF(History!A25:A124,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -9380,11 +9651,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A126:C225,A30)</f>
+        <f>COUNTIF(History!A125:C224,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A126:A225,A30)</f>
+        <f>COUNTIF(History!A125:A224,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -9392,11 +9663,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A218:C317,A30)</f>
+        <f>COUNTIF(History!A215:C314,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A218:A317,A30)</f>
+        <f>COUNTIF(History!A215:A314,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -9404,11 +9675,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A318:C399,A30)</f>
+        <f>COUNTIF(History!A315:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A318:A399,A30)</f>
+        <f>COUNTIF(History!A315:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -9416,11 +9687,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C517,A30)</f>
+        <f>COUNTIF(History!A506:C514,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A517,A30)</f>
+        <f>COUNTIF(History!A506:A514,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -9430,7 +9701,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -9445,11 +9716,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A27:C126,A31)</f>
+        <f>COUNTIF(History!A26:C125,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A27:A126,A31)</f>
+        <f>COUNTIF(History!A26:A125,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -9457,11 +9728,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A127:C226,A31)</f>
+        <f>COUNTIF(History!A126:C225,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A127:A226,A31)</f>
+        <f>COUNTIF(History!A126:A225,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -9469,11 +9740,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A220:C319,A31)</f>
+        <f>COUNTIF(History!A218:C317,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A220:A319,A31)</f>
+        <f>COUNTIF(History!A218:A317,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -9481,11 +9752,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A320:C399,A31)</f>
+        <f>COUNTIF(History!A318:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A320:A399,A31)</f>
+        <f>COUNTIF(History!A318:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -9493,11 +9764,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A506:C519,A31)</f>
+        <f>COUNTIF(History!A506:C517,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A506:A519,A31)</f>
+        <f>COUNTIF(History!A506:A517,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -9507,7 +9778,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -9522,11 +9793,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A28:C127,A32)</f>
+        <f>COUNTIF(History!A27:C126,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A28:A127,A32)</f>
+        <f>COUNTIF(History!A27:A126,A32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="e">
@@ -9534,11 +9805,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A128:C227,A32)</f>
+        <f>COUNTIF(History!A127:C226,A32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A128:A227,A32)</f>
+        <f>COUNTIF(History!A127:A226,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="e">
@@ -9546,11 +9817,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A222:C321,A32)</f>
+        <f>COUNTIF(History!A220:C319,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A222:A321,A32)</f>
+        <f>COUNTIF(History!A220:A319,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -9558,11 +9829,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A322:C399,A32)</f>
+        <f>COUNTIF(History!A320:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A322:A399,A32)</f>
+        <f>COUNTIF(History!A320:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -9570,11 +9841,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C521,A32)</f>
+        <f>COUNTIF(History!A506:C519,A32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A521,A32)</f>
+        <f>COUNTIF(History!A506:A519,A32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
@@ -9584,7 +9855,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -9599,11 +9870,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A29:C128,A33)</f>
+        <f>COUNTIF(History!A28:C127,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A29:A128,A33)</f>
+        <f>COUNTIF(History!A28:A127,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -9611,11 +9882,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A129:C228,A33)</f>
+        <f>COUNTIF(History!A128:C227,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A129:A228,A33)</f>
+        <f>COUNTIF(History!A128:A227,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -9623,11 +9894,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A228:C327,A33)</f>
+        <f>COUNTIF(History!A222:C321,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A228:A327,A33)</f>
+        <f>COUNTIF(History!A222:A321,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -9635,11 +9906,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A328:C399,A33)</f>
+        <f>COUNTIF(History!A322:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A328:A399,A33)</f>
+        <f>COUNTIF(History!A322:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -9647,11 +9918,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C527,A33)</f>
+        <f>COUNTIF(History!A506:C521,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A527,A33)</f>
+        <f>COUNTIF(History!A506:A521,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -9661,7 +9932,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -9676,11 +9947,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A30:C129,A34)</f>
+        <f>COUNTIF(History!A29:C128,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A30:A129,A34)</f>
+        <f>COUNTIF(History!A29:A128,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="e">
@@ -9688,11 +9959,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A130:C229,A34)</f>
+        <f>COUNTIF(History!A129:C228,A34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A130:A229,A34)</f>
+        <f>COUNTIF(History!A129:A228,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="e">
@@ -9700,11 +9971,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A224:C323,A34)</f>
+        <f>COUNTIF(History!A228:C327,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A224:A323,A34)</f>
+        <f>COUNTIF(History!A228:A327,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -9712,11 +9983,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A324:C399,A34)</f>
+        <f>COUNTIF(History!A328:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A324:A399,A34)</f>
+        <f>COUNTIF(History!A328:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -9724,11 +9995,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A506:C523,A34)</f>
+        <f>COUNTIF(History!A506:C527,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A506:A523,A34)</f>
+        <f>COUNTIF(History!A506:A527,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -9738,7 +10009,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -9753,11 +10024,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A31:C130,A35)</f>
+        <f>COUNTIF(History!A30:C129,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A31:A130,A35)</f>
+        <f>COUNTIF(History!A30:A129,A35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="e">
@@ -9765,11 +10036,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A131:C230,A35)</f>
+        <f>COUNTIF(History!A130:C229,A35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A131:A230,A35)</f>
+        <f>COUNTIF(History!A130:A229,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="e">
@@ -9777,11 +10048,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A277:C376,A35)</f>
+        <f>COUNTIF(History!A224:C323,A35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A277:A376,A35)</f>
+        <f>COUNTIF(History!A224:A323,A35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
@@ -9789,11 +10060,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A377:C399,A35)</f>
+        <f>COUNTIF(History!A324:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A377:A399,A35)</f>
+        <f>COUNTIF(History!A324:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -9801,11 +10072,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C576,A35)</f>
+        <f>COUNTIF(History!A506:C523,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A576,A35)</f>
+        <f>COUNTIF(History!A506:A523,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -9815,7 +10086,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -9830,11 +10101,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A32:C131,A36)</f>
+        <f>COUNTIF(History!A31:C130,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A32:A131,A36)</f>
+        <f>COUNTIF(History!A31:A130,A36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2" t="e">
@@ -9842,11 +10113,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A132:C231,A36)</f>
+        <f>COUNTIF(History!A131:C230,A36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A132:A231,A36)</f>
+        <f>COUNTIF(History!A131:A230,A36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
@@ -9854,11 +10125,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A221:C320,A36)</f>
+        <f>COUNTIF(History!A277:C376,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A221:A320,A36)</f>
+        <f>COUNTIF(History!A277:A376,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -9866,11 +10137,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A321:C399,A36)</f>
+        <f>COUNTIF(History!A377:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A321:A399,A36)</f>
+        <f>COUNTIF(History!A377:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -9878,11 +10149,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A506:C520,A36)</f>
+        <f>COUNTIF(History!A506:C576,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A506:A520,A36)</f>
+        <f>COUNTIF(History!A506:A576,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -9892,7 +10163,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
@@ -9907,11 +10178,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A33:C132,A37)</f>
+        <f>COUNTIF(History!A32:C131,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A33:A132,A37)</f>
+        <f>COUNTIF(History!A32:A131,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -9919,11 +10190,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A133:C232,A37)</f>
+        <f>COUNTIF(History!A132:C231,A37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A133:A232,A37)</f>
+        <f>COUNTIF(History!A132:A231,A37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="e">
@@ -9931,11 +10202,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A223:C322,A37)</f>
+        <f>COUNTIF(History!A221:C320,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A223:A322,A37)</f>
+        <f>COUNTIF(History!A221:A320,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -9943,11 +10214,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A323:C399,A37)</f>
+        <f>COUNTIF(History!A321:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A323:A399,A37)</f>
+        <f>COUNTIF(History!A321:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -9955,11 +10226,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C522,A37)</f>
+        <f>COUNTIF(History!A506:C520,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A522,A37)</f>
+        <f>COUNTIF(History!A506:A520,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -9969,7 +10240,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -9984,11 +10255,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A34:C133,A38)</f>
+        <f>COUNTIF(History!A33:C132,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A34:A133,A38)</f>
+        <f>COUNTIF(History!A33:A132,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="e">
@@ -9996,11 +10267,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A134:C233,A38)</f>
+        <f>COUNTIF(History!A133:C232,A38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A134:A233,A38)</f>
+        <f>COUNTIF(History!A133:A232,A38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="e">
@@ -10008,11 +10279,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A232:C331,A38)</f>
+        <f>COUNTIF(History!A223:C322,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A232:A331,A38)</f>
+        <f>COUNTIF(History!A223:A322,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -10020,11 +10291,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A332:C399,A38)</f>
+        <f>COUNTIF(History!A323:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A332:A399,A38)</f>
+        <f>COUNTIF(History!A323:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -10032,11 +10303,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C531,A38)</f>
+        <f>COUNTIF(History!A506:C522,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A531,A38)</f>
+        <f>COUNTIF(History!A506:A522,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -10046,7 +10317,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -10061,11 +10332,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A35:C134,A39)</f>
+        <f>COUNTIF(History!A34:C133,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A35:A134,A39)</f>
+        <f>COUNTIF(History!A34:A133,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -10073,11 +10344,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A135:C234,A39)</f>
+        <f>COUNTIF(History!A134:C233,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A135:A234,A39)</f>
+        <f>COUNTIF(History!A134:A233,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -10085,11 +10356,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A227:C326,A39)</f>
+        <f>COUNTIF(History!A232:C331,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A227:A326,A39)</f>
+        <f>COUNTIF(History!A232:A331,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -10097,11 +10368,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A327:C399,A39)</f>
+        <f>COUNTIF(History!A332:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A327:A399,A39)</f>
+        <f>COUNTIF(History!A332:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -10109,11 +10380,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C526,A39)</f>
+        <f>COUNTIF(History!A506:C531,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A526,A39)</f>
+        <f>COUNTIF(History!A506:A531,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -10123,7 +10394,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -10138,11 +10409,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A36:C135,A40)</f>
+        <f>COUNTIF(History!A35:C134,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A36:A135,A40)</f>
+        <f>COUNTIF(History!A35:A134,A40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="e">
@@ -10150,11 +10421,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A136:C235,A40)</f>
+        <f>COUNTIF(History!A135:C234,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A136:A235,A40)</f>
+        <f>COUNTIF(History!A135:A234,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -10162,11 +10433,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A230:C329,A40)</f>
+        <f>COUNTIF(History!A227:C326,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A230:A329,A40)</f>
+        <f>COUNTIF(History!A227:A326,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -10174,11 +10445,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A330:C399,A40)</f>
+        <f>COUNTIF(History!A327:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A330:A399,A40)</f>
+        <f>COUNTIF(History!A327:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -10186,11 +10457,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C529,A40)</f>
+        <f>COUNTIF(History!A506:C526,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A529,A40)</f>
+        <f>COUNTIF(History!A506:A526,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -10200,7 +10471,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -10215,11 +10486,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A37:C136,A41)</f>
+        <f>COUNTIF(History!A36:C135,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A37:A136,A41)</f>
+        <f>COUNTIF(History!A36:A135,A41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="2" t="e">
@@ -10227,11 +10498,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A137:C236,A41)</f>
+        <f>COUNTIF(History!A136:C235,A41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A137:A236,A41)</f>
+        <f>COUNTIF(History!A136:A235,A41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="e">
@@ -10239,11 +10510,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A234:C333,A41)</f>
+        <f>COUNTIF(History!A230:C329,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A234:A333,A41)</f>
+        <f>COUNTIF(History!A230:A329,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -10251,11 +10522,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A334:C399,A41)</f>
+        <f>COUNTIF(History!A330:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A334:A399,A41)</f>
+        <f>COUNTIF(History!A330:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -10263,11 +10534,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C533,A41)</f>
+        <f>COUNTIF(History!A506:C529,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A533,A41)</f>
+        <f>COUNTIF(History!A506:A529,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -10277,7 +10548,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -10292,11 +10563,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A38:C137,A42)</f>
+        <f>COUNTIF(History!A37:C136,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A38:A137,A42)</f>
+        <f>COUNTIF(History!A37:A136,A42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="e">
@@ -10304,11 +10575,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A138:C237,A42)</f>
+        <f>COUNTIF(History!A137:C236,A42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A138:A237,A42)</f>
+        <f>COUNTIF(History!A137:A236,A42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="e">
@@ -10316,11 +10587,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A254:C353,A42)</f>
+        <f>COUNTIF(History!A234:C333,A42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A254:A353,A42)</f>
+        <f>COUNTIF(History!A234:A333,A42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="e">
@@ -10328,11 +10599,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A354:C399,A42)</f>
+        <f>COUNTIF(History!A334:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A354:A399,A42)</f>
+        <f>COUNTIF(History!A334:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -10340,11 +10611,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C553,A42)</f>
+        <f>COUNTIF(History!A506:C533,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A553,A42)</f>
+        <f>COUNTIF(History!A506:A533,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -10354,7 +10625,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
@@ -10369,11 +10640,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A39:C138,A43)</f>
+        <f>COUNTIF(History!A38:C137,A43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A39:A138,A43)</f>
+        <f>COUNTIF(History!A38:A137,A43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="e">
@@ -10381,11 +10652,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A139:C238,A43)</f>
+        <f>COUNTIF(History!A138:C237,A43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A139:A238,A43)</f>
+        <f>COUNTIF(History!A138:A237,A43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="e">
@@ -10393,11 +10664,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A226:C325,A43)</f>
+        <f>COUNTIF(History!A254:C353,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A226:A325,A43)</f>
+        <f>COUNTIF(History!A254:A353,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
@@ -10405,11 +10676,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="2">
-        <f>COUNTIF(History!A326:C399,A43)</f>
+        <f>COUNTIF(History!A354:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f>COUNTIF(History!A326:A399,A43)</f>
+        <f>COUNTIF(History!A354:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2" t="e">
@@ -10417,11 +10688,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C525,A43)</f>
+        <f>COUNTIF(History!A506:C553,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A525,A43)</f>
+        <f>COUNTIF(History!A506:A553,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -10431,7 +10702,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -10446,11 +10717,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A40:C139,A44)</f>
+        <f>COUNTIF(History!A39:C138,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A40:A139,A44)</f>
+        <f>COUNTIF(History!A39:A138,A44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="e">
@@ -10458,11 +10729,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A140:C239,A44)</f>
+        <f>COUNTIF(History!A139:C238,A44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A140:A239,A44)</f>
+        <f>COUNTIF(History!A139:A238,A44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="e">
@@ -10470,11 +10741,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A233:C332,A44)</f>
+        <f>COUNTIF(History!A226:C325,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A233:A332,A44)</f>
+        <f>COUNTIF(History!A226:A325,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -10482,11 +10753,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A333:C399,A44)</f>
+        <f>COUNTIF(History!A326:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A333:A399,A44)</f>
+        <f>COUNTIF(History!A326:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -10494,11 +10765,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C532,A44)</f>
+        <f>COUNTIF(History!A506:C525,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A532,A44)</f>
+        <f>COUNTIF(History!A506:A525,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -10508,7 +10779,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -10523,11 +10794,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A41:C140,A45)</f>
+        <f>COUNTIF(History!A40:C139,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A41:A140,A45)</f>
+        <f>COUNTIF(History!A40:A139,A45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="e">
@@ -10535,11 +10806,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A141:C240,A45)</f>
+        <f>COUNTIF(History!A140:C239,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A141:A240,A45)</f>
+        <f>COUNTIF(History!A140:A239,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -10547,11 +10818,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A347:C399,A45)</f>
+        <f>COUNTIF(History!A233:C332,A45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A347:A399,A45)</f>
+        <f>COUNTIF(History!A233:A332,A45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="e">
@@ -10559,11 +10830,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A506:C546,A45)</f>
+        <f>COUNTIF(History!A333:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A506:A546,A45)</f>
+        <f>COUNTIF(History!A333:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -10571,11 +10842,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A547:C646,A45)</f>
+        <f>COUNTIF(History!A506:C532,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A547:A646,A45)</f>
+        <f>COUNTIF(History!A506:A532,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -10585,7 +10856,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -10600,11 +10871,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A42:C141,A46)</f>
+        <f>COUNTIF(History!A41:C140,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A42:A141,A46)</f>
+        <f>COUNTIF(History!A41:A140,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="e">
@@ -10612,11 +10883,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A142:C241,A46)</f>
+        <f>COUNTIF(History!A141:C240,A46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A142:A241,A46)</f>
+        <f>COUNTIF(History!A141:A240,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="e">
@@ -10624,11 +10895,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A240:C339,A46)</f>
+        <f>COUNTIF(History!A347:C399,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A240:A339,A46)</f>
+        <f>COUNTIF(History!A347:A399,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -10636,11 +10907,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A340:C399,A46)</f>
+        <f>COUNTIF(History!A506:C546,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A340:A399,A46)</f>
+        <f>COUNTIF(History!A506:A546,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -10648,11 +10919,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C539,A46)</f>
+        <f>COUNTIF(History!A547:C646,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A539,A46)</f>
+        <f>COUNTIF(History!A547:A646,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -10662,7 +10933,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -10677,11 +10948,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A44:C143,A47)</f>
+        <f>COUNTIF(History!A42:C141,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A44:A143,A47)</f>
+        <f>COUNTIF(History!A42:A141,A47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="e">
@@ -10689,11 +10960,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A144:C243,A47)</f>
+        <f>COUNTIF(History!A142:C241,A47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A144:A243,A47)</f>
+        <f>COUNTIF(History!A142:A241,A47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="e">
@@ -10701,11 +10972,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A237:C336,A47)</f>
+        <f>COUNTIF(History!A240:C339,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A237:A336,A47)</f>
+        <f>COUNTIF(History!A240:A339,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -10713,11 +10984,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A337:C399,A47)</f>
+        <f>COUNTIF(History!A340:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A337:A399,A47)</f>
+        <f>COUNTIF(History!A340:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -10725,11 +10996,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C536,A47)</f>
+        <f>COUNTIF(History!A506:C539,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A536,A47)</f>
+        <f>COUNTIF(History!A506:A539,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -10739,7 +11010,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -10754,11 +11025,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A45:C144,A48)</f>
+        <f>COUNTIF(History!A44:C143,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A45:A144,A48)</f>
+        <f>COUNTIF(History!A44:A143,A48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="e">
@@ -10766,11 +11037,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A145:C244,A48)</f>
+        <f>COUNTIF(History!A144:C243,A48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A145:A244,A48)</f>
+        <f>COUNTIF(History!A144:A243,A48)</f>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="e">
@@ -10778,11 +11049,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A239:C338,A48)</f>
+        <f>COUNTIF(History!A237:C336,A48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A239:A338,A48)</f>
+        <f>COUNTIF(History!A237:A336,A48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="e">
@@ -10790,11 +11061,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A339:C399,A48)</f>
+        <f>COUNTIF(History!A337:C399,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A339:A399,A48)</f>
+        <f>COUNTIF(History!A337:A399,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -10802,11 +11073,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C538,A48)</f>
+        <f>COUNTIF(History!A506:C536,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A538,A48)</f>
+        <f>COUNTIF(History!A506:A536,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -27408,7 +27679,7 @@
   </sheetData>
   <autoFilter ref="A1:S345" xr:uid="{A3F9FFB7-199D-43C8-B38B-24AA8C91A8D9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S345">
-      <sortCondition descending="1" ref="I1:I345"/>
+      <sortCondition descending="1" ref="C1:C345"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -27440,139 +27711,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>kyogre:23</v>
+        <v>dialga:35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>kyogre:23,giratina_origin:17</v>
+        <v>dialga:35,melmetal:28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27</v>
+        <v>dialga:35,melmetal:28,kyogre:27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1,swampert:1</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1,swampert:1,pinsir:1</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1,swampert:1,pinsir:1,darkrai:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1,swampert:1,pinsir:1,darkrai:0,gardevoir:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0,gardevoir:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>kyogre:23,giratina_origin:17,dialga:27,melmetal:21,groudon:17,mewtwo:10,togekiss:18,dragonite:3,metagross:1,giratina_altered:2,rhyperior:2,zekrom:3,snorlax:0,palkia:1,landorus_incarnate:2,machamp:0,garchomp:0,regice:1,swampert:1,pinsir:1,darkrai:0,gardevoir:0,gyarados:0</v>
+        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0,gardevoir:0,gyarados:0</v>
       </c>
     </row>
   </sheetData>
@@ -27602,133 +27873,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>kyogre:47</v>
+        <v>dialga:147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>kyogre:47,giratina_origin:45</v>
+        <v>dialga:147,melmetal:59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119</v>
+        <v>dialga:147,melmetal:59,kyogre:57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2,regice:1</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2,regice:1,swampert:1</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2,regice:1,swampert:1,pinsir:1</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2,regice:1,swampert:1,pinsir:1,darkrai:1</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2,darkrai:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>kyogre:47,giratina_origin:45,dialga:119,melmetal:46,groudon:38,mewtwo:36,togekiss:50,dragonite:7,metagross:10,giratina_altered:7,rhyperior:6,zekrom:11,snorlax:6,palkia:4,landorus_incarnate:3,machamp:3,garchomp:2,regice:1,swampert:1,pinsir:1,darkrai:1,gardevoir:1</v>
+        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
       </c>
     </row>
   </sheetData>
@@ -27742,7 +28013,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27758,133 +28029,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>kyogre:24</v>
+        <v>dialga:112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>kyogre:24,giratina_origin:28</v>
+        <v>dialga:112,melmetal:31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92</v>
+        <v>dialga:112,melmetal:31,kyogre:30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2,regice:0</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2,regice:0,swampert:0</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2,regice:0,swampert:0,pinsir:0</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2,regice:0,swampert:0,pinsir:0,darkrai:1</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2,darkrai:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>kyogre:24,giratina_origin:28,dialga:92,melmetal:25,groudon:21,mewtwo:26,togekiss:32,dragonite:4,metagross:9,giratina_altered:5,rhyperior:4,zekrom:8,snorlax:6,palkia:3,landorus_incarnate:1,machamp:3,garchomp:2,regice:0,swampert:0,pinsir:0,darkrai:1,gardevoir:1</v>
+        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Master - Season 02.xlsx
+++ b/src/main/resources/data/Master - Season 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B876D-A83E-4F39-A1B3-71B0EFE6A5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E063E7-9186-4700-9387-CD9D927B4993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="309">
   <si>
     <t>Lead</t>
   </si>
@@ -966,6 +966,9 @@
   </si>
   <si>
     <t>Heatran</t>
+  </si>
+  <si>
+    <t>Conkeldurr</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,22 +4496,49 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D184" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E184" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D185" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E185" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D186" s="9" t="s">
         <v>241</v>
       </c>
@@ -4517,14 +4547,32 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D187" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E187" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D188" s="9" t="s">
         <v>241</v>
       </c>
@@ -4533,6 +4581,15 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D189" s="9" t="s">
         <v>241</v>
       </c>
@@ -4541,54 +4598,117 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D190" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E190" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D191" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E191" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D192" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E192" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D193" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E193" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D194" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E194" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D195" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E195" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D196" s="9" t="s">
         <v>241</v>
       </c>
@@ -4597,22 +4717,43 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D197" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E197" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D198" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E198" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D199" s="9" t="s">
         <v>241</v>
       </c>
@@ -4621,20 +4762,32 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="A200" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="D200" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E200" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="A201" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D201" s="9" t="s">
         <v>241</v>
       </c>
@@ -4643,6 +4796,15 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="D202" s="9" t="s">
         <v>241</v>
       </c>
@@ -4651,6 +4813,15 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D203" s="9" t="s">
         <v>241</v>
       </c>
@@ -4659,64 +4830,134 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D204" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E204" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D205" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E205" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D206" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E206" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D207" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E207" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D208" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E208" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="A209" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D209" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E209" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D210" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E210" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D211" s="9" t="s">
         <v>241</v>
       </c>
@@ -4725,9 +4966,15 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="A212" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D212" s="9" t="s">
         <v>241</v>
       </c>
@@ -4736,16 +4983,32 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D213" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E213" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="A214" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>300</v>
+      </c>
       <c r="D214" s="9" t="s">
         <v>241</v>
       </c>
@@ -4754,6 +5017,15 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D215" s="9" t="s">
         <v>241</v>
       </c>
@@ -4762,6 +5034,15 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D216" s="9" t="s">
         <v>241</v>
       </c>
@@ -4770,14 +5051,29 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D217" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E217" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D218" s="9" t="s">
         <v>241</v>
       </c>
@@ -4786,6 +5082,15 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D219" s="9" t="s">
         <v>241</v>
       </c>
@@ -4794,6 +5099,15 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D220" s="9" t="s">
         <v>241</v>
       </c>
@@ -4802,6 +5116,15 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D221" s="9" t="s">
         <v>241</v>
       </c>
@@ -4810,6 +5133,15 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D222" s="9" t="s">
         <v>241</v>
       </c>
@@ -4818,46 +5150,100 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D223" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E223" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D224" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E224" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D225" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E225" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D226" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E226" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D227" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E227" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D228" s="9" t="s">
         <v>241</v>
       </c>
@@ -4866,8 +5252,15 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D229" s="9" t="s">
         <v>241</v>
       </c>
@@ -4876,14 +5269,32 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D230" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E230" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D231" s="9" t="s">
         <v>241</v>
       </c>
@@ -4892,6 +5303,15 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D232" s="9" t="s">
         <v>241</v>
       </c>
@@ -4900,25 +5320,49 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D233" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E233" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D234" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E234" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D235" s="9" t="s">
         <v>241</v>
       </c>
@@ -4927,6 +5371,15 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D236" s="9" t="s">
         <v>241</v>
       </c>
@@ -4935,9 +5388,15 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="D237" s="9" t="s">
         <v>241</v>
       </c>
@@ -4946,6 +5405,15 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D238" s="9" t="s">
         <v>241</v>
       </c>
@@ -4954,6 +5422,15 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D239" s="9" t="s">
         <v>241</v>
       </c>
@@ -4962,6 +5439,15 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D240" s="9" t="s">
         <v>241</v>
       </c>
@@ -4970,6 +5456,15 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D241" s="9" t="s">
         <v>241</v>
       </c>
@@ -4978,6 +5473,15 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D242" s="9" t="s">
         <v>241</v>
       </c>
@@ -4986,6 +5490,15 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D243" s="9" t="s">
         <v>241</v>
       </c>
@@ -4994,6 +5507,15 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D244" s="9" t="s">
         <v>241</v>
       </c>
@@ -5002,6 +5524,15 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D245" s="9" t="s">
         <v>241</v>
       </c>
@@ -5010,6 +5541,15 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D246" s="9" t="s">
         <v>241</v>
       </c>
@@ -5018,6 +5558,15 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D247" s="9" t="s">
         <v>241</v>
       </c>
@@ -5026,6 +5575,15 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D248" s="9" t="s">
         <v>241</v>
       </c>
@@ -5034,6 +5592,15 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D249" s="9" t="s">
         <v>241</v>
       </c>
@@ -5042,6 +5609,15 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D250" s="9" t="s">
         <v>241</v>
       </c>
@@ -5050,6 +5626,15 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D251" s="9" t="s">
         <v>241</v>
       </c>
@@ -5058,6 +5643,15 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D252" s="9" t="s">
         <v>241</v>
       </c>
@@ -5066,9 +5660,15 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="D253" s="9" t="s">
         <v>241</v>
       </c>
@@ -5077,30 +5677,66 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D254" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E254" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D255" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E255" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D256" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E256" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D257" s="9" t="s">
         <v>241</v>
       </c>
@@ -5109,22 +5745,49 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D258" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E258" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D259" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E259" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D260" s="9" t="s">
         <v>241</v>
       </c>
@@ -5133,9 +5796,15 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="A261" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D261" s="9" t="s">
         <v>241</v>
       </c>
@@ -5144,6 +5813,15 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D262" s="9" t="s">
         <v>241</v>
       </c>
@@ -5152,14 +5830,32 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D263" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E263" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D264" s="9" t="s">
         <v>241</v>
       </c>
@@ -5168,6 +5864,15 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D265" s="9" t="s">
         <v>241</v>
       </c>
@@ -5176,6 +5881,15 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D266" s="9" t="s">
         <v>241</v>
       </c>
@@ -5184,6 +5898,15 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D267" s="9" t="s">
         <v>241</v>
       </c>
@@ -5192,30 +5915,66 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D268" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E268" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D269" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E269" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D270" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E270" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D271" s="9" t="s">
         <v>241</v>
       </c>
@@ -5224,6 +5983,15 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D272" s="9" t="s">
         <v>241</v>
       </c>
@@ -5232,14 +6000,32 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D273" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E273" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D274" s="9" t="s">
         <v>241</v>
       </c>
@@ -5248,6 +6034,15 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D275" s="9" t="s">
         <v>241</v>
       </c>
@@ -5256,14 +6051,32 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D276" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E276" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D277" s="9" t="s">
         <v>241</v>
       </c>
@@ -5272,6 +6085,15 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D278" s="9" t="s">
         <v>241</v>
       </c>
@@ -5280,33 +6102,66 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D279" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E279" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D280" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E280" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
+      <c r="A281" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="D281" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E281" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D282" s="9" t="s">
         <v>241</v>
       </c>
@@ -5315,6 +6170,12 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D283" s="9" t="s">
         <v>241</v>
       </c>
@@ -5323,15 +6184,32 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D284" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E284" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C285" s="8"/>
+      <c r="A285" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="D285" s="9" t="s">
         <v>241</v>
       </c>
@@ -5340,6 +6218,15 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D286" s="9" t="s">
         <v>241</v>
       </c>
@@ -5348,14 +6235,32 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D287" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E287" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D288" s="9" t="s">
         <v>241</v>
       </c>
@@ -5363,7 +6268,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D289" s="9" t="s">
         <v>241</v>
       </c>
@@ -5371,7 +6285,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D290" s="9" t="s">
         <v>241</v>
       </c>
@@ -5379,197 +6302,472 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D291" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E291" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D292" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E292" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D293" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E293" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D294" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E294" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D295" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E295" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D296" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E296" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D297" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E297" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D298" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E298" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D299" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E299" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D300" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E300" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D301" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E301" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D302" s="9"/>
-    </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D303" s="9"/>
-    </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D304" s="9"/>
-    </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D305" s="9"/>
-    </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D306" s="9"/>
-    </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D307" s="9"/>
-    </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D308" s="9"/>
-    </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D309" s="9"/>
-    </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D310" s="9"/>
-    </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D311" s="9"/>
-    </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D312" s="9"/>
-    </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D313" s="9"/>
-    </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D314" s="9"/>
-    </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D315" s="9"/>
-    </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D316" s="9"/>
-    </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D317" s="9"/>
-    </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D318" s="9"/>
-    </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D319" s="9"/>
-    </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D320" s="9"/>
-    </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D321" s="9"/>
-    </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D322" s="9"/>
-    </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D323" s="9"/>
-    </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D324" s="9"/>
-    </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D325" s="9"/>
-    </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D326" s="9"/>
-    </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D327" s="9"/>
-    </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D328" s="9"/>
-    </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D329" s="9"/>
-    </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E302" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E303" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E304" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E305" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D306" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E306" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D307" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E307" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D308" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E308" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D309" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E309" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D310" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E310" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D311" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E311" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D312" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E312" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D313" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E313" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D314" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E314" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D315" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E315" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D316" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E316" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D317" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E317" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D318" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E318" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D319" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E319" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D320" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E320" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D321" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E321" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D322" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E322" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D323" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E323" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D324" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E324" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D325" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E325" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D326" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E326" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D327" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E327" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D328" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E328" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D329" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E329" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D331" s="9"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D336" s="9"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.25">
@@ -7368,7 +8566,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 A160 C194 A161:C193 A195:C205 A194 C209 A207:C208 A209 C214:C215 A210:C213 A214:A215 C219 A216:C218 A219 C223 A220:C222 A223 C245 A224:C244 A245 C259 A246:C258 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 B301:C309 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 A74:A140</xm:sqref>
+          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 C194 A74:A140 A195:C205 C209 A207:C208 A209 A160:A194 C219 A219 C223 A220:C222 C245 A214:A216 C259 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 B161:C193 A210:C213 C214:C216 A217:C218 B224:C244 A223:A245 A246:C246 A247:B247 A248:C258 B301:C302 C303 B305:C309 B303:B304</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7381,7 +8579,7 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7468,62 +8666,62 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>23.80952380952381</v>
+        <v>52.542372881355931</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF(History!A2:C101,A2)</f>
-        <v>79</v>
+        <f>COUNTIF(History!A6:C105,A2)</f>
+        <v>28</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(History!A2:A101,A2)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A6:A105,A2)</f>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <f>F2*100/E2</f>
-        <v>26.582278481012658</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(History!A102:C201,A2)</f>
-        <v>68</v>
+        <f>COUNTIF(History!A105:C204,A2)</f>
+        <v>36</v>
       </c>
       <c r="I2" s="2">
-        <f>COUNTIF(History!A102:A201,A2)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A105:A204,A2)</f>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>20.588235294117649</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="K2" s="2">
-        <f>COUNTIF(History!A207:C306,A2)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A208:C307,A2)</f>
+        <v>53</v>
       </c>
       <c r="L2" s="2">
-        <f>COUNTIF(History!A207:A306,A2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="e">
+        <f>COUNTIF(History!A208:A307,A2)</f>
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>#DIV/0!</v>
+        <v>56.60377358490566</v>
       </c>
       <c r="N2" s="2">
-        <f>COUNTIF(History!A307:C399,A2)</f>
+        <f>COUNTIF(History!A308:C399,A2)</f>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f>COUNTIF(History!A307:A399,A2)</f>
+        <f>COUNTIF(History!A308:A399,A2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="2" t="e">
@@ -7531,11 +8729,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q2" s="2">
-        <f>COUNTIF(History!A506:C506,A2)</f>
+        <f>COUNTIF(History!A506:C507,A2)</f>
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f>COUNTIF(History!A506:A506,A2)</f>
+        <f>COUNTIF(History!A506:A507,A2)</f>
         <v>0</v>
       </c>
       <c r="S2" s="2" t="e">
@@ -7545,62 +8743,62 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>47.457627118644069</v>
+        <v>22.745098039215687</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(History!A6:C105,A3)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A2:C101,A3)</f>
+        <v>79</v>
       </c>
       <c r="F3" s="8">
-        <f>COUNTIF(History!A6:A105,A3)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A2:A101,A3)</f>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
         <f>F3*100/E3</f>
-        <v>53.571428571428569</v>
+        <v>26.582278481012658</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(History!A105:C204,A3)</f>
-        <v>32</v>
+        <f>COUNTIF(History!A102:C201,A3)</f>
+        <v>82</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(History!A105:A204,A3)</f>
-        <v>13</v>
+        <f>COUNTIF(History!A102:A201,A3)</f>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>40.625</v>
+        <v>20.73170731707317</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A208:C307,A3)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A207:C306,A3)</f>
+        <v>90</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A208:A307,A3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="e">
+        <f>COUNTIF(History!A207:A306,A3)</f>
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>#DIV/0!</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A308:C399,A3)</f>
+        <f>COUNTIF(History!A307:C399,A3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A308:A399,A3)</f>
+        <f>COUNTIF(History!A307:A399,A3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="2" t="e">
@@ -7608,11 +8806,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q3" s="2">
-        <f>COUNTIF(History!A506:C507,A3)</f>
+        <f>COUNTIF(History!A506:C506,A3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>COUNTIF(History!A506:A507,A3)</f>
+        <f>COUNTIF(History!A506:A506,A3)</f>
         <v>0</v>
       </c>
       <c r="S3" s="2" t="e">
@@ -7622,62 +8820,62 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>47.368421052631582</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="E4" s="8">
-        <f>COUNTIF(History!A4:C103,A4)</f>
-        <v>31</v>
+        <f>COUNTIF(History!A5:C104,A4)</f>
+        <v>32</v>
       </c>
       <c r="F4" s="8">
-        <f>COUNTIF(History!A4:A103,A4)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A5:A104,A4)</f>
+        <v>9</v>
       </c>
       <c r="G4" s="2">
         <f>F4*100/E4</f>
-        <v>45.161290322580648</v>
+        <v>28.125</v>
       </c>
       <c r="H4" s="2">
-        <f>COUNTIF(History!A103:C202,A4)</f>
-        <v>24</v>
+        <f>COUNTIF(History!A106:C205,A4)</f>
+        <v>27</v>
       </c>
       <c r="I4" s="2">
-        <f>COUNTIF(History!A103:A202,A4)</f>
-        <v>12</v>
+        <f>COUNTIF(History!A106:A205,A4)</f>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
         <f>I4*100/H4</f>
-        <v>50</v>
+        <v>48.148148148148145</v>
       </c>
       <c r="K4" s="2">
-        <f>COUNTIF(History!A225:C324,A4)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A209:C308,A4)</f>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
-        <f>COUNTIF(History!A225:A324,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="e">
+        <f>COUNTIF(History!A209:A308,A4)</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="2">
         <f>L4*100/K4</f>
-        <v>#DIV/0!</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="N4" s="2">
-        <f>COUNTIF(History!A325:C399,A4)</f>
+        <f>COUNTIF(History!A309:C399,A4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <f>COUNTIF(History!A325:A399,A4)</f>
+        <f>COUNTIF(History!A309:A399,A4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="2" t="e">
@@ -7685,11 +8883,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="2">
-        <f>COUNTIF(History!A506:C524,A4)</f>
+        <f>COUNTIF(History!A506:C508,A4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <f>COUNTIF(History!A506:A524,A4)</f>
+        <f>COUNTIF(History!A506:A508,A4)</f>
         <v>0</v>
       </c>
       <c r="S4" s="2" t="e">
@@ -7699,156 +8897,156 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>46.808510638297875</v>
+        <v>48.101265822784811</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(History!A8:C107,A5)</f>
-        <v>25</v>
+        <f>COUNTIF(History!A4:C103,A5)</f>
+        <v>31</v>
       </c>
       <c r="F5" s="8">
-        <f>COUNTIF(History!A8:A107,A5)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A4:A103,A5)</f>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
         <f>F5*100/E5</f>
-        <v>40</v>
+        <v>45.161290322580648</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(History!A107:C206,A5)</f>
-        <v>20</v>
+        <f>COUNTIF(History!A103:C202,A5)</f>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(History!A107:A206,A5)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A103:A202,A5)</f>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>55</v>
+        <v>48.275862068965516</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A203:C302,A5)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A225:C324,A5)</f>
+        <v>13</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A203:A302,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="e">
+        <f>COUNTIF(History!A225:A324,A5)</f>
+        <v>9</v>
+      </c>
+      <c r="M5" s="2">
         <f>L5*100/K5</f>
-        <v>#DIV/0!</v>
+        <v>69.230769230769226</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A303:C399,A5)</f>
+        <f>COUNTIF(History!A325:C399,A5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A303:A399,A5)</f>
+        <f>COUNTIF(History!A325:A399,A5)</f>
         <v>0</v>
       </c>
       <c r="P5" s="2" t="e">
         <f>O5*100/N5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R5" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A5)</f>
-        <v>#REF!</v>
+      <c r="Q5" s="2">
+        <f>COUNTIF(History!A506:C524,A5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <f>COUNTIF(History!A506:A524,A5)</f>
+        <v>0</v>
       </c>
       <c r="S5" s="2" t="e">
         <f>R5*100/Q5</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>36.363636363636367</v>
+        <v>40.506329113924053</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A5:C104,A6)</f>
-        <v>32</v>
+        <f>COUNTIF(History!A8:C107,A6)</f>
+        <v>25</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A5:A104,A6)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A8:A107,A6)</f>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>28.125</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A106:C205,A6)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A107:C206,A6)</f>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
-        <f>COUNTIF(History!A106:A205,A6)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A107:A206,A6)</f>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>47.61904761904762</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A209:C308,A6)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A203:C302,A6)</f>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A209:A308,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="e">
+        <f>COUNTIF(History!A203:A302,A6)</f>
+        <v>8</v>
+      </c>
+      <c r="M6" s="2">
         <f>L6*100/K6</f>
-        <v>#DIV/0!</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A309:C399,A6)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A303:C399,A6)</f>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A309:A399,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="e">
+        <f>COUNTIF(History!A303:A399,A6)</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <f>O6*100/N6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>COUNTIF(History!A506:C508,A6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <f>COUNTIF(History!A506:A508,A6)</f>
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="Q6" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R6" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A6)</f>
+        <v>#REF!</v>
       </c>
       <c r="S6" s="2" t="e">
         <f>R6*100/Q6</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -7857,15 +9055,15 @@
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>35.185185185185183</v>
+        <v>34.117647058823529</v>
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(History!A3:C102,A7)</f>
@@ -7881,27 +9079,27 @@
       </c>
       <c r="H7" s="2">
         <f>COUNTIF(History!A104:C203,A7)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2">
         <f>COUNTIF(History!A104:A203,A7)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>21.428571428571427</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="K7" s="2">
         <f>COUNTIF(History!A206:C305,A7)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2">
         <f>COUNTIF(History!A206:A305,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="e">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
         <f>L7*100/K7</f>
-        <v>#DIV/0!</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="N7" s="2">
         <f>COUNTIF(History!A306:C399,A7)</f>
@@ -7934,15 +9132,15 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>24.390243902439025</v>
+        <v>27.868852459016395</v>
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(History!A7:C106,A8)</f>
@@ -7958,27 +9156,27 @@
       </c>
       <c r="H8" s="2">
         <f>COUNTIF(History!A108:C207,A8)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="2">
         <f>COUNTIF(History!A108:A207,A8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2">
         <f>I8*100/H8</f>
-        <v>28.571428571428573</v>
+        <v>31.25</v>
       </c>
       <c r="K8" s="2">
         <f>COUNTIF(History!A205:C304,A8)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <f>COUNTIF(History!A205:A304,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2">
         <f>L8*100/K8</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N8" s="2">
         <f>COUNTIF(History!A305:C399,A8)</f>
@@ -8011,15 +9209,15 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>41.666666666666664</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A16:C115,A9)</f>
@@ -8035,27 +9233,27 @@
       </c>
       <c r="H9" s="2">
         <f>COUNTIF(History!A110:C209,A9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2">
         <f>COUNTIF(History!A110:A209,A9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>44.444444444444443</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
         <f>COUNTIF(History!A213:C312,A9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" s="2">
         <f>COUNTIF(History!A213:A312,A9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="2" t="e">
+      <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <f>COUNTIF(History!A313:C399,A9)</f>
@@ -8088,15 +9286,15 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>27.272727272727273</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(History!A9:C108,A10)</f>
@@ -8112,7 +9310,7 @@
       </c>
       <c r="H10" s="2">
         <f>COUNTIF(History!A109:C208,A10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2">
         <f>COUNTIF(History!A109:A208,A10)</f>
@@ -8124,15 +9322,15 @@
       </c>
       <c r="K10" s="2">
         <f>COUNTIF(History!A204:C303,A10)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L10" s="2">
         <f>COUNTIF(History!A204:A303,A10)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
         <f>L10*100/K10</f>
-        <v>#DIV/0!</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="N10" s="2">
         <f>COUNTIF(History!A304:C399,A10)</f>
@@ -8165,15 +9363,15 @@
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>37.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E11" s="8">
         <f>COUNTIF(History!A12:C111,A11)</f>
@@ -8189,27 +9387,27 @@
       </c>
       <c r="H11" s="2">
         <f>COUNTIF(History!A113:C212,A11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2">
         <f>COUNTIF(History!A113:A212,A11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
         <f>I11*100/H11</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K11" s="2">
         <f>COUNTIF(History!A231:C330,A11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2">
         <f>COUNTIF(History!A231:A330,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <f>L11*100/K11</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2">
         <f>COUNTIF(History!A331:C399,A11)</f>
@@ -8242,7 +9440,7 @@
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -8250,7 +9448,7 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="E12" s="8">
         <f>COUNTIF(History!A11:C110,A12)</f>
@@ -8266,7 +9464,7 @@
       </c>
       <c r="H12" s="2">
         <f>COUNTIF(History!A112:C211,A12)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
         <f>COUNTIF(History!A112:A211,A12)</f>
@@ -8274,31 +9472,31 @@
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
         <f>COUNTIF(History!A202:C301,A12)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="2">
         <f>COUNTIF(History!A202:A301,A12)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="2" t="e">
+      <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <f>COUNTIF(History!A302:C399,A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <f>COUNTIF(History!A302:A399,A12)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="2" t="e">
+      <c r="P12" s="2">
         <f>O12*100/N12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2" t="e">
         <f>COUNTIF(History!#REF!,A12)</f>
@@ -8315,11 +9513,11 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
@@ -8327,50 +9525,50 @@
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>66.666666666666671</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A14:C113,A13)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A13:C112,A13)</f>
+        <v>4</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A14:A113,A13)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A13:A112,A13)</f>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A111:C210,A13)</f>
+        <f>COUNTIF(History!A118:C217,A13)</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <f>COUNTIF(History!A118:A217,A13)</f>
         <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <f>COUNTIF(History!A111:A210,A13)</f>
-        <v>0</v>
       </c>
       <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A212:C311,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A229:C328,A13)</f>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A212:A311,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="e">
+        <f>COUNTIF(History!A229:A328,A13)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A312:C399,A13)</f>
+        <f>COUNTIF(History!A329:C399,A13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A312:A399,A13)</f>
+        <f>COUNTIF(History!A329:A399,A13)</f>
         <v>0</v>
       </c>
       <c r="P13" s="2" t="e">
@@ -8378,11 +9576,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C511,A13)</f>
+        <f>COUNTIF(History!A506:C528,A13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A511,A13)</f>
+        <f>COUNTIF(History!A506:A528,A13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
@@ -8392,62 +9590,62 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>9.0909090909090917</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="E14" s="8">
-        <f>COUNTIF(History!A10:C109,A14)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A15:C114,A14)</f>
+        <v>3</v>
       </c>
       <c r="F14" s="8">
-        <f>COUNTIF(History!A10:A109,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A15:A114,A14)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <f>F14*100/E14</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H14" s="2">
-        <f>COUNTIF(History!A117:C216,A14)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A114:C213,A14)</f>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <f>COUNTIF(History!A117:A216,A14)</f>
+        <f>COUNTIF(History!A114:A213,A14)</f>
         <v>1</v>
       </c>
       <c r="J14" s="2">
         <f>I14*100/H14</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
-        <f>COUNTIF(History!A214:C313,A14)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A210:C309,A14)</f>
+        <v>5</v>
       </c>
       <c r="L14" s="2">
-        <f>COUNTIF(History!A214:A313,A14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="e">
+        <f>COUNTIF(History!A210:A309,A14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <f>L14*100/K14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f>COUNTIF(History!A314:C399,A14)</f>
+        <f>COUNTIF(History!A310:C399,A14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f>COUNTIF(History!A314:A399,A14)</f>
+        <f>COUNTIF(History!A310:A399,A14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="2" t="e">
@@ -8455,11 +9653,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="2">
-        <f>COUNTIF(History!A506:C513,A14)</f>
+        <f>COUNTIF(History!A506:C509,A14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f>COUNTIF(History!A506:A513,A14)</f>
+        <f>COUNTIF(History!A506:A509,A14)</f>
         <v>0</v>
       </c>
       <c r="S14" s="2" t="e">
@@ -8469,62 +9667,62 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A13:C112,A15)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A14:C113,A15)</f>
+        <v>2</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A13:A112,A15)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A14:A113,A15)</f>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A118:C217,A15)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A111:C210,A15)</f>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <f>COUNTIF(History!A118:A217,A15)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A111:A210,A15)</f>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <f>I15*100/H15</f>
-        <v>16.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A229:C328,A15)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A212:C311,A15)</f>
+        <v>2</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A229:A328,A15)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="e">
+        <f>COUNTIF(History!A212:A311,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <f>L15*100/K15</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A329:C399,A15)</f>
+        <f>COUNTIF(History!A312:C399,A15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A329:A399,A15)</f>
+        <f>COUNTIF(History!A312:A399,A15)</f>
         <v>0</v>
       </c>
       <c r="P15" s="2" t="e">
@@ -8532,11 +9730,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C528,A15)</f>
+        <f>COUNTIF(History!A506:C511,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A528,A15)</f>
+        <f>COUNTIF(History!A506:A511,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -8546,11 +9744,11 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
@@ -8558,50 +9756,50 @@
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>16.666666666666668</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A15:C114,A16)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A10:C109,A16)</f>
+        <v>5</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A15:A114,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A10:A109,A16)</f>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A114:C213,A16)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A117:C216,A16)</f>
+        <v>4</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A114:A213,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A117:A216,A16)</f>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A210:C309,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A214:C313,A16)</f>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A210:A309,A16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="e">
+        <f>COUNTIF(History!A214:A313,A16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <f>L16*100/K16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A310:C399,A16)</f>
+        <f>COUNTIF(History!A314:C399,A16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A310:A399,A16)</f>
+        <f>COUNTIF(History!A314:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2" t="e">
@@ -8609,11 +9807,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C509,A16)</f>
+        <f>COUNTIF(History!A506:C513,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A509,A16)</f>
+        <f>COUNTIF(History!A506:A513,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -8623,11 +9821,11 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
@@ -8635,26 +9833,26 @@
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>100</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A19:C118,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:C117,A17)</f>
+        <v>2</v>
       </c>
       <c r="F17" s="8">
-        <f>COUNTIF(History!A19:A118,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:A117,A17)</f>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <f>F17*100/E17</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f>COUNTIF(History!A115:C214,A17)</f>
+        <f>COUNTIF(History!A120:C219,A17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A115:A214,A17)</f>
+        <f>COUNTIF(History!A120:A219,A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="2" t="e">
@@ -8662,23 +9860,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A236:C335,A17)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A216:C315,A17)</f>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A236:A335,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="e">
+        <f>COUNTIF(History!A216:A315,A17)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <f>L17*100/K17</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A336:C399,A17)</f>
+        <f>COUNTIF(History!A316:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A336:A399,A17)</f>
+        <f>COUNTIF(History!A316:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -8686,11 +9884,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C535,A17)</f>
+        <f>COUNTIF(History!A506:C514,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A535,A17)</f>
+        <f>COUNTIF(History!A506:A514,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -8704,7 +9902,7 @@
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -8712,7 +9910,7 @@
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E18" s="8">
         <f>COUNTIF(History!A20:C119,A18)</f>
@@ -8728,15 +9926,15 @@
       </c>
       <c r="H18" s="2">
         <f>COUNTIF(History!A116:C215,A18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <f>COUNTIF(History!A116:A215,A18)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="e">
+      <c r="J18" s="2">
         <f>I18*100/H18</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <f>COUNTIF(History!A219:C318,A18)</f>
@@ -8777,7 +9975,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
@@ -8792,23 +9990,23 @@
         <v>100</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A176:C275,A19)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A19:C118,A19)</f>
+        <v>1</v>
       </c>
       <c r="F19" s="8">
-        <f>COUNTIF(History!A176:A275,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="e">
+        <f>COUNTIF(History!A19:A118,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <f>F19*100/E19</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2">
-        <f>COUNTIF(History!A276:C375,A19)</f>
+        <f>COUNTIF(History!A115:C214,A19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>COUNTIF(History!A276:A375,A19)</f>
+        <f>COUNTIF(History!A115:A214,A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="2" t="e">
@@ -8816,11 +10014,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="2">
-        <f>COUNTIF(History!A376:C399,A19)</f>
+        <f>COUNTIF(History!A236:C335,A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A376:A399,A19)</f>
+        <f>COUNTIF(History!A236:A335,A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="e">
@@ -8828,11 +10026,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A506:C575,A19)</f>
+        <f>COUNTIF(History!A336:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A506:A575,A19)</f>
+        <f>COUNTIF(History!A336:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -8840,11 +10038,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A576:C675,A19)</f>
+        <f>COUNTIF(History!A506:C535,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A576:A675,A19)</f>
+        <f>COUNTIF(History!A506:A535,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -8854,26 +10052,26 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A17:C116,A20)</f>
+        <f>COUNTIF(History!A176:C275,A20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>COUNTIF(History!A17:A116,A20)</f>
+        <f>COUNTIF(History!A176:A275,A20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="e">
@@ -8881,23 +10079,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF(History!A119:C218,A20)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A276:C375,A20)</f>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A119:A218,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+        <f>COUNTIF(History!A276:A375,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="e">
         <f>I20*100/H20</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A238:C337,A20)</f>
+        <f>COUNTIF(History!A376:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A238:A337,A20)</f>
+        <f>COUNTIF(History!A376:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="e">
@@ -8905,11 +10103,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A338:C399,A20)</f>
+        <f>COUNTIF(History!A506:C575,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A338:A399,A20)</f>
+        <f>COUNTIF(History!A506:A575,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
@@ -8917,11 +10115,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2">
-        <f>COUNTIF(History!A506:C537,A20)</f>
+        <f>COUNTIF(History!A576:C675,A20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>COUNTIF(History!A506:A537,A20)</f>
+        <f>COUNTIF(History!A576:A675,A20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="e">
@@ -8931,11 +10129,11 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
@@ -8946,35 +10144,35 @@
         <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A18:C117,A21)</f>
+        <f>COUNTIF(History!A17:C116,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f>COUNTIF(History!A17:A116,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="e">
+        <f>F21*100/E21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="2">
+        <f>COUNTIF(History!A119:C218,A21)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="8">
-        <f>COUNTIF(History!A18:A117,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f>F21*100/E21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f>COUNTIF(History!A120:C219,A21)</f>
-        <v>0</v>
-      </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A120:A219,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="e">
+        <f>COUNTIF(History!A119:A218,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <f>I21*100/H21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A216:C315,A21)</f>
+        <f>COUNTIF(History!A238:C337,A21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A216:A315,A21)</f>
+        <f>COUNTIF(History!A238:A337,A21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="e">
@@ -8982,11 +10180,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A316:C399,A21)</f>
+        <f>COUNTIF(History!A338:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A316:A399,A21)</f>
+        <f>COUNTIF(History!A338:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -8994,11 +10192,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C514,A21)</f>
+        <f>COUNTIF(History!A506:C537,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A514,A21)</f>
+        <f>COUNTIF(History!A506:A537,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -9008,11 +10206,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -9023,35 +10221,35 @@
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A21:C120,A22)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A45:C144,A22)</f>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A21:A120,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
+        <f>COUNTIF(History!A45:A144,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="e">
         <f>F22*100/E22</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A121:C220,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A145:C244,A22)</f>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A121:A220,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="e">
+        <f>COUNTIF(History!A145:A244,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <f>I22*100/H22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A260:C359,A22)</f>
+        <f>COUNTIF(History!A239:C338,A22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A260:A359,A22)</f>
+        <f>COUNTIF(History!A239:A338,A22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="e">
@@ -9059,11 +10257,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A360:C399,A22)</f>
+        <f>COUNTIF(History!A339:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A360:A399,A22)</f>
+        <f>COUNTIF(History!A339:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -9071,11 +10269,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C559,A22)</f>
+        <f>COUNTIF(History!A506:C538,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A559,A22)</f>
+        <f>COUNTIF(History!A506:A538,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -9085,7 +10283,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
@@ -9100,11 +10298,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A22:C121,A23)</f>
+        <f>COUNTIF(History!A21:C120,A23)</f>
         <v>1</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A22:A121,A23)</f>
+        <f>COUNTIF(History!A21:A120,A23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
@@ -9112,11 +10310,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A122:C221,A23)</f>
+        <f>COUNTIF(History!A121:C220,A23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A122:A221,A23)</f>
+        <f>COUNTIF(History!A121:A220,A23)</f>
         <v>0</v>
       </c>
       <c r="J23" s="2" t="e">
@@ -9124,11 +10322,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A253:C352,A23)</f>
+        <f>COUNTIF(History!A260:C359,A23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A253:A352,A23)</f>
+        <f>COUNTIF(History!A260:A359,A23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="e">
@@ -9136,11 +10334,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A353:C399,A23)</f>
+        <f>COUNTIF(History!A360:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A353:A399,A23)</f>
+        <f>COUNTIF(History!A360:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -9148,11 +10346,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C552,A23)</f>
+        <f>COUNTIF(History!A506:C559,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A552,A23)</f>
+        <f>COUNTIF(History!A506:A559,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -9162,7 +10360,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
@@ -9177,11 +10375,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A43:C142,A24)</f>
+        <f>COUNTIF(History!A22:C121,A24)</f>
         <v>1</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A43:A142,A24)</f>
+        <f>COUNTIF(History!A22:A121,A24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
@@ -9189,11 +10387,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A143:C242,A24)</f>
+        <f>COUNTIF(History!A122:C221,A24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A143:A242,A24)</f>
+        <f>COUNTIF(History!A122:A221,A24)</f>
         <v>0</v>
       </c>
       <c r="J24" s="2" t="e">
@@ -9201,11 +10399,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A235:C334,A24)</f>
+        <f>COUNTIF(History!A253:C352,A24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A235:A334,A24)</f>
+        <f>COUNTIF(History!A253:A352,A24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="e">
@@ -9213,11 +10411,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A335:C399,A24)</f>
+        <f>COUNTIF(History!A353:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A335:A399,A24)</f>
+        <f>COUNTIF(History!A353:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -9225,11 +10423,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C534,A24)</f>
+        <f>COUNTIF(History!A506:C552,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A534,A24)</f>
+        <f>COUNTIF(History!A506:A552,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -9239,7 +10437,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -9254,11 +10452,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A97:C196,A25)</f>
+        <f>COUNTIF(History!A43:C142,A25)</f>
         <v>1</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A97:A196,A25)</f>
+        <f>COUNTIF(History!A43:A142,A25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2">
@@ -9266,11 +10464,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A197:C296,A25)</f>
+        <f>COUNTIF(History!A143:C242,A25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A197:A296,A25)</f>
+        <f>COUNTIF(History!A143:A242,A25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="e">
@@ -9278,11 +10476,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A294:C393,A25)</f>
+        <f>COUNTIF(History!A235:C334,A25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A294:A393,A25)</f>
+        <f>COUNTIF(History!A235:A334,A25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="e">
@@ -9290,11 +10488,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A394:C399,A25)</f>
+        <f>COUNTIF(History!A335:C399,A25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A394:A399,A25)</f>
+        <f>COUNTIF(History!A335:A399,A25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="e">
@@ -9302,11 +10500,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A506:C593,A25)</f>
+        <f>COUNTIF(History!A506:C534,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A506:A593,A25)</f>
+        <f>COUNTIF(History!A506:A534,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -9316,7 +10514,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
@@ -9331,23 +10529,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A220:C319,A26)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A97:C196,A26)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A220:A319,A26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="e">
+        <f>COUNTIF(History!A97:A196,A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <f>F26*100/E26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A320:C419,A26)</f>
+        <f>COUNTIF(History!A197:C296,A26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A320:A419,A26)</f>
+        <f>COUNTIF(History!A197:A296,A26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="e">
@@ -9355,11 +10553,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A506:C519,A26)</f>
+        <f>COUNTIF(History!A294:C393,A26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A506:A519,A26)</f>
+        <f>COUNTIF(History!A294:A393,A26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="e">
@@ -9367,11 +10565,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A520:C619,A26)</f>
+        <f>COUNTIF(History!A394:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A520:A619,A26)</f>
+        <f>COUNTIF(History!A394:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -9379,11 +10577,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A620:C719,A26)</f>
+        <f>COUNTIF(History!A506:C593,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A620:A719,A26)</f>
+        <f>COUNTIF(History!A506:A593,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -9393,7 +10591,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
@@ -9408,11 +10606,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A45:C144,A27)</f>
+        <f>COUNTIF(History!A220:C319,A27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A45:A144,A27)</f>
+        <f>COUNTIF(History!A220:A319,A27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="2" t="e">
@@ -9420,23 +10618,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A145:C244,A27)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A320:C419,A27)</f>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A145:A244,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
+        <f>COUNTIF(History!A320:A419,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="e">
         <f>I27*100/H27</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A239:C338,A27)</f>
+        <f>COUNTIF(History!A506:C519,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A239:A338,A27)</f>
+        <f>COUNTIF(History!A506:A519,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -9444,11 +10642,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A339:C399,A27)</f>
+        <f>COUNTIF(History!A520:C619,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A339:A399,A27)</f>
+        <f>COUNTIF(History!A520:A619,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -9456,11 +10654,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A506:C538,A27)</f>
+        <f>COUNTIF(History!A620:C719,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A506:A538,A27)</f>
+        <f>COUNTIF(History!A620:A719,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -9470,26 +10668,26 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="8">
         <f>COUNTIF(History!A:A,A28)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="e">
+      <c r="D28" s="2">
         <f>C28*100/B28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A23:C122,A28)</f>
+        <f>COUNTIF(History!A42:C141,A28)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A23:A122,A28)</f>
+        <f>COUNTIF(History!A42:A141,A28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="2" t="e">
@@ -9497,23 +10695,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A123:C222,A28)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A142:C241,A28)</f>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A123:A222,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="e">
+        <f>COUNTIF(History!A142:A241,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <f>I28*100/H28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A211:C310,A28)</f>
+        <f>COUNTIF(History!A240:C339,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A211:A310,A28)</f>
+        <f>COUNTIF(History!A240:A339,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -9521,11 +10719,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A311:C399,A28)</f>
+        <f>COUNTIF(History!A340:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A311:A399,A28)</f>
+        <f>COUNTIF(History!A340:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -9533,11 +10731,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C510,A28)</f>
+        <f>COUNTIF(History!A506:C539,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A510,A28)</f>
+        <f>COUNTIF(History!A506:A539,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -9547,7 +10745,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
@@ -9562,11 +10760,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A24:C123,A29)</f>
+        <f>COUNTIF(History!A23:C122,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A24:A123,A29)</f>
+        <f>COUNTIF(History!A23:A122,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -9574,11 +10772,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A124:C223,A29)</f>
+        <f>COUNTIF(History!A123:C222,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A124:A223,A29)</f>
+        <f>COUNTIF(History!A123:A222,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -9586,11 +10784,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A217:C316,A29)</f>
+        <f>COUNTIF(History!A211:C310,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A217:A316,A29)</f>
+        <f>COUNTIF(History!A211:A310,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -9598,11 +10796,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A317:C399,A29)</f>
+        <f>COUNTIF(History!A311:C399,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A317:A399,A29)</f>
+        <f>COUNTIF(History!A311:A399,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -9610,11 +10808,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C516,A29)</f>
+        <f>COUNTIF(History!A506:C510,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A516,A29)</f>
+        <f>COUNTIF(History!A506:A510,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -9624,7 +10822,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -9639,11 +10837,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A25:C124,A30)</f>
+        <f>COUNTIF(History!A24:C123,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A25:A124,A30)</f>
+        <f>COUNTIF(History!A24:A123,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -9651,11 +10849,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A125:C224,A30)</f>
+        <f>COUNTIF(History!A124:C223,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A125:A224,A30)</f>
+        <f>COUNTIF(History!A124:A223,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -9663,11 +10861,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A215:C314,A30)</f>
+        <f>COUNTIF(History!A217:C316,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A215:A314,A30)</f>
+        <f>COUNTIF(History!A217:A316,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -9675,11 +10873,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A315:C399,A30)</f>
+        <f>COUNTIF(History!A317:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A315:A399,A30)</f>
+        <f>COUNTIF(History!A317:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -9687,11 +10885,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C514,A30)</f>
+        <f>COUNTIF(History!A506:C516,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A514,A30)</f>
+        <f>COUNTIF(History!A506:A516,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -9701,7 +10899,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -9716,11 +10914,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A26:C125,A31)</f>
+        <f>COUNTIF(History!A25:C124,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A26:A125,A31)</f>
+        <f>COUNTIF(History!A25:A124,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -9728,11 +10926,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A126:C225,A31)</f>
+        <f>COUNTIF(History!A125:C224,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A126:A225,A31)</f>
+        <f>COUNTIF(History!A125:A224,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -9740,11 +10938,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A218:C317,A31)</f>
+        <f>COUNTIF(History!A215:C314,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A218:A317,A31)</f>
+        <f>COUNTIF(History!A215:A314,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -9752,11 +10950,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A318:C399,A31)</f>
+        <f>COUNTIF(History!A315:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A318:A399,A31)</f>
+        <f>COUNTIF(History!A315:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -9764,11 +10962,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A506:C517,A31)</f>
+        <f>COUNTIF(History!A506:C514,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A506:A517,A31)</f>
+        <f>COUNTIF(History!A506:A514,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -9778,7 +10976,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -9793,11 +10991,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A27:C126,A32)</f>
+        <f>COUNTIF(History!A26:C125,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A27:A126,A32)</f>
+        <f>COUNTIF(History!A26:A125,A32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="e">
@@ -9805,11 +11003,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A127:C226,A32)</f>
+        <f>COUNTIF(History!A126:C225,A32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A127:A226,A32)</f>
+        <f>COUNTIF(History!A126:A225,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="e">
@@ -9817,11 +11015,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A220:C319,A32)</f>
+        <f>COUNTIF(History!A218:C317,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A220:A319,A32)</f>
+        <f>COUNTIF(History!A218:A317,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -9829,11 +11027,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A320:C399,A32)</f>
+        <f>COUNTIF(History!A318:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A320:A399,A32)</f>
+        <f>COUNTIF(History!A318:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -9841,11 +11039,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C519,A32)</f>
+        <f>COUNTIF(History!A506:C517,A32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A519,A32)</f>
+        <f>COUNTIF(History!A506:A517,A32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
@@ -9855,7 +11053,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -9870,11 +11068,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A28:C127,A33)</f>
+        <f>COUNTIF(History!A27:C126,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A28:A127,A33)</f>
+        <f>COUNTIF(History!A27:A126,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -9882,11 +11080,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A128:C227,A33)</f>
+        <f>COUNTIF(History!A127:C226,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A128:A227,A33)</f>
+        <f>COUNTIF(History!A127:A226,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -9894,11 +11092,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A222:C321,A33)</f>
+        <f>COUNTIF(History!A220:C319,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A222:A321,A33)</f>
+        <f>COUNTIF(History!A220:A319,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -9906,11 +11104,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A322:C399,A33)</f>
+        <f>COUNTIF(History!A320:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A322:A399,A33)</f>
+        <f>COUNTIF(History!A320:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -9918,11 +11116,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C521,A33)</f>
+        <f>COUNTIF(History!A506:C519,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A521,A33)</f>
+        <f>COUNTIF(History!A506:A519,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -9932,7 +11130,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -9947,11 +11145,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A29:C128,A34)</f>
+        <f>COUNTIF(History!A28:C127,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A29:A128,A34)</f>
+        <f>COUNTIF(History!A28:A127,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="e">
@@ -9959,11 +11157,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A129:C228,A34)</f>
+        <f>COUNTIF(History!A128:C227,A34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A129:A228,A34)</f>
+        <f>COUNTIF(History!A128:A227,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="e">
@@ -9971,11 +11169,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A228:C327,A34)</f>
+        <f>COUNTIF(History!A222:C321,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A228:A327,A34)</f>
+        <f>COUNTIF(History!A222:A321,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -9983,11 +11181,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A328:C399,A34)</f>
+        <f>COUNTIF(History!A322:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A328:A399,A34)</f>
+        <f>COUNTIF(History!A322:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -9995,11 +11193,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A506:C527,A34)</f>
+        <f>COUNTIF(History!A506:C521,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A506:A527,A34)</f>
+        <f>COUNTIF(History!A506:A521,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -10009,7 +11207,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -10024,11 +11222,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A30:C129,A35)</f>
+        <f>COUNTIF(History!A29:C128,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A30:A129,A35)</f>
+        <f>COUNTIF(History!A29:A128,A35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="e">
@@ -10036,11 +11234,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A130:C229,A35)</f>
+        <f>COUNTIF(History!A129:C228,A35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A130:A229,A35)</f>
+        <f>COUNTIF(History!A129:A228,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="e">
@@ -10048,11 +11246,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A224:C323,A35)</f>
+        <f>COUNTIF(History!A228:C327,A35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A224:A323,A35)</f>
+        <f>COUNTIF(History!A228:A327,A35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
@@ -10060,11 +11258,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A324:C399,A35)</f>
+        <f>COUNTIF(History!A328:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A324:A399,A35)</f>
+        <f>COUNTIF(History!A328:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -10072,11 +11270,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C523,A35)</f>
+        <f>COUNTIF(History!A506:C527,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A523,A35)</f>
+        <f>COUNTIF(History!A506:A527,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -10086,7 +11284,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -10101,11 +11299,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A31:C130,A36)</f>
+        <f>COUNTIF(History!A30:C129,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A31:A130,A36)</f>
+        <f>COUNTIF(History!A30:A129,A36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2" t="e">
@@ -10113,11 +11311,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A131:C230,A36)</f>
+        <f>COUNTIF(History!A130:C229,A36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A131:A230,A36)</f>
+        <f>COUNTIF(History!A130:A229,A36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
@@ -10125,11 +11323,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A277:C376,A36)</f>
+        <f>COUNTIF(History!A224:C323,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A277:A376,A36)</f>
+        <f>COUNTIF(History!A224:A323,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -10137,11 +11335,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A377:C399,A36)</f>
+        <f>COUNTIF(History!A324:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A377:A399,A36)</f>
+        <f>COUNTIF(History!A324:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -10149,11 +11347,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A506:C576,A36)</f>
+        <f>COUNTIF(History!A506:C523,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A506:A576,A36)</f>
+        <f>COUNTIF(History!A506:A523,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -10163,7 +11361,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
@@ -10178,11 +11376,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A32:C131,A37)</f>
+        <f>COUNTIF(History!A31:C130,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A32:A131,A37)</f>
+        <f>COUNTIF(History!A31:A130,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -10190,11 +11388,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A132:C231,A37)</f>
+        <f>COUNTIF(History!A131:C230,A37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A132:A231,A37)</f>
+        <f>COUNTIF(History!A131:A230,A37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="e">
@@ -10202,11 +11400,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A221:C320,A37)</f>
+        <f>COUNTIF(History!A277:C376,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A221:A320,A37)</f>
+        <f>COUNTIF(History!A277:A376,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -10214,11 +11412,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A321:C399,A37)</f>
+        <f>COUNTIF(History!A377:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A321:A399,A37)</f>
+        <f>COUNTIF(History!A377:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -10226,11 +11424,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C520,A37)</f>
+        <f>COUNTIF(History!A506:C576,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A520,A37)</f>
+        <f>COUNTIF(History!A506:A576,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -10240,7 +11438,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -10255,11 +11453,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A33:C132,A38)</f>
+        <f>COUNTIF(History!A32:C131,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A33:A132,A38)</f>
+        <f>COUNTIF(History!A32:A131,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="e">
@@ -10267,11 +11465,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A133:C232,A38)</f>
+        <f>COUNTIF(History!A132:C231,A38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A133:A232,A38)</f>
+        <f>COUNTIF(History!A132:A231,A38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="e">
@@ -10279,11 +11477,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A223:C322,A38)</f>
+        <f>COUNTIF(History!A221:C320,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A223:A322,A38)</f>
+        <f>COUNTIF(History!A221:A320,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -10291,11 +11489,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A323:C399,A38)</f>
+        <f>COUNTIF(History!A321:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A323:A399,A38)</f>
+        <f>COUNTIF(History!A321:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -10303,11 +11501,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C522,A38)</f>
+        <f>COUNTIF(History!A506:C520,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A522,A38)</f>
+        <f>COUNTIF(History!A506:A520,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -10317,7 +11515,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -10332,11 +11530,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A34:C133,A39)</f>
+        <f>COUNTIF(History!A33:C132,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A34:A133,A39)</f>
+        <f>COUNTIF(History!A33:A132,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -10344,11 +11542,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A134:C233,A39)</f>
+        <f>COUNTIF(History!A133:C232,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A134:A233,A39)</f>
+        <f>COUNTIF(History!A133:A232,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -10356,11 +11554,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A232:C331,A39)</f>
+        <f>COUNTIF(History!A223:C322,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A232:A331,A39)</f>
+        <f>COUNTIF(History!A223:A322,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -10368,11 +11566,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A332:C399,A39)</f>
+        <f>COUNTIF(History!A323:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A332:A399,A39)</f>
+        <f>COUNTIF(History!A323:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -10380,11 +11578,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C531,A39)</f>
+        <f>COUNTIF(History!A506:C522,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A531,A39)</f>
+        <f>COUNTIF(History!A506:A522,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -10394,7 +11592,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -10409,11 +11607,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A35:C134,A40)</f>
+        <f>COUNTIF(History!A34:C133,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A35:A134,A40)</f>
+        <f>COUNTIF(History!A34:A133,A40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="e">
@@ -10421,11 +11619,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A135:C234,A40)</f>
+        <f>COUNTIF(History!A134:C233,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A135:A234,A40)</f>
+        <f>COUNTIF(History!A134:A233,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -10433,11 +11631,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A227:C326,A40)</f>
+        <f>COUNTIF(History!A232:C331,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A227:A326,A40)</f>
+        <f>COUNTIF(History!A232:A331,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -10445,11 +11643,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A327:C399,A40)</f>
+        <f>COUNTIF(History!A332:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A327:A399,A40)</f>
+        <f>COUNTIF(History!A332:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -10457,11 +11655,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C526,A40)</f>
+        <f>COUNTIF(History!A506:C531,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A526,A40)</f>
+        <f>COUNTIF(History!A506:A531,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -10471,7 +11669,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -10486,11 +11684,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A36:C135,A41)</f>
+        <f>COUNTIF(History!A35:C134,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A36:A135,A41)</f>
+        <f>COUNTIF(History!A35:A134,A41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="2" t="e">
@@ -10498,11 +11696,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A136:C235,A41)</f>
+        <f>COUNTIF(History!A135:C234,A41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A136:A235,A41)</f>
+        <f>COUNTIF(History!A135:A234,A41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="e">
@@ -10510,11 +11708,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A230:C329,A41)</f>
+        <f>COUNTIF(History!A227:C326,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A230:A329,A41)</f>
+        <f>COUNTIF(History!A227:A326,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -10522,11 +11720,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A330:C399,A41)</f>
+        <f>COUNTIF(History!A327:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A330:A399,A41)</f>
+        <f>COUNTIF(History!A327:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -10534,11 +11732,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C529,A41)</f>
+        <f>COUNTIF(History!A506:C526,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A529,A41)</f>
+        <f>COUNTIF(History!A506:A526,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -10548,7 +11746,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -10563,11 +11761,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A37:C136,A42)</f>
+        <f>COUNTIF(History!A36:C135,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A37:A136,A42)</f>
+        <f>COUNTIF(History!A36:A135,A42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="e">
@@ -10575,11 +11773,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A137:C236,A42)</f>
+        <f>COUNTIF(History!A136:C235,A42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A137:A236,A42)</f>
+        <f>COUNTIF(History!A136:A235,A42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="e">
@@ -10587,11 +11785,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A234:C333,A42)</f>
+        <f>COUNTIF(History!A230:C329,A42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A234:A333,A42)</f>
+        <f>COUNTIF(History!A230:A329,A42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="e">
@@ -10599,11 +11797,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A334:C399,A42)</f>
+        <f>COUNTIF(History!A330:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A334:A399,A42)</f>
+        <f>COUNTIF(History!A330:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -10611,11 +11809,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C533,A42)</f>
+        <f>COUNTIF(History!A506:C529,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A533,A42)</f>
+        <f>COUNTIF(History!A506:A529,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -10625,7 +11823,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
@@ -10640,11 +11838,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A38:C137,A43)</f>
+        <f>COUNTIF(History!A37:C136,A43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A38:A137,A43)</f>
+        <f>COUNTIF(History!A37:A136,A43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="e">
@@ -10652,11 +11850,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A138:C237,A43)</f>
+        <f>COUNTIF(History!A137:C236,A43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A138:A237,A43)</f>
+        <f>COUNTIF(History!A137:A236,A43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="e">
@@ -10664,11 +11862,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A254:C353,A43)</f>
+        <f>COUNTIF(History!A234:C333,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A254:A353,A43)</f>
+        <f>COUNTIF(History!A234:A333,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
@@ -10676,11 +11874,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="2">
-        <f>COUNTIF(History!A354:C399,A43)</f>
+        <f>COUNTIF(History!A334:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f>COUNTIF(History!A354:A399,A43)</f>
+        <f>COUNTIF(History!A334:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2" t="e">
@@ -10688,11 +11886,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C553,A43)</f>
+        <f>COUNTIF(History!A506:C533,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A553,A43)</f>
+        <f>COUNTIF(History!A506:A533,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -10702,7 +11900,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -10717,11 +11915,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A39:C138,A44)</f>
+        <f>COUNTIF(History!A38:C137,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A39:A138,A44)</f>
+        <f>COUNTIF(History!A38:A137,A44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="e">
@@ -10729,11 +11927,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A139:C238,A44)</f>
+        <f>COUNTIF(History!A138:C237,A44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A139:A238,A44)</f>
+        <f>COUNTIF(History!A138:A237,A44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="e">
@@ -10741,11 +11939,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A226:C325,A44)</f>
+        <f>COUNTIF(History!A254:C353,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A226:A325,A44)</f>
+        <f>COUNTIF(History!A254:A353,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -10753,11 +11951,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A326:C399,A44)</f>
+        <f>COUNTIF(History!A354:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A326:A399,A44)</f>
+        <f>COUNTIF(History!A354:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -10765,11 +11963,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C525,A44)</f>
+        <f>COUNTIF(History!A506:C553,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A525,A44)</f>
+        <f>COUNTIF(History!A506:A553,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -10779,7 +11977,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -10794,11 +11992,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A40:C139,A45)</f>
+        <f>COUNTIF(History!A39:C138,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A40:A139,A45)</f>
+        <f>COUNTIF(History!A39:A138,A45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="e">
@@ -10806,11 +12004,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A140:C239,A45)</f>
+        <f>COUNTIF(History!A139:C238,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A140:A239,A45)</f>
+        <f>COUNTIF(History!A139:A238,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -10818,11 +12016,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A233:C332,A45)</f>
+        <f>COUNTIF(History!A226:C325,A45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A233:A332,A45)</f>
+        <f>COUNTIF(History!A226:A325,A45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="e">
@@ -10830,11 +12028,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A333:C399,A45)</f>
+        <f>COUNTIF(History!A326:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A333:A399,A45)</f>
+        <f>COUNTIF(History!A326:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -10842,11 +12040,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C532,A45)</f>
+        <f>COUNTIF(History!A506:C525,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A532,A45)</f>
+        <f>COUNTIF(History!A506:A525,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -10856,7 +12054,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -10871,11 +12069,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A41:C140,A46)</f>
+        <f>COUNTIF(History!A40:C139,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A41:A140,A46)</f>
+        <f>COUNTIF(History!A40:A139,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="e">
@@ -10883,11 +12081,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A141:C240,A46)</f>
+        <f>COUNTIF(History!A140:C239,A46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A141:A240,A46)</f>
+        <f>COUNTIF(History!A140:A239,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="e">
@@ -10895,11 +12093,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A347:C399,A46)</f>
+        <f>COUNTIF(History!A233:C332,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A347:A399,A46)</f>
+        <f>COUNTIF(History!A233:A332,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -10907,11 +12105,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A506:C546,A46)</f>
+        <f>COUNTIF(History!A333:C399,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A506:A546,A46)</f>
+        <f>COUNTIF(History!A333:A399,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -10919,11 +12117,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A547:C646,A46)</f>
+        <f>COUNTIF(History!A506:C532,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A547:A646,A46)</f>
+        <f>COUNTIF(History!A506:A532,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -10933,7 +12131,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -10948,11 +12146,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A42:C141,A47)</f>
+        <f>COUNTIF(History!A41:C140,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A42:A141,A47)</f>
+        <f>COUNTIF(History!A41:A140,A47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="e">
@@ -10960,11 +12158,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A142:C241,A47)</f>
+        <f>COUNTIF(History!A141:C240,A47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A142:A241,A47)</f>
+        <f>COUNTIF(History!A141:A240,A47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="e">
@@ -10972,11 +12170,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A240:C339,A47)</f>
+        <f>COUNTIF(History!A347:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A240:A339,A47)</f>
+        <f>COUNTIF(History!A347:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -10984,11 +12182,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A340:C399,A47)</f>
+        <f>COUNTIF(History!A506:C546,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A340:A399,A47)</f>
+        <f>COUNTIF(History!A506:A546,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -10996,11 +12194,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A506:C539,A47)</f>
+        <f>COUNTIF(History!A547:C646,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A506:A539,A47)</f>
+        <f>COUNTIF(History!A547:A646,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -27692,7 +28890,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27711,139 +28909,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>dialga:35</v>
+        <v>melmetal:62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>dialga:35,melmetal:28</v>
+        <v>melmetal:62,dialga:58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>dialga:35,melmetal:28,kyogre:27</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0,gardevoir:0</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0,darkrai:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>dialga:35,melmetal:28,kyogre:27,groudon:22,giratina_origin:20,togekiss:19,mewtwo:10,dragonite:5,zekrom:3,rhyperior:3,giratina_altered:2,landorus_incarnate:2,metagross:1,snorlax:1,palkia:1,regice:1,swampert:1,pinsir:1,machamp:0,garchomp:0,darkrai:0,gardevoir:0,gyarados:0</v>
+        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0,darkrai:0,gardevoir:0</v>
       </c>
     </row>
   </sheetData>
@@ -27857,7 +29055,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27873,133 +29071,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>dialga:147</v>
+        <v>melmetal:118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>dialga:147,melmetal:59</v>
+        <v>melmetal:118,dialga:255</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2,darkrai:1</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4,heatran:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>dialga:147,melmetal:59,kyogre:57,groudon:47,giratina_origin:55,togekiss:54,mewtwo:41,dragonite:12,zekrom:11,rhyperior:8,giratina_altered:8,landorus_incarnate:3,metagross:11,snorlax:10,palkia:6,regice:1,swampert:1,pinsir:1,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
+        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4,heatran:2,darkrai:1</v>
       </c>
     </row>
   </sheetData>
@@ -28013,7 +29211,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28029,133 +29227,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>dialga:112</v>
+        <v>melmetal:56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>dialga:112,melmetal:31</v>
+        <v>melmetal:56,dialga:197</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>dialga:112,melmetal:31,kyogre:30</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2,darkrai:1</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4,heatran:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>dialga:112,melmetal:31,kyogre:30,groudon:25,giratina_origin:35,togekiss:35,mewtwo:31,dragonite:7,zekrom:8,rhyperior:5,giratina_altered:6,landorus_incarnate:1,metagross:10,snorlax:9,palkia:5,regice:0,swampert:0,pinsir:0,machamp:3,garchomp:2,darkrai:1,gardevoir:1</v>
+        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4,heatran:2,darkrai:1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Master - Season 02.xlsx
+++ b/src/main/resources/data/Master - Season 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E063E7-9186-4700-9387-CD9D927B4993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300738F4-9F14-4ED3-B2A1-D5E3CB06D742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="310">
   <si>
     <t>Lead</t>
   </si>
@@ -970,6 +970,9 @@
   <si>
     <t>Conkeldurr</t>
   </si>
+  <si>
+    <t>Tyranitar</t>
+  </si>
 </sst>
 </file>
 
@@ -1380,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6558,6 +6561,15 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D306" s="9" t="s">
         <v>241</v>
       </c>
@@ -6566,22 +6578,49 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D307" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E307" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D308" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E308" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D309" s="9" t="s">
         <v>241</v>
       </c>
@@ -6590,38 +6629,80 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D310" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E310" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D311" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E311" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D312" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E312" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="D313" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E313" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D314" s="9" t="s">
         <v>241</v>
       </c>
@@ -6630,22 +6711,49 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D315" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E315" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D316" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E316" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D317" s="9" t="s">
         <v>241</v>
       </c>
@@ -6654,6 +6762,15 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D318" s="9" t="s">
         <v>241</v>
       </c>
@@ -6662,22 +6779,49 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D319" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E319" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D320" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E320" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D321" s="9" t="s">
         <v>241</v>
       </c>
@@ -6685,23 +6829,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D322" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E322" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D323" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E323" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D324" s="9" t="s">
         <v>241</v>
       </c>
@@ -6709,7 +6880,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D325" s="9" t="s">
         <v>241</v>
       </c>
@@ -6717,23 +6897,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D326" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E326" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D327" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E327" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D328" s="9" t="s">
         <v>241</v>
       </c>
@@ -6741,705 +6945,2134 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D329" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E329" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D330" s="9"/>
-    </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D331" s="9"/>
-    </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D332" s="9"/>
-    </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D333" s="9"/>
-    </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D334" s="9"/>
-    </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D335" s="9"/>
-    </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D336" s="9"/>
-    </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D337" s="9"/>
-    </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D338" s="9"/>
-    </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D339" s="9"/>
-    </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D340" s="9"/>
-    </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D341" s="9"/>
-    </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D342" s="9"/>
-    </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D343" s="9"/>
-    </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D344" s="9"/>
-    </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D345" s="9"/>
-    </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D346" s="9"/>
-    </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D347" s="9"/>
-    </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D348" s="9"/>
-    </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D349" s="9"/>
-    </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D350" s="9"/>
-    </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D351" s="9"/>
-    </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D352" s="9"/>
-    </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D353" s="9"/>
-    </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D354" s="9"/>
-    </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D355" s="9"/>
-    </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D356" s="9"/>
-    </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D357" s="9"/>
-    </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D358" s="9"/>
-    </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D359" s="9"/>
-    </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D360" s="9"/>
-    </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D361" s="9"/>
-    </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D362" s="9"/>
-    </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D363" s="9"/>
-    </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D364" s="9"/>
-    </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D365" s="9"/>
-    </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D366" s="9"/>
-    </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D367" s="9"/>
-    </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D368" s="9"/>
-    </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D369" s="9"/>
-    </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D370" s="9"/>
-    </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D371" s="9"/>
-    </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D372" s="9"/>
-    </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D373" s="9"/>
-    </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D374" s="9"/>
-    </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D375" s="9"/>
-    </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D376" s="9"/>
-    </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D377" s="9"/>
-    </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D378" s="9"/>
-    </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D379" s="9"/>
-    </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D380" s="9"/>
-    </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D381" s="9"/>
-    </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D382" s="9"/>
-    </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D383" s="9"/>
-    </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D384" s="9"/>
-    </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D385" s="9"/>
-    </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D386" s="9"/>
-    </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D387" s="9"/>
-    </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D388" s="9"/>
-    </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D389" s="9"/>
-    </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D390" s="9"/>
-    </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D391" s="9"/>
-    </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D392" s="9"/>
-    </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D393" s="9"/>
-    </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D394" s="9"/>
-    </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D395" s="9"/>
-    </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D396" s="9"/>
-    </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D397" s="9"/>
-    </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D398" s="9"/>
-    </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D399" s="9"/>
-    </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D400" s="9"/>
-    </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D401" s="9"/>
-    </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D402" s="9"/>
-    </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D403" s="9"/>
-    </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D404" s="9"/>
-    </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D405" s="9"/>
-    </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D406" s="9"/>
-    </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D407" s="9"/>
-    </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D408" s="9"/>
-    </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D409" s="9"/>
-    </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D410" s="9"/>
-    </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D411" s="9"/>
-    </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D412" s="9"/>
-    </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D413" s="9"/>
-    </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D414" s="9"/>
-    </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D415" s="9"/>
-    </row>
-    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D416" s="9"/>
-    </row>
-    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D417" s="9"/>
-    </row>
-    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D418" s="9"/>
-    </row>
-    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D419" s="9"/>
-    </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D420" s="9"/>
-    </row>
-    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D421" s="9"/>
-    </row>
-    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D422" s="9"/>
-    </row>
-    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D423" s="9"/>
-    </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D424" s="9"/>
-    </row>
-    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D425" s="9"/>
-    </row>
-    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D426" s="9"/>
-    </row>
-    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D427" s="9"/>
-    </row>
-    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D428" s="9"/>
-    </row>
-    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D429" s="9"/>
-    </row>
-    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D430" s="9"/>
-    </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D431" s="9"/>
-    </row>
-    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D432" s="9"/>
-    </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D433" s="9"/>
-    </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D434" s="9"/>
-    </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D435" s="9"/>
-    </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D436" s="9"/>
-    </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D437" s="9"/>
-    </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D438" s="9"/>
-    </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D439" s="9"/>
-    </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D440" s="9"/>
-    </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D441" s="9"/>
-    </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D442" s="9"/>
-    </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D443" s="9"/>
-    </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D444" s="9"/>
-    </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D445" s="9"/>
-    </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D446" s="9"/>
-    </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D447" s="9"/>
-    </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D448" s="9"/>
-    </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D449" s="9"/>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D450" s="9"/>
-    </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D451" s="9"/>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D452" s="9"/>
-    </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D453" s="9"/>
-    </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D454" s="9"/>
-    </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D455" s="9"/>
-    </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D456" s="9"/>
-    </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D457" s="9"/>
-    </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D458" s="9"/>
-    </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D459" s="9"/>
-    </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D460" s="9"/>
-    </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D461" s="9"/>
-    </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D462" s="9"/>
-    </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D463" s="9"/>
-    </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D464" s="9"/>
-    </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D465" s="9"/>
-    </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D466" s="9"/>
-    </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D467" s="9"/>
-    </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D468" s="9"/>
-    </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D469" s="9"/>
-    </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D470" s="9"/>
-    </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D471" s="9"/>
-    </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D472" s="9"/>
-    </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D473" s="9"/>
-    </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D474" s="9"/>
-    </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D475" s="9"/>
-    </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D476" s="9"/>
-    </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D477" s="9"/>
-    </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D478" s="9"/>
-    </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D479" s="9"/>
-    </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D480" s="9"/>
-    </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D481" s="9"/>
-    </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D482" s="9"/>
-    </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D483" s="9"/>
-    </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D484" s="9"/>
-    </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D485" s="9"/>
-    </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D486" s="9"/>
-    </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D487" s="9"/>
-    </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D488" s="9"/>
-    </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D489" s="9"/>
-    </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D490" s="9"/>
-    </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D491" s="9"/>
-    </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D492" s="9"/>
-    </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D493" s="9"/>
-    </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D494" s="9"/>
-    </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D495" s="9"/>
-    </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D496" s="9"/>
-    </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D497" s="9"/>
-    </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D498" s="9"/>
-    </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D499" s="9"/>
-    </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D500" s="9"/>
-    </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D501" s="9"/>
-    </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D502" s="9"/>
-    </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D503" s="9"/>
-    </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D504" s="9"/>
-    </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D505" s="9"/>
-    </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D506" s="9"/>
-    </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D507" s="9"/>
-    </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D508" s="9"/>
-    </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D509" s="9"/>
-    </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D510" s="9"/>
-    </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D511" s="9"/>
-    </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D512" s="9"/>
-    </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D513" s="9"/>
-    </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D514" s="9"/>
-    </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D515" s="9"/>
-    </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D516" s="9"/>
-    </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D517" s="9"/>
-    </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D518" s="9"/>
-    </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D519" s="9"/>
-    </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D520" s="9"/>
-    </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D521" s="9"/>
-    </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D522" s="9"/>
-    </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D523" s="9"/>
-    </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D524" s="9"/>
-    </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D525" s="9"/>
-    </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D526" s="9"/>
-    </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D527" s="9"/>
-    </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D528" s="9"/>
-    </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D529" s="9"/>
-    </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D530" s="9"/>
-    </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D531" s="9"/>
-    </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D532" s="9"/>
-    </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D533" s="9"/>
-    </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D534" s="9"/>
-    </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D535" s="9"/>
-    </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D536" s="9"/>
-    </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D537" s="9"/>
-    </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D538" s="9"/>
-    </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D539" s="9"/>
-    </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D540" s="9"/>
-    </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D541" s="9"/>
-    </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D542" s="9"/>
-    </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D543" s="9"/>
-    </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D544" s="9"/>
-    </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D545" s="9"/>
-    </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D546" s="9"/>
-    </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D547" s="9"/>
-    </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D548" s="9"/>
-    </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D549" s="9"/>
-    </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D550" s="9"/>
-    </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D551" s="9"/>
-    </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D552" s="9"/>
-    </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D553" s="9"/>
-    </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E330" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E331" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E332" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E333" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E334" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E335" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E336" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E337" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E338" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E339" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E340" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E341" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E342" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E343" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E344" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E345" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E346" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E347" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E348" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E349" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E350" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E351" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E352" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E353" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E354" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E355" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E356" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E357" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E358" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E359" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E360" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E361" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E362" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E363" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E364" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D365" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E365" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D366" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E366" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D367" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E367" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D368" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E368" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D369" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E369" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D370" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E370" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D371" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E371" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D372" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E372" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D373" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E373" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D374" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E374" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D375" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E375" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D376" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E376" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D377" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E377" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D378" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E378" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D379" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E379" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D380" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E380" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D381" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E381" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D382" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E382" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D383" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E383" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D384" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E384" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D385" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E385" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D386" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E386" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D387" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E387" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D388" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E388" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D389" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E389" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D390" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E390" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D391" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E391" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D392" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E392" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D393" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E393" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D394" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E394" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D395" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E395" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D396" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E396" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D397" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E397" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D398" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E398" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D399" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E399" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D400" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E400" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D401" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E401" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D402" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E402" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D403" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E403" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D404" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E404" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D405" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E405" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D406" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E406" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D407" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E407" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D408" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E408" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D409" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E409" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D410" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E410" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D411" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E411" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D412" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E412" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D413" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E413" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D414" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E414" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="415" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D415" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E415" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D416" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E416" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D417" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E417" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D418" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E418" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D419" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E419" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D420" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E420" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D421" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E421" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D422" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E422" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D423" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E423" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D424" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E424" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D425" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E425" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D426" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E426" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D427" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E427" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D428" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E428" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D429" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E429" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D430" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E430" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D431" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E431" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D432" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E432" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D433" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E433" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D434" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E434" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D435" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E435" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D436" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E436" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D437" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E437" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D438" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E438" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D439" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E439" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D440" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E440" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D441" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E441" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D442" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E442" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D443" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E443" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D444" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E444" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D445" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E445" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D446" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E446" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D447" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E447" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D448" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E448" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D449" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E449" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D450" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E450" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D451" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E451" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D452" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E452" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D453" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E453" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D454" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E454" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D455" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E455" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D456" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E456" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D457" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E457" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D458" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E458" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D459" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E459" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D460" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E460" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D461" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E461" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D462" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E462" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D463" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E463" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D464" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E464" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D465" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E465" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D466" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E466" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D467" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E467" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D468" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E468" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D469" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E469" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D470" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E470" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D471" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E471" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D472" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E472" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D473" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E473" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D474" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E474" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D475" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E475" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D476" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E476" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D477" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E477" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D478" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E478" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D479" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E479" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D480" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E480" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D481" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E481" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D482" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E482" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D483" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E483" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D484" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E484" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D485" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E485" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D486" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E486" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D487" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E487" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D488" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E488" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D489" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E489" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D490" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E490" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D491" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E491" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D492" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E492" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D493" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E493" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D494" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E494" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D495" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E495" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D496" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E496" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D497" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E497" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D498" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E498" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D499" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E499" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D500" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E500" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D501" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E501" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D502" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E502" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D503" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E503" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D504" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E504" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D505" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E505" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D506" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E506" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D507" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E507" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D508" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E508" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D509" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E509" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D510" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E510" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D511" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E511" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D512" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E512" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="513" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D513" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E513" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D514" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E514" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D515" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E515" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D516" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E516" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D517" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E517" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D518" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E518" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D519" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E519" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D520" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E520" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D521" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E521" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D522" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E522" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D523" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E523" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D524" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E524" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="525" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D525" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E525" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D526" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E526" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D527" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E527" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D528" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E528" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="529" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D529" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E529" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D530" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E530" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D531" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E531" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="532" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D532" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E532" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="533" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D533" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E533" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D534" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E534" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D535" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E535" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="536" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D536" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E536" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D537" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E537" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D538" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E538" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D539" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E539" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D540" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E540" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D541" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E541" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D542" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E542" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D543" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E543" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D544" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E544" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D545" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E545" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="546" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D546" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E546" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="547" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D547" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E547" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="548" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D548" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E548" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="549" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D549" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E549" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="550" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D550" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E550" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D551" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E551" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D552" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E552" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D553" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E553" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D554" s="9"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D555" s="9"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D556" s="9"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D557" s="9"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D558" s="9"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D559" s="9"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D560" s="9"/>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.25">
@@ -8566,7 +10199,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 C194 A74:A140 A195:C205 C209 A207:C208 A209 A160:A194 C219 A219 C223 A220:C222 C245 A214:A216 C259 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 C313 B311:C312 C315 B314:C314 A303:A316 A318:A338 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A353:B354 B356:B357 B360 A356:A363 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 B161:C193 A210:C213 C214:C216 A217:C218 B224:C244 A223:A245 A246:C246 A247:B247 A248:C258 B301:C302 C303 B305:C309 B303:B304</xm:sqref>
+          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 C194 A74:A140 A195:C205 C209 A207:C208 A209 A160:A194 C219 A219 C223 A220:C222 C245 A214:A216 C259 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 C313 B311:C312 C315 B314:C314 A303:A316 B303:B304 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A318:A338 B356:B357 B360 A353:B354 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 B161:C193 A210:C213 C214:C216 A217:C218 B224:C244 A223:A245 A246:C246 A247:B247 A248:C258 B301:C302 C303 B305:C309 A356:A363</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8579,7 +10212,7 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8591,15 +10224,15 @@
     <col min="5" max="5" width="10.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="2" hidden="1" customWidth="1"/>
@@ -8670,15 +10303,15 @@
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>52.542372881355931</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="E2" s="8">
         <f>COUNTIF(History!A6:C105,A2)</f>
@@ -8706,7 +10339,7 @@
       </c>
       <c r="K2" s="2">
         <f>COUNTIF(History!A208:C307,A2)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2">
         <f>COUNTIF(History!A208:A307,A2)</f>
@@ -8714,19 +10347,19 @@
       </c>
       <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>56.60377358490566</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="N2" s="2">
         <f>COUNTIF(History!A308:C399,A2)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
         <f>COUNTIF(History!A308:A399,A2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="e">
+        <v>7</v>
+      </c>
+      <c r="P2" s="2">
         <f>O2*100/N2</f>
-        <v>#DIV/0!</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2">
         <f>COUNTIF(History!A506:C507,A2)</f>
@@ -8747,15 +10380,15 @@
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>22.745098039215687</v>
+        <v>22.591362126245848</v>
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(History!A2:C101,A3)</f>
@@ -8783,27 +10416,27 @@
       </c>
       <c r="K3" s="2">
         <f>COUNTIF(History!A207:C306,A3)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2">
         <f>COUNTIF(History!A207:A306,A3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>22.222222222222221</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="N3" s="2">
         <f>COUNTIF(History!A307:C399,A3)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O3" s="2">
         <f>COUNTIF(History!A307:A399,A3)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="e">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2">
         <f>O3*100/N3</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2">
         <f>COUNTIF(History!A506:C506,A3)</f>
@@ -8824,15 +10457,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>43.333333333333336</v>
+        <v>48.623853211009177</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A5:C104,A4)</f>
@@ -8860,27 +10493,27 @@
       </c>
       <c r="K4" s="2">
         <f>COUNTIF(History!A209:C308,A4)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2">
         <f>COUNTIF(History!A209:A308,A4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" s="2">
         <f>L4*100/K4</f>
-        <v>57.142857142857146</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N4" s="2">
         <f>COUNTIF(History!A309:C399,A4)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2">
         <f>COUNTIF(History!A309:A399,A4)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="e">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2">
         <f>O4*100/N4</f>
-        <v>#DIV/0!</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="Q4" s="2">
         <f>COUNTIF(History!A506:C508,A4)</f>
@@ -8901,15 +10534,15 @@
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>48.101265822784811</v>
+        <v>46.739130434782609</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(History!A4:C103,A5)</f>
@@ -8937,27 +10570,27 @@
       </c>
       <c r="K5" s="2">
         <f>COUNTIF(History!A225:C324,A5)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <f>COUNTIF(History!A225:A324,A5)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M5" s="2">
         <f>L5*100/K5</f>
-        <v>69.230769230769226</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="N5" s="2">
         <f>COUNTIF(History!A325:C399,A5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2">
         <f>COUNTIF(History!A325:A399,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="e">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
         <f>O5*100/N5</f>
-        <v>#DIV/0!</v>
+        <v>37.5</v>
       </c>
       <c r="Q5" s="2">
         <f>COUNTIF(History!A506:C524,A5)</f>
@@ -8978,15 +10611,15 @@
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>40.506329113924053</v>
+        <v>42.708333333333336</v>
       </c>
       <c r="E6" s="8">
         <f>COUNTIF(History!A8:C107,A6)</f>
@@ -9026,15 +10659,15 @@
       </c>
       <c r="N6" s="2">
         <f>COUNTIF(History!A303:C399,A6)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O6" s="2">
         <f>COUNTIF(History!A303:A399,A6)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P6" s="2">
         <f>O6*100/N6</f>
-        <v>100</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="Q6" s="2" t="e">
         <f>COUNTIF(History!#REF!,A6)</f>
@@ -9055,15 +10688,15 @@
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>34.117647058823529</v>
+        <v>34.653465346534652</v>
       </c>
       <c r="E7" s="8">
         <f>COUNTIF(History!A3:C102,A7)</f>
@@ -9103,15 +10736,15 @@
       </c>
       <c r="N7" s="2">
         <f>COUNTIF(History!A306:C399,A7)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O7" s="2">
         <f>COUNTIF(History!A306:A399,A7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="e">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2">
         <f>O7*100/N7</f>
-        <v>#DIV/0!</v>
+        <v>37.5</v>
       </c>
       <c r="Q7" s="2" t="e">
         <f>COUNTIF(History!#REF!,A7)</f>
@@ -9132,15 +10765,15 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>27.868852459016395</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(History!A7:C106,A8)</f>
@@ -9180,15 +10813,15 @@
       </c>
       <c r="N8" s="2">
         <f>COUNTIF(History!A305:C399,A8)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2">
         <f>COUNTIF(History!A305:A399,A8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
         <f>O8*100/N8</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q8" s="2" t="e">
         <f>COUNTIF(History!#REF!,A8)</f>
@@ -9209,15 +10842,15 @@
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>28.571428571428573</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="E9" s="8">
         <f>COUNTIF(History!A16:C115,A9)</f>
@@ -9257,15 +10890,15 @@
       </c>
       <c r="N9" s="2">
         <f>COUNTIF(History!A313:C399,A9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="2">
         <f>COUNTIF(History!A313:A399,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="e">
+        <v>2</v>
+      </c>
+      <c r="P9" s="2">
         <f>O9*100/N9</f>
-        <v>#DIV/0!</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q9" s="2">
         <f>COUNTIF(History!A506:C512,A9)</f>
@@ -9286,15 +10919,15 @@
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>21.739130434782609</v>
+        <v>20.689655172413794</v>
       </c>
       <c r="E10" s="8">
         <f>COUNTIF(History!A9:C108,A10)</f>
@@ -9334,15 +10967,15 @@
       </c>
       <c r="N10" s="2">
         <f>COUNTIF(History!A304:C399,A10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O10" s="2">
         <f>COUNTIF(History!A304:A399,A10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
         <f>O10*100/N10</f>
-        <v>#DIV/0!</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="Q10" s="2" t="e">
         <f>COUNTIF(History!#REF!,A10)</f>
@@ -9363,11 +10996,11 @@
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
@@ -9399,7 +11032,7 @@
       </c>
       <c r="K11" s="2">
         <f>COUNTIF(History!A231:C330,A11)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2">
         <f>COUNTIF(History!A231:A330,A11)</f>
@@ -9407,19 +11040,19 @@
       </c>
       <c r="M11" s="2">
         <f>L11*100/K11</f>
-        <v>20</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N11" s="2">
         <f>COUNTIF(History!A331:C399,A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <f>COUNTIF(History!A331:A399,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
         <f>O11*100/N11</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="2">
         <f>COUNTIF(History!A506:C530,A11)</f>
@@ -9436,7 +11069,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
@@ -9444,80 +11077,80 @@
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A11:C110,A12)</f>
+        <f>COUNTIF(History!A13:C112,A12)</f>
         <v>4</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A11:A110,A12)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A13:A112,A12)</f>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <f>F12*100/E12</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A112:C211,A12)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A118:C217,A12)</f>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A112:A211,A12)</f>
+        <f>COUNTIF(History!A118:A217,A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>20</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A202:C301,A12)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A229:C328,A12)</f>
+        <v>5</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A202:A301,A12)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A229:A328,A12)</f>
+        <v>2</v>
       </c>
       <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A302:C399,A12)</f>
+        <f>COUNTIF(History!A329:C399,A12)</f>
         <v>1</v>
       </c>
       <c r="O12" s="2">
-        <f>COUNTIF(History!A302:A399,A12)</f>
+        <f>COUNTIF(History!A329:A399,A12)</f>
         <v>0</v>
       </c>
       <c r="P12" s="2">
         <f>O12*100/N12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A12)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R12" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A12)</f>
-        <v>#REF!</v>
+      <c r="Q12" s="2">
+        <f>COUNTIF(History!A506:C528,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <f>COUNTIF(History!A506:A528,A12)</f>
+        <v>0</v>
       </c>
       <c r="S12" s="2" t="e">
         <f>R12*100/Q12</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
@@ -9525,67 +11158,67 @@
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>14.285714285714286</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A13:C112,A13)</f>
+        <f>COUNTIF(History!A11:C110,A13)</f>
         <v>4</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A13:A112,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A11:A110,A13)</f>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A118:C217,A13)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A112:C211,A13)</f>
+        <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A118:A217,A13)</f>
+        <f>COUNTIF(History!A112:A211,A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A229:C328,A13)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A202:C301,A13)</f>
+        <v>6</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A229:A328,A13)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A202:A301,A13)</f>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A329:C399,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A302:C399,A13)</f>
+        <v>3</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A329:A399,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="e">
+        <f>COUNTIF(History!A302:A399,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <f>O13*100/N13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>COUNTIF(History!A506:C528,A13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <f>COUNTIF(History!A506:A528,A13)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A13)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R13" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A13)</f>
+        <v>#REF!</v>
       </c>
       <c r="S13" s="2" t="e">
         <f>R13*100/Q13</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -9594,7 +11227,7 @@
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
@@ -9602,7 +11235,7 @@
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>15.384615384615385</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="E14" s="8">
         <f>COUNTIF(History!A15:C114,A14)</f>
@@ -9642,15 +11275,15 @@
       </c>
       <c r="N14" s="2">
         <f>COUNTIF(History!A310:C399,A14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="2">
         <f>COUNTIF(History!A310:A399,A14)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="2" t="e">
+      <c r="P14" s="2">
         <f>O14*100/N14</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <f>COUNTIF(History!A506:C509,A14)</f>
@@ -9748,7 +11381,7 @@
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
@@ -9756,7 +11389,7 @@
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>8.3333333333333339</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="E16" s="8">
         <f>COUNTIF(History!A10:C109,A16)</f>
@@ -9796,15 +11429,15 @@
       </c>
       <c r="N16" s="2">
         <f>COUNTIF(History!A314:C399,A16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="2">
         <f>COUNTIF(History!A314:A399,A16)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="2" t="e">
+      <c r="P16" s="2">
         <f>O16*100/N16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <f>COUNTIF(History!A506:C513,A16)</f>
@@ -10129,26 +11762,26 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A17:C116,A21)</f>
+        <f>COUNTIF(History!A60:C159,A21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A17:A116,A21)</f>
+        <f>COUNTIF(History!A60:A159,A21)</f>
         <v>0</v>
       </c>
       <c r="G21" s="2" t="e">
@@ -10156,35 +11789,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A119:C218,A21)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A160:C259,A21)</f>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A119:A218,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
+        <f>COUNTIF(History!A160:A259,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="e">
         <f>I21*100/H21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A238:C337,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A251:C350,A21)</f>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <f>COUNTIF(History!A238:A337,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="e">
+        <f>COUNTIF(History!A251:A350,A21)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
         <f>L21*100/K21</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2">
-        <f>COUNTIF(History!A338:C399,A21)</f>
+        <f>COUNTIF(History!A351:C399,A21)</f>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>COUNTIF(History!A338:A399,A21)</f>
+        <f>COUNTIF(History!A351:A399,A21)</f>
         <v>0</v>
       </c>
       <c r="P21" s="2" t="e">
@@ -10192,11 +11825,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C537,A21)</f>
+        <f>COUNTIF(History!A506:C550,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A537,A21)</f>
+        <f>COUNTIF(History!A506:A550,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -10206,11 +11839,11 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
@@ -10221,11 +11854,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A45:C144,A22)</f>
+        <f>COUNTIF(History!A17:C116,A22)</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A45:A144,A22)</f>
+        <f>COUNTIF(History!A17:A116,A22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="2" t="e">
@@ -10233,11 +11866,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A145:C244,A22)</f>
+        <f>COUNTIF(History!A119:C218,A22)</f>
         <v>2</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A145:A244,A22)</f>
+        <f>COUNTIF(History!A119:A218,A22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -10245,11 +11878,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A239:C338,A22)</f>
+        <f>COUNTIF(History!A238:C337,A22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A239:A338,A22)</f>
+        <f>COUNTIF(History!A238:A337,A22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="e">
@@ -10257,11 +11890,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A339:C399,A22)</f>
+        <f>COUNTIF(History!A338:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A339:A399,A22)</f>
+        <f>COUNTIF(History!A338:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -10269,11 +11902,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C538,A22)</f>
+        <f>COUNTIF(History!A506:C537,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A538,A22)</f>
+        <f>COUNTIF(History!A506:A537,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -10283,11 +11916,11 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
@@ -10298,47 +11931,47 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A21:C120,A23)</f>
+        <f>COUNTIF(History!A45:C144,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f>COUNTIF(History!A45:A144,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="e">
+        <f>F23*100/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="2">
+        <f>COUNTIF(History!A145:C244,A23)</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <f>COUNTIF(History!A145:A244,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f>I23*100/H23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f>COUNTIF(History!A239:C338,A23)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="8">
-        <f>COUNTIF(History!A21:A120,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f>F23*100/E23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f>COUNTIF(History!A121:C220,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <f>COUNTIF(History!A121:A220,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="e">
-        <f>I23*100/H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="2">
-        <f>COUNTIF(History!A260:C359,A23)</f>
-        <v>0</v>
-      </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A260:A359,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="e">
+        <f>COUNTIF(History!A239:A338,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <f>L23*100/K23</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A360:C399,A23)</f>
+        <f>COUNTIF(History!A339:C399,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A360:A399,A23)</f>
+        <f>COUNTIF(History!A339:A399,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -10346,11 +11979,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C559,A23)</f>
+        <f>COUNTIF(History!A506:C538,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A559,A23)</f>
+        <f>COUNTIF(History!A506:A538,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -10360,11 +11993,11 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
@@ -10375,47 +12008,47 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A22:C121,A24)</f>
+        <f>COUNTIF(History!A42:C141,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f>COUNTIF(History!A42:A141,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="e">
+        <f>F24*100/E24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="2">
+        <f>COUNTIF(History!A142:C241,A24)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="8">
-        <f>COUNTIF(History!A22:A121,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <f>F24*100/E24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f>COUNTIF(History!A122:C221,A24)</f>
-        <v>0</v>
-      </c>
       <c r="I24" s="2">
-        <f>COUNTIF(History!A122:A221,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="e">
+        <f>COUNTIF(History!A142:A241,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <f>I24*100/H24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <f>COUNTIF(History!A253:C352,A24)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A240:C339,A24)</f>
+        <v>2</v>
       </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A253:A352,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="e">
+        <f>COUNTIF(History!A240:A339,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <f>L24*100/K24</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A353:C399,A24)</f>
+        <f>COUNTIF(History!A340:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A353:A399,A24)</f>
+        <f>COUNTIF(History!A340:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -10423,11 +12056,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C552,A24)</f>
+        <f>COUNTIF(History!A506:C539,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A552,A24)</f>
+        <f>COUNTIF(History!A506:A539,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -10437,7 +12070,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="B25" s="8">
         <f>COUNTIF(History!A:C,A25)</f>
@@ -10452,11 +12085,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <f>COUNTIF(History!A43:C142,A25)</f>
+        <f>COUNTIF(History!A21:C120,A25)</f>
         <v>1</v>
       </c>
       <c r="F25" s="8">
-        <f>COUNTIF(History!A43:A142,A25)</f>
+        <f>COUNTIF(History!A21:A120,A25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="2">
@@ -10464,11 +12097,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f>COUNTIF(History!A143:C242,A25)</f>
+        <f>COUNTIF(History!A121:C220,A25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>COUNTIF(History!A143:A242,A25)</f>
+        <f>COUNTIF(History!A121:A220,A25)</f>
         <v>0</v>
       </c>
       <c r="J25" s="2" t="e">
@@ -10476,11 +12109,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="2">
-        <f>COUNTIF(History!A235:C334,A25)</f>
+        <f>COUNTIF(History!A260:C359,A25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <f>COUNTIF(History!A235:A334,A25)</f>
+        <f>COUNTIF(History!A260:A359,A25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="e">
@@ -10488,11 +12121,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="2">
-        <f>COUNTIF(History!A335:C399,A25)</f>
+        <f>COUNTIF(History!A360:C399,A25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <f>COUNTIF(History!A335:A399,A25)</f>
+        <f>COUNTIF(History!A360:A399,A25)</f>
         <v>0</v>
       </c>
       <c r="P25" s="2" t="e">
@@ -10500,11 +12133,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="2">
-        <f>COUNTIF(History!A506:C534,A25)</f>
+        <f>COUNTIF(History!A506:C559,A25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <f>COUNTIF(History!A506:A534,A25)</f>
+        <f>COUNTIF(History!A506:A559,A25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="2" t="e">
@@ -10514,7 +12147,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B26" s="8">
         <f>COUNTIF(History!A:C,A26)</f>
@@ -10529,11 +12162,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <f>COUNTIF(History!A97:C196,A26)</f>
+        <f>COUNTIF(History!A22:C121,A26)</f>
         <v>1</v>
       </c>
       <c r="F26" s="8">
-        <f>COUNTIF(History!A97:A196,A26)</f>
+        <f>COUNTIF(History!A22:A121,A26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="2">
@@ -10541,11 +12174,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <f>COUNTIF(History!A197:C296,A26)</f>
+        <f>COUNTIF(History!A122:C221,A26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>COUNTIF(History!A197:A296,A26)</f>
+        <f>COUNTIF(History!A122:A221,A26)</f>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="e">
@@ -10553,11 +12186,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="2">
-        <f>COUNTIF(History!A294:C393,A26)</f>
+        <f>COUNTIF(History!A253:C352,A26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <f>COUNTIF(History!A294:A393,A26)</f>
+        <f>COUNTIF(History!A253:A352,A26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="e">
@@ -10565,11 +12198,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N26" s="2">
-        <f>COUNTIF(History!A394:C399,A26)</f>
+        <f>COUNTIF(History!A353:C399,A26)</f>
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <f>COUNTIF(History!A394:A399,A26)</f>
+        <f>COUNTIF(History!A353:A399,A26)</f>
         <v>0</v>
       </c>
       <c r="P26" s="2" t="e">
@@ -10577,11 +12210,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q26" s="2">
-        <f>COUNTIF(History!A506:C593,A26)</f>
+        <f>COUNTIF(History!A506:C552,A26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <f>COUNTIF(History!A506:A593,A26)</f>
+        <f>COUNTIF(History!A506:A552,A26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="2" t="e">
@@ -10591,7 +12224,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="B27" s="8">
         <f>COUNTIF(History!A:C,A27)</f>
@@ -10606,23 +12239,23 @@
         <v>0</v>
       </c>
       <c r="E27" s="8">
-        <f>COUNTIF(History!A220:C319,A27)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A43:C142,A27)</f>
+        <v>1</v>
       </c>
       <c r="F27" s="8">
-        <f>COUNTIF(History!A220:A319,A27)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="e">
+        <f>COUNTIF(History!A43:A142,A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
         <f>F27*100/E27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <f>COUNTIF(History!A320:C419,A27)</f>
+        <f>COUNTIF(History!A143:C242,A27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>COUNTIF(History!A320:A419,A27)</f>
+        <f>COUNTIF(History!A143:A242,A27)</f>
         <v>0</v>
       </c>
       <c r="J27" s="2" t="e">
@@ -10630,11 +12263,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="2">
-        <f>COUNTIF(History!A506:C519,A27)</f>
+        <f>COUNTIF(History!A235:C334,A27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>COUNTIF(History!A506:A519,A27)</f>
+        <f>COUNTIF(History!A235:A334,A27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="e">
@@ -10642,11 +12275,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="2">
-        <f>COUNTIF(History!A520:C619,A27)</f>
+        <f>COUNTIF(History!A335:C399,A27)</f>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f>COUNTIF(History!A520:A619,A27)</f>
+        <f>COUNTIF(History!A335:A399,A27)</f>
         <v>0</v>
       </c>
       <c r="P27" s="2" t="e">
@@ -10654,11 +12287,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="2">
-        <f>COUNTIF(History!A620:C719,A27)</f>
+        <f>COUNTIF(History!A506:C534,A27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <f>COUNTIF(History!A620:A719,A27)</f>
+        <f>COUNTIF(History!A506:A534,A27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="2" t="e">
@@ -10668,7 +12301,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B28" s="8">
         <f>COUNTIF(History!A:C,A28)</f>
@@ -10683,35 +12316,35 @@
         <v>0</v>
       </c>
       <c r="E28" s="8">
-        <f>COUNTIF(History!A42:C141,A28)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A97:C196,A28)</f>
+        <v>1</v>
       </c>
       <c r="F28" s="8">
-        <f>COUNTIF(History!A42:A141,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="e">
+        <f>COUNTIF(History!A97:A196,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
         <f>F28*100/E28</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <f>COUNTIF(History!A142:C241,A28)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A197:C296,A28)</f>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>COUNTIF(History!A142:A241,A28)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+        <f>COUNTIF(History!A197:A296,A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="e">
         <f>I28*100/H28</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K28" s="2">
-        <f>COUNTIF(History!A240:C339,A28)</f>
+        <f>COUNTIF(History!A294:C393,A28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>COUNTIF(History!A240:A339,A28)</f>
+        <f>COUNTIF(History!A294:A393,A28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="e">
@@ -10719,11 +12352,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="2">
-        <f>COUNTIF(History!A340:C399,A28)</f>
+        <f>COUNTIF(History!A394:C399,A28)</f>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f>COUNTIF(History!A340:A399,A28)</f>
+        <f>COUNTIF(History!A394:A399,A28)</f>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="e">
@@ -10731,11 +12364,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="2">
-        <f>COUNTIF(History!A506:C539,A28)</f>
+        <f>COUNTIF(History!A506:C593,A28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f>COUNTIF(History!A506:A539,A28)</f>
+        <f>COUNTIF(History!A506:A593,A28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="2" t="e">
@@ -10745,26 +12378,26 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="B29" s="8">
         <f>COUNTIF(History!A:C,A29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="8">
         <f>COUNTIF(History!A:A,A29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="e">
+      <c r="D29" s="2">
         <f>C29*100/B29</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E29" s="8">
-        <f>COUNTIF(History!A23:C122,A29)</f>
+        <f>COUNTIF(History!A220:C319,A29)</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>COUNTIF(History!A23:A122,A29)</f>
+        <f>COUNTIF(History!A220:A319,A29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="2" t="e">
@@ -10772,11 +12405,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="2">
-        <f>COUNTIF(History!A123:C222,A29)</f>
+        <f>COUNTIF(History!A320:C419,A29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>COUNTIF(History!A123:A222,A29)</f>
+        <f>COUNTIF(History!A320:A419,A29)</f>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="e">
@@ -10784,11 +12417,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="2">
-        <f>COUNTIF(History!A211:C310,A29)</f>
+        <f>COUNTIF(History!A506:C519,A29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>COUNTIF(History!A211:A310,A29)</f>
+        <f>COUNTIF(History!A506:A519,A29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="e">
@@ -10796,11 +12429,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="2">
-        <f>COUNTIF(History!A311:C399,A29)</f>
+        <f>COUNTIF(History!A520:C619,A29)</f>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f>COUNTIF(History!A311:A399,A29)</f>
+        <f>COUNTIF(History!A520:A619,A29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="2" t="e">
@@ -10808,11 +12441,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="2">
-        <f>COUNTIF(History!A506:C510,A29)</f>
+        <f>COUNTIF(History!A620:C719,A29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <f>COUNTIF(History!A506:A510,A29)</f>
+        <f>COUNTIF(History!A620:A719,A29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="e">
@@ -10822,7 +12455,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
@@ -10837,11 +12470,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E30" s="8">
-        <f>COUNTIF(History!A24:C123,A30)</f>
+        <f>COUNTIF(History!A23:C122,A30)</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>COUNTIF(History!A24:A123,A30)</f>
+        <f>COUNTIF(History!A23:A122,A30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -10849,11 +12482,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="2">
-        <f>COUNTIF(History!A124:C223,A30)</f>
+        <f>COUNTIF(History!A123:C222,A30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>COUNTIF(History!A124:A223,A30)</f>
+        <f>COUNTIF(History!A123:A222,A30)</f>
         <v>0</v>
       </c>
       <c r="J30" s="2" t="e">
@@ -10861,11 +12494,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="2">
-        <f>COUNTIF(History!A217:C316,A30)</f>
+        <f>COUNTIF(History!A211:C310,A30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>COUNTIF(History!A217:A316,A30)</f>
+        <f>COUNTIF(History!A211:A310,A30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="e">
@@ -10873,11 +12506,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="2">
-        <f>COUNTIF(History!A317:C399,A30)</f>
+        <f>COUNTIF(History!A311:C399,A30)</f>
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <f>COUNTIF(History!A317:A399,A30)</f>
+        <f>COUNTIF(History!A311:A399,A30)</f>
         <v>0</v>
       </c>
       <c r="P30" s="2" t="e">
@@ -10885,11 +12518,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="2">
-        <f>COUNTIF(History!A506:C516,A30)</f>
+        <f>COUNTIF(History!A506:C510,A30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <f>COUNTIF(History!A506:A516,A30)</f>
+        <f>COUNTIF(History!A506:A510,A30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="2" t="e">
@@ -10899,7 +12532,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B31" s="8">
         <f>COUNTIF(History!A:C,A31)</f>
@@ -10914,11 +12547,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="8">
-        <f>COUNTIF(History!A25:C124,A31)</f>
+        <f>COUNTIF(History!A24:C123,A31)</f>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>COUNTIF(History!A25:A124,A31)</f>
+        <f>COUNTIF(History!A24:A123,A31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="2" t="e">
@@ -10926,11 +12559,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="2">
-        <f>COUNTIF(History!A125:C224,A31)</f>
+        <f>COUNTIF(History!A124:C223,A31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>COUNTIF(History!A125:A224,A31)</f>
+        <f>COUNTIF(History!A124:A223,A31)</f>
         <v>0</v>
       </c>
       <c r="J31" s="2" t="e">
@@ -10938,11 +12571,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="2">
-        <f>COUNTIF(History!A215:C314,A31)</f>
+        <f>COUNTIF(History!A217:C316,A31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>COUNTIF(History!A215:A314,A31)</f>
+        <f>COUNTIF(History!A217:A316,A31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="e">
@@ -10950,11 +12583,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="2">
-        <f>COUNTIF(History!A315:C399,A31)</f>
+        <f>COUNTIF(History!A317:C399,A31)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f>COUNTIF(History!A315:A399,A31)</f>
+        <f>COUNTIF(History!A317:A399,A31)</f>
         <v>0</v>
       </c>
       <c r="P31" s="2" t="e">
@@ -10962,11 +12595,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="2">
-        <f>COUNTIF(History!A506:C514,A31)</f>
+        <f>COUNTIF(History!A506:C516,A31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <f>COUNTIF(History!A506:A514,A31)</f>
+        <f>COUNTIF(History!A506:A516,A31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="2" t="e">
@@ -10976,7 +12609,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B32" s="8">
         <f>COUNTIF(History!A:C,A32)</f>
@@ -10991,11 +12624,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f>COUNTIF(History!A26:C125,A32)</f>
+        <f>COUNTIF(History!A25:C124,A32)</f>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f>COUNTIF(History!A26:A125,A32)</f>
+        <f>COUNTIF(History!A25:A124,A32)</f>
         <v>0</v>
       </c>
       <c r="G32" s="2" t="e">
@@ -11003,11 +12636,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="2">
-        <f>COUNTIF(History!A126:C225,A32)</f>
+        <f>COUNTIF(History!A125:C224,A32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>COUNTIF(History!A126:A225,A32)</f>
+        <f>COUNTIF(History!A125:A224,A32)</f>
         <v>0</v>
       </c>
       <c r="J32" s="2" t="e">
@@ -11015,11 +12648,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="2">
-        <f>COUNTIF(History!A218:C317,A32)</f>
+        <f>COUNTIF(History!A215:C314,A32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>COUNTIF(History!A218:A317,A32)</f>
+        <f>COUNTIF(History!A215:A314,A32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="e">
@@ -11027,11 +12660,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="2">
-        <f>COUNTIF(History!A318:C399,A32)</f>
+        <f>COUNTIF(History!A315:C399,A32)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <f>COUNTIF(History!A318:A399,A32)</f>
+        <f>COUNTIF(History!A315:A399,A32)</f>
         <v>0</v>
       </c>
       <c r="P32" s="2" t="e">
@@ -11039,11 +12672,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="2">
-        <f>COUNTIF(History!A506:C517,A32)</f>
+        <f>COUNTIF(History!A506:C514,A32)</f>
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <f>COUNTIF(History!A506:A517,A32)</f>
+        <f>COUNTIF(History!A506:A514,A32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="2" t="e">
@@ -11053,7 +12686,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B33" s="8">
         <f>COUNTIF(History!A:C,A33)</f>
@@ -11068,11 +12701,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E33" s="8">
-        <f>COUNTIF(History!A27:C126,A33)</f>
+        <f>COUNTIF(History!A26:C125,A33)</f>
         <v>0</v>
       </c>
       <c r="F33" s="8">
-        <f>COUNTIF(History!A27:A126,A33)</f>
+        <f>COUNTIF(History!A26:A125,A33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="2" t="e">
@@ -11080,11 +12713,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="2">
-        <f>COUNTIF(History!A127:C226,A33)</f>
+        <f>COUNTIF(History!A126:C225,A33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>COUNTIF(History!A127:A226,A33)</f>
+        <f>COUNTIF(History!A126:A225,A33)</f>
         <v>0</v>
       </c>
       <c r="J33" s="2" t="e">
@@ -11092,11 +12725,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="2">
-        <f>COUNTIF(History!A220:C319,A33)</f>
+        <f>COUNTIF(History!A218:C317,A33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>COUNTIF(History!A220:A319,A33)</f>
+        <f>COUNTIF(History!A218:A317,A33)</f>
         <v>0</v>
       </c>
       <c r="M33" s="2" t="e">
@@ -11104,11 +12737,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="2">
-        <f>COUNTIF(History!A320:C399,A33)</f>
+        <f>COUNTIF(History!A318:C399,A33)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <f>COUNTIF(History!A320:A399,A33)</f>
+        <f>COUNTIF(History!A318:A399,A33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="2" t="e">
@@ -11116,11 +12749,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="2">
-        <f>COUNTIF(History!A506:C519,A33)</f>
+        <f>COUNTIF(History!A506:C517,A33)</f>
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <f>COUNTIF(History!A506:A519,A33)</f>
+        <f>COUNTIF(History!A506:A517,A33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="2" t="e">
@@ -11130,7 +12763,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8">
         <f>COUNTIF(History!A:C,A34)</f>
@@ -11145,11 +12778,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="8">
-        <f>COUNTIF(History!A28:C127,A34)</f>
+        <f>COUNTIF(History!A27:C126,A34)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>COUNTIF(History!A28:A127,A34)</f>
+        <f>COUNTIF(History!A27:A126,A34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="2" t="e">
@@ -11157,11 +12790,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="2">
-        <f>COUNTIF(History!A128:C227,A34)</f>
+        <f>COUNTIF(History!A127:C226,A34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>COUNTIF(History!A128:A227,A34)</f>
+        <f>COUNTIF(History!A127:A226,A34)</f>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="e">
@@ -11169,11 +12802,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="2">
-        <f>COUNTIF(History!A222:C321,A34)</f>
+        <f>COUNTIF(History!A220:C319,A34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f>COUNTIF(History!A222:A321,A34)</f>
+        <f>COUNTIF(History!A220:A319,A34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="2" t="e">
@@ -11181,11 +12814,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="2">
-        <f>COUNTIF(History!A322:C399,A34)</f>
+        <f>COUNTIF(History!A320:C399,A34)</f>
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <f>COUNTIF(History!A322:A399,A34)</f>
+        <f>COUNTIF(History!A320:A399,A34)</f>
         <v>0</v>
       </c>
       <c r="P34" s="2" t="e">
@@ -11193,11 +12826,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="2">
-        <f>COUNTIF(History!A506:C521,A34)</f>
+        <f>COUNTIF(History!A506:C519,A34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <f>COUNTIF(History!A506:A521,A34)</f>
+        <f>COUNTIF(History!A506:A519,A34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="2" t="e">
@@ -11207,7 +12840,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B35" s="8">
         <f>COUNTIF(History!A:C,A35)</f>
@@ -11222,11 +12855,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f>COUNTIF(History!A29:C128,A35)</f>
+        <f>COUNTIF(History!A28:C127,A35)</f>
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <f>COUNTIF(History!A29:A128,A35)</f>
+        <f>COUNTIF(History!A28:A127,A35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="2" t="e">
@@ -11234,11 +12867,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="2">
-        <f>COUNTIF(History!A129:C228,A35)</f>
+        <f>COUNTIF(History!A128:C227,A35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>COUNTIF(History!A129:A228,A35)</f>
+        <f>COUNTIF(History!A128:A227,A35)</f>
         <v>0</v>
       </c>
       <c r="J35" s="2" t="e">
@@ -11246,11 +12879,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="2">
-        <f>COUNTIF(History!A228:C327,A35)</f>
+        <f>COUNTIF(History!A222:C321,A35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f>COUNTIF(History!A228:A327,A35)</f>
+        <f>COUNTIF(History!A222:A321,A35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="2" t="e">
@@ -11258,11 +12891,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="2">
-        <f>COUNTIF(History!A328:C399,A35)</f>
+        <f>COUNTIF(History!A322:C399,A35)</f>
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f>COUNTIF(History!A328:A399,A35)</f>
+        <f>COUNTIF(History!A322:A399,A35)</f>
         <v>0</v>
       </c>
       <c r="P35" s="2" t="e">
@@ -11270,11 +12903,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="2">
-        <f>COUNTIF(History!A506:C527,A35)</f>
+        <f>COUNTIF(History!A506:C521,A35)</f>
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <f>COUNTIF(History!A506:A527,A35)</f>
+        <f>COUNTIF(History!A506:A521,A35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="2" t="e">
@@ -11284,7 +12917,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B36" s="8">
         <f>COUNTIF(History!A:C,A36)</f>
@@ -11299,11 +12932,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f>COUNTIF(History!A30:C129,A36)</f>
+        <f>COUNTIF(History!A29:C128,A36)</f>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f>COUNTIF(History!A30:A129,A36)</f>
+        <f>COUNTIF(History!A29:A128,A36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="2" t="e">
@@ -11311,11 +12944,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="2">
-        <f>COUNTIF(History!A130:C229,A36)</f>
+        <f>COUNTIF(History!A129:C228,A36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>COUNTIF(History!A130:A229,A36)</f>
+        <f>COUNTIF(History!A129:A228,A36)</f>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="e">
@@ -11323,11 +12956,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="2">
-        <f>COUNTIF(History!A224:C323,A36)</f>
+        <f>COUNTIF(History!A228:C327,A36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f>COUNTIF(History!A224:A323,A36)</f>
+        <f>COUNTIF(History!A228:A327,A36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="2" t="e">
@@ -11335,11 +12968,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2">
-        <f>COUNTIF(History!A324:C399,A36)</f>
+        <f>COUNTIF(History!A328:C399,A36)</f>
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <f>COUNTIF(History!A324:A399,A36)</f>
+        <f>COUNTIF(History!A328:A399,A36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="e">
@@ -11347,11 +12980,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="2">
-        <f>COUNTIF(History!A506:C523,A36)</f>
+        <f>COUNTIF(History!A506:C527,A36)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f>COUNTIF(History!A506:A523,A36)</f>
+        <f>COUNTIF(History!A506:A527,A36)</f>
         <v>0</v>
       </c>
       <c r="S36" s="2" t="e">
@@ -11361,7 +12994,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B37" s="8">
         <f>COUNTIF(History!A:C,A37)</f>
@@ -11376,11 +13009,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f>COUNTIF(History!A31:C130,A37)</f>
+        <f>COUNTIF(History!A30:C129,A37)</f>
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <f>COUNTIF(History!A31:A130,A37)</f>
+        <f>COUNTIF(History!A30:A129,A37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="2" t="e">
@@ -11388,11 +13021,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="2">
-        <f>COUNTIF(History!A131:C230,A37)</f>
+        <f>COUNTIF(History!A130:C229,A37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>COUNTIF(History!A131:A230,A37)</f>
+        <f>COUNTIF(History!A130:A229,A37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="2" t="e">
@@ -11400,11 +13033,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="2">
-        <f>COUNTIF(History!A277:C376,A37)</f>
+        <f>COUNTIF(History!A224:C323,A37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <f>COUNTIF(History!A277:A376,A37)</f>
+        <f>COUNTIF(History!A224:A323,A37)</f>
         <v>0</v>
       </c>
       <c r="M37" s="2" t="e">
@@ -11412,11 +13045,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="2">
-        <f>COUNTIF(History!A377:C399,A37)</f>
+        <f>COUNTIF(History!A324:C399,A37)</f>
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <f>COUNTIF(History!A377:A399,A37)</f>
+        <f>COUNTIF(History!A324:A399,A37)</f>
         <v>0</v>
       </c>
       <c r="P37" s="2" t="e">
@@ -11424,11 +13057,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="2">
-        <f>COUNTIF(History!A506:C576,A37)</f>
+        <f>COUNTIF(History!A506:C523,A37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <f>COUNTIF(History!A506:A576,A37)</f>
+        <f>COUNTIF(History!A506:A523,A37)</f>
         <v>0</v>
       </c>
       <c r="S37" s="2" t="e">
@@ -11438,7 +13071,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B38" s="8">
         <f>COUNTIF(History!A:C,A38)</f>
@@ -11453,11 +13086,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f>COUNTIF(History!A32:C131,A38)</f>
+        <f>COUNTIF(History!A31:C130,A38)</f>
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <f>COUNTIF(History!A32:A131,A38)</f>
+        <f>COUNTIF(History!A31:A130,A38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="2" t="e">
@@ -11465,11 +13098,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="2">
-        <f>COUNTIF(History!A132:C231,A38)</f>
+        <f>COUNTIF(History!A131:C230,A38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>COUNTIF(History!A132:A231,A38)</f>
+        <f>COUNTIF(History!A131:A230,A38)</f>
         <v>0</v>
       </c>
       <c r="J38" s="2" t="e">
@@ -11477,11 +13110,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="2">
-        <f>COUNTIF(History!A221:C320,A38)</f>
+        <f>COUNTIF(History!A277:C376,A38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <f>COUNTIF(History!A221:A320,A38)</f>
+        <f>COUNTIF(History!A277:A376,A38)</f>
         <v>0</v>
       </c>
       <c r="M38" s="2" t="e">
@@ -11489,11 +13122,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="2">
-        <f>COUNTIF(History!A321:C399,A38)</f>
+        <f>COUNTIF(History!A377:C399,A38)</f>
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <f>COUNTIF(History!A321:A399,A38)</f>
+        <f>COUNTIF(History!A377:A399,A38)</f>
         <v>0</v>
       </c>
       <c r="P38" s="2" t="e">
@@ -11501,11 +13134,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="2">
-        <f>COUNTIF(History!A506:C520,A38)</f>
+        <f>COUNTIF(History!A506:C576,A38)</f>
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <f>COUNTIF(History!A506:A520,A38)</f>
+        <f>COUNTIF(History!A506:A576,A38)</f>
         <v>0</v>
       </c>
       <c r="S38" s="2" t="e">
@@ -11515,7 +13148,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B39" s="8">
         <f>COUNTIF(History!A:C,A39)</f>
@@ -11530,11 +13163,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f>COUNTIF(History!A33:C132,A39)</f>
+        <f>COUNTIF(History!A32:C131,A39)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>COUNTIF(History!A33:A132,A39)</f>
+        <f>COUNTIF(History!A32:A131,A39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="2" t="e">
@@ -11542,11 +13175,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="2">
-        <f>COUNTIF(History!A133:C232,A39)</f>
+        <f>COUNTIF(History!A132:C231,A39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>COUNTIF(History!A133:A232,A39)</f>
+        <f>COUNTIF(History!A132:A231,A39)</f>
         <v>0</v>
       </c>
       <c r="J39" s="2" t="e">
@@ -11554,11 +13187,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="2">
-        <f>COUNTIF(History!A223:C322,A39)</f>
+        <f>COUNTIF(History!A221:C320,A39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f>COUNTIF(History!A223:A322,A39)</f>
+        <f>COUNTIF(History!A221:A320,A39)</f>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="e">
@@ -11566,11 +13199,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="2">
-        <f>COUNTIF(History!A323:C399,A39)</f>
+        <f>COUNTIF(History!A321:C399,A39)</f>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f>COUNTIF(History!A323:A399,A39)</f>
+        <f>COUNTIF(History!A321:A399,A39)</f>
         <v>0</v>
       </c>
       <c r="P39" s="2" t="e">
@@ -11578,11 +13211,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="2">
-        <f>COUNTIF(History!A506:C522,A39)</f>
+        <f>COUNTIF(History!A506:C520,A39)</f>
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <f>COUNTIF(History!A506:A522,A39)</f>
+        <f>COUNTIF(History!A506:A520,A39)</f>
         <v>0</v>
       </c>
       <c r="S39" s="2" t="e">
@@ -11592,7 +13225,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B40" s="8">
         <f>COUNTIF(History!A:C,A40)</f>
@@ -11607,11 +13240,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f>COUNTIF(History!A34:C133,A40)</f>
+        <f>COUNTIF(History!A33:C132,A40)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>COUNTIF(History!A34:A133,A40)</f>
+        <f>COUNTIF(History!A33:A132,A40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="2" t="e">
@@ -11619,11 +13252,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="2">
-        <f>COUNTIF(History!A134:C233,A40)</f>
+        <f>COUNTIF(History!A133:C232,A40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>COUNTIF(History!A134:A233,A40)</f>
+        <f>COUNTIF(History!A133:A232,A40)</f>
         <v>0</v>
       </c>
       <c r="J40" s="2" t="e">
@@ -11631,11 +13264,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="2">
-        <f>COUNTIF(History!A232:C331,A40)</f>
+        <f>COUNTIF(History!A223:C322,A40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <f>COUNTIF(History!A232:A331,A40)</f>
+        <f>COUNTIF(History!A223:A322,A40)</f>
         <v>0</v>
       </c>
       <c r="M40" s="2" t="e">
@@ -11643,11 +13276,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="2">
-        <f>COUNTIF(History!A332:C399,A40)</f>
+        <f>COUNTIF(History!A323:C399,A40)</f>
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <f>COUNTIF(History!A332:A399,A40)</f>
+        <f>COUNTIF(History!A323:A399,A40)</f>
         <v>0</v>
       </c>
       <c r="P40" s="2" t="e">
@@ -11655,11 +13288,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="2">
-        <f>COUNTIF(History!A506:C531,A40)</f>
+        <f>COUNTIF(History!A506:C522,A40)</f>
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <f>COUNTIF(History!A506:A531,A40)</f>
+        <f>COUNTIF(History!A506:A522,A40)</f>
         <v>0</v>
       </c>
       <c r="S40" s="2" t="e">
@@ -11669,7 +13302,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B41" s="8">
         <f>COUNTIF(History!A:C,A41)</f>
@@ -11684,11 +13317,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="8">
-        <f>COUNTIF(History!A35:C134,A41)</f>
+        <f>COUNTIF(History!A34:C133,A41)</f>
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <f>COUNTIF(History!A35:A134,A41)</f>
+        <f>COUNTIF(History!A34:A133,A41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="2" t="e">
@@ -11696,11 +13329,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="2">
-        <f>COUNTIF(History!A135:C234,A41)</f>
+        <f>COUNTIF(History!A134:C233,A41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>COUNTIF(History!A135:A234,A41)</f>
+        <f>COUNTIF(History!A134:A233,A41)</f>
         <v>0</v>
       </c>
       <c r="J41" s="2" t="e">
@@ -11708,11 +13341,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="2">
-        <f>COUNTIF(History!A227:C326,A41)</f>
+        <f>COUNTIF(History!A232:C331,A41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>COUNTIF(History!A227:A326,A41)</f>
+        <f>COUNTIF(History!A232:A331,A41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="2" t="e">
@@ -11720,11 +13353,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="2">
-        <f>COUNTIF(History!A327:C399,A41)</f>
+        <f>COUNTIF(History!A332:C399,A41)</f>
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <f>COUNTIF(History!A327:A399,A41)</f>
+        <f>COUNTIF(History!A332:A399,A41)</f>
         <v>0</v>
       </c>
       <c r="P41" s="2" t="e">
@@ -11732,11 +13365,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="2">
-        <f>COUNTIF(History!A506:C526,A41)</f>
+        <f>COUNTIF(History!A506:C531,A41)</f>
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <f>COUNTIF(History!A506:A526,A41)</f>
+        <f>COUNTIF(History!A506:A531,A41)</f>
         <v>0</v>
       </c>
       <c r="S41" s="2" t="e">
@@ -11746,7 +13379,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B42" s="8">
         <f>COUNTIF(History!A:C,A42)</f>
@@ -11761,11 +13394,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="8">
-        <f>COUNTIF(History!A36:C135,A42)</f>
+        <f>COUNTIF(History!A35:C134,A42)</f>
         <v>0</v>
       </c>
       <c r="F42" s="8">
-        <f>COUNTIF(History!A36:A135,A42)</f>
+        <f>COUNTIF(History!A35:A134,A42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="2" t="e">
@@ -11773,11 +13406,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="2">
-        <f>COUNTIF(History!A136:C235,A42)</f>
+        <f>COUNTIF(History!A135:C234,A42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>COUNTIF(History!A136:A235,A42)</f>
+        <f>COUNTIF(History!A135:A234,A42)</f>
         <v>0</v>
       </c>
       <c r="J42" s="2" t="e">
@@ -11785,11 +13418,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="2">
-        <f>COUNTIF(History!A230:C329,A42)</f>
+        <f>COUNTIF(History!A227:C326,A42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>COUNTIF(History!A230:A329,A42)</f>
+        <f>COUNTIF(History!A227:A326,A42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="e">
@@ -11797,11 +13430,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="2">
-        <f>COUNTIF(History!A330:C399,A42)</f>
+        <f>COUNTIF(History!A327:C399,A42)</f>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f>COUNTIF(History!A330:A399,A42)</f>
+        <f>COUNTIF(History!A327:A399,A42)</f>
         <v>0</v>
       </c>
       <c r="P42" s="2" t="e">
@@ -11809,11 +13442,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="2">
-        <f>COUNTIF(History!A506:C529,A42)</f>
+        <f>COUNTIF(History!A506:C526,A42)</f>
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <f>COUNTIF(History!A506:A529,A42)</f>
+        <f>COUNTIF(History!A506:A526,A42)</f>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="e">
@@ -11823,7 +13456,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B43" s="8">
         <f>COUNTIF(History!A:C,A43)</f>
@@ -11838,11 +13471,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="8">
-        <f>COUNTIF(History!A37:C136,A43)</f>
+        <f>COUNTIF(History!A36:C135,A43)</f>
         <v>0</v>
       </c>
       <c r="F43" s="8">
-        <f>COUNTIF(History!A37:A136,A43)</f>
+        <f>COUNTIF(History!A36:A135,A43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="2" t="e">
@@ -11850,11 +13483,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="2">
-        <f>COUNTIF(History!A137:C236,A43)</f>
+        <f>COUNTIF(History!A136:C235,A43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>COUNTIF(History!A137:A236,A43)</f>
+        <f>COUNTIF(History!A136:A235,A43)</f>
         <v>0</v>
       </c>
       <c r="J43" s="2" t="e">
@@ -11862,11 +13495,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="2">
-        <f>COUNTIF(History!A234:C333,A43)</f>
+        <f>COUNTIF(History!A230:C329,A43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>COUNTIF(History!A234:A333,A43)</f>
+        <f>COUNTIF(History!A230:A329,A43)</f>
         <v>0</v>
       </c>
       <c r="M43" s="2" t="e">
@@ -11874,11 +13507,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="2">
-        <f>COUNTIF(History!A334:C399,A43)</f>
+        <f>COUNTIF(History!A330:C399,A43)</f>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f>COUNTIF(History!A334:A399,A43)</f>
+        <f>COUNTIF(History!A330:A399,A43)</f>
         <v>0</v>
       </c>
       <c r="P43" s="2" t="e">
@@ -11886,11 +13519,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="2">
-        <f>COUNTIF(History!A506:C533,A43)</f>
+        <f>COUNTIF(History!A506:C529,A43)</f>
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <f>COUNTIF(History!A506:A533,A43)</f>
+        <f>COUNTIF(History!A506:A529,A43)</f>
         <v>0</v>
       </c>
       <c r="S43" s="2" t="e">
@@ -11900,7 +13533,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(History!A:C,A44)</f>
@@ -11915,11 +13548,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E44" s="8">
-        <f>COUNTIF(History!A38:C137,A44)</f>
+        <f>COUNTIF(History!A37:C136,A44)</f>
         <v>0</v>
       </c>
       <c r="F44" s="8">
-        <f>COUNTIF(History!A38:A137,A44)</f>
+        <f>COUNTIF(History!A37:A136,A44)</f>
         <v>0</v>
       </c>
       <c r="G44" s="2" t="e">
@@ -11927,11 +13560,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="2">
-        <f>COUNTIF(History!A138:C237,A44)</f>
+        <f>COUNTIF(History!A137:C236,A44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>COUNTIF(History!A138:A237,A44)</f>
+        <f>COUNTIF(History!A137:A236,A44)</f>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="e">
@@ -11939,11 +13572,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="2">
-        <f>COUNTIF(History!A254:C353,A44)</f>
+        <f>COUNTIF(History!A234:C333,A44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>COUNTIF(History!A254:A353,A44)</f>
+        <f>COUNTIF(History!A234:A333,A44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="2" t="e">
@@ -11951,11 +13584,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="2">
-        <f>COUNTIF(History!A354:C399,A44)</f>
+        <f>COUNTIF(History!A334:C399,A44)</f>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>COUNTIF(History!A354:A399,A44)</f>
+        <f>COUNTIF(History!A334:A399,A44)</f>
         <v>0</v>
       </c>
       <c r="P44" s="2" t="e">
@@ -11963,11 +13596,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" s="2">
-        <f>COUNTIF(History!A506:C553,A44)</f>
+        <f>COUNTIF(History!A506:C533,A44)</f>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f>COUNTIF(History!A506:A553,A44)</f>
+        <f>COUNTIF(History!A506:A533,A44)</f>
         <v>0</v>
       </c>
       <c r="S44" s="2" t="e">
@@ -11977,7 +13610,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B45" s="8">
         <f>COUNTIF(History!A:C,A45)</f>
@@ -11992,11 +13625,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E45" s="8">
-        <f>COUNTIF(History!A39:C138,A45)</f>
+        <f>COUNTIF(History!A38:C137,A45)</f>
         <v>0</v>
       </c>
       <c r="F45" s="8">
-        <f>COUNTIF(History!A39:A138,A45)</f>
+        <f>COUNTIF(History!A38:A137,A45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="2" t="e">
@@ -12004,11 +13637,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="2">
-        <f>COUNTIF(History!A139:C238,A45)</f>
+        <f>COUNTIF(History!A138:C237,A45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>COUNTIF(History!A139:A238,A45)</f>
+        <f>COUNTIF(History!A138:A237,A45)</f>
         <v>0</v>
       </c>
       <c r="J45" s="2" t="e">
@@ -12016,11 +13649,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="2">
-        <f>COUNTIF(History!A226:C325,A45)</f>
+        <f>COUNTIF(History!A254:C353,A45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>COUNTIF(History!A226:A325,A45)</f>
+        <f>COUNTIF(History!A254:A353,A45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="2" t="e">
@@ -12028,11 +13661,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="2">
-        <f>COUNTIF(History!A326:C399,A45)</f>
+        <f>COUNTIF(History!A354:C399,A45)</f>
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <f>COUNTIF(History!A326:A399,A45)</f>
+        <f>COUNTIF(History!A354:A399,A45)</f>
         <v>0</v>
       </c>
       <c r="P45" s="2" t="e">
@@ -12040,11 +13673,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="2">
-        <f>COUNTIF(History!A506:C525,A45)</f>
+        <f>COUNTIF(History!A506:C553,A45)</f>
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <f>COUNTIF(History!A506:A525,A45)</f>
+        <f>COUNTIF(History!A506:A553,A45)</f>
         <v>0</v>
       </c>
       <c r="S45" s="2" t="e">
@@ -12054,7 +13687,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="B46" s="8">
         <f>COUNTIF(History!A:C,A46)</f>
@@ -12069,11 +13702,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="8">
-        <f>COUNTIF(History!A40:C139,A46)</f>
+        <f>COUNTIF(History!A39:C138,A46)</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>COUNTIF(History!A40:A139,A46)</f>
+        <f>COUNTIF(History!A39:A138,A46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="2" t="e">
@@ -12081,11 +13714,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="2">
-        <f>COUNTIF(History!A140:C239,A46)</f>
+        <f>COUNTIF(History!A139:C238,A46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>COUNTIF(History!A140:A239,A46)</f>
+        <f>COUNTIF(History!A139:A238,A46)</f>
         <v>0</v>
       </c>
       <c r="J46" s="2" t="e">
@@ -12093,11 +13726,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="2">
-        <f>COUNTIF(History!A233:C332,A46)</f>
+        <f>COUNTIF(History!A226:C325,A46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>COUNTIF(History!A233:A332,A46)</f>
+        <f>COUNTIF(History!A226:A325,A46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="2" t="e">
@@ -12105,11 +13738,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N46" s="2">
-        <f>COUNTIF(History!A333:C399,A46)</f>
+        <f>COUNTIF(History!A326:C399,A46)</f>
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <f>COUNTIF(History!A333:A399,A46)</f>
+        <f>COUNTIF(History!A326:A399,A46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="2" t="e">
@@ -12117,11 +13750,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="2">
-        <f>COUNTIF(History!A506:C532,A46)</f>
+        <f>COUNTIF(History!A506:C525,A46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <f>COUNTIF(History!A506:A532,A46)</f>
+        <f>COUNTIF(History!A506:A525,A46)</f>
         <v>0</v>
       </c>
       <c r="S46" s="2" t="e">
@@ -12131,7 +13764,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="B47" s="8">
         <f>COUNTIF(History!A:C,A47)</f>
@@ -12146,11 +13779,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="8">
-        <f>COUNTIF(History!A41:C140,A47)</f>
+        <f>COUNTIF(History!A40:C139,A47)</f>
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <f>COUNTIF(History!A41:A140,A47)</f>
+        <f>COUNTIF(History!A40:A139,A47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="2" t="e">
@@ -12158,11 +13791,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="2">
-        <f>COUNTIF(History!A141:C240,A47)</f>
+        <f>COUNTIF(History!A140:C239,A47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>COUNTIF(History!A141:A240,A47)</f>
+        <f>COUNTIF(History!A140:A239,A47)</f>
         <v>0</v>
       </c>
       <c r="J47" s="2" t="e">
@@ -12170,11 +13803,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="2">
-        <f>COUNTIF(History!A347:C399,A47)</f>
+        <f>COUNTIF(History!A233:C332,A47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <f>COUNTIF(History!A347:A399,A47)</f>
+        <f>COUNTIF(History!A233:A332,A47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="2" t="e">
@@ -12182,11 +13815,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N47" s="2">
-        <f>COUNTIF(History!A506:C546,A47)</f>
+        <f>COUNTIF(History!A333:C399,A47)</f>
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <f>COUNTIF(History!A506:A546,A47)</f>
+        <f>COUNTIF(History!A333:A399,A47)</f>
         <v>0</v>
       </c>
       <c r="P47" s="2" t="e">
@@ -12194,11 +13827,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="2">
-        <f>COUNTIF(History!A547:C646,A47)</f>
+        <f>COUNTIF(History!A506:C532,A47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <f>COUNTIF(History!A547:A646,A47)</f>
+        <f>COUNTIF(History!A506:A532,A47)</f>
         <v>0</v>
       </c>
       <c r="S47" s="2" t="e">
@@ -12208,7 +13841,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B48" s="8">
         <f>COUNTIF(History!A:C,A48)</f>
@@ -12223,11 +13856,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="8">
-        <f>COUNTIF(History!A44:C143,A48)</f>
+        <f>COUNTIF(History!A41:C140,A48)</f>
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <f>COUNTIF(History!A44:A143,A48)</f>
+        <f>COUNTIF(History!A41:A140,A48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="2" t="e">
@@ -12235,11 +13868,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="2">
-        <f>COUNTIF(History!A144:C243,A48)</f>
+        <f>COUNTIF(History!A141:C240,A48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>COUNTIF(History!A144:A243,A48)</f>
+        <f>COUNTIF(History!A141:A240,A48)</f>
         <v>0</v>
       </c>
       <c r="J48" s="2" t="e">
@@ -12247,11 +13880,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="2">
-        <f>COUNTIF(History!A237:C336,A48)</f>
+        <f>COUNTIF(History!A347:C399,A48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <f>COUNTIF(History!A237:A336,A48)</f>
+        <f>COUNTIF(History!A347:A399,A48)</f>
         <v>0</v>
       </c>
       <c r="M48" s="2" t="e">
@@ -12259,11 +13892,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N48" s="2">
-        <f>COUNTIF(History!A337:C399,A48)</f>
+        <f>COUNTIF(History!A506:C546,A48)</f>
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <f>COUNTIF(History!A337:A399,A48)</f>
+        <f>COUNTIF(History!A506:A546,A48)</f>
         <v>0</v>
       </c>
       <c r="P48" s="2" t="e">
@@ -12271,11 +13904,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="2">
-        <f>COUNTIF(History!A506:C536,A48)</f>
+        <f>COUNTIF(History!A547:C646,A48)</f>
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <f>COUNTIF(History!A506:A536,A48)</f>
+        <f>COUNTIF(History!A547:A646,A48)</f>
         <v>0</v>
       </c>
       <c r="S48" s="2" t="e">
@@ -12285,7 +13918,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(History!A:C,A49)</f>
@@ -12300,11 +13933,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="8">
-        <f>COUNTIF(History!A46:C145,A49)</f>
+        <f>COUNTIF(History!A44:C143,A49)</f>
         <v>0</v>
       </c>
       <c r="F49" s="8">
-        <f>COUNTIF(History!A46:A145,A49)</f>
+        <f>COUNTIF(History!A44:A143,A49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="2" t="e">
@@ -12312,11 +13945,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H49" s="2">
-        <f>COUNTIF(History!A146:C245,A49)</f>
+        <f>COUNTIF(History!A144:C243,A49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>COUNTIF(History!A146:A245,A49)</f>
+        <f>COUNTIF(History!A144:A243,A49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="2" t="e">
@@ -12324,11 +13957,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="2">
-        <f>COUNTIF(History!A276:C375,A49)</f>
+        <f>COUNTIF(History!A237:C336,A49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <f>COUNTIF(History!A276:A375,A49)</f>
+        <f>COUNTIF(History!A237:A336,A49)</f>
         <v>0</v>
       </c>
       <c r="M49" s="2" t="e">
@@ -12336,11 +13969,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N49" s="2">
-        <f>COUNTIF(History!A376:C399,A49)</f>
+        <f>COUNTIF(History!A337:C399,A49)</f>
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <f>COUNTIF(History!A376:A399,A49)</f>
+        <f>COUNTIF(History!A337:A399,A49)</f>
         <v>0</v>
       </c>
       <c r="P49" s="2" t="e">
@@ -12348,11 +13981,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="2">
-        <f>COUNTIF(History!A506:C575,A49)</f>
+        <f>COUNTIF(History!A506:C536,A49)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <f>COUNTIF(History!A506:A575,A49)</f>
+        <f>COUNTIF(History!A506:A536,A49)</f>
         <v>0</v>
       </c>
       <c r="S49" s="2" t="e">
@@ -12362,7 +13995,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B50" s="8">
         <f>COUNTIF(History!A:C,A50)</f>
@@ -12377,11 +14010,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="8">
-        <f>COUNTIF(History!A47:C146,A50)</f>
+        <f>COUNTIF(History!A46:C145,A50)</f>
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <f>COUNTIF(History!A47:A146,A50)</f>
+        <f>COUNTIF(History!A46:A145,A50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="2" t="e">
@@ -12389,11 +14022,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNTIF(History!A147:C246,A50)</f>
+        <f>COUNTIF(History!A146:C245,A50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNTIF(History!A147:A246,A50)</f>
+        <f>COUNTIF(History!A146:A245,A50)</f>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="e">
@@ -12401,11 +14034,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNTIF(History!A351:C399,A50)</f>
+        <f>COUNTIF(History!A276:C375,A50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNTIF(History!A351:A399,A50)</f>
+        <f>COUNTIF(History!A276:A375,A50)</f>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="e">
@@ -12413,11 +14046,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNTIF(History!A506:C550,A50)</f>
+        <f>COUNTIF(History!A376:C399,A50)</f>
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNTIF(History!A506:A550,A50)</f>
+        <f>COUNTIF(History!A376:A399,A50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="e">
@@ -12425,11 +14058,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q50" s="2">
-        <f>COUNTIF(History!A551:C650,A50)</f>
+        <f>COUNTIF(History!A506:C575,A50)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <f>COUNTIF(History!A551:A650,A50)</f>
+        <f>COUNTIF(History!A506:A575,A50)</f>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="e">
@@ -12439,7 +14072,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B51" s="8">
         <f>COUNTIF(History!A:C,A51)</f>
@@ -12454,11 +14087,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="8">
-        <f>COUNTIF(History!A48:C147,A51)</f>
+        <f>COUNTIF(History!A47:C146,A51)</f>
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <f>COUNTIF(History!A48:A147,A51)</f>
+        <f>COUNTIF(History!A47:A146,A51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="2" t="e">
@@ -12466,11 +14099,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H51" s="2">
-        <f>COUNTIF(History!A148:C247,A51)</f>
+        <f>COUNTIF(History!A147:C246,A51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>COUNTIF(History!A148:A247,A51)</f>
+        <f>COUNTIF(History!A147:A246,A51)</f>
         <v>0</v>
       </c>
       <c r="J51" s="2" t="e">
@@ -12478,11 +14111,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="2">
-        <f>COUNTIF(History!A246:C345,A51)</f>
+        <f>COUNTIF(History!A351:C399,A51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="2">
-        <f>COUNTIF(History!A246:A345,A51)</f>
+        <f>COUNTIF(History!A351:A399,A51)</f>
         <v>0</v>
       </c>
       <c r="M51" s="2" t="e">
@@ -12490,11 +14123,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N51" s="2">
-        <f>COUNTIF(History!A346:C399,A51)</f>
+        <f>COUNTIF(History!A506:C550,A51)</f>
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <f>COUNTIF(History!A346:A399,A51)</f>
+        <f>COUNTIF(History!A506:A550,A51)</f>
         <v>0</v>
       </c>
       <c r="P51" s="2" t="e">
@@ -12502,11 +14135,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q51" s="2">
-        <f>COUNTIF(History!A506:C545,A51)</f>
+        <f>COUNTIF(History!A551:C650,A51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="2">
-        <f>COUNTIF(History!A506:A545,A51)</f>
+        <f>COUNTIF(History!A551:A650,A51)</f>
         <v>0</v>
       </c>
       <c r="S51" s="2" t="e">
@@ -12516,7 +14149,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="B52" s="8">
         <f>COUNTIF(History!A:C,A52)</f>
@@ -12531,11 +14164,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="8">
-        <f>COUNTIF(History!A49:C148,A52)</f>
+        <f>COUNTIF(History!A48:C147,A52)</f>
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <f>COUNTIF(History!A49:A148,A52)</f>
+        <f>COUNTIF(History!A48:A147,A52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="2" t="e">
@@ -12543,11 +14176,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="2">
-        <f>COUNTIF(History!A149:C248,A52)</f>
+        <f>COUNTIF(History!A148:C247,A52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>COUNTIF(History!A149:A248,A52)</f>
+        <f>COUNTIF(History!A148:A247,A52)</f>
         <v>0</v>
       </c>
       <c r="J52" s="2" t="e">
@@ -12555,11 +14188,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="2">
-        <f>COUNTIF(History!A270:C369,A52)</f>
+        <f>COUNTIF(History!A246:C345,A52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f>COUNTIF(History!A270:A369,A52)</f>
+        <f>COUNTIF(History!A246:A345,A52)</f>
         <v>0</v>
       </c>
       <c r="M52" s="2" t="e">
@@ -12567,11 +14200,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="2">
-        <f>COUNTIF(History!A370:C399,A52)</f>
+        <f>COUNTIF(History!A346:C399,A52)</f>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f>COUNTIF(History!A370:A399,A52)</f>
+        <f>COUNTIF(History!A346:A399,A52)</f>
         <v>0</v>
       </c>
       <c r="P52" s="2" t="e">
@@ -12579,11 +14212,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q52" s="2">
-        <f>COUNTIF(History!A506:C569,A52)</f>
+        <f>COUNTIF(History!A506:C545,A52)</f>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f>COUNTIF(History!A506:A569,A52)</f>
+        <f>COUNTIF(History!A506:A545,A52)</f>
         <v>0</v>
       </c>
       <c r="S52" s="2" t="e">
@@ -12593,7 +14226,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="B53" s="8">
         <f>COUNTIF(History!A:C,A53)</f>
@@ -12608,11 +14241,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E53" s="8">
-        <f>COUNTIF(History!A50:C149,A53)</f>
+        <f>COUNTIF(History!A49:C148,A53)</f>
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <f>COUNTIF(History!A50:A149,A53)</f>
+        <f>COUNTIF(History!A49:A148,A53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="2" t="e">
@@ -12620,11 +14253,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H53" s="2">
-        <f>COUNTIF(History!A150:C249,A53)</f>
+        <f>COUNTIF(History!A149:C248,A53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>COUNTIF(History!A150:A249,A53)</f>
+        <f>COUNTIF(History!A149:A248,A53)</f>
         <v>0</v>
       </c>
       <c r="J53" s="2" t="e">
@@ -12632,35 +14265,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="2">
-        <f>COUNTIF(History!A304:C399,A53)</f>
+        <f>COUNTIF(History!A270:C369,A53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f>COUNTIF(History!A304:A399,A53)</f>
+        <f>COUNTIF(History!A270:A369,A53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="2" t="e">
         <f>L53*100/K53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N53" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A53)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O53" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A53)</f>
-        <v>#REF!</v>
+      <c r="N53" s="2">
+        <f>COUNTIF(History!A370:C399,A53)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <f>COUNTIF(History!A370:A399,A53)</f>
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="e">
         <f>O53*100/N53</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q53" s="2">
-        <f>COUNTIF(History!A506:C603,A53)</f>
+        <f>COUNTIF(History!A506:C569,A53)</f>
         <v>0</v>
       </c>
       <c r="R53" s="2">
-        <f>COUNTIF(History!A506:A603,A53)</f>
+        <f>COUNTIF(History!A506:A569,A53)</f>
         <v>0</v>
       </c>
       <c r="S53" s="2" t="e">
@@ -12670,7 +14303,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B54" s="8">
         <f>COUNTIF(History!A:C,A54)</f>
@@ -12685,11 +14318,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E54" s="8">
-        <f>COUNTIF(History!A51:C150,A54)</f>
+        <f>COUNTIF(History!A50:C149,A54)</f>
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <f>COUNTIF(History!A51:A150,A54)</f>
+        <f>COUNTIF(History!A50:A149,A54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="2" t="e">
@@ -12697,11 +14330,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H54" s="2">
-        <f>COUNTIF(History!A151:C250,A54)</f>
+        <f>COUNTIF(History!A150:C249,A54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>COUNTIF(History!A151:A250,A54)</f>
+        <f>COUNTIF(History!A150:A249,A54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="2" t="e">
@@ -12709,35 +14342,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="2">
-        <f>COUNTIF(History!A242:C341,A54)</f>
+        <f>COUNTIF(History!A304:C399,A54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <f>COUNTIF(History!A242:A341,A54)</f>
+        <f>COUNTIF(History!A304:A399,A54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="2" t="e">
         <f>L54*100/K54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N54" s="2">
-        <f>COUNTIF(History!A342:C399,A54)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <f>COUNTIF(History!A342:A399,A54)</f>
-        <v>0</v>
+      <c r="N54" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A54)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O54" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A54)</f>
+        <v>#REF!</v>
       </c>
       <c r="P54" s="2" t="e">
         <f>O54*100/N54</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="Q54" s="2">
-        <f>COUNTIF(History!A506:C541,A54)</f>
+        <f>COUNTIF(History!A506:C603,A54)</f>
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <f>COUNTIF(History!A506:A541,A54)</f>
+        <f>COUNTIF(History!A506:A603,A54)</f>
         <v>0</v>
       </c>
       <c r="S54" s="2" t="e">
@@ -12747,7 +14380,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B55" s="8">
         <f>COUNTIF(History!A:C,A55)</f>
@@ -12762,11 +14395,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E55" s="8">
-        <f>COUNTIF(History!A52:C151,A55)</f>
+        <f>COUNTIF(History!A51:C150,A55)</f>
         <v>0</v>
       </c>
       <c r="F55" s="8">
-        <f>COUNTIF(History!A52:A151,A55)</f>
+        <f>COUNTIF(History!A51:A150,A55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="2" t="e">
@@ -12774,11 +14407,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H55" s="2">
-        <f>COUNTIF(History!A152:C251,A55)</f>
+        <f>COUNTIF(History!A151:C250,A55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>COUNTIF(History!A152:A251,A55)</f>
+        <f>COUNTIF(History!A151:A250,A55)</f>
         <v>0</v>
       </c>
       <c r="J55" s="2" t="e">
@@ -12786,11 +14419,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="2">
-        <f>COUNTIF(History!A241:C340,A55)</f>
+        <f>COUNTIF(History!A242:C341,A55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f>COUNTIF(History!A241:A340,A55)</f>
+        <f>COUNTIF(History!A242:A341,A55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2" t="e">
@@ -12798,11 +14431,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N55" s="2">
-        <f>COUNTIF(History!A341:C399,A55)</f>
+        <f>COUNTIF(History!A342:C399,A55)</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f>COUNTIF(History!A341:A399,A55)</f>
+        <f>COUNTIF(History!A342:A399,A55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="2" t="e">
@@ -12810,11 +14443,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q55" s="2">
-        <f>COUNTIF(History!A506:C540,A55)</f>
+        <f>COUNTIF(History!A506:C541,A55)</f>
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <f>COUNTIF(History!A506:A540,A55)</f>
+        <f>COUNTIF(History!A506:A541,A55)</f>
         <v>0</v>
       </c>
       <c r="S55" s="2" t="e">
@@ -12824,7 +14457,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="B56" s="8">
         <f>COUNTIF(History!A:C,A56)</f>
@@ -12839,11 +14472,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E56" s="8">
-        <f>COUNTIF(History!A53:C152,A56)</f>
+        <f>COUNTIF(History!A52:C151,A56)</f>
         <v>0</v>
       </c>
       <c r="F56" s="8">
-        <f>COUNTIF(History!A53:A152,A56)</f>
+        <f>COUNTIF(History!A52:A151,A56)</f>
         <v>0</v>
       </c>
       <c r="G56" s="2" t="e">
@@ -12851,11 +14484,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H56" s="2">
-        <f>COUNTIF(History!A153:C252,A56)</f>
+        <f>COUNTIF(History!A152:C251,A56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>COUNTIF(History!A153:A252,A56)</f>
+        <f>COUNTIF(History!A152:A251,A56)</f>
         <v>0</v>
       </c>
       <c r="J56" s="2" t="e">
@@ -12863,11 +14496,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="2">
-        <f>COUNTIF(History!A243:C342,A56)</f>
+        <f>COUNTIF(History!A241:C340,A56)</f>
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <f>COUNTIF(History!A243:A342,A56)</f>
+        <f>COUNTIF(History!A241:A340,A56)</f>
         <v>0</v>
       </c>
       <c r="M56" s="2" t="e">
@@ -12875,11 +14508,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N56" s="2">
-        <f>COUNTIF(History!A343:C399,A56)</f>
+        <f>COUNTIF(History!A341:C399,A56)</f>
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f>COUNTIF(History!A343:A399,A56)</f>
+        <f>COUNTIF(History!A341:A399,A56)</f>
         <v>0</v>
       </c>
       <c r="P56" s="2" t="e">
@@ -12887,11 +14520,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q56" s="2">
-        <f>COUNTIF(History!A506:C542,A56)</f>
+        <f>COUNTIF(History!A506:C540,A56)</f>
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <f>COUNTIF(History!A506:A542,A56)</f>
+        <f>COUNTIF(History!A506:A540,A56)</f>
         <v>0</v>
       </c>
       <c r="S56" s="2" t="e">
@@ -12901,7 +14534,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="B57" s="8">
         <f>COUNTIF(History!A:C,A57)</f>
@@ -12916,11 +14549,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E57" s="8">
-        <f>COUNTIF(History!A54:C153,A57)</f>
+        <f>COUNTIF(History!A53:C152,A57)</f>
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <f>COUNTIF(History!A54:A153,A57)</f>
+        <f>COUNTIF(History!A53:A152,A57)</f>
         <v>0</v>
       </c>
       <c r="G57" s="2" t="e">
@@ -12928,11 +14561,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H57" s="2">
-        <f>COUNTIF(History!A154:C253,A57)</f>
+        <f>COUNTIF(History!A153:C252,A57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>COUNTIF(History!A154:A253,A57)</f>
+        <f>COUNTIF(History!A153:A252,A57)</f>
         <v>0</v>
       </c>
       <c r="J57" s="2" t="e">
@@ -12940,11 +14573,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="2">
-        <f>COUNTIF(History!A244:C343,A57)</f>
+        <f>COUNTIF(History!A243:C342,A57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f>COUNTIF(History!A244:A343,A57)</f>
+        <f>COUNTIF(History!A243:A342,A57)</f>
         <v>0</v>
       </c>
       <c r="M57" s="2" t="e">
@@ -12952,11 +14585,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N57" s="2">
-        <f>COUNTIF(History!A344:C399,A57)</f>
+        <f>COUNTIF(History!A343:C399,A57)</f>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f>COUNTIF(History!A344:A399,A57)</f>
+        <f>COUNTIF(History!A343:A399,A57)</f>
         <v>0</v>
       </c>
       <c r="P57" s="2" t="e">
@@ -12964,11 +14597,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q57" s="2">
-        <f>COUNTIF(History!A506:C543,A57)</f>
+        <f>COUNTIF(History!A506:C542,A57)</f>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f>COUNTIF(History!A506:A543,A57)</f>
+        <f>COUNTIF(History!A506:A542,A57)</f>
         <v>0</v>
       </c>
       <c r="S57" s="2" t="e">
@@ -12978,7 +14611,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B58" s="8">
         <f>COUNTIF(History!A:C,A58)</f>
@@ -12993,11 +14626,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E58" s="8">
-        <f>COUNTIF(History!A55:C154,A58)</f>
+        <f>COUNTIF(History!A54:C153,A58)</f>
         <v>0</v>
       </c>
       <c r="F58" s="8">
-        <f>COUNTIF(History!A55:A154,A58)</f>
+        <f>COUNTIF(History!A54:A153,A58)</f>
         <v>0</v>
       </c>
       <c r="G58" s="2" t="e">
@@ -13005,11 +14638,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H58" s="2">
-        <f>COUNTIF(History!A155:C254,A58)</f>
+        <f>COUNTIF(History!A154:C253,A58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>COUNTIF(History!A155:A254,A58)</f>
+        <f>COUNTIF(History!A154:A253,A58)</f>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="e">
@@ -13017,11 +14650,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="2">
-        <f>COUNTIF(History!A245:C344,A58)</f>
+        <f>COUNTIF(History!A244:C343,A58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="2">
-        <f>COUNTIF(History!A245:A344,A58)</f>
+        <f>COUNTIF(History!A244:A343,A58)</f>
         <v>0</v>
       </c>
       <c r="M58" s="2" t="e">
@@ -13029,11 +14662,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N58" s="2">
-        <f>COUNTIF(History!A345:C399,A58)</f>
+        <f>COUNTIF(History!A344:C399,A58)</f>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f>COUNTIF(History!A345:A399,A58)</f>
+        <f>COUNTIF(History!A344:A399,A58)</f>
         <v>0</v>
       </c>
       <c r="P58" s="2" t="e">
@@ -13041,11 +14674,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q58" s="2">
-        <f>COUNTIF(History!A506:C544,A58)</f>
+        <f>COUNTIF(History!A506:C543,A58)</f>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f>COUNTIF(History!A506:A544,A58)</f>
+        <f>COUNTIF(History!A506:A543,A58)</f>
         <v>0</v>
       </c>
       <c r="S58" s="2" t="e">
@@ -13055,7 +14688,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B59" s="8">
         <f>COUNTIF(History!A:C,A59)</f>
@@ -13070,11 +14703,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E59" s="8">
-        <f>COUNTIF(History!A56:C155,A59)</f>
+        <f>COUNTIF(History!A55:C154,A59)</f>
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <f>COUNTIF(History!A56:A155,A59)</f>
+        <f>COUNTIF(History!A55:A154,A59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="2" t="e">
@@ -13082,11 +14715,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="2">
-        <f>COUNTIF(History!A156:C255,A59)</f>
+        <f>COUNTIF(History!A155:C254,A59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>COUNTIF(History!A156:A255,A59)</f>
+        <f>COUNTIF(History!A155:A254,A59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="2" t="e">
@@ -13094,11 +14727,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="2">
-        <f>COUNTIF(History!A247:C346,A59)</f>
+        <f>COUNTIF(History!A245:C344,A59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <f>COUNTIF(History!A247:A346,A59)</f>
+        <f>COUNTIF(History!A245:A344,A59)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2" t="e">
@@ -13106,11 +14739,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N59" s="2">
-        <f>COUNTIF(History!A347:C399,A59)</f>
+        <f>COUNTIF(History!A345:C399,A59)</f>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f>COUNTIF(History!A347:A399,A59)</f>
+        <f>COUNTIF(History!A345:A399,A59)</f>
         <v>0</v>
       </c>
       <c r="P59" s="2" t="e">
@@ -13118,11 +14751,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q59" s="2">
-        <f>COUNTIF(History!A506:C546,A59)</f>
+        <f>COUNTIF(History!A506:C544,A59)</f>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f>COUNTIF(History!A506:A546,A59)</f>
+        <f>COUNTIF(History!A506:A544,A59)</f>
         <v>0</v>
       </c>
       <c r="S59" s="2" t="e">
@@ -13132,7 +14765,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B60" s="8">
         <f>COUNTIF(History!A:C,A60)</f>
@@ -13147,11 +14780,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E60" s="8">
-        <f>COUNTIF(History!A57:C156,A60)</f>
+        <f>COUNTIF(History!A56:C155,A60)</f>
         <v>0</v>
       </c>
       <c r="F60" s="8">
-        <f>COUNTIF(History!A57:A156,A60)</f>
+        <f>COUNTIF(History!A56:A155,A60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="2" t="e">
@@ -13159,11 +14792,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H60" s="2">
-        <f>COUNTIF(History!A157:C256,A60)</f>
+        <f>COUNTIF(History!A156:C255,A60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>COUNTIF(History!A157:A256,A60)</f>
+        <f>COUNTIF(History!A156:A255,A60)</f>
         <v>0</v>
       </c>
       <c r="J60" s="2" t="e">
@@ -13171,11 +14804,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="2">
-        <f>COUNTIF(History!A248:C347,A60)</f>
+        <f>COUNTIF(History!A247:C346,A60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f>COUNTIF(History!A248:A347,A60)</f>
+        <f>COUNTIF(History!A247:A346,A60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2" t="e">
@@ -13183,11 +14816,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N60" s="2">
-        <f>COUNTIF(History!A348:C399,A60)</f>
+        <f>COUNTIF(History!A347:C399,A60)</f>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f>COUNTIF(History!A348:A399,A60)</f>
+        <f>COUNTIF(History!A347:A399,A60)</f>
         <v>0</v>
       </c>
       <c r="P60" s="2" t="e">
@@ -13195,11 +14828,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q60" s="2">
-        <f>COUNTIF(History!A506:C547,A60)</f>
+        <f>COUNTIF(History!A506:C546,A60)</f>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f>COUNTIF(History!A506:A547,A60)</f>
+        <f>COUNTIF(History!A506:A546,A60)</f>
         <v>0</v>
       </c>
       <c r="S60" s="2" t="e">
@@ -13209,7 +14842,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" s="8">
         <f>COUNTIF(History!A:C,A61)</f>
@@ -13224,11 +14857,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E61" s="8">
-        <f>COUNTIF(History!A58:C157,A61)</f>
+        <f>COUNTIF(History!A57:C156,A61)</f>
         <v>0</v>
       </c>
       <c r="F61" s="8">
-        <f>COUNTIF(History!A58:A157,A61)</f>
+        <f>COUNTIF(History!A57:A156,A61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="2" t="e">
@@ -13236,11 +14869,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H61" s="2">
-        <f>COUNTIF(History!A158:C257,A61)</f>
+        <f>COUNTIF(History!A157:C256,A61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>COUNTIF(History!A158:A257,A61)</f>
+        <f>COUNTIF(History!A157:A256,A61)</f>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="e">
@@ -13248,11 +14881,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="2">
-        <f>COUNTIF(History!A249:C348,A61)</f>
+        <f>COUNTIF(History!A248:C347,A61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <f>COUNTIF(History!A249:A348,A61)</f>
+        <f>COUNTIF(History!A248:A347,A61)</f>
         <v>0</v>
       </c>
       <c r="M61" s="2" t="e">
@@ -13260,11 +14893,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N61" s="2">
-        <f>COUNTIF(History!A349:C399,A61)</f>
+        <f>COUNTIF(History!A348:C399,A61)</f>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f>COUNTIF(History!A349:A399,A61)</f>
+        <f>COUNTIF(History!A348:A399,A61)</f>
         <v>0</v>
       </c>
       <c r="P61" s="2" t="e">
@@ -13272,11 +14905,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q61" s="2">
-        <f>COUNTIF(History!A506:C548,A61)</f>
+        <f>COUNTIF(History!A506:C547,A61)</f>
         <v>0</v>
       </c>
       <c r="R61" s="2">
-        <f>COUNTIF(History!A506:A548,A61)</f>
+        <f>COUNTIF(History!A506:A547,A61)</f>
         <v>0</v>
       </c>
       <c r="S61" s="2" t="e">
@@ -13286,7 +14919,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B62" s="8">
         <f>COUNTIF(History!A:C,A62)</f>
@@ -13301,11 +14934,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E62" s="8">
-        <f>COUNTIF(History!A59:C158,A62)</f>
+        <f>COUNTIF(History!A58:C157,A62)</f>
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <f>COUNTIF(History!A59:A158,A62)</f>
+        <f>COUNTIF(History!A58:A157,A62)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2" t="e">
@@ -13313,11 +14946,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H62" s="2">
-        <f>COUNTIF(History!A159:C258,A62)</f>
+        <f>COUNTIF(History!A158:C257,A62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>COUNTIF(History!A159:A258,A62)</f>
+        <f>COUNTIF(History!A158:A257,A62)</f>
         <v>0</v>
       </c>
       <c r="J62" s="2" t="e">
@@ -13325,11 +14958,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="2">
-        <f>COUNTIF(History!A250:C349,A62)</f>
+        <f>COUNTIF(History!A249:C348,A62)</f>
         <v>0</v>
       </c>
       <c r="L62" s="2">
-        <f>COUNTIF(History!A250:A349,A62)</f>
+        <f>COUNTIF(History!A249:A348,A62)</f>
         <v>0</v>
       </c>
       <c r="M62" s="2" t="e">
@@ -13337,11 +14970,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N62" s="2">
-        <f>COUNTIF(History!A350:C399,A62)</f>
+        <f>COUNTIF(History!A349:C399,A62)</f>
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <f>COUNTIF(History!A350:A399,A62)</f>
+        <f>COUNTIF(History!A349:A399,A62)</f>
         <v>0</v>
       </c>
       <c r="P62" s="2" t="e">
@@ -13349,11 +14982,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q62" s="2">
-        <f>COUNTIF(History!A506:C549,A62)</f>
+        <f>COUNTIF(History!A506:C548,A62)</f>
         <v>0</v>
       </c>
       <c r="R62" s="2">
-        <f>COUNTIF(History!A506:A549,A62)</f>
+        <f>COUNTIF(History!A506:A548,A62)</f>
         <v>0</v>
       </c>
       <c r="S62" s="2" t="e">
@@ -13363,7 +14996,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="B63" s="8">
         <f>COUNTIF(History!A:C,A63)</f>
@@ -13378,11 +15011,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="8">
-        <f>COUNTIF(History!A60:C159,A63)</f>
+        <f>COUNTIF(History!A59:C158,A63)</f>
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <f>COUNTIF(History!A60:A159,A63)</f>
+        <f>COUNTIF(History!A59:A158,A63)</f>
         <v>0</v>
       </c>
       <c r="G63" s="2" t="e">
@@ -13390,11 +15023,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="2">
-        <f>COUNTIF(History!A160:C259,A63)</f>
+        <f>COUNTIF(History!A159:C258,A63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>COUNTIF(History!A160:A259,A63)</f>
+        <f>COUNTIF(History!A159:A258,A63)</f>
         <v>0</v>
       </c>
       <c r="J63" s="2" t="e">
@@ -13402,11 +15035,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="2">
-        <f>COUNTIF(History!A251:C350,A63)</f>
+        <f>COUNTIF(History!A250:C349,A63)</f>
         <v>0</v>
       </c>
       <c r="L63" s="2">
-        <f>COUNTIF(History!A251:A350,A63)</f>
+        <f>COUNTIF(History!A250:A349,A63)</f>
         <v>0</v>
       </c>
       <c r="M63" s="2" t="e">
@@ -13414,11 +15047,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N63" s="2">
-        <f>COUNTIF(History!A351:C399,A63)</f>
+        <f>COUNTIF(History!A350:C399,A63)</f>
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <f>COUNTIF(History!A351:A399,A63)</f>
+        <f>COUNTIF(History!A350:A399,A63)</f>
         <v>0</v>
       </c>
       <c r="P63" s="2" t="e">
@@ -13426,11 +15059,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q63" s="2">
-        <f>COUNTIF(History!A506:C550,A63)</f>
+        <f>COUNTIF(History!A506:C549,A63)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2">
-        <f>COUNTIF(History!A506:A550,A63)</f>
+        <f>COUNTIF(History!A506:A549,A63)</f>
         <v>0</v>
       </c>
       <c r="S63" s="2" t="e">
@@ -28890,7 +30523,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28909,139 +30542,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>melmetal:62</v>
+        <v>melmetal:69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>melmetal:62,dialga:58</v>
+        <v>melmetal:69,dialga:68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0,darkrai:0</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0,heatran:0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>melmetal:62,dialga:58,giratina_origin:39,kyogre:38,groudon:32,togekiss:29,mewtwo:17,dragonite:6,zekrom:5,rhyperior:5,giratina_altered:2,snorlax:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,machamp:0,heatran:0,darkrai:0,gardevoir:0</v>
+        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0,heatran:0,conkeldurr:0</v>
       </c>
     </row>
   </sheetData>
@@ -29071,133 +30704,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>melmetal:118</v>
+        <v>melmetal:144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>melmetal:118,dialga:255</v>
+        <v>melmetal:144,dialga:301</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4,heatran:2</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1,machamp:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>melmetal:118,dialga:255,giratina_origin:90,kyogre:79,groudon:79,togekiss:85,mewtwo:61,dragonite:21,zekrom:23,rhyperior:15,giratina_altered:16,snorlax:14,palkia:13,landorus_incarnate:5,metagross:12,garchomp:3,swampert:2,regice:1,pinsir:1,machamp:4,heatran:2,darkrai:1</v>
+        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1,machamp:4,heatran:3</v>
       </c>
     </row>
   </sheetData>
@@ -29211,7 +30844,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29227,133 +30860,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>melmetal:56</v>
+        <v>melmetal:75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>melmetal:56,dialga:197</v>
+        <v>melmetal:75,dialga:233</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4,heatran:2</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0,machamp:4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>melmetal:56,dialga:197,giratina_origin:51,kyogre:41,groudon:47,togekiss:56,mewtwo:44,dragonite:15,zekrom:18,rhyperior:10,giratina_altered:14,snorlax:12,palkia:11,landorus_incarnate:3,metagross:11,garchomp:2,swampert:1,regice:0,pinsir:0,machamp:4,heatran:2,darkrai:1</v>
+        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0,machamp:4,heatran:3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/Master - Season 02.xlsx
+++ b/src/main/resources/data/Master - Season 02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\workspace estudo\pokemonGoPvpAnalyzer\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300738F4-9F14-4ED3-B2A1-D5E3CB06D742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627BA94-D964-48E0-B6A8-FF35D155FEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="9600" windowHeight="15600" xr2:uid="{68075319-8292-4D77-A75F-91AD9F2E35E0}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="311">
   <si>
     <t>Lead</t>
   </si>
@@ -973,6 +973,9 @@
   <si>
     <t>Tyranitar</t>
   </si>
+  <si>
+    <t>Reshiram</t>
+  </si>
 </sst>
 </file>
 
@@ -1383,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CDF088-F31A-4ECE-9171-B65EB8013283}">
   <dimension ref="A1:E931"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F353" sqref="F353"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7543,22 +7546,43 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D365" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E365" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D366" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E366" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D367" s="9" t="s">
         <v>241</v>
       </c>
@@ -7567,6 +7591,15 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D368" s="9" t="s">
         <v>241</v>
       </c>
@@ -7574,15 +7607,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D369" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E369" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D370" s="9" t="s">
         <v>241</v>
       </c>
@@ -7590,15 +7641,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D371" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E371" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D372" s="9" t="s">
         <v>241</v>
       </c>
@@ -7606,7 +7675,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D373" s="9" t="s">
         <v>241</v>
       </c>
@@ -7614,7 +7692,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D374" s="9" t="s">
         <v>241</v>
       </c>
@@ -7622,7 +7709,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D375" s="9" t="s">
         <v>241</v>
       </c>
@@ -7630,7 +7726,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D376" s="9" t="s">
         <v>241</v>
       </c>
@@ -7638,7 +7743,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D377" s="9" t="s">
         <v>241</v>
       </c>
@@ -7646,7 +7760,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D378" s="9" t="s">
         <v>241</v>
       </c>
@@ -7654,23 +7777,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D379" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E379" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D380" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E380" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D381" s="9" t="s">
         <v>241</v>
       </c>
@@ -7678,23 +7828,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D382" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E382" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D383" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E383" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D384" s="9" t="s">
         <v>241</v>
       </c>
@@ -7702,15 +7879,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D385" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E385" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D386" s="9" t="s">
         <v>241</v>
       </c>
@@ -7718,7 +7913,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D387" s="9" t="s">
         <v>241</v>
       </c>
@@ -7726,15 +7930,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D388" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E388" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D389" s="9" t="s">
         <v>241</v>
       </c>
@@ -7742,47 +7964,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D390" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E390" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D391" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E391" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D392" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E392" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D393" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E393" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D394" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E394" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D395" s="9" t="s">
         <v>241</v>
       </c>
@@ -7790,7 +8066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D396" s="9" t="s">
         <v>241</v>
       </c>
@@ -7798,7 +8074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D397" s="9" t="s">
         <v>241</v>
       </c>
@@ -7806,7 +8082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D398" s="9" t="s">
         <v>241</v>
       </c>
@@ -7814,7 +8090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D399" s="9" t="s">
         <v>241</v>
       </c>
@@ -7822,7 +8098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D400" s="9" t="s">
         <v>241</v>
       </c>
@@ -10199,7 +10475,7 @@
           <x14:formula1>
             <xm:f>Totals!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 C194 A74:A140 A195:C205 C209 A207:C208 A209 A160:A194 C219 A219 C223 A220:C222 C245 A214:A216 C259 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 C313 B311:C312 C315 B314:C314 A303:A316 B303:B304 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A318:A338 B356:B357 B360 A353:B354 A365:A366 B362:B374 C339:C375 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 B161:C193 A210:C213 C214:C216 A217:C218 B224:C244 A223:A245 A246:C246 A247:B247 A248:C258 B301:C302 C303 B305:C309 A356:A363</xm:sqref>
+          <xm:sqref>A1 C206 A206 A141:B141 C478 A436:C477 A478 C543 B544:C544 C665 C19 A20:C20 A21 B35 A34:A36 B36:C36 A37:B37 C40 A38:C39 A40 A12:A19 B139:B140 C262 A262 B331:C338 A479:C480 A481:B481 A2:C5 C6:C7 A6:A10 C43 A41:C42 A43 C62 A44:C61 A62:A67 A69:A72 C74 B63:C73 B75:C84 C85 B85:B86 C89 B87:C88 C97 B90:C96 C106 B98:C105 B107:C110 B111 C111:C112 A25 C135 B113:C134 B136:C138 C139 C149 A142:C148 A149 C160 A150:C159 C194 A74:A140 A195:C205 C209 A207:C208 A209 A160:A194 C219 A219 C223 A220:C222 C245 A214:A216 C259 A260:C261 A259 A263:C268 A269:A274 C269:C274 B271:B273 C276 A275:C275 A276 A289 A277:C288 C289 A290:B290 A291:C293 A294:B294 A295:C298 C299:C300 A299:A301 C310 C313 B311:C312 C315 B314:C314 A303:A316 B303:B304 C319 B316:C318 B320:C322 B324 C323:C324 B326:C328 C329:C330 B330 A340:B340 B342:B346 A342:A348 A350:A351 B348:B351 A318:A338 B356:B357 B360 A353:B354 A365:A366 B362:B374 A356:A363 A369:A375 B392:B394 B376:B377 A378:A379 B379:B382 B384 B386:B388 C391:C395 C377:C389 B390 A383:A393 A395:A397 C400 B396:C399 A400:A408 A410:A412 A423:A435 B401:C420 A414:A421 C421:C435 B422 B426:B434 C507 A482:C506 A507:A508 A511:A512 A514 B508:C514 C519 B516:C518 C535 B520:C534 A516:A536 B541:C542 C540 B536:C539 A538:A540 B548:B553 C545:C554 A542:A548 A550 C581 B555:C580 C586 B582:C585 C596 B587:C595 C601 B597:C600 A553:A604 C619 B602:C618 C630 B620:C629 A606:A630 C636 B631:C635 A632:A637 B637:C646 C647:C648 A639:A649 B657:C664 C656 B649:C655 B682:C1048576 C675 B666:C674 C678 B676:C677 C681 B679:C680 A651:A1048576 B9:C13 C14 B16:C18 B14:B15 C23 A22:C22 A23 C25 A24:C24 A26:C33 B161:C193 A210:C213 C214:C216 A217:C218 B224:C244 A223:A245 A246:C246 A247:B247 A248:C258 B301:C302 C303 B305:C309 C339:C375</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10212,7 +10488,7 @@
   <dimension ref="A1:S345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,74 +10575,74 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="B2" s="8">
         <f>COUNTIF(History!A:C,A2)</f>
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="C2" s="8">
         <f>COUNTIF(History!A:A,A2)</f>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2">
         <f>C2*100/B2</f>
-        <v>47.916666666666664</v>
+        <v>24.074074074074073</v>
       </c>
       <c r="E2" s="8">
-        <f>COUNTIF(History!A6:C105,A2)</f>
-        <v>28</v>
+        <f>COUNTIF(History!A2:C101,A2)</f>
+        <v>79</v>
       </c>
       <c r="F2" s="8">
-        <f>COUNTIF(History!A6:A105,A2)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A2:A101,A2)</f>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <f>F2*100/E2</f>
-        <v>53.571428571428569</v>
+        <v>26.582278481012658</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNTIF(History!A105:C204,A2)</f>
-        <v>36</v>
+        <f>COUNTIF(History!A102:C201,A2)</f>
+        <v>82</v>
       </c>
       <c r="I2" s="2">
-        <f>COUNTIF(History!A105:A204,A2)</f>
-        <v>15</v>
+        <f>COUNTIF(History!A102:A201,A2)</f>
+        <v>17</v>
       </c>
       <c r="J2" s="2">
         <f>I2*100/H2</f>
-        <v>41.666666666666664</v>
+        <v>20.73170731707317</v>
       </c>
       <c r="K2" s="2">
-        <f>COUNTIF(History!A208:C307,A2)</f>
-        <v>54</v>
+        <f>COUNTIF(History!A207:C306,A2)</f>
+        <v>91</v>
       </c>
       <c r="L2" s="2">
-        <f>COUNTIF(History!A208:A307,A2)</f>
-        <v>30</v>
+        <f>COUNTIF(History!A207:A306,A2)</f>
+        <v>21</v>
       </c>
       <c r="M2" s="2">
         <f>L2*100/K2</f>
-        <v>55.555555555555557</v>
+        <v>23.076923076923077</v>
       </c>
       <c r="N2" s="2">
-        <f>COUNTIF(History!A308:C399,A2)</f>
-        <v>25</v>
+        <f>COUNTIF(History!A307:C399,A2)</f>
+        <v>68</v>
       </c>
       <c r="O2" s="2">
-        <f>COUNTIF(History!A308:A399,A2)</f>
-        <v>7</v>
+        <f>COUNTIF(History!A307:A399,A2)</f>
+        <v>19</v>
       </c>
       <c r="P2" s="2">
         <f>O2*100/N2</f>
-        <v>28</v>
+        <v>27.941176470588236</v>
       </c>
       <c r="Q2" s="2">
-        <f>COUNTIF(History!A506:C507,A2)</f>
+        <f>COUNTIF(History!A506:C506,A2)</f>
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f>COUNTIF(History!A506:A507,A2)</f>
+        <f>COUNTIF(History!A506:A506,A2)</f>
         <v>0</v>
       </c>
       <c r="S2" s="2" t="e">
@@ -10376,74 +10652,74 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8">
         <f>COUNTIF(History!A:C,A3)</f>
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="C3" s="8">
         <f>COUNTIF(History!A:A,A3)</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2">
         <f>C3*100/B3</f>
-        <v>22.591362126245848</v>
+        <v>49.342105263157897</v>
       </c>
       <c r="E3" s="8">
-        <f>COUNTIF(History!A2:C101,A3)</f>
-        <v>79</v>
+        <f>COUNTIF(History!A6:C105,A3)</f>
+        <v>28</v>
       </c>
       <c r="F3" s="8">
-        <f>COUNTIF(History!A2:A101,A3)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A6:A105,A3)</f>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <f>F3*100/E3</f>
-        <v>26.582278481012658</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF(History!A102:C201,A3)</f>
-        <v>82</v>
+        <f>COUNTIF(History!A105:C204,A3)</f>
+        <v>36</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF(History!A102:A201,A3)</f>
-        <v>17</v>
+        <f>COUNTIF(History!A105:A204,A3)</f>
+        <v>15</v>
       </c>
       <c r="J3" s="2">
         <f>I3*100/H3</f>
-        <v>20.73170731707317</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(History!A207:C306,A3)</f>
-        <v>91</v>
+        <f>COUNTIF(History!A208:C307,A3)</f>
+        <v>54</v>
       </c>
       <c r="L3" s="2">
-        <f>COUNTIF(History!A207:A306,A3)</f>
-        <v>21</v>
+        <f>COUNTIF(History!A208:A307,A3)</f>
+        <v>30</v>
       </c>
       <c r="M3" s="2">
         <f>L3*100/K3</f>
-        <v>23.076923076923077</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="N3" s="2">
-        <f>COUNTIF(History!A307:C399,A3)</f>
-        <v>45</v>
+        <f>COUNTIF(History!A308:C399,A3)</f>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <f>COUNTIF(History!A307:A399,A3)</f>
-        <v>9</v>
+        <f>COUNTIF(History!A308:A399,A3)</f>
+        <v>13</v>
       </c>
       <c r="P3" s="2">
         <f>O3*100/N3</f>
-        <v>20</v>
+        <v>39.393939393939391</v>
       </c>
       <c r="Q3" s="2">
-        <f>COUNTIF(History!A506:C506,A3)</f>
+        <f>COUNTIF(History!A506:C507,A3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>COUNTIF(History!A506:A506,A3)</f>
+        <f>COUNTIF(History!A506:A507,A3)</f>
         <v>0</v>
       </c>
       <c r="S3" s="2" t="e">
@@ -10457,15 +10733,15 @@
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(History!A:C,A4)</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C4" s="8">
         <f>COUNTIF(History!A:A,A4)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <f>C4*100/B4</f>
-        <v>48.623853211009177</v>
+        <v>47.826086956521742</v>
       </c>
       <c r="E4" s="8">
         <f>COUNTIF(History!A5:C104,A4)</f>
@@ -10505,15 +10781,15 @@
       </c>
       <c r="N4" s="2">
         <f>COUNTIF(History!A309:C399,A4)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2">
         <f>COUNTIF(History!A309:A399,A4)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <f>O4*100/N4</f>
-        <v>76.470588235294116</v>
+        <v>65.217391304347828</v>
       </c>
       <c r="Q4" s="2">
         <f>COUNTIF(History!A506:C508,A4)</f>
@@ -10530,221 +10806,221 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8">
         <f>COUNTIF(History!A:C,A5)</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(History!A:A,A5)</f>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <f>C5*100/B5</f>
-        <v>46.739130434782609</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E5" s="8">
-        <f>COUNTIF(History!A4:C103,A5)</f>
-        <v>31</v>
+        <f>COUNTIF(History!A3:C102,A5)</f>
+        <v>39</v>
       </c>
       <c r="F5" s="8">
-        <f>COUNTIF(History!A4:A103,A5)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A3:A102,A5)</f>
+        <v>16</v>
       </c>
       <c r="G5" s="2">
         <f>F5*100/E5</f>
-        <v>45.161290322580648</v>
+        <v>41.025641025641029</v>
       </c>
       <c r="H5" s="2">
-        <f>COUNTIF(History!A103:C202,A5)</f>
-        <v>29</v>
+        <f>COUNTIF(History!A104:C203,A5)</f>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
-        <f>COUNTIF(History!A103:A202,A5)</f>
-        <v>14</v>
+        <f>COUNTIF(History!A104:A203,A5)</f>
+        <v>8</v>
       </c>
       <c r="J5" s="2">
         <f>I5*100/H5</f>
-        <v>48.275862068965516</v>
+        <v>36.363636363636367</v>
       </c>
       <c r="K5" s="2">
-        <f>COUNTIF(History!A225:C324,A5)</f>
-        <v>18</v>
+        <f>COUNTIF(History!A206:C305,A5)</f>
+        <v>22</v>
       </c>
       <c r="L5" s="2">
-        <f>COUNTIF(History!A225:A324,A5)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A206:A305,A5)</f>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
         <f>L5*100/K5</f>
-        <v>61.111111111111114</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="N5" s="2">
-        <f>COUNTIF(History!A325:C399,A5)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A306:C399,A5)</f>
+        <v>23</v>
       </c>
       <c r="O5" s="2">
-        <f>COUNTIF(History!A325:A399,A5)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A306:A399,A5)</f>
+        <v>7</v>
       </c>
       <c r="P5" s="2">
         <f>O5*100/N5</f>
-        <v>37.5</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>COUNTIF(History!A506:C524,A5)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <f>COUNTIF(History!A506:A524,A5)</f>
-        <v>0</v>
+        <v>30.434782608695652</v>
+      </c>
+      <c r="Q5" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R5" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A5)</f>
+        <v>#REF!</v>
       </c>
       <c r="S5" s="2" t="e">
         <f>R5*100/Q5</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B6" s="8">
         <f>COUNTIF(History!A:C,A6)</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8">
         <f>COUNTIF(History!A:A,A6)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <f>C6*100/B6</f>
-        <v>42.708333333333336</v>
+        <v>42.307692307692307</v>
       </c>
       <c r="E6" s="8">
-        <f>COUNTIF(History!A8:C107,A6)</f>
-        <v>25</v>
+        <f>COUNTIF(History!A4:C103,A6)</f>
+        <v>31</v>
       </c>
       <c r="F6" s="8">
-        <f>COUNTIF(History!A8:A107,A6)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A4:A103,A6)</f>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <f>F6*100/E6</f>
-        <v>40</v>
+        <v>45.161290322580648</v>
       </c>
       <c r="H6" s="2">
-        <f>COUNTIF(History!A107:C206,A6)</f>
-        <v>30</v>
+        <f>COUNTIF(History!A103:C202,A6)</f>
+        <v>29</v>
       </c>
       <c r="I6" s="2">
-        <f>COUNTIF(History!A107:A206,A6)</f>
-        <v>13</v>
+        <f>COUNTIF(History!A103:A202,A6)</f>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <f>I6*100/H6</f>
-        <v>43.333333333333336</v>
+        <v>48.275862068965516</v>
       </c>
       <c r="K6" s="2">
-        <f>COUNTIF(History!A203:C302,A6)</f>
-        <v>23</v>
+        <f>COUNTIF(History!A225:C324,A6)</f>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
-        <f>COUNTIF(History!A203:A302,A6)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A225:A324,A6)</f>
+        <v>11</v>
       </c>
       <c r="M6" s="2">
         <f>L6*100/K6</f>
-        <v>34.782608695652172</v>
+        <v>61.111111111111114</v>
       </c>
       <c r="N6" s="2">
-        <f>COUNTIF(History!A303:C399,A6)</f>
-        <v>18</v>
+        <f>COUNTIF(History!A325:C399,A6)</f>
+        <v>20</v>
       </c>
       <c r="O6" s="2">
-        <f>COUNTIF(History!A303:A399,A6)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A325:A399,A6)</f>
+        <v>4</v>
       </c>
       <c r="P6" s="2">
         <f>O6*100/N6</f>
-        <v>55.555555555555557</v>
-      </c>
-      <c r="Q6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A6)</f>
-        <v>#REF!</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>COUNTIF(History!A506:C524,A6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <f>COUNTIF(History!A506:A524,A6)</f>
+        <v>0</v>
       </c>
       <c r="S6" s="2" t="e">
         <f>R6*100/Q6</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="B7" s="8">
         <f>COUNTIF(History!A:C,A7)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="8">
         <f>COUNTIF(History!A:A,A7)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
         <f>C7*100/B7</f>
-        <v>34.653465346534652</v>
+        <v>41.176470588235297</v>
       </c>
       <c r="E7" s="8">
-        <f>COUNTIF(History!A3:C102,A7)</f>
-        <v>39</v>
+        <f>COUNTIF(History!A8:C107,A7)</f>
+        <v>25</v>
       </c>
       <c r="F7" s="8">
-        <f>COUNTIF(History!A3:A102,A7)</f>
-        <v>16</v>
+        <f>COUNTIF(History!A8:A107,A7)</f>
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <f>F7*100/E7</f>
-        <v>41.025641025641029</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
-        <f>COUNTIF(History!A104:C203,A7)</f>
-        <v>22</v>
+        <f>COUNTIF(History!A107:C206,A7)</f>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
-        <f>COUNTIF(History!A104:A203,A7)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A107:A206,A7)</f>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <f>I7*100/H7</f>
-        <v>36.363636363636367</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K7" s="2">
-        <f>COUNTIF(History!A206:C305,A7)</f>
-        <v>22</v>
+        <f>COUNTIF(History!A203:C302,A7)</f>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
-        <f>COUNTIF(History!A206:A305,A7)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A203:A302,A7)</f>
+        <v>8</v>
       </c>
       <c r="M7" s="2">
         <f>L7*100/K7</f>
-        <v>22.727272727272727</v>
+        <v>34.782608695652172</v>
       </c>
       <c r="N7" s="2">
-        <f>COUNTIF(History!A306:C399,A7)</f>
-        <v>16</v>
+        <f>COUNTIF(History!A303:C399,A7)</f>
+        <v>24</v>
       </c>
       <c r="O7" s="2">
-        <f>COUNTIF(History!A306:A399,A7)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A303:A399,A7)</f>
+        <v>11</v>
       </c>
       <c r="P7" s="2">
         <f>O7*100/N7</f>
-        <v>37.5</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="Q7" s="2" t="e">
         <f>COUNTIF(History!#REF!,A7)</f>
@@ -10765,15 +11041,15 @@
       </c>
       <c r="B8" s="8">
         <f>COUNTIF(History!A:C,A8)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C8" s="8">
         <f>COUNTIF(History!A:A,A8)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <f>C8*100/B8</f>
-        <v>28.35820895522388</v>
+        <v>31.081081081081081</v>
       </c>
       <c r="E8" s="8">
         <f>COUNTIF(History!A7:C106,A8)</f>
@@ -10813,15 +11089,15 @@
       </c>
       <c r="N8" s="2">
         <f>COUNTIF(History!A305:C399,A8)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O8" s="2">
         <f>COUNTIF(History!A305:A399,A8)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P8" s="2">
         <f>O8*100/N8</f>
-        <v>33.333333333333336</v>
+        <v>46.153846153846153</v>
       </c>
       <c r="Q8" s="2" t="e">
         <f>COUNTIF(History!#REF!,A8)</f>
@@ -10838,156 +11114,156 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B9" s="8">
         <f>COUNTIF(History!A:C,A9)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8">
         <f>COUNTIF(History!A:A,A9)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <f>C9*100/B9</f>
-        <v>29.62962962962963</v>
+        <v>18.421052631578949</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(History!A16:C115,A9)</f>
+        <f>COUNTIF(History!A9:C108,A9)</f>
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <f>COUNTIF(History!A9:A108,A9)</f>
         <v>3</v>
-      </c>
-      <c r="F9" s="8">
-        <f>COUNTIF(History!A16:A115,A9)</f>
-        <v>1</v>
       </c>
       <c r="G9" s="2">
         <f>F9*100/E9</f>
-        <v>33.333333333333336</v>
+        <v>37.5</v>
       </c>
       <c r="H9" s="2">
-        <f>COUNTIF(History!A110:C209,A9)</f>
-        <v>10</v>
+        <f>COUNTIF(History!A109:C208,A9)</f>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
-        <f>COUNTIF(History!A110:A209,A9)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A109:A208,A9)</f>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <f>I9*100/H9</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f>COUNTIF(History!A213:C312,A9)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A204:C303,A9)</f>
+        <v>11</v>
       </c>
       <c r="L9" s="2">
-        <f>COUNTIF(History!A213:A312,A9)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A204:A303,A9)</f>
+        <v>2</v>
       </c>
       <c r="M9" s="2">
         <f>L9*100/K9</f>
-        <v>0</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="N9" s="2">
-        <f>COUNTIF(History!A313:C399,A9)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A304:C399,A9)</f>
+        <v>15</v>
       </c>
       <c r="O9" s="2">
-        <f>COUNTIF(History!A313:A399,A9)</f>
+        <f>COUNTIF(History!A304:A399,A9)</f>
         <v>2</v>
       </c>
       <c r="P9" s="2">
         <f>O9*100/N9</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>COUNTIF(History!A506:C512,A9)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <f>COUNTIF(History!A506:A512,A9)</f>
-        <v>0</v>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="Q9" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R9" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A9)</f>
+        <v>#REF!</v>
       </c>
       <c r="S9" s="2" t="e">
         <f>R9*100/Q9</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8">
         <f>COUNTIF(History!A:C,A10)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(History!A:A,A10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <f>C10*100/B10</f>
-        <v>20.689655172413794</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
-        <f>COUNTIF(History!A9:C108,A10)</f>
-        <v>8</v>
+        <f>COUNTIF(History!A16:C115,A10)</f>
+        <v>3</v>
       </c>
       <c r="F10" s="8">
-        <f>COUNTIF(History!A9:A108,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A16:A115,A10)</f>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <f>F10*100/E10</f>
-        <v>37.5</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="H10" s="2">
-        <f>COUNTIF(History!A109:C208,A10)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A110:C209,A10)</f>
+        <v>10</v>
       </c>
       <c r="I10" s="2">
-        <f>COUNTIF(History!A109:A208,A10)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A110:A209,A10)</f>
+        <v>5</v>
       </c>
       <c r="J10" s="2">
         <f>I10*100/H10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
-        <f>COUNTIF(History!A204:C303,A10)</f>
-        <v>11</v>
+        <f>COUNTIF(History!A213:C312,A10)</f>
+        <v>8</v>
       </c>
       <c r="L10" s="2">
-        <f>COUNTIF(History!A204:A303,A10)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A213:A312,A10)</f>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <f>L10*100/K10</f>
-        <v>18.181818181818183</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <f>COUNTIF(History!A304:C399,A10)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A313:C399,A10)</f>
+        <v>9</v>
       </c>
       <c r="O10" s="2">
-        <f>COUNTIF(History!A304:A399,A10)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A313:A399,A10)</f>
+        <v>3</v>
       </c>
       <c r="P10" s="2">
         <f>O10*100/N10</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="Q10" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A10)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R10" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A10)</f>
-        <v>#REF!</v>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>COUNTIF(History!A506:C512,A10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <f>COUNTIF(History!A506:A512,A10)</f>
+        <v>0</v>
       </c>
       <c r="S10" s="2" t="e">
         <f>R10*100/Q10</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -10996,7 +11272,7 @@
       </c>
       <c r="B11" s="8">
         <f>COUNTIF(History!A:C,A11)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <f>COUNTIF(History!A:A,A11)</f>
@@ -11004,7 +11280,7 @@
       </c>
       <c r="D11" s="2">
         <f>C11*100/B11</f>
-        <v>33.333333333333336</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8">
         <f>COUNTIF(History!A12:C111,A11)</f>
@@ -11044,7 +11320,7 @@
       </c>
       <c r="N11" s="2">
         <f>COUNTIF(History!A331:C399,A11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="2">
         <f>COUNTIF(History!A331:A399,A11)</f>
@@ -11052,7 +11328,7 @@
       </c>
       <c r="P11" s="2">
         <f>O11*100/N11</f>
-        <v>100</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q11" s="2">
         <f>COUNTIF(History!A506:C530,A11)</f>
@@ -11069,11 +11345,11 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8">
         <f>COUNTIF(History!A:C,A12)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8">
         <f>COUNTIF(History!A:A,A12)</f>
@@ -11081,144 +11357,144 @@
       </c>
       <c r="D12" s="2">
         <f>C12*100/B12</f>
-        <v>18.75</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="E12" s="8">
-        <f>COUNTIF(History!A13:C112,A12)</f>
+        <f>COUNTIF(History!A11:C110,A12)</f>
         <v>4</v>
       </c>
       <c r="F12" s="8">
-        <f>COUNTIF(History!A13:A112,A12)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A11:A110,A12)</f>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <f>F12*100/E12</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
-        <f>COUNTIF(History!A118:C217,A12)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A112:C211,A12)</f>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>COUNTIF(History!A118:A217,A12)</f>
+        <f>COUNTIF(History!A112:A211,A12)</f>
         <v>1</v>
       </c>
       <c r="J12" s="2">
         <f>I12*100/H12</f>
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
-        <f>COUNTIF(History!A229:C328,A12)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A202:C301,A12)</f>
+        <v>6</v>
       </c>
       <c r="L12" s="2">
-        <f>COUNTIF(History!A229:A328,A12)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A202:A301,A12)</f>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <f>L12*100/K12</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f>COUNTIF(History!A329:C399,A12)</f>
+        <f>COUNTIF(History!A302:C399,A12)</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <f>COUNTIF(History!A302:A399,A12)</f>
         <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <f>COUNTIF(History!A329:A399,A12)</f>
-        <v>0</v>
       </c>
       <c r="P12" s="2">
         <f>O12*100/N12</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>COUNTIF(History!A506:C528,A12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <f>COUNTIF(History!A506:A528,A12)</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R12" s="2" t="e">
+        <f>COUNTIF(History!#REF!,A12)</f>
+        <v>#REF!</v>
       </c>
       <c r="S12" s="2" t="e">
         <f>R12*100/Q12</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <f>COUNTIF(History!A:C,A13)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(History!A:A,A13)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <f>C13*100/B13</f>
-        <v>11.111111111111111</v>
+        <v>23.529411764705884</v>
       </c>
       <c r="E13" s="8">
-        <f>COUNTIF(History!A11:C110,A13)</f>
+        <f>COUNTIF(History!A13:C112,A13)</f>
         <v>4</v>
       </c>
       <c r="F13" s="8">
-        <f>COUNTIF(History!A11:A110,A13)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A13:A112,A13)</f>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <f>F13*100/E13</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f>COUNTIF(History!A112:C211,A13)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A118:C217,A13)</f>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
-        <f>COUNTIF(History!A112:A211,A13)</f>
+        <f>COUNTIF(History!A118:A217,A13)</f>
         <v>1</v>
       </c>
       <c r="J13" s="2">
         <f>I13*100/H13</f>
-        <v>20</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K13" s="2">
-        <f>COUNTIF(History!A202:C301,A13)</f>
-        <v>6</v>
+        <f>COUNTIF(History!A229:C328,A13)</f>
+        <v>5</v>
       </c>
       <c r="L13" s="2">
-        <f>COUNTIF(History!A202:A301,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A229:A328,A13)</f>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
         <f>L13*100/K13</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N13" s="2">
-        <f>COUNTIF(History!A302:C399,A13)</f>
-        <v>3</v>
+        <f>COUNTIF(History!A329:C399,A13)</f>
+        <v>2</v>
       </c>
       <c r="O13" s="2">
-        <f>COUNTIF(History!A302:A399,A13)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A329:A399,A13)</f>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <f>O13*100/N13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R13" s="2" t="e">
-        <f>COUNTIF(History!#REF!,A13)</f>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>COUNTIF(History!A506:C528,A13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>COUNTIF(History!A506:A528,A13)</f>
+        <v>0</v>
       </c>
       <c r="S13" s="2" t="e">
         <f>R13*100/Q13</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -11227,15 +11503,15 @@
       </c>
       <c r="B14" s="8">
         <f>COUNTIF(History!A:C,A14)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(History!A:A,A14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
         <f>C14*100/B14</f>
-        <v>13.333333333333334</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="E14" s="8">
         <f>COUNTIF(History!A15:C114,A14)</f>
@@ -11275,15 +11551,15 @@
       </c>
       <c r="N14" s="2">
         <f>COUNTIF(History!A310:C399,A14)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2">
         <f>COUNTIF(History!A310:A399,A14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
         <f>O14*100/N14</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="2">
         <f>COUNTIF(History!A506:C509,A14)</f>
@@ -11300,50 +11576,50 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="B15" s="8">
         <f>COUNTIF(History!A:C,A15)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(History!A:A,A15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <f>C15*100/B15</f>
-        <v>40</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E15" s="8">
-        <f>COUNTIF(History!A14:C113,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A10:C109,A15)</f>
+        <v>5</v>
       </c>
       <c r="F15" s="8">
-        <f>COUNTIF(History!A14:A113,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A10:A109,A15)</f>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f>F15*100/E15</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <f>COUNTIF(History!A111:C210,A15)</f>
+        <f>COUNTIF(History!A117:C216,A15)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <f>COUNTIF(History!A117:A216,A15)</f>
         <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <f>COUNTIF(History!A111:A210,A15)</f>
-        <v>0</v>
       </c>
       <c r="J15" s="2">
         <f>I15*100/H15</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K15" s="2">
-        <f>COUNTIF(History!A212:C311,A15)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A214:C313,A15)</f>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <f>COUNTIF(History!A212:A311,A15)</f>
+        <f>COUNTIF(History!A214:A313,A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="2">
@@ -11351,23 +11627,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f>COUNTIF(History!A312:C399,A15)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A314:C399,A15)</f>
+        <v>3</v>
       </c>
       <c r="O15" s="2">
-        <f>COUNTIF(History!A312:A399,A15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="e">
+        <f>COUNTIF(History!A314:A399,A15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <f>O15*100/N15</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f>COUNTIF(History!A506:C511,A15)</f>
+        <f>COUNTIF(History!A506:C513,A15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="2">
-        <f>COUNTIF(History!A506:A511,A15)</f>
+        <f>COUNTIF(History!A506:A513,A15)</f>
         <v>0</v>
       </c>
       <c r="S15" s="2" t="e">
@@ -11377,50 +11653,50 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="B16" s="8">
         <f>COUNTIF(History!A:C,A16)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(History!A:A,A16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2">
         <f>C16*100/B16</f>
-        <v>7.1428571428571432</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E16" s="8">
-        <f>COUNTIF(History!A10:C109,A16)</f>
-        <v>5</v>
+        <f>COUNTIF(History!A14:C113,A16)</f>
+        <v>2</v>
       </c>
       <c r="F16" s="8">
-        <f>COUNTIF(History!A10:A109,A16)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A14:A113,A16)</f>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f>F16*100/E16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2">
-        <f>COUNTIF(History!A117:C216,A16)</f>
-        <v>4</v>
+        <f>COUNTIF(History!A111:C210,A16)</f>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <f>COUNTIF(History!A117:A216,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A111:A210,A16)</f>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <f>I16*100/H16</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>COUNTIF(History!A214:C313,A16)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A212:C311,A16)</f>
+        <v>2</v>
       </c>
       <c r="L16" s="2">
-        <f>COUNTIF(History!A214:A313,A16)</f>
+        <f>COUNTIF(History!A212:A311,A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="2">
@@ -11428,11 +11704,11 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>COUNTIF(History!A314:C399,A16)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A312:C399,A16)</f>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
-        <f>COUNTIF(History!A314:A399,A16)</f>
+        <f>COUNTIF(History!A312:A399,A16)</f>
         <v>0</v>
       </c>
       <c r="P16" s="2">
@@ -11440,11 +11716,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f>COUNTIF(History!A506:C513,A16)</f>
+        <f>COUNTIF(History!A506:C511,A16)</f>
         <v>0</v>
       </c>
       <c r="R16" s="2">
-        <f>COUNTIF(History!A506:A513,A16)</f>
+        <f>COUNTIF(History!A506:A511,A16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="2" t="e">
@@ -11454,62 +11730,62 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B17" s="8">
         <f>COUNTIF(History!A:C,A17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(History!A:A,A17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <f>C17*100/B17</f>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="E17" s="8">
-        <f>COUNTIF(History!A18:C117,A17)</f>
+        <f>COUNTIF(History!A17:C116,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>COUNTIF(History!A17:A116,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="e">
+        <f>F17*100/E17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="2">
+        <f>COUNTIF(History!A119:C218,A17)</f>
         <v>2</v>
       </c>
-      <c r="F17" s="8">
-        <f>COUNTIF(History!A18:A117,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <f>F17*100/E17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <f>COUNTIF(History!A120:C219,A17)</f>
-        <v>0</v>
-      </c>
       <c r="I17" s="2">
-        <f>COUNTIF(History!A120:A219,A17)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="e">
+        <f>COUNTIF(History!A119:A218,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <f>I17*100/H17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>COUNTIF(History!A216:C315,A17)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A238:C337,A17)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <f>COUNTIF(History!A216:A315,A17)</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
+        <f>COUNTIF(History!A238:A337,A17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="e">
         <f>L17*100/K17</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N17" s="2">
-        <f>COUNTIF(History!A316:C399,A17)</f>
+        <f>COUNTIF(History!A338:C399,A17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <f>COUNTIF(History!A316:A399,A17)</f>
+        <f>COUNTIF(History!A338:A399,A17)</f>
         <v>0</v>
       </c>
       <c r="P17" s="2" t="e">
@@ -11517,11 +11793,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="2">
-        <f>COUNTIF(History!A506:C514,A17)</f>
+        <f>COUNTIF(History!A506:C537,A17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <f>COUNTIF(History!A506:A514,A17)</f>
+        <f>COUNTIF(History!A506:A537,A17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="2" t="e">
@@ -11531,11 +11807,11 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B18" s="8">
         <f>COUNTIF(History!A:C,A18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(History!A:A,A18)</f>
@@ -11543,50 +11819,50 @@
       </c>
       <c r="D18" s="2">
         <f>C18*100/B18</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E18" s="8">
-        <f>COUNTIF(History!A20:C119,A18)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:C117,A18)</f>
+        <v>2</v>
       </c>
       <c r="F18" s="8">
-        <f>COUNTIF(History!A20:A119,A18)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A18:A117,A18)</f>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
         <f>F18*100/E18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f>COUNTIF(History!A120:C219,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f>COUNTIF(History!A120:A219,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="e">
+        <f>I18*100/H18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="2">
+        <f>COUNTIF(History!A216:C315,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <f>COUNTIF(History!A216:A315,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <f>L18*100/K18</f>
         <v>100</v>
       </c>
-      <c r="H18" s="2">
-        <f>COUNTIF(History!A116:C215,A18)</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <f>COUNTIF(History!A116:A215,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <f>I18*100/H18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f>COUNTIF(History!A219:C318,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <f>COUNTIF(History!A219:A318,A18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="e">
-        <f>L18*100/K18</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="N18" s="2">
-        <f>COUNTIF(History!A319:C399,A18)</f>
+        <f>COUNTIF(History!A316:C399,A18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <f>COUNTIF(History!A319:A399,A18)</f>
+        <f>COUNTIF(History!A316:A399,A18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="2" t="e">
@@ -11594,11 +11870,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q18" s="2">
-        <f>COUNTIF(History!A506:C518,A18)</f>
+        <f>COUNTIF(History!A506:C514,A18)</f>
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <f>COUNTIF(History!A506:A518,A18)</f>
+        <f>COUNTIF(History!A506:A514,A18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="2" t="e">
@@ -11608,62 +11884,62 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="B19" s="8">
         <f>COUNTIF(History!A:C,A19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="8">
         <f>COUNTIF(History!A:A,A19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <f>C19*100/B19</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8">
-        <f>COUNTIF(History!A19:C118,A19)</f>
+        <f>COUNTIF(History!A45:C144,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f>COUNTIF(History!A45:A144,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="e">
+        <f>F19*100/E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="2">
+        <f>COUNTIF(History!A145:C244,A19)</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <f>COUNTIF(History!A145:A244,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f>I19*100/H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f>COUNTIF(History!A239:C338,A19)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <f>COUNTIF(History!A19:A118,A19)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <f>F19*100/E19</f>
-        <v>100</v>
-      </c>
-      <c r="H19" s="2">
-        <f>COUNTIF(History!A115:C214,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f>COUNTIF(History!A115:A214,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="e">
-        <f>I19*100/H19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="2">
-        <f>COUNTIF(History!A236:C335,A19)</f>
-        <v>0</v>
-      </c>
       <c r="L19" s="2">
-        <f>COUNTIF(History!A236:A335,A19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="e">
+        <f>COUNTIF(History!A239:A338,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <f>L19*100/K19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <f>COUNTIF(History!A336:C399,A19)</f>
+        <f>COUNTIF(History!A339:C399,A19)</f>
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <f>COUNTIF(History!A336:A399,A19)</f>
+        <f>COUNTIF(History!A339:A399,A19)</f>
         <v>0</v>
       </c>
       <c r="P19" s="2" t="e">
@@ -11671,11 +11947,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="2">
-        <f>COUNTIF(History!A506:C535,A19)</f>
+        <f>COUNTIF(History!A506:C538,A19)</f>
         <v>0</v>
       </c>
       <c r="R19" s="2">
-        <f>COUNTIF(History!A506:A535,A19)</f>
+        <f>COUNTIF(History!A506:A538,A19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="2" t="e">
@@ -11685,26 +11961,26 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8">
         <f>COUNTIF(History!A:C,A20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="8">
         <f>COUNTIF(History!A:A,A20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
         <f>C20*100/B20</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8">
-        <f>COUNTIF(History!A176:C275,A20)</f>
+        <f>COUNTIF(History!A42:C141,A20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>COUNTIF(History!A176:A275,A20)</f>
+        <f>COUNTIF(History!A42:A141,A20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="2" t="e">
@@ -11712,35 +11988,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="2">
-        <f>COUNTIF(History!A276:C375,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A142:C241,A20)</f>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f>COUNTIF(History!A276:A375,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="e">
+        <f>COUNTIF(History!A142:A241,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <f>I20*100/H20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f>COUNTIF(History!A376:C399,A20)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A240:C339,A20)</f>
+        <v>2</v>
       </c>
       <c r="L20" s="2">
-        <f>COUNTIF(History!A376:A399,A20)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="e">
+        <f>COUNTIF(History!A240:A339,A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <f>L20*100/K20</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f>COUNTIF(History!A506:C575,A20)</f>
+        <f>COUNTIF(History!A340:C399,A20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f>COUNTIF(History!A506:A575,A20)</f>
+        <f>COUNTIF(History!A340:A399,A20)</f>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="e">
@@ -11748,11 +12024,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="2">
-        <f>COUNTIF(History!A576:C675,A20)</f>
+        <f>COUNTIF(History!A506:C539,A20)</f>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f>COUNTIF(History!A576:A675,A20)</f>
+        <f>COUNTIF(History!A506:A539,A20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="2" t="e">
@@ -11762,38 +12038,38 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <f>COUNTIF(History!A:C,A21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <f>COUNTIF(History!A:A,A21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
         <f>C21*100/B21</f>
         <v>100</v>
       </c>
       <c r="E21" s="8">
-        <f>COUNTIF(History!A60:C159,A21)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A19:C118,A21)</f>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
-        <f>COUNTIF(History!A60:A159,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="e">
+        <f>COUNTIF(History!A19:A118,A21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <f>F21*100/E21</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2">
-        <f>COUNTIF(History!A160:C259,A21)</f>
+        <f>COUNTIF(History!A115:C214,A21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>COUNTIF(History!A160:A259,A21)</f>
+        <f>COUNTIF(History!A115:A214,A21)</f>
         <v>0</v>
       </c>
       <c r="J21" s="2" t="e">
@@ -11801,35 +12077,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="2">
-        <f>COUNTIF(History!A251:C350,A21)</f>
+        <f>COUNTIF(History!A236:C335,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <f>COUNTIF(History!A236:A335,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="e">
+        <f>L21*100/K21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="2">
+        <f>COUNTIF(History!A336:C399,A21)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="2">
-        <f>COUNTIF(History!A251:A350,A21)</f>
+      <c r="O21" s="2">
+        <f>COUNTIF(History!A336:A399,A21)</f>
         <v>1</v>
       </c>
-      <c r="M21" s="2">
-        <f>L21*100/K21</f>
+      <c r="P21" s="2">
+        <f>O21*100/N21</f>
         <v>100</v>
       </c>
-      <c r="N21" s="2">
-        <f>COUNTIF(History!A351:C399,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <f>COUNTIF(History!A351:A399,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="e">
-        <f>O21*100/N21</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Q21" s="2">
-        <f>COUNTIF(History!A506:C550,A21)</f>
+        <f>COUNTIF(History!A506:C535,A21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <f>COUNTIF(History!A506:A550,A21)</f>
+        <f>COUNTIF(History!A506:A535,A21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="2" t="e">
@@ -11839,38 +12115,38 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(History!A:C,A22)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8">
         <f>COUNTIF(History!A:A,A22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <f>C22*100/B22</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8">
-        <f>COUNTIF(History!A17:C116,A22)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A20:C119,A22)</f>
+        <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f>COUNTIF(History!A17:A116,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="e">
+        <f>COUNTIF(History!A20:A119,A22)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
         <f>F22*100/E22</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2">
-        <f>COUNTIF(History!A119:C218,A22)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A116:C215,A22)</f>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
-        <f>COUNTIF(History!A119:A218,A22)</f>
+        <f>COUNTIF(History!A116:A215,A22)</f>
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -11878,11 +12154,11 @@
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>COUNTIF(History!A238:C337,A22)</f>
+        <f>COUNTIF(History!A219:C318,A22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>COUNTIF(History!A238:A337,A22)</f>
+        <f>COUNTIF(History!A219:A318,A22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="e">
@@ -11890,11 +12166,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="2">
-        <f>COUNTIF(History!A338:C399,A22)</f>
+        <f>COUNTIF(History!A319:C399,A22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <f>COUNTIF(History!A338:A399,A22)</f>
+        <f>COUNTIF(History!A319:A399,A22)</f>
         <v>0</v>
       </c>
       <c r="P22" s="2" t="e">
@@ -11902,11 +12178,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="2">
-        <f>COUNTIF(History!A506:C537,A22)</f>
+        <f>COUNTIF(History!A506:C518,A22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <f>COUNTIF(History!A506:A537,A22)</f>
+        <f>COUNTIF(History!A506:A518,A22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="2" t="e">
@@ -11916,26 +12192,26 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="B23" s="8">
         <f>COUNTIF(History!A:C,A23)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="8">
         <f>COUNTIF(History!A:A,A23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <f>C23*100/B23</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="8">
-        <f>COUNTIF(History!A45:C144,A23)</f>
+        <f>COUNTIF(History!A176:C275,A23)</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>COUNTIF(History!A45:A144,A23)</f>
+        <f>COUNTIF(History!A176:A275,A23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="2" t="e">
@@ -11943,35 +12219,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="2">
-        <f>COUNTIF(History!A145:C244,A23)</f>
-        <v>2</v>
+        <f>COUNTIF(History!A276:C375,A23)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>COUNTIF(History!A145:A244,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
+        <f>COUNTIF(History!A276:A375,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="e">
         <f>I23*100/H23</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K23" s="2">
-        <f>COUNTIF(History!A239:C338,A23)</f>
-        <v>1</v>
+        <f>COUNTIF(History!A376:C399,A23)</f>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <f>COUNTIF(History!A239:A338,A23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+        <f>COUNTIF(History!A376:A399,A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="e">
         <f>L23*100/K23</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N23" s="2">
-        <f>COUNTIF(History!A339:C399,A23)</f>
+        <f>COUNTIF(History!A506:C575,A23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <f>COUNTIF(History!A339:A399,A23)</f>
+        <f>COUNTIF(History!A506:A575,A23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="2" t="e">
@@ -11979,11 +12255,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="2">
-        <f>COUNTIF(History!A506:C538,A23)</f>
+        <f>COUNTIF(History!A576:C675,A23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <f>COUNTIF(History!A506:A538,A23)</f>
+        <f>COUNTIF(History!A576:A675,A23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="2" t="e">
@@ -11993,26 +12269,26 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8">
         <f>COUNTIF(History!A:C,A24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8">
         <f>COUNTIF(History!A:A,A24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <f>C24*100/B24</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="8">
-        <f>COUNTIF(History!A42:C141,A24)</f>
+        <f>COUNTIF(History!A60:C159,A24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>COUNTIF(History!A42:A141,A24)</f>
+        <f>COUNTIF(History!A60:A159,A24)</f>
         <v>0</v>
       </c>
       <c r="G24" s="2" t="e">
@@ -12020,35 +12296,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="2">
-        <f>COUNTIF(History!A142:C241,A24)</f>
+        <f>COUNTIF(History!A160:C259,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f>COUNTIF(History!A160:A259,A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="e">
+        <f>I24*100/H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="2">
+        <f>COUNTIF(History!A251:C350,A24)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="2">
-        <f>COUNTIF(History!A142:A241,A24)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <f>I24*100/H24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f>COUNTIF(History!A240:C339,A24)</f>
-        <v>2</v>
-      </c>
       <c r="L24" s="2">
-        <f>COUNTIF(History!A240:A339,A24)</f>
-        <v>0</v>
+        <f>COUNTIF(History!A251:A350,A24)</f>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <f>L24*100/K24</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="2">
-        <f>COUNTIF(History!A340:C399,A24)</f>
+        <f>COUNTIF(History!A351:C399,A24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <f>COUNTIF(History!A340:A399,A24)</f>
+        <f>COUNTIF(History!A351:A399,A24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="2" t="e">
@@ -12056,11 +12332,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q24" s="2">
-        <f>COUNTIF(History!A506:C539,A24)</f>
+        <f>COUNTIF(History!A506:C550,A24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <f>COUNTIF(History!A506:A539,A24)</f>
+        <f>COUNTIF(History!A506:A550,A24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="2" t="e">
@@ -12459,15 +12735,15 @@
       </c>
       <c r="B30" s="8">
         <f>COUNTIF(History!A:C,A30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8">
         <f>COUNTIF(History!A:A,A30)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="e">
+      <c r="D30" s="2">
         <f>C30*100/B30</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E30" s="8">
         <f>COUNTIF(History!A23:C122,A30)</f>
@@ -12507,15 +12783,15 @@
       </c>
       <c r="N30" s="2">
         <f>COUNTIF(History!A311:C399,A30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
         <f>COUNTIF(History!A311:A399,A30)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="2" t="e">
+      <c r="P30" s="2">
         <f>O30*100/N30</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <f>COUNTIF(History!A506:C510,A30)</f>
@@ -30510,7 +30786,7 @@
   </sheetData>
   <autoFilter ref="A1:S345" xr:uid="{A3F9FFB7-199D-43C8-B38B-24AA8C91A8D9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S345">
-      <sortCondition descending="1" ref="C1:C345"/>
+      <sortCondition descending="1" ref="B1:B345"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -30523,7 +30799,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30542,139 +30818,139 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!C2)</f>
-        <v>melmetal:69</v>
+        <v>dialga:78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!C3,)</f>
-        <v>melmetal:69,dialga:68</v>
+        <v>dialga:78,melmetal:75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!C4,)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!C5)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!C6)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!C7,)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!C8,)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!C9)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!C10)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!C11)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!C12)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!C13)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!C14)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!C15)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!C16)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!C17)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!C18)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!C19)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!C20)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0,conkeldurr:0</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!C21)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0,conkeldurr:0,regice:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!C22)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0,conkeldurr:0,regice:2,swampert:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!C23)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0,heatran:0</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0,conkeldurr:0,regice:2,swampert:1,pinsir:1</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>CONCATENATE(A23, ",",Totals!A24, ":", Totals!C24)</f>
-        <v>melmetal:69,dialga:68,giratina_origin:53,kyogre:43,groudon:41,togekiss:35,mewtwo:19,dragonite:8,zekrom:6,rhyperior:6,snorlax:3,giratina_altered:2,palkia:2,landorus_incarnate:2,metagross:1,garchomp:1,swampert:1,regice:1,pinsir:1,tyranitar:1,machamp:0,heatran:0,conkeldurr:0</v>
+        <v>dialga:78,melmetal:75,giratina_origin:55,togekiss:36,kyogre:44,groudon:42,mewtwo:23,zekrom:7,dragonite:9,rhyperior:6,giratina_altered:3,snorlax:4,palkia:3,metagross:1,landorus_incarnate:2,machamp:0,garchomp:1,heatran:0,conkeldurr:0,regice:2,swampert:1,pinsir:1,tyranitar:1</v>
       </c>
     </row>
   </sheetData>
@@ -30688,7 +30964,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30704,133 +30980,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2)</f>
-        <v>melmetal:144</v>
+        <v>dialga:324</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3,)</f>
-        <v>melmetal:144,dialga:301</v>
+        <v>dialga:324,melmetal:152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3,heatran:3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3,heatran:3,conkeldurr:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3,heatran:3,conkeldurr:3,regice:2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1,machamp:4</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3,heatran:3,conkeldurr:3,regice:2,swampert:2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23,)</f>
-        <v>melmetal:144,dialga:301,giratina_origin:109,kyogre:92,groudon:96,togekiss:101,mewtwo:67,dragonite:27,zekrom:29,rhyperior:18,snorlax:16,giratina_altered:18,palkia:15,landorus_incarnate:5,metagross:14,garchomp:3,swampert:2,regice:1,pinsir:1,tyranitar:1,machamp:4,heatran:3</v>
+        <v>dialga:324,melmetal:152,giratina_origin:115,togekiss:108,kyogre:104,groudon:102,mewtwo:74,zekrom:38,dragonite:30,rhyperior:20,giratina_altered:19,snorlax:17,palkia:17,metagross:15,landorus_incarnate:6,machamp:4,garchomp:3,heatran:3,conkeldurr:3,regice:2,swampert:2,pinsir:1</v>
       </c>
     </row>
   </sheetData>
@@ -30860,133 +31136,133 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>CONCATENATE(Totals!A2, ":", Totals!B2-Totals!C2)</f>
-        <v>melmetal:75</v>
+        <v>dialga:246</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>CONCATENATE(A2, ",",Totals!A3, ":", Totals!B3-Totals!C3)</f>
-        <v>melmetal:75,dialga:233</v>
+        <v>dialga:246,melmetal:77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A3, ",",Totals!A4, ":", Totals!B4-Totals!C4)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>CONCATENATE(A4, ",",Totals!A5, ":", Totals!B5-Totals!C5)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A5, ",",Totals!A6, ":", Totals!B6-Totals!C6)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>CONCATENATE(A6, ",",Totals!A7, ":", Totals!B7-Totals!C7)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>CONCATENATE(A7, ",",Totals!A8, ":", Totals!B8-Totals!C8)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>CONCATENATE(A8, ",",Totals!A9, ":", Totals!B9-Totals!C9)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>CONCATENATE(A9, ",",Totals!A10, ":", Totals!B10-Totals!C10)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>CONCATENATE(A10, ",",Totals!A11, ":", Totals!B11-Totals!C11)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>CONCATENATE(A11, ",",Totals!A12, ":", Totals!B12-Totals!C12)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>CONCATENATE(A12, ",",Totals!A13, ":", Totals!B13-Totals!C13)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>CONCATENATE(A13, ",",Totals!A14, ":", Totals!B14-Totals!C14)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>CONCATENATE(A14, ",",Totals!A15, ":", Totals!B15-Totals!C15)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>CONCATENATE(A15, ",",Totals!A16, ":", Totals!B16-Totals!C16)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>CONCATENATE(A16, ",",Totals!A17, ":", Totals!B17-Totals!C17)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>CONCATENATE(A17, ",",Totals!A18, ":", Totals!B18-Totals!C18)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>CONCATENATE(A18, ",",Totals!A19, ":", Totals!B19-Totals!C19)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2,heatran:3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>CONCATENATE(A19, ",",Totals!A20, ":", Totals!B20-Totals!C20)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2,heatran:3,conkeldurr:3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>CONCATENATE(A20, ",",Totals!A21, ":", Totals!B21-Totals!C21)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2,heatran:3,conkeldurr:3,regice:0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>CONCATENATE(A21, ",",Totals!A22, ":", Totals!B22-Totals!C22)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0,machamp:4</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2,heatran:3,conkeldurr:3,regice:0,swampert:1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>CONCATENATE(A22, ",",Totals!A23, ":", Totals!B23-Totals!C23)</f>
-        <v>melmetal:75,dialga:233,giratina_origin:56,kyogre:49,groudon:55,togekiss:66,mewtwo:48,dragonite:19,zekrom:23,rhyperior:12,snorlax:13,giratina_altered:16,palkia:13,landorus_incarnate:3,metagross:13,garchomp:2,swampert:1,regice:0,pinsir:0,tyranitar:0,machamp:4,heatran:3</v>
+        <v>dialga:246,melmetal:77,giratina_origin:60,togekiss:72,kyogre:60,groudon:60,mewtwo:51,zekrom:31,dragonite:21,rhyperior:14,giratina_altered:16,snorlax:13,palkia:14,metagross:14,landorus_incarnate:4,machamp:4,garchomp:2,heatran:3,conkeldurr:3,regice:0,swampert:1,pinsir:0</v>
       </c>
     </row>
   </sheetData>
